--- a/0_1_Output_Data/3_QoQ_Forecast_Tables/naive_qoq_forecasts_AR2_50_9.xlsx
+++ b/0_1_Output_Data/3_QoQ_Forecast_Tables/naive_qoq_forecasts_AR2_50_9.xlsx
@@ -369,4616 +369,6250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DQ130"/>
+  <dimension ref="A1:FH173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:121">
+    <row r="1" spans="1:164">
       <c r="B1" s="1">
+        <v>30956</v>
+      </c>
+      <c r="C1" s="1">
+        <v>31048</v>
+      </c>
+      <c r="D1" s="1">
+        <v>31138</v>
+      </c>
+      <c r="E1" s="1">
+        <v>31229</v>
+      </c>
+      <c r="F1" s="1">
+        <v>31321</v>
+      </c>
+      <c r="G1" s="1">
+        <v>31413</v>
+      </c>
+      <c r="H1" s="1">
+        <v>31503</v>
+      </c>
+      <c r="I1" s="1">
+        <v>31594</v>
+      </c>
+      <c r="J1" s="1">
+        <v>31686</v>
+      </c>
+      <c r="K1" s="1">
+        <v>31778</v>
+      </c>
+      <c r="L1" s="1">
+        <v>31868</v>
+      </c>
+      <c r="M1" s="1">
+        <v>31959</v>
+      </c>
+      <c r="N1" s="1">
+        <v>32051</v>
+      </c>
+      <c r="O1" s="1">
+        <v>32143</v>
+      </c>
+      <c r="P1" s="1">
+        <v>32234</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>32325</v>
+      </c>
+      <c r="R1" s="1">
+        <v>32417</v>
+      </c>
+      <c r="S1" s="1">
+        <v>32509</v>
+      </c>
+      <c r="T1" s="1">
+        <v>32599</v>
+      </c>
+      <c r="U1" s="1">
+        <v>32690</v>
+      </c>
+      <c r="V1" s="1">
+        <v>32782</v>
+      </c>
+      <c r="W1" s="1">
+        <v>32874</v>
+      </c>
+      <c r="X1" s="1">
+        <v>32964</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>33055</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>33147</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>33239</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>33329</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>33420</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>33512</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>33604</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>33695</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>33786</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33878</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>33970</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>34060</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>34151</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>34243</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>34335</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>34425</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>34516</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>34608</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>34700</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>34790</v>
+      </c>
+      <c r="AS1" s="1">
         <v>34881</v>
       </c>
-      <c r="C1" s="1">
+      <c r="AT1" s="1">
         <v>34973</v>
       </c>
-      <c r="D1" s="1">
+      <c r="AU1" s="1">
         <v>35065</v>
       </c>
-      <c r="E1" s="1">
+      <c r="AV1" s="1">
         <v>35156</v>
       </c>
-      <c r="F1" s="1">
+      <c r="AW1" s="1">
         <v>35247</v>
       </c>
-      <c r="G1" s="1">
+      <c r="AX1" s="1">
         <v>35339</v>
       </c>
-      <c r="H1" s="1">
+      <c r="AY1" s="1">
         <v>35431</v>
       </c>
-      <c r="I1" s="1">
+      <c r="AZ1" s="1">
         <v>35521</v>
       </c>
-      <c r="J1" s="1">
+      <c r="BA1" s="1">
         <v>35612</v>
       </c>
-      <c r="K1" s="1">
+      <c r="BB1" s="1">
         <v>35704</v>
       </c>
-      <c r="L1" s="1">
+      <c r="BC1" s="1">
         <v>35796</v>
       </c>
-      <c r="M1" s="1">
+      <c r="BD1" s="1">
         <v>35886</v>
       </c>
-      <c r="N1" s="1">
+      <c r="BE1" s="1">
         <v>35977</v>
       </c>
-      <c r="O1" s="1">
+      <c r="BF1" s="1">
         <v>36069</v>
       </c>
-      <c r="P1" s="1">
+      <c r="BG1" s="1">
         <v>36161</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="BH1" s="1">
         <v>36251</v>
       </c>
-      <c r="R1" s="1">
+      <c r="BI1" s="1">
         <v>36342</v>
       </c>
-      <c r="S1" s="1">
+      <c r="BJ1" s="1">
         <v>36434</v>
       </c>
-      <c r="T1" s="1">
+      <c r="BK1" s="1">
         <v>36526</v>
       </c>
-      <c r="U1" s="1">
+      <c r="BL1" s="1">
         <v>36617</v>
       </c>
-      <c r="V1" s="1">
+      <c r="BM1" s="1">
         <v>36708</v>
       </c>
-      <c r="W1" s="1">
+      <c r="BN1" s="1">
         <v>36800</v>
       </c>
-      <c r="X1" s="1">
+      <c r="BO1" s="1">
         <v>36892</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="BP1" s="1">
         <v>36982</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="BQ1" s="1">
         <v>37073</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="BR1" s="1">
         <v>37165</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="BS1" s="1">
         <v>37257</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="BT1" s="1">
         <v>37347</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="BU1" s="1">
         <v>37438</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="BV1" s="1">
         <v>37530</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="BW1" s="1">
         <v>37622</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="BX1" s="1">
         <v>37712</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="BY1" s="1">
         <v>37803</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="BZ1" s="1">
         <v>37895</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="CA1" s="1">
         <v>37987</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="CB1" s="1">
         <v>38078</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="CC1" s="1">
         <v>38169</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="CD1" s="1">
         <v>38261</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="CE1" s="1">
         <v>38353</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="CF1" s="1">
         <v>38443</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="CG1" s="1">
         <v>38534</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="CH1" s="1">
         <v>38626</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="CI1" s="1">
         <v>38718</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="CJ1" s="1">
         <v>38808</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="CK1" s="1">
         <v>38899</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="CL1" s="1">
         <v>38991</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="CM1" s="1">
         <v>39083</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="CN1" s="1">
         <v>39173</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="CO1" s="1">
         <v>39264</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="CP1" s="1">
         <v>39356</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="CQ1" s="1">
         <v>39448</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="CR1" s="1">
         <v>39539</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="CS1" s="1">
         <v>39630</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="CT1" s="1">
         <v>39722</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="CU1" s="1">
         <v>39814</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="CV1" s="1">
         <v>39904</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="CW1" s="1">
         <v>39995</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="CX1" s="1">
         <v>40087</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="CY1" s="1">
         <v>40179</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="CZ1" s="1">
         <v>40269</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="DA1" s="1">
         <v>40360</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="DB1" s="1">
         <v>40452</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="DC1" s="1">
         <v>40544</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="DD1" s="1">
         <v>40634</v>
       </c>
-      <c r="BN1" s="1">
+      <c r="DE1" s="1">
         <v>40725</v>
       </c>
-      <c r="BO1" s="1">
+      <c r="DF1" s="1">
         <v>40817</v>
       </c>
-      <c r="BP1" s="1">
+      <c r="DG1" s="1">
         <v>40909</v>
       </c>
-      <c r="BQ1" s="1">
+      <c r="DH1" s="1">
         <v>41000</v>
       </c>
-      <c r="BR1" s="1">
+      <c r="DI1" s="1">
         <v>41091</v>
       </c>
-      <c r="BS1" s="1">
+      <c r="DJ1" s="1">
         <v>41183</v>
       </c>
-      <c r="BT1" s="1">
+      <c r="DK1" s="1">
         <v>41275</v>
       </c>
-      <c r="BU1" s="1">
+      <c r="DL1" s="1">
         <v>41365</v>
       </c>
-      <c r="BV1" s="1">
+      <c r="DM1" s="1">
         <v>41456</v>
       </c>
-      <c r="BW1" s="1">
+      <c r="DN1" s="1">
         <v>41548</v>
       </c>
-      <c r="BX1" s="1">
+      <c r="DO1" s="1">
         <v>41640</v>
       </c>
-      <c r="BY1" s="1">
+      <c r="DP1" s="1">
         <v>41730</v>
       </c>
-      <c r="BZ1" s="1">
+      <c r="DQ1" s="1">
         <v>41821</v>
       </c>
-      <c r="CA1" s="1">
+      <c r="DR1" s="1">
         <v>41913</v>
       </c>
-      <c r="CB1" s="1">
+      <c r="DS1" s="1">
         <v>42005</v>
       </c>
-      <c r="CC1" s="1">
+      <c r="DT1" s="1">
         <v>42095</v>
       </c>
-      <c r="CD1" s="1">
+      <c r="DU1" s="1">
         <v>42186</v>
       </c>
-      <c r="CE1" s="1">
+      <c r="DV1" s="1">
         <v>42278</v>
       </c>
-      <c r="CF1" s="1">
+      <c r="DW1" s="1">
         <v>42370</v>
       </c>
-      <c r="CG1" s="1">
+      <c r="DX1" s="1">
         <v>42461</v>
       </c>
-      <c r="CH1" s="1">
+      <c r="DY1" s="1">
         <v>42552</v>
       </c>
-      <c r="CI1" s="1">
+      <c r="DZ1" s="1">
         <v>42644</v>
       </c>
-      <c r="CJ1" s="1">
+      <c r="EA1" s="1">
         <v>42736</v>
       </c>
-      <c r="CK1" s="1">
+      <c r="EB1" s="1">
         <v>42826</v>
       </c>
-      <c r="CL1" s="1">
+      <c r="EC1" s="1">
         <v>42917</v>
       </c>
-      <c r="CM1" s="1">
+      <c r="ED1" s="1">
         <v>43009</v>
       </c>
-      <c r="CN1" s="1">
+      <c r="EE1" s="1">
         <v>43101</v>
       </c>
-      <c r="CO1" s="1">
+      <c r="EF1" s="1">
         <v>43191</v>
       </c>
-      <c r="CP1" s="1">
+      <c r="EG1" s="1">
         <v>43282</v>
       </c>
-      <c r="CQ1" s="1">
+      <c r="EH1" s="1">
         <v>43374</v>
       </c>
-      <c r="CR1" s="1">
+      <c r="EI1" s="1">
         <v>43466</v>
       </c>
-      <c r="CS1" s="1">
+      <c r="EJ1" s="1">
         <v>43556</v>
       </c>
-      <c r="CT1" s="1">
+      <c r="EK1" s="1">
         <v>43647</v>
       </c>
-      <c r="CU1" s="1">
+      <c r="EL1" s="1">
         <v>43739</v>
       </c>
-      <c r="CV1" s="1">
+      <c r="EM1" s="1">
         <v>43831</v>
       </c>
-      <c r="CW1" s="1">
+      <c r="EN1" s="1">
         <v>43922</v>
       </c>
-      <c r="CX1" s="1">
+      <c r="EO1" s="1">
         <v>44013</v>
       </c>
-      <c r="CY1" s="1">
+      <c r="EP1" s="1">
         <v>44105</v>
       </c>
-      <c r="CZ1" s="1">
+      <c r="EQ1" s="1">
         <v>44197</v>
       </c>
-      <c r="DA1" s="1">
+      <c r="ER1" s="1">
         <v>44287</v>
       </c>
-      <c r="DB1" s="1">
+      <c r="ES1" s="1">
         <v>44378</v>
       </c>
-      <c r="DC1" s="1">
+      <c r="ET1" s="1">
         <v>44470</v>
       </c>
-      <c r="DD1" s="1">
+      <c r="EU1" s="1">
         <v>44562</v>
       </c>
-      <c r="DE1" s="1">
+      <c r="EV1" s="1">
         <v>44652</v>
       </c>
-      <c r="DF1" s="1">
+      <c r="EW1" s="1">
         <v>44743</v>
       </c>
-      <c r="DG1" s="1">
+      <c r="EX1" s="1">
         <v>44835</v>
       </c>
-      <c r="DH1" s="1">
+      <c r="EY1" s="1">
         <v>44927</v>
       </c>
-      <c r="DI1" s="1">
+      <c r="EZ1" s="1">
         <v>45017</v>
       </c>
-      <c r="DJ1" s="1">
+      <c r="FA1" s="1">
         <v>45108</v>
       </c>
-      <c r="DK1" s="1">
+      <c r="FB1" s="1">
         <v>45200</v>
       </c>
-      <c r="DL1" s="1">
+      <c r="FC1" s="1">
         <v>45292</v>
       </c>
-      <c r="DM1" s="1">
+      <c r="FD1" s="1">
         <v>45383</v>
       </c>
-      <c r="DN1" s="1">
+      <c r="FE1" s="1">
         <v>45474</v>
       </c>
-      <c r="DO1" s="1">
+      <c r="FF1" s="1">
         <v>45566</v>
       </c>
-      <c r="DP1" s="1">
+      <c r="FG1" s="1">
         <v>45658</v>
       </c>
-      <c r="DQ1" s="1">
+      <c r="FH1" s="1">
         <v>45748</v>
       </c>
     </row>
-    <row r="2" spans="1:121">
+    <row r="2" spans="1:164">
       <c r="A2" s="1">
-        <v>34881</v>
+        <v>30956</v>
       </c>
       <c r="B2">
-        <v>0.6519042913709076</v>
-      </c>
-    </row>
-    <row r="3" spans="1:121">
+        <v>-0.005499308418130622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:164">
       <c r="A3" s="1">
-        <v>34973</v>
+        <v>31048</v>
       </c>
       <c r="B3">
-        <v>0.7087123454962511</v>
+        <v>1.033256178651778</v>
       </c>
       <c r="C3">
-        <v>0.8221434309807819</v>
-      </c>
-    </row>
-    <row r="4" spans="1:121">
+        <v>0.8789289879548039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:164">
       <c r="A4" s="1">
-        <v>35065</v>
+        <v>31138</v>
       </c>
       <c r="B4">
-        <v>0.7044725648594855</v>
+        <v>0.3866103764231442</v>
       </c>
       <c r="C4">
-        <v>0.6918039127851399</v>
+        <v>0.5673069725225532</v>
       </c>
       <c r="D4">
-        <v>0.8352663417225831</v>
-      </c>
-    </row>
-    <row r="5" spans="1:121">
+        <v>0.5361825865664056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:164">
       <c r="A5" s="1">
-        <v>35156</v>
+        <v>31229</v>
       </c>
       <c r="B5">
-        <v>0.704481216157559</v>
+        <v>0.6374968735387114</v>
       </c>
       <c r="C5">
-        <v>0.7108782865320243</v>
+        <v>0.5770784301509596</v>
       </c>
       <c r="D5">
-        <v>0.6716719657684272</v>
+        <v>0.4066911383973881</v>
       </c>
       <c r="E5">
-        <v>0.7498507945729943</v>
-      </c>
-    </row>
-    <row r="6" spans="1:121">
+        <v>0.3904848017880223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:164">
       <c r="A6" s="1">
-        <v>35247</v>
+        <v>31321</v>
       </c>
       <c r="B6">
-        <v>0.7045302728300943</v>
+        <v>0.4844154540235284</v>
       </c>
       <c r="C6">
-        <v>0.7081021982182329</v>
+        <v>0.5256782002395465</v>
       </c>
       <c r="D6">
-        <v>0.6793177887288687</v>
+        <v>0.4822292521563885</v>
       </c>
       <c r="E6">
-        <v>0.5988614389727719</v>
+        <v>0.5181312685518553</v>
       </c>
       <c r="F6">
-        <v>0.5526975035503667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:121">
+        <v>0.4946242816274943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:164">
       <c r="A7" s="1">
-        <v>35339</v>
+        <v>31413</v>
       </c>
       <c r="B7">
-        <v>0.7045222478349515</v>
+        <v>0.5449476960832986</v>
       </c>
       <c r="C7">
-        <v>0.708506032350797</v>
+        <v>0.5277774814778883</v>
       </c>
       <c r="D7">
-        <v>0.6802050398757901</v>
+        <v>0.4708909640071359</v>
       </c>
       <c r="E7">
-        <v>0.6533607918236107</v>
+        <v>0.4735677756270423</v>
       </c>
       <c r="F7">
-        <v>0.7566974936444597</v>
+        <v>0.5427552010638689</v>
       </c>
       <c r="G7">
-        <v>0.6908881373694733</v>
-      </c>
-    </row>
-    <row r="8" spans="1:121">
+        <v>0.5491850528583249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:164">
       <c r="A8" s="1">
-        <v>35431</v>
+        <v>31503</v>
       </c>
       <c r="B8">
-        <v>0.7045229599935282</v>
+        <v>0.508685210231397</v>
       </c>
       <c r="C8">
-        <v>0.708447289679846</v>
+        <v>0.5192946619414095</v>
       </c>
       <c r="D8">
-        <v>0.6799937728520026</v>
+        <v>0.4763200807767257</v>
       </c>
       <c r="E8">
-        <v>0.6416102328327332</v>
+        <v>0.4841159312568587</v>
       </c>
       <c r="F8">
-        <v>0.6865265928399077</v>
+        <v>0.5021330816462073</v>
       </c>
       <c r="G8">
-        <v>0.6725461099272431</v>
+        <v>0.5162849003692342</v>
       </c>
       <c r="H8">
-        <v>0.668199494479958</v>
-      </c>
-    </row>
-    <row r="9" spans="1:121">
+        <v>0.5293121931353004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:164">
       <c r="A9" s="1">
-        <v>35521</v>
+        <v>31594</v>
       </c>
       <c r="B9">
-        <v>0.704522940486878</v>
+        <v>0.5232762938324718</v>
       </c>
       <c r="C9">
-        <v>0.7084558344945237</v>
+        <v>0.5197212409095826</v>
       </c>
       <c r="D9">
-        <v>0.6800121267685972</v>
+        <v>0.4753702074874501</v>
       </c>
       <c r="E9">
-        <v>0.6448303239764736</v>
+        <v>0.4806880685155784</v>
       </c>
       <c r="F9">
-        <v>0.7047508021626102</v>
+        <v>0.5060770404758631</v>
       </c>
       <c r="G9">
-        <v>0.6690793368236454</v>
+        <v>0.5145928975453141</v>
       </c>
       <c r="H9">
-        <v>0.6331491000757054</v>
+        <v>0.44833979104251</v>
       </c>
       <c r="I9">
-        <v>0.6314323172727978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:121">
+        <v>0.443008507684882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:164">
       <c r="A10" s="1">
-        <v>35612</v>
+        <v>31686</v>
       </c>
       <c r="B10">
-        <v>0.7045229351622124</v>
+        <v>0.5146811525123549</v>
       </c>
       <c r="C10">
-        <v>0.7084545915508338</v>
+        <v>0.5183205171106894</v>
       </c>
       <c r="D10">
-        <v>0.6800121156349084</v>
+        <v>0.4757652988486262</v>
       </c>
       <c r="E10">
-        <v>0.6440475231688841</v>
+        <v>0.4815467762353939</v>
       </c>
       <c r="F10">
-        <v>0.6991457600281159</v>
+        <v>0.5039721005076508</v>
       </c>
       <c r="G10">
-        <v>0.6685631529703092</v>
+        <v>0.5129907913710839</v>
       </c>
       <c r="H10">
-        <v>0.639123700870082</v>
+        <v>0.4858358235395253</v>
       </c>
       <c r="I10">
-        <v>0.6457242482557826</v>
+        <v>0.529074405860928</v>
       </c>
       <c r="J10">
-        <v>0.6097289993300754</v>
-      </c>
-    </row>
-    <row r="11" spans="1:121">
+        <v>0.5284107584911317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:164">
       <c r="A11" s="1">
-        <v>35704</v>
+        <v>31778</v>
       </c>
       <c r="B11">
-        <v>0.7045229362542107</v>
+        <v>0.5181953012059108</v>
       </c>
       <c r="C11">
-        <v>0.7084547723515915</v>
+        <v>0.518404116865154</v>
       </c>
       <c r="D11">
-        <v>0.6800119005820338</v>
+        <v>0.4756878855710159</v>
       </c>
       <c r="E11">
-        <v>0.6442491950589521</v>
+        <v>0.4812806957535599</v>
       </c>
       <c r="F11">
-        <v>0.7006993250913176</v>
+        <v>0.5042459210856413</v>
       </c>
       <c r="G11">
-        <v>0.6684613257642037</v>
+        <v>0.5129677221426748</v>
       </c>
       <c r="H11">
-        <v>0.6385689427723894</v>
+        <v>0.4818027325601186</v>
       </c>
       <c r="I11">
-        <v>0.6567774807125504</v>
+        <v>0.5042032662630508</v>
       </c>
       <c r="J11">
-        <v>0.6792800134461064</v>
+        <v>0.5288940404073269</v>
       </c>
       <c r="K11">
-        <v>0.6643825380110275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:121">
+        <v>0.5377635978227503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:164">
       <c r="A12" s="1">
-        <v>35796</v>
+        <v>31868</v>
       </c>
       <c r="C12">
-        <v>0.7084547460519979</v>
+        <v>0.5181726970593468</v>
       </c>
       <c r="D12">
-        <v>0.6800119300531833</v>
+        <v>0.4757169375483731</v>
       </c>
       <c r="E12">
-        <v>0.6441987023861115</v>
+        <v>0.4813499420612743</v>
       </c>
       <c r="F12">
-        <v>0.7002406265845058</v>
+        <v>0.504134046903847</v>
       </c>
       <c r="G12">
-        <v>0.6684469300428972</v>
+        <v>0.5128873830616353</v>
       </c>
       <c r="H12">
-        <v>0.6386396805872977</v>
+        <v>0.4831331628791353</v>
       </c>
       <c r="I12">
-        <v>0.6571977291394175</v>
+        <v>0.5079201050176015</v>
       </c>
       <c r="J12">
-        <v>0.6463369397048778</v>
+        <v>0.5235307957665859</v>
       </c>
       <c r="K12">
-        <v>0.6486347667432999</v>
+        <v>0.5724416703865876</v>
       </c>
       <c r="L12">
-        <v>0.6494056181566756</v>
-      </c>
-    </row>
-    <row r="13" spans="1:121">
+        <v>1.018271641401346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:164">
       <c r="A13" s="1">
-        <v>35886</v>
+        <v>31959</v>
       </c>
       <c r="D13">
-        <v>0.6800119285699918</v>
+        <v>0.4757107424455198</v>
       </c>
       <c r="E13">
-        <v>0.6442115220164177</v>
+        <v>0.4813291564211631</v>
       </c>
       <c r="F13">
-        <v>0.7003709183118367</v>
+        <v>0.5041516755810403</v>
       </c>
       <c r="G13">
-        <v>0.6684439156544569</v>
+        <v>0.5128893589698932</v>
       </c>
       <c r="H13">
-        <v>0.6386321244150749</v>
+        <v>0.4829539289866239</v>
       </c>
       <c r="I13">
-        <v>0.6578534721957741</v>
+        <v>0.5070233474830084</v>
       </c>
       <c r="J13">
-        <v>0.6528862381647321</v>
+        <v>0.5238324289902599</v>
       </c>
       <c r="K13">
-        <v>0.6384138465044882</v>
+        <v>0.5666281720906118</v>
       </c>
       <c r="L13">
-        <v>0.5913420395728533</v>
+        <v>0.5433199261126862</v>
       </c>
       <c r="M13">
-        <v>0.6079450418608099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:121">
+        <v>0.3918663677408029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:164">
       <c r="A14" s="1">
-        <v>35977</v>
+        <v>32051</v>
       </c>
       <c r="E14">
-        <v>0.6442082894415815</v>
+        <v>0.4813347063355044</v>
       </c>
       <c r="F14">
-        <v>0.7003330260323886</v>
+        <v>0.5041456056019958</v>
       </c>
       <c r="G14">
-        <v>0.66844351952918</v>
+        <v>0.5128852076282706</v>
       </c>
       <c r="H14">
-        <v>0.6386330127000691</v>
+        <v>0.483002591223771</v>
       </c>
       <c r="I14">
-        <v>0.6578523725264895</v>
+        <v>0.50717480183337</v>
       </c>
       <c r="J14">
-        <v>0.6501451218481281</v>
+        <v>0.5236796282763446</v>
       </c>
       <c r="K14">
-        <v>0.6374228409239431</v>
+        <v>0.5673049910254923</v>
       </c>
       <c r="L14">
-        <v>0.6323008444501399</v>
+        <v>0.5198135105367586</v>
       </c>
       <c r="M14">
-        <v>0.7035669213203807</v>
+        <v>0.4730558366084818</v>
       </c>
       <c r="N14">
-        <v>0.7713486720401505</v>
-      </c>
-    </row>
-    <row r="15" spans="1:121">
+        <v>0.3652438424865064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:164">
       <c r="A15" s="1">
-        <v>36069</v>
+        <v>32143</v>
       </c>
       <c r="F15">
-        <v>0.7003438883485834</v>
+        <v>0.504146694865255</v>
       </c>
       <c r="G15">
-        <v>0.6684434293733015</v>
+        <v>0.5128854703752386</v>
       </c>
       <c r="H15">
-        <v>0.6386329136446841</v>
+        <v>0.4829950475649034</v>
       </c>
       <c r="I15">
-        <v>0.6578923342616032</v>
+        <v>0.5071415771000155</v>
       </c>
       <c r="J15">
-        <v>0.6507474473349412</v>
+        <v>0.5236955498821934</v>
       </c>
       <c r="K15">
-        <v>0.6365192610847639</v>
+        <v>0.5672132443633399</v>
       </c>
       <c r="L15">
-        <v>0.6247130012537965</v>
+        <v>0.5371947861633838</v>
       </c>
       <c r="M15">
-        <v>0.6562510330776472</v>
+        <v>0.618841536345857</v>
       </c>
       <c r="N15">
-        <v>0.5617264189641697</v>
+        <v>0.6191916973210994</v>
       </c>
       <c r="O15">
-        <v>0.5344529819784065</v>
-      </c>
-    </row>
-    <row r="16" spans="1:121">
+        <v>0.3060940548046971</v>
+      </c>
+    </row>
+    <row r="16" spans="1:164">
       <c r="A16" s="1">
-        <v>36161</v>
+        <v>32234</v>
       </c>
       <c r="G16">
-        <v>0.6684434186942714</v>
+        <v>0.512885249573742</v>
       </c>
       <c r="H16">
-        <v>0.6386329250134963</v>
+        <v>0.4829968672621258</v>
       </c>
       <c r="I16">
-        <v>0.6578906413254042</v>
+        <v>0.5071475791228631</v>
       </c>
       <c r="J16">
-        <v>0.650517078041326</v>
+        <v>0.5236908012149033</v>
       </c>
       <c r="K16">
-        <v>0.6364689120332204</v>
+        <v>0.5672248701567847</v>
       </c>
       <c r="L16">
-        <v>0.6292979838960776</v>
+        <v>0.5350366658070239</v>
       </c>
       <c r="M16">
-        <v>0.6702439403263071</v>
+        <v>0.5712914818940511</v>
       </c>
       <c r="N16">
-        <v>0.6611292138420526</v>
+        <v>0.5878453597089126</v>
       </c>
       <c r="O16">
-        <v>0.6736197874637944</v>
+        <v>0.6087741406063729</v>
       </c>
       <c r="P16">
-        <v>0.706556866727216</v>
+        <v>0.9316344081172926</v>
       </c>
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="1">
-        <v>36251</v>
+        <v>32325</v>
       </c>
       <c r="H17">
-        <v>0.6386329237291362</v>
+        <v>0.4829965589666322</v>
       </c>
       <c r="I17">
-        <v>0.6578931427962682</v>
+        <v>0.5071463281896678</v>
       </c>
       <c r="J17">
-        <v>0.6505716065119037</v>
+        <v>0.5236914626966246</v>
       </c>
       <c r="K17">
-        <v>0.6363873117633522</v>
+        <v>0.5672233533608125</v>
       </c>
       <c r="L17">
-        <v>0.6283340466802885</v>
+        <v>0.5348918555225572</v>
       </c>
       <c r="M17">
-        <v>0.6637067656352468</v>
+        <v>0.5712085058609757</v>
       </c>
       <c r="N17">
-        <v>0.6286461674823567</v>
+        <v>0.5695002168804733</v>
       </c>
       <c r="O17">
-        <v>0.6173719687346187</v>
+        <v>0.5727327157934791</v>
       </c>
       <c r="P17">
-        <v>0.4329565523398041</v>
+        <v>0.5051277359697134</v>
       </c>
       <c r="Q17">
-        <v>0.5822668803191475</v>
+        <v>0.2121616288321904</v>
       </c>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="1">
-        <v>36342</v>
+        <v>32417</v>
       </c>
       <c r="I18">
-        <v>0.6578929379603931</v>
+        <v>0.507146562686308</v>
       </c>
       <c r="J18">
-        <v>0.6505520899866164</v>
+        <v>0.5236913061280688</v>
       </c>
       <c r="K18">
-        <v>0.6363864007343586</v>
+        <v>0.5672235487447087</v>
       </c>
       <c r="L18">
-        <v>0.6288514224943884</v>
+        <v>0.5349770187932108</v>
       </c>
       <c r="M18">
-        <v>0.6657385439752845</v>
+        <v>0.5755352053829983</v>
       </c>
       <c r="N18">
-        <v>0.6434406502045062</v>
+        <v>0.5776858654265363</v>
       </c>
       <c r="O18">
-        <v>0.6406762614394624</v>
+        <v>0.5719468047763211</v>
       </c>
       <c r="P18">
-        <v>0.6316249271871002</v>
+        <v>0.5349820567624981</v>
       </c>
       <c r="Q18">
-        <v>0.6265613028771653</v>
+        <v>0.5513825130581549</v>
       </c>
       <c r="R18">
-        <v>0.5327950344365733</v>
+        <v>0.2524937681578153</v>
       </c>
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="1">
-        <v>36434</v>
+        <v>32509</v>
       </c>
       <c r="J19">
-        <v>0.6505569730686774</v>
+        <v>0.5236913314133602</v>
       </c>
       <c r="K19">
-        <v>0.6363788638238724</v>
+        <v>0.5672235234363652</v>
       </c>
       <c r="L19">
-        <v>0.6287313117128955</v>
+        <v>0.5349672904345693</v>
       </c>
       <c r="M19">
-        <v>0.6648313208107254</v>
+        <v>0.5743495961590284</v>
       </c>
       <c r="N19">
-        <v>0.6384323869663219</v>
+        <v>0.5774328353650615</v>
       </c>
       <c r="O19">
-        <v>0.6312296709549692</v>
+        <v>0.5733634309720353</v>
       </c>
       <c r="P19">
-        <v>0.5741377167402226</v>
+        <v>0.5496177023408251</v>
       </c>
       <c r="Q19">
-        <v>0.6373805528543428</v>
+        <v>0.5641780202917283</v>
       </c>
       <c r="R19">
-        <v>0.5396866464300986</v>
+        <v>0.602659667126749</v>
       </c>
       <c r="S19">
-        <v>0.5450131919859653</v>
+        <v>0.3045639236932584</v>
       </c>
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="1">
-        <v>36526</v>
+        <v>32599</v>
       </c>
       <c r="K20">
-        <v>0.6363791269894246</v>
+        <v>0.5672235267066515</v>
       </c>
       <c r="L20">
-        <v>0.6287901016336114</v>
+        <v>0.5349664432398368</v>
       </c>
       <c r="M20">
-        <v>0.6651246123738108</v>
+        <v>0.5742849214075335</v>
       </c>
       <c r="N20">
-        <v>0.640641522260588</v>
+        <v>0.5766396294519127</v>
       </c>
       <c r="O20">
-        <v>0.6351334429669926</v>
+        <v>0.5730207271663221</v>
       </c>
       <c r="P20">
-        <v>0.6110371101832792</v>
+        <v>0.5434157710768561</v>
       </c>
       <c r="Q20">
-        <v>0.6407820593296815</v>
+        <v>0.532062993545349</v>
       </c>
       <c r="R20">
-        <v>0.5745240053796804</v>
+        <v>0.5707821414520771</v>
       </c>
       <c r="S20">
-        <v>0.5949619883098396</v>
+        <v>0.5685153669012872</v>
       </c>
       <c r="T20">
-        <v>0.5953599605391648</v>
+        <v>0.3557845572607688</v>
       </c>
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="1">
-        <v>36617</v>
+        <v>32690</v>
       </c>
       <c r="L21">
-        <v>0.6287753398511985</v>
+        <v>0.5349668587822964</v>
       </c>
       <c r="M21">
-        <v>0.6649982437798114</v>
+        <v>0.5744100670077313</v>
       </c>
       <c r="N21">
-        <v>0.6398723316039931</v>
+        <v>0.5768776604021758</v>
       </c>
       <c r="O21">
-        <v>0.633547414456047</v>
+        <v>0.5730623931159461</v>
       </c>
       <c r="P21">
-        <v>0.5992286216707894</v>
+        <v>0.5445162766980243</v>
       </c>
       <c r="Q21">
-        <v>0.6415929270967536</v>
+        <v>0.5422155138846404</v>
       </c>
       <c r="R21">
-        <v>0.5775403884187899</v>
+        <v>0.5467040598369137</v>
       </c>
       <c r="S21">
-        <v>0.5808704786402678</v>
+        <v>0.5693687747587051</v>
       </c>
       <c r="T21">
-        <v>0.5795217284700636</v>
+        <v>0.5766315048237173</v>
       </c>
       <c r="U21">
-        <v>0.6226192974295949</v>
+        <v>0.5538469878354574</v>
       </c>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="1">
-        <v>36708</v>
+        <v>32782</v>
       </c>
       <c r="M22">
-        <v>0.665040392516271</v>
+        <v>0.574381410977206</v>
       </c>
       <c r="N22">
-        <v>0.6402030903408551</v>
+        <v>0.576897612626731</v>
       </c>
       <c r="O22">
-        <v>0.6342015211138456</v>
+        <v>0.5730630591909818</v>
       </c>
       <c r="P22">
-        <v>0.6061452218096683</v>
+        <v>0.5445228113569079</v>
       </c>
       <c r="Q22">
-        <v>0.6418546652315493</v>
+        <v>0.5412943535734921</v>
       </c>
       <c r="R22">
-        <v>0.5801989079948108</v>
+        <v>0.5577910759412672</v>
       </c>
       <c r="S22">
-        <v>0.5849450364381467</v>
+        <v>0.5451265626150998</v>
       </c>
       <c r="T22">
-        <v>0.5733238563883514</v>
+        <v>0.5604001690688526</v>
       </c>
       <c r="U22">
-        <v>0.6152940983440472</v>
+        <v>0.5606553502824662</v>
       </c>
       <c r="V22">
-        <v>0.6988412923093029</v>
+        <v>0.4709857633177138</v>
       </c>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="1">
-        <v>36800</v>
+        <v>32874</v>
       </c>
       <c r="N23">
-        <v>0.6400853091970573</v>
+        <v>0.5768672675080213</v>
       </c>
       <c r="O23">
-        <v>0.6339352995266524</v>
+        <v>0.5730614846736173</v>
       </c>
       <c r="P23">
-        <v>0.6037566367385943</v>
+        <v>0.5444591784454597</v>
       </c>
       <c r="Q23">
-        <v>0.6419152579712075</v>
+        <v>0.5407878142171499</v>
       </c>
       <c r="R23">
-        <v>0.5806034644093303</v>
+        <v>0.5565141210190768</v>
       </c>
       <c r="S23">
-        <v>0.5838001976060481</v>
+        <v>0.5524438183518994</v>
       </c>
       <c r="T23">
-        <v>0.5720569175146333</v>
+        <v>0.5482438303413919</v>
       </c>
       <c r="U23">
-        <v>0.6122132958789177</v>
+        <v>0.5467992429677945</v>
       </c>
       <c r="V23">
-        <v>0.6287981404954279</v>
+        <v>0.5672826743473959</v>
       </c>
       <c r="W23">
-        <v>0.6043994585460104</v>
+        <v>0.3546306377802441</v>
       </c>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="1">
-        <v>36892</v>
+        <v>32964</v>
       </c>
       <c r="O24">
-        <v>0.6340449228061379</v>
+        <v>0.5730618725482923</v>
       </c>
       <c r="P24">
-        <v>0.6050628942335293</v>
+        <v>0.5444785107050223</v>
       </c>
       <c r="Q24">
-        <v>0.6419354455507769</v>
+        <v>0.5410394953375606</v>
       </c>
       <c r="R24">
-        <v>0.5808190248139028</v>
+        <v>0.5558399956115471</v>
       </c>
       <c r="S24">
-        <v>0.5841327987076865</v>
+        <v>0.5524143575138522</v>
       </c>
       <c r="T24">
-        <v>0.5716393690920979</v>
+        <v>0.5532679463415247</v>
       </c>
       <c r="U24">
-        <v>0.6114083883416332</v>
+        <v>0.5505529510316609</v>
       </c>
       <c r="V24">
-        <v>0.6012937984109253</v>
+        <v>0.569996284056306</v>
       </c>
       <c r="W24">
-        <v>0.5841164940103007</v>
+        <v>0.5752190927151382</v>
       </c>
       <c r="X24">
-        <v>0.4918650461327669</v>
+        <v>0.1501744600279598</v>
       </c>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="1">
-        <v>36982</v>
+        <v>33055</v>
       </c>
       <c r="P25">
-        <v>0.6045849192688668</v>
+        <v>0.5444760886319622</v>
       </c>
       <c r="Q25">
-        <v>0.6419399568332909</v>
+        <v>0.5409930512445726</v>
       </c>
       <c r="R25">
-        <v>0.5808630283114399</v>
+        <v>0.5561883796987726</v>
       </c>
       <c r="S25">
-        <v>0.5840398624645232</v>
+        <v>0.5517585187821341</v>
       </c>
       <c r="T25">
-        <v>0.5715433071014301</v>
+        <v>0.5526589241978979</v>
       </c>
       <c r="U25">
-        <v>0.611128552558733</v>
+        <v>0.5505327634260615</v>
       </c>
       <c r="V25">
-        <v>0.5939688895000458</v>
+        <v>0.5618412144873894</v>
       </c>
       <c r="W25">
-        <v>0.5824831380691148</v>
+        <v>0.5703409287960125</v>
       </c>
       <c r="X25">
-        <v>0.5393488126964473</v>
+        <v>0.6217353399874255</v>
       </c>
       <c r="Y25">
-        <v>0.5111730560616267</v>
+        <v>0.5560359135707311</v>
       </c>
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="1">
-        <v>37073</v>
+        <v>33147</v>
       </c>
       <c r="Q26">
-        <v>0.6419415181486394</v>
+        <v>0.540988724314881</v>
       </c>
       <c r="R26">
-        <v>0.5808813212574904</v>
+        <v>0.5561401079951028</v>
       </c>
       <c r="S26">
-        <v>0.5840670365896935</v>
+        <v>0.5519612511946819</v>
       </c>
       <c r="T26">
-        <v>0.5715144537998775</v>
+        <v>0.5524565681949865</v>
       </c>
       <c r="U26">
-        <v>0.6110471255698444</v>
+        <v>0.5502275768987714</v>
       </c>
       <c r="V26">
-        <v>0.5917291580595784</v>
+        <v>0.5641673171471294</v>
       </c>
       <c r="W26">
-        <v>0.581247058160593</v>
+        <v>0.5556594490611945</v>
       </c>
       <c r="X26">
-        <v>0.5524473747249024</v>
+        <v>0.5979686443227332</v>
       </c>
       <c r="Y26">
-        <v>0.5367486645638527</v>
+        <v>0.6065947042085253</v>
       </c>
       <c r="Z26">
-        <v>0.455773509922641</v>
+        <v>0.2341151964226572</v>
       </c>
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="1">
-        <v>37165</v>
+        <v>33239</v>
       </c>
       <c r="R27">
-        <v>0.5808857326703815</v>
+        <v>0.5561216109076672</v>
       </c>
       <c r="S27">
-        <v>0.5840595003781993</v>
+        <v>0.55195899779516</v>
       </c>
       <c r="T27">
-        <v>0.5715073596856236</v>
+        <v>0.5525665567842981</v>
       </c>
       <c r="U27">
-        <v>0.6110207131465466</v>
+        <v>0.5503243722944396</v>
       </c>
       <c r="V27">
-        <v>0.5910797451728049</v>
+        <v>0.5640643281666541</v>
       </c>
       <c r="W27">
-        <v>0.5809572163350931</v>
+        <v>0.560325274593424</v>
       </c>
       <c r="X27">
-        <v>0.5555186530387053</v>
+        <v>0.5789636959046887</v>
       </c>
       <c r="Y27">
-        <v>0.5429268296097166</v>
+        <v>0.59043106717067</v>
       </c>
       <c r="Z27">
-        <v>0.4990924970080751</v>
+        <v>0.7087636054225143</v>
       </c>
       <c r="AA27">
-        <v>0.3930773188618389</v>
+        <v>0.3975221835473589</v>
       </c>
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="1">
-        <v>37257</v>
+        <v>33329</v>
       </c>
       <c r="S28">
-        <v>0.5840617232352838</v>
+        <v>0.5519412654670983</v>
       </c>
       <c r="T28">
-        <v>0.5715053350732848</v>
+        <v>0.5525482634124105</v>
       </c>
       <c r="U28">
-        <v>0.6110127025310913</v>
+        <v>0.550319527239965</v>
       </c>
       <c r="V28">
-        <v>0.5908876640701434</v>
+        <v>0.5639196694469114</v>
       </c>
       <c r="W28">
-        <v>0.5808491003310676</v>
+        <v>0.5600281455328086</v>
       </c>
       <c r="X28">
-        <v>0.5562730560563957</v>
+        <v>0.5853838978447039</v>
       </c>
       <c r="Y28">
-        <v>0.5443045186424615</v>
+        <v>0.5924220963672946</v>
       </c>
       <c r="Z28">
-        <v>0.5297975912696237</v>
+        <v>0.5803931731091824</v>
       </c>
       <c r="AA28">
-        <v>0.4661792532129501</v>
+        <v>0.6850936408003788</v>
       </c>
       <c r="AB28">
-        <v>0.3488092416346601</v>
+        <v>0.4916044895472176</v>
       </c>
     </row>
     <row r="29" spans="1:32">
       <c r="A29" s="1">
-        <v>37347</v>
+        <v>33420</v>
       </c>
       <c r="T29">
-        <v>0.5715048183488175</v>
+        <v>0.5525453683651145</v>
       </c>
       <c r="U29">
-        <v>0.6110101707091586</v>
+        <v>0.5503130053661452</v>
       </c>
       <c r="V29">
-        <v>0.5908312769785984</v>
+        <v>0.5639724069378822</v>
       </c>
       <c r="W29">
-        <v>0.5808168309177457</v>
+        <v>0.5597745368270017</v>
       </c>
       <c r="X29">
-        <v>0.5564558125528843</v>
+        <v>0.5846729502281957</v>
       </c>
       <c r="Y29">
-        <v>0.5446182618086666</v>
+        <v>0.5926078656225159</v>
       </c>
       <c r="Z29">
-        <v>0.5361399284046757</v>
+        <v>0.6149203900419581</v>
       </c>
       <c r="AA29">
-        <v>0.502079921811539</v>
+        <v>0.6051048266287488</v>
       </c>
       <c r="AB29">
-        <v>0.4133078532474691</v>
+        <v>0.9101235512419634</v>
       </c>
       <c r="AC29">
-        <v>0.3733471478793139</v>
+        <v>0.7999760148859472</v>
       </c>
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="1">
-        <v>37438</v>
+        <v>33512</v>
       </c>
       <c r="U30">
-        <v>0.6110093906027442</v>
+        <v>0.5503154401349643</v>
       </c>
       <c r="V30">
-        <v>0.5908146770286595</v>
+        <v>0.5639670167729748</v>
       </c>
       <c r="W30">
-        <v>0.5808061824761467</v>
+        <v>0.5598706836427856</v>
       </c>
       <c r="X30">
-        <v>0.5565002668485252</v>
+        <v>0.5845189371917034</v>
       </c>
       <c r="Y30">
-        <v>0.5446893086840846</v>
+        <v>0.5924734029973422</v>
       </c>
       <c r="Z30">
-        <v>0.5385641127621728</v>
+        <v>0.6056297074723183</v>
       </c>
       <c r="AA30">
-        <v>0.5107902432803894</v>
+        <v>0.6260485333503172</v>
       </c>
       <c r="AB30">
-        <v>0.4604518569190361</v>
+        <v>0.6258064511004862</v>
       </c>
       <c r="AC30">
-        <v>0.4155614698512454</v>
+        <v>0.6721253295697609</v>
       </c>
       <c r="AD30">
-        <v>0.4245874130453108</v>
+        <v>0.7698152212755149</v>
       </c>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="1">
-        <v>37530</v>
+        <v>33604</v>
       </c>
       <c r="V31">
-        <v>0.5908097953542742</v>
+        <v>0.5639646857089815</v>
       </c>
       <c r="W31">
-        <v>0.5808028290175929</v>
+        <v>0.559860986859862</v>
       </c>
       <c r="X31">
-        <v>0.5565110670311032</v>
+        <v>0.5845989194584371</v>
       </c>
       <c r="Y31">
-        <v>0.5447054214689311</v>
+        <v>0.5925001527399437</v>
       </c>
       <c r="Z31">
-        <v>0.5392144861046608</v>
+        <v>0.6081295845465602</v>
       </c>
       <c r="AA31">
-        <v>0.5137598494174396</v>
+        <v>0.6205003159862913</v>
       </c>
       <c r="AB31">
-        <v>0.470180360559788</v>
+        <v>0.707588307982663</v>
       </c>
       <c r="AC31">
-        <v>0.4307344668701582</v>
+        <v>0.6544912872517905</v>
       </c>
       <c r="AD31">
-        <v>0.4382444616975363</v>
+        <v>0.5544587201123098</v>
       </c>
       <c r="AE31">
-        <v>0.4046536078879283</v>
+        <v>0.5386938493769156</v>
       </c>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="1">
-        <v>37622</v>
+        <v>33695</v>
       </c>
       <c r="W32">
-        <v>0.5808017500553143</v>
+        <v>0.5598568099193707</v>
       </c>
       <c r="X32">
-        <v>0.5565136918722904</v>
+        <v>0.5845855999646223</v>
       </c>
       <c r="Y32">
-        <v>0.5447090742283451</v>
+        <v>0.5924990610772088</v>
       </c>
       <c r="Z32">
-        <v>0.5394259756768716</v>
+        <v>0.6074569318687871</v>
       </c>
       <c r="AA32">
-        <v>0.5146059038084063</v>
+        <v>0.6219667176533576</v>
       </c>
       <c r="AB32">
-        <v>0.4744115785730748</v>
+        <v>0.6677844309659576</v>
       </c>
       <c r="AC32">
-        <v>0.4344709001337502</v>
+        <v>0.6438847680910356</v>
       </c>
       <c r="AD32">
-        <v>0.4409243710994529</v>
+        <v>0.6368070714775661</v>
       </c>
       <c r="AE32">
-        <v>0.410018554508535</v>
+        <v>0.6507303282162642</v>
       </c>
       <c r="AF32">
-        <v>0.3598922120924801</v>
+        <v>0.5756451065966868</v>
       </c>
     </row>
     <row r="33" spans="1:48">
       <c r="A33" s="1">
-        <v>37712</v>
+        <v>33786</v>
       </c>
       <c r="X33">
-        <v>0.556514329738091</v>
+        <v>0.5845848878585743</v>
       </c>
       <c r="Y33">
-        <v>0.544709902396182</v>
+        <v>0.5924981832548391</v>
       </c>
       <c r="Z33">
-        <v>0.5394876853395751</v>
+        <v>0.6076379253789663</v>
       </c>
       <c r="AA33">
-        <v>0.5148699529690937</v>
+        <v>0.6215789702701798</v>
       </c>
       <c r="AB33">
-        <v>0.4755436472717282</v>
+        <v>0.6815366943879603</v>
       </c>
       <c r="AC33">
-        <v>0.4356564948102635</v>
+        <v>0.6432321801262155</v>
       </c>
       <c r="AD33">
-        <v>0.4412963367646489</v>
+        <v>0.6189044063922859</v>
       </c>
       <c r="AE33">
-        <v>0.4012714102465568</v>
+        <v>0.6215408811945253</v>
       </c>
       <c r="AF33">
-        <v>0.3918008950949331</v>
+        <v>0.673382583478747</v>
       </c>
       <c r="AG33">
-        <v>0.432116081367058</v>
+        <v>0.7519282567409463</v>
       </c>
     </row>
     <row r="34" spans="1:48">
       <c r="A34" s="1">
-        <v>37803</v>
+        <v>33878</v>
       </c>
       <c r="Y34">
-        <v>0.544710090156205</v>
+        <v>0.5924984578551534</v>
       </c>
       <c r="Z34">
-        <v>0.539506803561739</v>
+        <v>0.6075892246863607</v>
       </c>
       <c r="AA34">
-        <v>0.5149485550078881</v>
+        <v>0.6216814897043544</v>
       </c>
       <c r="AB34">
-        <v>0.4759535526625501</v>
+        <v>0.6756384484980523</v>
       </c>
       <c r="AC34">
-        <v>0.4359727857680928</v>
+        <v>0.6422719309050932</v>
       </c>
       <c r="AD34">
-        <v>0.4413554122745683</v>
+        <v>0.6243624900063733</v>
       </c>
       <c r="AE34">
-        <v>0.4000585688591006</v>
+        <v>0.6305024343905516</v>
       </c>
       <c r="AF34">
-        <v>0.3692375159139534</v>
+        <v>0.6347976029248676</v>
       </c>
       <c r="AG34">
-        <v>0.4180505155572309</v>
+        <v>0.619420459464611</v>
       </c>
       <c r="AH34">
-        <v>0.4408791614499421</v>
+        <v>0.7460840957933011</v>
       </c>
     </row>
     <row r="35" spans="1:48">
       <c r="A35" s="1">
-        <v>37895</v>
+        <v>33970</v>
       </c>
       <c r="Z35">
-        <v>0.5395125313730755</v>
+        <v>0.6076023287885723</v>
       </c>
       <c r="AA35">
-        <v>0.5149725281575412</v>
+        <v>0.6216543833500439</v>
       </c>
       <c r="AB35">
-        <v>0.4760756848267011</v>
+        <v>0.677838526592113</v>
       </c>
       <c r="AC35">
-        <v>0.4360676563959109</v>
+        <v>0.6423040606860714</v>
       </c>
       <c r="AD35">
-        <v>0.4413642851505443</v>
+        <v>0.6230159514805063</v>
       </c>
       <c r="AE35">
-        <v>0.4005338321518833</v>
+        <v>0.6280245889034328</v>
       </c>
       <c r="AF35">
-        <v>0.3666551790869302</v>
+        <v>0.6423933141341749</v>
       </c>
       <c r="AG35">
-        <v>0.2926795090484308</v>
+        <v>0.660322998358769</v>
       </c>
       <c r="AH35">
-        <v>0.3885244097753858</v>
+        <v>0.6293444022511933</v>
       </c>
       <c r="AI35">
-        <v>0.3891497497483102</v>
+        <v>0.7558673537595511</v>
       </c>
     </row>
     <row r="36" spans="1:48">
       <c r="A36" s="1">
-        <v>37987</v>
+        <v>34060</v>
       </c>
       <c r="AA36">
-        <v>0.514979748778353</v>
+        <v>0.6216615503026166</v>
       </c>
       <c r="AB36">
-        <v>0.4761168460203365</v>
+        <v>0.6769415594711657</v>
       </c>
       <c r="AC36">
-        <v>0.4360939273589653</v>
+        <v>0.6422080836703008</v>
       </c>
       <c r="AD36">
-        <v>0.4413656482766732</v>
+        <v>0.6233940510095123</v>
       </c>
       <c r="AE36">
-        <v>0.400662191393185</v>
+        <v>0.6287564864205326</v>
       </c>
       <c r="AF36">
-        <v>0.3679317332186131</v>
+        <v>0.6401859334983359</v>
       </c>
       <c r="AG36">
-        <v>0.30516592574181</v>
+        <v>0.6514541643342117</v>
       </c>
       <c r="AH36">
-        <v>0.2959440651902467</v>
+        <v>0.6648622283003661</v>
       </c>
       <c r="AI36">
-        <v>0.3365238224108569</v>
+        <v>0.6368939474123748</v>
       </c>
       <c r="AJ36">
-        <v>0.3111216883095244</v>
+        <v>0.743202649209222</v>
       </c>
     </row>
     <row r="37" spans="1:48">
       <c r="A37" s="1">
-        <v>38078</v>
+        <v>34151</v>
       </c>
       <c r="AB37">
-        <v>0.4761296657005377</v>
+        <v>0.6772869301907113</v>
       </c>
       <c r="AC37">
-        <v>0.4361016069815533</v>
+        <v>0.642220702866322</v>
       </c>
       <c r="AD37">
-        <v>0.4413658557659655</v>
+        <v>0.6232960837803423</v>
       </c>
       <c r="AE37">
-        <v>0.4006424321096362</v>
+        <v>0.6285491863278684</v>
       </c>
       <c r="AF37">
-        <v>0.3681244317692473</v>
+        <v>0.6406942537367795</v>
       </c>
       <c r="AG37">
-        <v>0.3282467911798449</v>
+        <v>0.6537843524991095</v>
       </c>
       <c r="AH37">
-        <v>0.3092485674710722</v>
+        <v>0.6576522521074798</v>
       </c>
       <c r="AI37">
-        <v>0.3190245189122564</v>
+        <v>0.6634140187621427</v>
       </c>
       <c r="AJ37">
-        <v>0.3105017490744861</v>
+        <v>0.4270435012061883</v>
       </c>
       <c r="AK37">
-        <v>0.2559175718893015</v>
+        <v>0.4708993919713203</v>
       </c>
     </row>
     <row r="38" spans="1:48">
       <c r="A38" s="1">
-        <v>38169</v>
+        <v>34243</v>
       </c>
       <c r="AC38">
-        <v>0.4361037706776424</v>
+        <v>0.642210177336901</v>
       </c>
       <c r="AD38">
-        <v>0.4413658874681254</v>
+        <v>0.6233227547925582</v>
       </c>
       <c r="AE38">
-        <v>0.4006318120354907</v>
+        <v>0.6286094810701758</v>
       </c>
       <c r="AF38">
-        <v>0.3680535902401393</v>
+        <v>0.6405603286072801</v>
       </c>
       <c r="AG38">
-        <v>0.324049052194104</v>
+        <v>0.6532349433147298</v>
       </c>
       <c r="AH38">
-        <v>0.3261443447108516</v>
+        <v>0.6593880077697215</v>
       </c>
       <c r="AI38">
-        <v>0.3260005363119898</v>
+        <v>0.6584584159731622</v>
       </c>
       <c r="AJ38">
-        <v>0.3025766305114897</v>
+        <v>0.6212678678784166</v>
       </c>
       <c r="AK38">
-        <v>0.2688616352615983</v>
+        <v>0.6224796067213825</v>
       </c>
       <c r="AL38">
-        <v>0.3265058905256286</v>
+        <v>0.6180205985378453</v>
       </c>
     </row>
     <row r="39" spans="1:48">
       <c r="A39" s="1">
-        <v>38261</v>
+        <v>34335</v>
       </c>
       <c r="AD39">
-        <v>0.4413658923044543</v>
+        <v>0.6233157127435841</v>
       </c>
       <c r="AE39">
-        <v>0.4006321206405437</v>
+        <v>0.6285922368280774</v>
       </c>
       <c r="AF39">
-        <v>0.3680399344947518</v>
+        <v>0.640592916879553</v>
       </c>
       <c r="AG39">
-        <v>0.3199481047564459</v>
+        <v>0.6533724814260111</v>
       </c>
       <c r="AH39">
-        <v>0.32301176670558</v>
+        <v>0.6590010057055031</v>
       </c>
       <c r="AI39">
-        <v>0.327734420102463</v>
+        <v>0.6594355746567998</v>
       </c>
       <c r="AJ39">
-        <v>0.3025722781569847</v>
+        <v>0.5844176120307443</v>
       </c>
       <c r="AK39">
-        <v>0.2694803729675856</v>
+        <v>0.6026346885337568</v>
       </c>
       <c r="AL39">
-        <v>0.3166071184030521</v>
+        <v>0.630988822311052</v>
       </c>
       <c r="AM39">
-        <v>0.3350407289565241</v>
+        <v>0.6952863805804482</v>
       </c>
     </row>
     <row r="40" spans="1:48">
       <c r="A40" s="1">
-        <v>38353</v>
+        <v>34425</v>
       </c>
       <c r="AE40">
-        <v>0.4006328705714784</v>
+        <v>0.628597221556245</v>
       </c>
       <c r="AF40">
-        <v>0.3680437779986308</v>
+        <v>0.6405846103572497</v>
       </c>
       <c r="AG40">
-        <v>0.3210737058024128</v>
+        <v>0.6533391853440389</v>
       </c>
       <c r="AH40">
-        <v>0.3199547032047489</v>
+        <v>0.659090243688198</v>
       </c>
       <c r="AI40">
-        <v>0.3268365092632566</v>
+        <v>0.6592461599958146</v>
       </c>
       <c r="AJ40">
-        <v>0.3032254370785323</v>
+        <v>0.6003391441492397</v>
       </c>
       <c r="AK40">
-        <v>0.2693149501639345</v>
+        <v>0.6128148184410263</v>
       </c>
       <c r="AL40">
-        <v>0.304905506102288</v>
+        <v>0.6245047693522087</v>
       </c>
       <c r="AM40">
-        <v>0.2805910775836477</v>
+        <v>0.58452074811323</v>
       </c>
       <c r="AN40">
-        <v>0.2440301364330125</v>
+        <v>0.5555647942494515</v>
       </c>
     </row>
     <row r="41" spans="1:48">
       <c r="A41" s="1">
-        <v>38443</v>
+        <v>34516</v>
       </c>
       <c r="AF41">
-        <v>0.3680447108442119</v>
+        <v>0.640586670635641</v>
       </c>
       <c r="AG41">
-        <v>0.3217727040823158</v>
+        <v>0.6533473975382538</v>
       </c>
       <c r="AH41">
-        <v>0.3206577730407406</v>
+        <v>0.6590699713927834</v>
       </c>
       <c r="AI41">
-        <v>0.326674174583709</v>
+        <v>0.6592830739775624</v>
       </c>
       <c r="AJ41">
-        <v>0.3032303656051888</v>
+        <v>0.596591049021054</v>
       </c>
       <c r="AK41">
-        <v>0.2693225113769206</v>
+        <v>0.6109532102533478</v>
       </c>
       <c r="AL41">
-        <v>0.3031454525714746</v>
+        <v>0.6256716693346865</v>
       </c>
       <c r="AM41">
-        <v>0.3212500926229151</v>
+        <v>0.6294433186861611</v>
       </c>
       <c r="AN41">
-        <v>0.2062181648172821</v>
+        <v>0.6665054124070242</v>
       </c>
       <c r="AO41">
-        <v>0.3879564616327092</v>
+        <v>0.6289560850923929</v>
       </c>
     </row>
     <row r="42" spans="1:48">
       <c r="A42" s="1">
-        <v>38534</v>
+        <v>34608</v>
       </c>
       <c r="AG42">
-        <v>0.3215021584306325</v>
+        <v>0.6533453930303129</v>
       </c>
       <c r="AH42">
-        <v>0.3212058028751845</v>
+        <v>0.6590746071190334</v>
       </c>
       <c r="AI42">
-        <v>0.3267869627500878</v>
+        <v>0.6592758921601937</v>
       </c>
       <c r="AJ42">
-        <v>0.3031765666384352</v>
+        <v>0.597955450502844</v>
       </c>
       <c r="AK42">
-        <v>0.2693233983846897</v>
+        <v>0.6116737917427765</v>
       </c>
       <c r="AL42">
-        <v>0.3021387375097428</v>
+        <v>0.6252471054748385</v>
       </c>
       <c r="AM42">
-        <v>0.3118098725280817</v>
+        <v>0.6212585228166</v>
       </c>
       <c r="AN42">
-        <v>0.2890469947151774</v>
+        <v>0.6321520186965561</v>
       </c>
       <c r="AO42">
-        <v>0.4069942587560427</v>
+        <v>0.6866569575165964</v>
       </c>
       <c r="AP42">
-        <v>0.386250725708883</v>
+        <v>0.7194433207271483</v>
       </c>
     </row>
     <row r="43" spans="1:48">
       <c r="A43" s="1">
-        <v>38626</v>
+        <v>34700</v>
       </c>
       <c r="AH43">
-        <v>0.3210531800476519</v>
+        <v>0.6590735501395112</v>
       </c>
       <c r="AI43">
-        <v>0.3268008463473504</v>
+        <v>0.6592772901653469</v>
       </c>
       <c r="AJ43">
-        <v>0.3031757840258756</v>
+        <v>0.5975949946948481</v>
       </c>
       <c r="AK43">
-        <v>0.2693232600617677</v>
+        <v>0.6115155066366762</v>
       </c>
       <c r="AL43">
-        <v>0.3019213155155314</v>
+        <v>0.6253399400744468</v>
       </c>
       <c r="AM43">
-        <v>0.3188276801846191</v>
+        <v>0.6237438910938077</v>
       </c>
       <c r="AN43">
-        <v>0.2836003304412504</v>
+        <v>0.6396377722852923</v>
       </c>
       <c r="AO43">
-        <v>0.391655134650208</v>
+        <v>0.673285184404702</v>
       </c>
       <c r="AP43">
-        <v>0.3662932776832672</v>
+        <v>0.704850055356701</v>
       </c>
       <c r="AQ43">
-        <v>0.3676850644710708</v>
+        <v>0.7349032611459</v>
       </c>
     </row>
     <row r="44" spans="1:48">
       <c r="A44" s="1">
-        <v>38718</v>
+        <v>34790</v>
       </c>
       <c r="AI44">
-        <v>0.3267869767660009</v>
+        <v>0.6592770180766665</v>
       </c>
       <c r="AJ44">
-        <v>0.3031802126686642</v>
+        <v>0.5977151152232026</v>
       </c>
       <c r="AK44">
-        <v>0.2693232630620472</v>
+        <v>0.6115683609669965</v>
       </c>
       <c r="AL44">
-        <v>0.3018288347473992</v>
+        <v>0.6253108825856255</v>
       </c>
       <c r="AM44">
-        <v>0.317191027283681</v>
+        <v>0.6232084264708695</v>
       </c>
       <c r="AN44">
-        <v>0.2980067789266703</v>
+        <v>0.6376137944645918</v>
       </c>
       <c r="AO44">
-        <v>0.3918966591630549</v>
+        <v>0.6753055367184417</v>
       </c>
       <c r="AP44">
-        <v>0.3779616035328685</v>
+        <v>0.7070534273762666</v>
       </c>
       <c r="AQ44">
-        <v>0.3944407247675515</v>
+        <v>0.716293386790436</v>
       </c>
       <c r="AR44">
-        <v>0.3827494615806734</v>
+        <v>0.7854021562097397</v>
       </c>
     </row>
     <row r="45" spans="1:48">
       <c r="A45" s="1">
-        <v>38808</v>
+        <v>34881</v>
       </c>
       <c r="AJ45">
-        <v>0.3031803081565542</v>
+        <v>0.5976813536361421</v>
       </c>
       <c r="AK45">
-        <v>0.2693232640672851</v>
+        <v>0.6115554894559065</v>
       </c>
       <c r="AL45">
-        <v>0.3018048120935841</v>
+        <v>0.6253179068501953</v>
       </c>
       <c r="AM45">
-        <v>0.3184023224393492</v>
+        <v>0.6233528000709363</v>
       </c>
       <c r="AN45">
-        <v>0.2972570225336142</v>
+        <v>0.6380914699339583</v>
       </c>
       <c r="AO45">
-        <v>0.3915352676660228</v>
+        <v>0.6749391760733952</v>
       </c>
       <c r="AP45">
-        <v>0.3774395801040224</v>
+        <v>0.7067209533310829</v>
       </c>
       <c r="AQ45">
-        <v>0.3741796342972468</v>
+        <v>0.7171206659256989</v>
       </c>
       <c r="AR45">
-        <v>0.3451426684724579</v>
+        <v>0.7010285511676723</v>
       </c>
       <c r="AS45">
-        <v>0.3406361788593404</v>
+        <v>0.6519042913709076</v>
       </c>
     </row>
     <row r="46" spans="1:48">
       <c r="A46" s="1">
-        <v>38899</v>
+        <v>34973</v>
       </c>
       <c r="AK46">
-        <v>0.2693232639605769</v>
+        <v>0.6115594542740439</v>
       </c>
       <c r="AL46">
-        <v>0.3017959562463457</v>
+        <v>0.6253158667884088</v>
       </c>
       <c r="AM46">
-        <v>0.3181185836841129</v>
+        <v>0.6233192838311978</v>
       </c>
       <c r="AN46">
-        <v>0.2997655202980603</v>
+        <v>0.6379688063700004</v>
       </c>
       <c r="AO46">
-        <v>0.3915360360108684</v>
+        <v>0.6750003000021739</v>
       </c>
       <c r="AP46">
-        <v>0.3778020282385461</v>
+        <v>0.7067711245586957</v>
       </c>
       <c r="AQ46">
-        <v>0.3759054061492446</v>
+        <v>0.7173323095835756</v>
       </c>
       <c r="AR46">
-        <v>0.3732677414754128</v>
+        <v>0.7060972494988828</v>
       </c>
       <c r="AS46">
-        <v>0.3562707467492328</v>
+        <v>0.7087123454962511</v>
       </c>
       <c r="AT46">
-        <v>0.4142549252660024</v>
+        <v>0.8221434309807819</v>
       </c>
     </row>
     <row r="47" spans="1:48">
       <c r="A47" s="1">
-        <v>38991</v>
+        <v>35065</v>
       </c>
       <c r="AL47">
-        <v>0.3017934231890732</v>
+        <v>0.6253163861347778</v>
       </c>
       <c r="AM47">
-        <v>0.3183276588240084</v>
+        <v>0.6233278708582233</v>
       </c>
       <c r="AN47">
-        <v>0.2996697025590871</v>
+        <v>0.637998682126599</v>
       </c>
       <c r="AO47">
-        <v>0.3915274538378754</v>
+        <v>0.6749897175375472</v>
       </c>
       <c r="AP47">
-        <v>0.3777888938648145</v>
+        <v>0.7067635536336259</v>
       </c>
       <c r="AQ47">
-        <v>0.3742712912503405</v>
+        <v>0.7172830804728048</v>
       </c>
       <c r="AR47">
-        <v>0.3710882770650646</v>
+        <v>0.7065144960771984</v>
       </c>
       <c r="AS47">
-        <v>0.3558285479346207</v>
+        <v>0.7044725648594855</v>
       </c>
       <c r="AT47">
-        <v>0.4106729798314023</v>
+        <v>0.6918039127851399</v>
       </c>
       <c r="AU47">
-        <v>0.4280342507738066</v>
+        <v>0.8352663417225831</v>
       </c>
     </row>
     <row r="48" spans="1:48">
       <c r="A48" s="1">
-        <v>39083</v>
+        <v>35156</v>
       </c>
       <c r="AM48">
-        <v>0.3182784697664209</v>
+        <v>0.6233258103655728</v>
       </c>
       <c r="AN48">
-        <v>0.3001069788623084</v>
+        <v>0.6379911616834479</v>
       </c>
       <c r="AO48">
-        <v>0.3915273539780284</v>
+        <v>0.6749915194339747</v>
       </c>
       <c r="AP48">
-        <v>0.3778001804278539</v>
+        <v>0.706764696100061</v>
       </c>
       <c r="AQ48">
-        <v>0.3743747410617435</v>
+        <v>0.717287056650081</v>
       </c>
       <c r="AR48">
-        <v>0.3732259119875889</v>
+        <v>0.7063755321527865</v>
       </c>
       <c r="AS48">
-        <v>0.3565454845596082</v>
+        <v>0.704481216157559</v>
       </c>
       <c r="AT48">
-        <v>0.37234350464534</v>
+        <v>0.7108782865320243</v>
       </c>
       <c r="AU48">
-        <v>0.3887718670371111</v>
+        <v>0.6716719657684272</v>
       </c>
       <c r="AV48">
-        <v>0.4502221155737945</v>
+        <v>0.7498507945729943</v>
       </c>
     </row>
     <row r="49" spans="1:64">
       <c r="A49" s="1">
-        <v>39173</v>
+        <v>35247</v>
       </c>
       <c r="AN49">
-        <v>0.3000963747578714</v>
+        <v>0.6379930161079231</v>
       </c>
       <c r="AO49">
-        <v>0.391527148546537</v>
+        <v>0.6749912103267842</v>
       </c>
       <c r="AP49">
-        <v>0.3777998696514566</v>
+        <v>0.7067645236997986</v>
       </c>
       <c r="AQ49">
-        <v>0.3742420861463887</v>
+        <v>0.7172873299444262</v>
       </c>
       <c r="AR49">
-        <v>0.3731132728725094</v>
+        <v>0.7063914429245759</v>
       </c>
       <c r="AS49">
-        <v>0.3565578002380479</v>
+        <v>0.7045302728300943</v>
       </c>
       <c r="AT49">
-        <v>0.3703882361148627</v>
+        <v>0.7081021982182329</v>
       </c>
       <c r="AU49">
-        <v>0.373906214886258</v>
+        <v>0.6793177887288687</v>
       </c>
       <c r="AV49">
-        <v>0.4259033386921889</v>
+        <v>0.5988614389727719</v>
       </c>
       <c r="AW49">
-        <v>0.4660678856561911</v>
+        <v>0.5526975035503667</v>
       </c>
     </row>
     <row r="50" spans="1:64">
       <c r="A50" s="1">
-        <v>39264</v>
+        <v>35339</v>
       </c>
       <c r="AO50">
-        <v>0.3915271433445391</v>
+        <v>0.6749912631757632</v>
       </c>
       <c r="AP50">
-        <v>0.3778002220052701</v>
+        <v>0.7067645497153118</v>
       </c>
       <c r="AQ50">
-        <v>0.3742474534506234</v>
+        <v>0.7172872125832278</v>
       </c>
       <c r="AR50">
-        <v>0.3732771703070837</v>
+        <v>0.7063909366871779</v>
       </c>
       <c r="AS50">
-        <v>0.3565921840282917</v>
+        <v>0.7045222478349515</v>
       </c>
       <c r="AT50">
-        <v>0.3672972856363869</v>
+        <v>0.708506032350797</v>
       </c>
       <c r="AU50">
-        <v>0.3706149839807887</v>
+        <v>0.6802050398757901</v>
       </c>
       <c r="AV50">
-        <v>0.3872405973939234</v>
+        <v>0.6533607918236107</v>
       </c>
       <c r="AW50">
-        <v>0.4118383699145721</v>
+        <v>0.7566974936444597</v>
       </c>
       <c r="AX50">
-        <v>0.3745726540563882</v>
+        <v>0.6908881373694733</v>
       </c>
     </row>
     <row r="51" spans="1:64">
       <c r="A51" s="1">
-        <v>39356</v>
+        <v>35431</v>
       </c>
       <c r="AP51">
-        <v>0.3778002154269247</v>
+        <v>0.7067645457895235</v>
       </c>
       <c r="AQ51">
-        <v>0.3742366118986358</v>
+        <v>0.7172872263402992</v>
       </c>
       <c r="AR51">
-        <v>0.3732727872760978</v>
+        <v>0.7063907870548581</v>
       </c>
       <c r="AS51">
-        <v>0.3565943557863229</v>
+        <v>0.7045229599935282</v>
       </c>
       <c r="AT51">
-        <v>0.3670089407697129</v>
+        <v>0.708447289679846</v>
       </c>
       <c r="AU51">
-        <v>0.3695160525882843</v>
+        <v>0.6799937728520026</v>
       </c>
       <c r="AV51">
-        <v>0.3821973795583064</v>
+        <v>0.6416102328327332</v>
       </c>
       <c r="AW51">
-        <v>0.4020253317792588</v>
+        <v>0.6865265928399077</v>
       </c>
       <c r="AX51">
-        <v>0.3542646172004637</v>
+        <v>0.6725461099272431</v>
       </c>
       <c r="AY51">
-        <v>0.4047808753802802</v>
+        <v>0.668199494479958</v>
       </c>
     </row>
     <row r="52" spans="1:64">
       <c r="A52" s="1">
-        <v>39448</v>
+        <v>35521</v>
       </c>
       <c r="AQ52">
-        <v>0.3742367952283919</v>
+        <v>0.7172872263060875</v>
       </c>
       <c r="AR52">
-        <v>0.3732854681962493</v>
+        <v>0.7063908179709381</v>
       </c>
       <c r="AS52">
-        <v>0.35659607796522</v>
+        <v>0.704522940486878</v>
       </c>
       <c r="AT52">
-        <v>0.3667539733757659</v>
+        <v>0.7084558344945237</v>
       </c>
       <c r="AU52">
-        <v>0.3692494313041046</v>
+        <v>0.6800121267685972</v>
       </c>
       <c r="AV52">
-        <v>0.3784471070875064</v>
+        <v>0.6448303239764736</v>
       </c>
       <c r="AW52">
-        <v>0.3953760936300033</v>
+        <v>0.7047508021626102</v>
       </c>
       <c r="AX52">
-        <v>0.3656693702654248</v>
+        <v>0.6690793368236454</v>
       </c>
       <c r="AY52">
-        <v>0.4199859408521097</v>
+        <v>0.6331491000757054</v>
       </c>
       <c r="AZ52">
-        <v>0.4211726084300813</v>
+        <v>0.6314323172727978</v>
       </c>
     </row>
     <row r="53" spans="1:64">
       <c r="A53" s="1">
-        <v>39539</v>
+        <v>35612</v>
       </c>
       <c r="AR53">
-        <v>0.3732854673655416</v>
+        <v>0.7063908152506236</v>
       </c>
       <c r="AS53">
-        <v>0.3565962600781811</v>
+        <v>0.7045229351622124</v>
       </c>
       <c r="AT53">
-        <v>0.3667202252631855</v>
+        <v>0.7084545915508338</v>
       </c>
       <c r="AU53">
-        <v>0.3691667249586743</v>
+        <v>0.6800121156349084</v>
       </c>
       <c r="AV53">
-        <v>0.3777240229818744</v>
+        <v>0.6440475231688841</v>
       </c>
       <c r="AW53">
-        <v>0.3937143003006734</v>
+        <v>0.6991457600281159</v>
       </c>
       <c r="AX53">
-        <v>0.3645472832367278</v>
+        <v>0.6685631529703092</v>
       </c>
       <c r="AY53">
-        <v>0.3893550854202221</v>
+        <v>0.639123700870082</v>
       </c>
       <c r="AZ53">
-        <v>0.3790830547008037</v>
+        <v>0.6457242482557826</v>
       </c>
       <c r="BA53">
-        <v>0.4784740695367412</v>
+        <v>0.6097289993300754</v>
       </c>
     </row>
     <row r="54" spans="1:64">
       <c r="A54" s="1">
-        <v>39630</v>
+        <v>35704</v>
       </c>
       <c r="AS54">
-        <v>0.3565963497300319</v>
+        <v>0.7045229362542107</v>
       </c>
       <c r="AT54">
-        <v>0.366698758196712</v>
+        <v>0.7084547723515915</v>
       </c>
       <c r="AU54">
-        <v>0.3691455239753361</v>
+        <v>0.6800119005820338</v>
       </c>
       <c r="AV54">
-        <v>0.377342557462992</v>
+        <v>0.6442491950589521</v>
       </c>
       <c r="AW54">
-        <v>0.3928558658149534</v>
+        <v>0.7006993250913176</v>
       </c>
       <c r="AX54">
-        <v>0.3657759509593207</v>
+        <v>0.6684613257642037</v>
       </c>
       <c r="AY54">
-        <v>0.3873625286719147</v>
+        <v>0.6385689427723894</v>
       </c>
       <c r="AZ54">
-        <v>0.3973645397301763</v>
+        <v>0.6567774807125504</v>
       </c>
       <c r="BA54">
-        <v>0.6218563394626684</v>
+        <v>0.6792800134461064</v>
       </c>
       <c r="BB54">
-        <v>0.5000851131933345</v>
+        <v>0.6643825380110275</v>
       </c>
     </row>
     <row r="55" spans="1:64">
       <c r="A55" s="1">
-        <v>39722</v>
+        <v>35796</v>
       </c>
       <c r="AT55">
-        <v>0.3666951741259316</v>
+        <v>0.7084547460519979</v>
       </c>
       <c r="AU55">
-        <v>0.3691392279607369</v>
+        <v>0.6800119300531833</v>
       </c>
       <c r="AV55">
-        <v>0.3772507005025179</v>
+        <v>0.6441987023861115</v>
       </c>
       <c r="AW55">
-        <v>0.3925996277032656</v>
+        <v>0.7002406265845058</v>
       </c>
       <c r="AX55">
-        <v>0.365781762555634</v>
+        <v>0.6684469300428972</v>
       </c>
       <c r="AY55">
-        <v>0.3835455452147749</v>
+        <v>0.6386396805872977</v>
       </c>
       <c r="AZ55">
-        <v>0.3931242762377601</v>
+        <v>0.6571977291394175</v>
       </c>
       <c r="BA55">
-        <v>0.4636469815305221</v>
+        <v>0.6463369397048778</v>
       </c>
       <c r="BB55">
-        <v>0.2249235671218112</v>
+        <v>0.6486347667432999</v>
       </c>
       <c r="BC55">
-        <v>0.1515254269567554</v>
+        <v>0.6494056181566756</v>
       </c>
     </row>
     <row r="56" spans="1:64">
       <c r="A56" s="1">
-        <v>39814</v>
+        <v>35886</v>
       </c>
       <c r="AU56">
-        <v>0.3691375597880225</v>
+        <v>0.6800119285699918</v>
       </c>
       <c r="AV56">
-        <v>0.3772105144182233</v>
+        <v>0.6442115220164177</v>
       </c>
       <c r="AW56">
-        <v>0.3924848779960414</v>
+        <v>0.7003709183118367</v>
       </c>
       <c r="AX56">
-        <v>0.3659284850898262</v>
+        <v>0.6684439156544569</v>
       </c>
       <c r="AY56">
-        <v>0.382843930320011</v>
+        <v>0.6386321244150749</v>
       </c>
       <c r="AZ56">
-        <v>0.3953544595253914</v>
+        <v>0.6578534721957741</v>
       </c>
       <c r="BA56">
-        <v>0.4778567225039601</v>
+        <v>0.6528862381647321</v>
       </c>
       <c r="BB56">
-        <v>0.3995873534158361</v>
+        <v>0.6384138465044882</v>
       </c>
       <c r="BC56">
-        <v>0.2090845912122806</v>
+        <v>0.5913420395728533</v>
       </c>
       <c r="BD56">
-        <v>-0.4825659399700503</v>
+        <v>0.6079450418608099</v>
       </c>
     </row>
     <row r="57" spans="1:64">
       <c r="A57" s="1">
-        <v>39904</v>
+        <v>35977</v>
       </c>
       <c r="AV57">
-        <v>0.3771994711238108</v>
+        <v>0.6442082894415815</v>
       </c>
       <c r="AW57">
-        <v>0.3924470252652983</v>
+        <v>0.7003330260323886</v>
       </c>
       <c r="AX57">
-        <v>0.3659457993154826</v>
+        <v>0.66844351952918</v>
       </c>
       <c r="AY57">
-        <v>0.3823125569720915</v>
+        <v>0.6386330127000691</v>
       </c>
       <c r="AZ57">
-        <v>0.3949680554142632</v>
+        <v>0.6578523725264895</v>
       </c>
       <c r="BA57">
-        <v>0.4536132983556092</v>
+        <v>0.6501451218481281</v>
       </c>
       <c r="BB57">
-        <v>0.3579888420376898</v>
+        <v>0.6374228409239431</v>
       </c>
       <c r="BC57">
-        <v>0.3138893366100468</v>
+        <v>0.6323008444501399</v>
       </c>
       <c r="BD57">
-        <v>-0.5466991058874535</v>
+        <v>0.7035669213203807</v>
       </c>
       <c r="BE57">
-        <v>-3.209643609385049</v>
+        <v>0.7713486720401505</v>
       </c>
     </row>
     <row r="58" spans="1:64">
       <c r="A58" s="1">
-        <v>39995</v>
+        <v>36069</v>
       </c>
       <c r="AW58">
-        <v>0.3924313474975846</v>
+        <v>0.7003438883485834</v>
       </c>
       <c r="AX58">
-        <v>0.365965203363162</v>
+        <v>0.6684434293733015</v>
       </c>
       <c r="AY58">
-        <v>0.3821654120223259</v>
+        <v>0.6386329136446841</v>
       </c>
       <c r="AZ58">
-        <v>0.3952538568255051</v>
+        <v>0.6578923342616032</v>
       </c>
       <c r="BA58">
-        <v>0.4545641519681511</v>
+        <v>0.6507474473349412</v>
       </c>
       <c r="BB58">
-        <v>0.3890735056567673</v>
+        <v>0.6365192610847639</v>
       </c>
       <c r="BC58">
-        <v>0.3335052003695131</v>
+        <v>0.6247130012537965</v>
       </c>
       <c r="BD58">
-        <v>-0.1205449073973593</v>
+        <v>0.6562510330776472</v>
       </c>
       <c r="BE58">
-        <v>-3.466827857782311</v>
+        <v>0.5617264189641697</v>
       </c>
       <c r="BF58">
-        <v>-0.2737740256709182</v>
+        <v>0.5344529819784065</v>
       </c>
     </row>
     <row r="59" spans="1:64">
       <c r="A59" s="1">
-        <v>40087</v>
+        <v>36161</v>
       </c>
       <c r="AX59">
-        <v>0.3659694601155838</v>
+        <v>0.6684434186942714</v>
       </c>
       <c r="AY59">
-        <v>0.382085356114337</v>
+        <v>0.6386329250134963</v>
       </c>
       <c r="AZ59">
-        <v>0.3952273127371981</v>
+        <v>0.6578906413254042</v>
       </c>
       <c r="BA59">
-        <v>0.4507836700716622</v>
+        <v>0.650517078041326</v>
       </c>
       <c r="BB59">
-        <v>0.3831007814190415</v>
+        <v>0.6364689120332204</v>
       </c>
       <c r="BC59">
-        <v>0.3508994068095047</v>
+        <v>0.6292979838960776</v>
       </c>
       <c r="BD59">
-        <v>-0.04351394233767707</v>
+        <v>0.6702439403263071</v>
       </c>
       <c r="BE59">
-        <v>-3.39129626163989</v>
+        <v>0.6611292138420526</v>
       </c>
       <c r="BF59">
-        <v>0.05676407710631004</v>
+        <v>0.6736197874637944</v>
       </c>
       <c r="BG59">
-        <v>0.4395909147248004</v>
+        <v>0.706556866727216</v>
       </c>
     </row>
     <row r="60" spans="1:64">
       <c r="A60" s="1">
-        <v>40179</v>
+        <v>36251</v>
       </c>
       <c r="AY60">
-        <v>0.382058354862865</v>
+        <v>0.6386329237291362</v>
       </c>
       <c r="AZ60">
-        <v>0.3952663503572373</v>
+        <v>0.6578931427962682</v>
       </c>
       <c r="BA60">
-        <v>0.4507320341985567</v>
+        <v>0.6505716065119037</v>
       </c>
       <c r="BB60">
-        <v>0.3887295027816938</v>
+        <v>0.6363873117633522</v>
       </c>
       <c r="BC60">
-        <v>0.3556235665879031</v>
+        <v>0.6283340466802885</v>
       </c>
       <c r="BD60">
-        <v>0.08900847592536579</v>
+        <v>0.6637067656352468</v>
       </c>
       <c r="BE60">
-        <v>-3.445810778186758</v>
+        <v>0.6286461674823567</v>
       </c>
       <c r="BF60">
-        <v>0.08768974614021571</v>
+        <v>0.6173719687346187</v>
       </c>
       <c r="BG60">
-        <v>0.3313095025176546</v>
+        <v>0.4329565523398041</v>
       </c>
       <c r="BH60">
-        <v>0.139783162521545</v>
+        <v>0.5822668803191475</v>
       </c>
     </row>
     <row r="61" spans="1:64">
       <c r="A61" s="1">
-        <v>40269</v>
+        <v>36342</v>
       </c>
       <c r="AZ61">
-        <v>0.3952665639016532</v>
+        <v>0.6578929379603931</v>
       </c>
       <c r="BA61">
-        <v>0.4501318352088922</v>
+        <v>0.6505520899866164</v>
       </c>
       <c r="BB61">
-        <v>0.3879506706443841</v>
+        <v>0.6363864007343586</v>
       </c>
       <c r="BC61">
-        <v>0.3586676031596497</v>
+        <v>0.6288514224943884</v>
       </c>
       <c r="BD61">
-        <v>0.1392362895241575</v>
+        <v>0.6657385439752845</v>
       </c>
       <c r="BE61">
-        <v>-3.449051755073842</v>
+        <v>0.6434406502045062</v>
       </c>
       <c r="BF61">
-        <v>0.1438327320323548</v>
+        <v>0.6406762614394624</v>
       </c>
       <c r="BG61">
-        <v>0.2862907290847205</v>
+        <v>0.6316249271871002</v>
       </c>
       <c r="BH61">
-        <v>0.192817872118554</v>
+        <v>0.6265613028771653</v>
       </c>
       <c r="BI61">
-        <v>0.1920931682409845</v>
+        <v>0.5327950344365733</v>
       </c>
     </row>
     <row r="62" spans="1:64">
       <c r="A62" s="1">
-        <v>40360</v>
+        <v>36434</v>
       </c>
       <c r="BA62">
-        <v>0.450091620517234</v>
+        <v>0.6505569730686774</v>
       </c>
       <c r="BB62">
-        <v>0.38899034965936</v>
+        <v>0.6363788638238724</v>
       </c>
       <c r="BC62">
-        <v>0.3596827984400131</v>
+        <v>0.6287313117128955</v>
       </c>
       <c r="BD62">
-        <v>0.1862675266127139</v>
+        <v>0.6648313208107254</v>
       </c>
       <c r="BE62">
-        <v>-3.472069617300918</v>
+        <v>0.6384323869663219</v>
       </c>
       <c r="BF62">
-        <v>0.1672133807603342</v>
+        <v>0.6312296709549692</v>
       </c>
       <c r="BG62">
-        <v>0.2677024867117838</v>
+        <v>0.5741377167402226</v>
       </c>
       <c r="BH62">
-        <v>0.2127543416366048</v>
+        <v>0.6373805528543428</v>
       </c>
       <c r="BI62">
-        <v>0.2038123374423979</v>
+        <v>0.5396866464300986</v>
       </c>
       <c r="BJ62">
-        <v>1.098226212979322</v>
+        <v>0.5450131919859653</v>
       </c>
     </row>
     <row r="63" spans="1:64">
       <c r="A63" s="1">
-        <v>40452</v>
+        <v>36526</v>
       </c>
       <c r="BB63">
-        <v>0.3889094412579501</v>
+        <v>0.6363791269894246</v>
       </c>
       <c r="BC63">
-        <v>0.3602356812399136</v>
+        <v>0.6287901016336114</v>
       </c>
       <c r="BD63">
-        <v>0.210294604928041</v>
+        <v>0.6651246123738108</v>
       </c>
       <c r="BE63">
-        <v>-3.487028714824694</v>
+        <v>0.640641522260588</v>
       </c>
       <c r="BF63">
-        <v>0.1829207349322445</v>
+        <v>0.6351334429669926</v>
       </c>
       <c r="BG63">
-        <v>0.2600239868695283</v>
+        <v>0.6110371101832792</v>
       </c>
       <c r="BH63">
-        <v>0.2202328371589358</v>
+        <v>0.6407820593296815</v>
       </c>
       <c r="BI63">
-        <v>0.2081776456234988</v>
+        <v>0.5745240053796804</v>
       </c>
       <c r="BJ63">
-        <v>0.7032707759508258</v>
+        <v>0.5949619883098396</v>
       </c>
       <c r="BK63">
-        <v>0.5278817260644753</v>
+        <v>0.5953599605391648</v>
       </c>
     </row>
     <row r="64" spans="1:64">
       <c r="A64" s="1">
-        <v>40544</v>
+        <v>36617</v>
       </c>
       <c r="BC64">
-        <v>0.3604430041540626</v>
+        <v>0.6287753398511985</v>
       </c>
       <c r="BD64">
-        <v>0.2283594946727404</v>
+        <v>0.6649982437798114</v>
       </c>
       <c r="BE64">
-        <v>-3.504839821015048</v>
+        <v>0.6398723316039931</v>
       </c>
       <c r="BF64">
-        <v>0.1914945900386928</v>
+        <v>0.633547414456047</v>
       </c>
       <c r="BG64">
-        <v>0.2568522152508877</v>
+        <v>0.5992286216707894</v>
       </c>
       <c r="BH64">
-        <v>0.2230379776145164</v>
+        <v>0.6415929270967536</v>
       </c>
       <c r="BI64">
-        <v>0.2098029729206569</v>
+        <v>0.5775403884187899</v>
       </c>
       <c r="BJ64">
-        <v>0.50866913672003</v>
+        <v>0.5808704786402678</v>
       </c>
       <c r="BK64">
-        <v>0.4103097124520395</v>
+        <v>0.5795217284700636</v>
       </c>
       <c r="BL64">
-        <v>0.3432667925405501</v>
+        <v>0.6226192974295949</v>
       </c>
     </row>
     <row r="65" spans="1:80">
       <c r="A65" s="1">
-        <v>40634</v>
+        <v>36708</v>
       </c>
       <c r="BD65">
-        <v>0.2388710728550849</v>
+        <v>0.665040392516271</v>
       </c>
       <c r="BE65">
-        <v>-3.521231669954501</v>
+        <v>0.6402030903408551</v>
       </c>
       <c r="BF65">
-        <v>0.1965810469860438</v>
+        <v>0.6342015211138456</v>
       </c>
       <c r="BG65">
-        <v>0.2555420434475195</v>
+        <v>0.6061452218096683</v>
       </c>
       <c r="BH65">
-        <v>0.2240901678643472</v>
+        <v>0.6418546652315493</v>
       </c>
       <c r="BI65">
-        <v>0.2104081229119797</v>
+        <v>0.5801989079948108</v>
       </c>
       <c r="BJ65">
-        <v>0.4169069628967763</v>
+        <v>0.5849450364381467</v>
       </c>
       <c r="BK65">
-        <v>0.3580795182285995</v>
+        <v>0.5733238563883514</v>
       </c>
       <c r="BL65">
-        <v>0.332021142675702</v>
+        <v>0.6152940983440472</v>
       </c>
       <c r="BM65">
-        <v>0.8158350159267664</v>
+        <v>0.6988412923093029</v>
       </c>
     </row>
     <row r="66" spans="1:80">
       <c r="A66" s="1">
-        <v>40725</v>
+        <v>36800</v>
       </c>
       <c r="BE66">
-        <v>-3.537881715852962</v>
+        <v>0.6400853091970573</v>
       </c>
       <c r="BF66">
-        <v>0.1994958465033025</v>
+        <v>0.6339352995266524</v>
       </c>
       <c r="BG66">
-        <v>0.255000847499894</v>
+        <v>0.6037566367385943</v>
       </c>
       <c r="BH66">
-        <v>0.2244848376817364</v>
+        <v>0.6419152579712075</v>
       </c>
       <c r="BI66">
-        <v>0.2106334353471853</v>
+        <v>0.5806034644093303</v>
       </c>
       <c r="BJ66">
-        <v>0.3733896797314432</v>
+        <v>0.5838001976060481</v>
       </c>
       <c r="BK66">
-        <v>0.3335781136017746</v>
+        <v>0.5720569175146333</v>
       </c>
       <c r="BL66">
-        <v>0.3272233437768858</v>
+        <v>0.6122132958789177</v>
       </c>
       <c r="BM66">
-        <v>0.5427295426160457</v>
+        <v>0.6287981404954279</v>
       </c>
       <c r="BN66">
-        <v>0.1813941834545033</v>
+        <v>0.6043994585460104</v>
       </c>
     </row>
     <row r="67" spans="1:80">
       <c r="A67" s="1">
-        <v>40817</v>
+        <v>36892</v>
       </c>
       <c r="BF67">
-        <v>0.2011900774154455</v>
+        <v>0.6340449228061379</v>
       </c>
       <c r="BG67">
-        <v>0.2547772943328466</v>
+        <v>0.6050628942335293</v>
       </c>
       <c r="BH67">
-        <v>0.2246328757999241</v>
+        <v>0.6419354455507769</v>
       </c>
       <c r="BI67">
-        <v>0.210717324786206</v>
+        <v>0.5808190248139028</v>
       </c>
       <c r="BJ67">
-        <v>0.352767626040856</v>
+        <v>0.5841327987076865</v>
       </c>
       <c r="BK67">
-        <v>0.3221748105733957</v>
+        <v>0.5716393690920979</v>
       </c>
       <c r="BL67">
-        <v>0.3251618932148297</v>
+        <v>0.6114083883416332</v>
       </c>
       <c r="BM67">
-        <v>0.4232001440849967</v>
+        <v>0.6012937984109253</v>
       </c>
       <c r="BN67">
-        <v>0.2727431408410882</v>
+        <v>0.5841164940103007</v>
       </c>
       <c r="BO67">
-        <v>0.4070688708672613</v>
+        <v>0.4918650461327669</v>
       </c>
     </row>
     <row r="68" spans="1:80">
       <c r="A68" s="1">
-        <v>40909</v>
+        <v>36982</v>
       </c>
       <c r="BG68">
-        <v>0.2546849506656574</v>
+        <v>0.6045849192688668</v>
       </c>
       <c r="BH68">
-        <v>0.2246884039489495</v>
+        <v>0.6419399568332909</v>
       </c>
       <c r="BI68">
-        <v>0.2107485589165919</v>
+        <v>0.5808630283114399</v>
       </c>
       <c r="BJ68">
-        <v>0.3429942342478867</v>
+        <v>0.5840398624645232</v>
       </c>
       <c r="BK68">
-        <v>0.3168615903221158</v>
+        <v>0.5715433071014301</v>
       </c>
       <c r="BL68">
-        <v>0.3242763986529787</v>
+        <v>0.611128552558733</v>
       </c>
       <c r="BM68">
-        <v>0.3711231944667716</v>
+        <v>0.5939688895000458</v>
       </c>
       <c r="BN68">
-        <v>0.3124245642493126</v>
+        <v>0.5824831380691148</v>
       </c>
       <c r="BO68">
-        <v>0.3471822841278672</v>
+        <v>0.5393488126964473</v>
       </c>
       <c r="BP68">
-        <v>0.05146152368262816</v>
+        <v>0.5111730560616267</v>
       </c>
     </row>
     <row r="69" spans="1:80">
       <c r="A69" s="1">
-        <v>41000</v>
+        <v>37073</v>
       </c>
       <c r="BH69">
-        <v>0.224709232201645</v>
+        <v>0.6419415181486394</v>
       </c>
       <c r="BI69">
-        <v>0.2107601881623271</v>
+        <v>0.5808813212574904</v>
       </c>
       <c r="BJ69">
-        <v>0.3383624001294516</v>
+        <v>0.5840670365896935</v>
       </c>
       <c r="BK69">
-        <v>0.3143863607467929</v>
+        <v>0.5715144537998775</v>
       </c>
       <c r="BL69">
-        <v>0.3238960311710429</v>
+        <v>0.6110471255698444</v>
       </c>
       <c r="BM69">
-        <v>0.3484291940412945</v>
+        <v>0.5917291580595784</v>
       </c>
       <c r="BN69">
-        <v>0.3264042376806905</v>
+        <v>0.581247058160593</v>
       </c>
       <c r="BO69">
-        <v>0.3241036406112104</v>
+        <v>0.5524473747249024</v>
       </c>
       <c r="BP69">
-        <v>0.1962023518980315</v>
+        <v>0.5367486645638527</v>
       </c>
       <c r="BQ69">
-        <v>0.4060566115363017</v>
+        <v>0.455773509922641</v>
       </c>
     </row>
     <row r="70" spans="1:80">
       <c r="A70" s="1">
-        <v>41091</v>
+        <v>37165</v>
       </c>
       <c r="BI70">
-        <v>0.2107645180205527</v>
+        <v>0.5808857326703815</v>
       </c>
       <c r="BJ70">
-        <v>0.3361672640955282</v>
+        <v>0.5840595003781993</v>
       </c>
       <c r="BK70">
-        <v>0.3132332180494358</v>
+        <v>0.5715073596856236</v>
       </c>
       <c r="BL70">
-        <v>0.3237326429695742</v>
+        <v>0.6110207131465466</v>
       </c>
       <c r="BM70">
-        <v>0.3385397466524668</v>
+        <v>0.5910797451728049</v>
       </c>
       <c r="BN70">
-        <v>0.3309495423832851</v>
+        <v>0.5809572163350931</v>
       </c>
       <c r="BO70">
-        <v>0.3165851888571213</v>
+        <v>0.5555186530387053</v>
       </c>
       <c r="BP70">
-        <v>0.2523328252666404</v>
+        <v>0.5429268296097166</v>
       </c>
       <c r="BQ70">
-        <v>0.3257825290890698</v>
+        <v>0.4990924970080751</v>
       </c>
       <c r="BR70">
-        <v>0.2569629294986893</v>
+        <v>0.3930773188618389</v>
       </c>
     </row>
     <row r="71" spans="1:80">
       <c r="A71" s="1">
-        <v>41183</v>
+        <v>37257</v>
       </c>
       <c r="BJ71">
-        <v>0.3351269373087902</v>
+        <v>0.5840617232352838</v>
       </c>
       <c r="BK71">
-        <v>0.3126960017145067</v>
+        <v>0.5715053350732848</v>
       </c>
       <c r="BL71">
-        <v>0.3236624589868408</v>
+        <v>0.6110127025310913</v>
       </c>
       <c r="BM71">
-        <v>0.3342301838978883</v>
+        <v>0.5908876640701434</v>
       </c>
       <c r="BN71">
-        <v>0.3323728182919696</v>
+        <v>0.5808491003310676</v>
       </c>
       <c r="BO71">
-        <v>0.3143501320039255</v>
+        <v>0.5562730560563957</v>
       </c>
       <c r="BP71">
-        <v>0.2715048070957226</v>
+        <v>0.5443045186424615</v>
       </c>
       <c r="BQ71">
-        <v>0.2946425695029543</v>
+        <v>0.5297975912696237</v>
       </c>
       <c r="BR71">
-        <v>0.2626724473080196</v>
+        <v>0.4661792532129501</v>
       </c>
       <c r="BS71">
-        <v>0.2658412787400625</v>
+        <v>0.3488092416346601</v>
       </c>
     </row>
     <row r="72" spans="1:80">
       <c r="A72" s="1">
-        <v>41275</v>
+        <v>37347</v>
       </c>
       <c r="BK72">
-        <v>0.3124457278110455</v>
+        <v>0.5715048183488175</v>
       </c>
       <c r="BL72">
-        <v>0.3236323112075936</v>
+        <v>0.6110101707091586</v>
       </c>
       <c r="BM72">
-        <v>0.3323521891065759</v>
+        <v>0.5908312769785984</v>
       </c>
       <c r="BN72">
-        <v>0.3328099924689074</v>
+        <v>0.5808168309177457</v>
       </c>
       <c r="BO72">
-        <v>0.3137251889220329</v>
+        <v>0.5564558125528843</v>
       </c>
       <c r="BP72">
-        <v>0.2777330556071276</v>
+        <v>0.5446182618086666</v>
       </c>
       <c r="BQ72">
-        <v>0.28448687342501</v>
+        <v>0.5361399284046757</v>
       </c>
       <c r="BR72">
-        <v>0.2660065748956793</v>
+        <v>0.502079921811539</v>
       </c>
       <c r="BS72">
-        <v>0.2823630897464367</v>
+        <v>0.4133078532474691</v>
       </c>
       <c r="BT72">
-        <v>-0.1326969567037847</v>
+        <v>0.3733471478793139</v>
       </c>
     </row>
     <row r="73" spans="1:80">
       <c r="A73" s="1">
-        <v>41365</v>
+        <v>37438</v>
       </c>
       <c r="BL73">
-        <v>0.3236193611218596</v>
+        <v>0.6110093906027442</v>
       </c>
       <c r="BM73">
-        <v>0.3315338080686009</v>
+        <v>0.5908146770286595</v>
       </c>
       <c r="BN73">
-        <v>0.332942901109597</v>
+        <v>0.5808061824761467</v>
       </c>
       <c r="BO73">
-        <v>0.313558423135754</v>
+        <v>0.5565002668485252</v>
       </c>
       <c r="BP73">
-        <v>0.2797115386007235</v>
+        <v>0.5446893086840846</v>
       </c>
       <c r="BQ73">
-        <v>0.2814140383200912</v>
+        <v>0.5385641127621728</v>
       </c>
       <c r="BR73">
-        <v>0.2672310309305355</v>
+        <v>0.5107902432803894</v>
       </c>
       <c r="BS73">
-        <v>0.2886970031025137</v>
+        <v>0.4604518569190361</v>
       </c>
       <c r="BT73">
-        <v>0.1146210169670681</v>
+        <v>0.4155614698512454</v>
       </c>
       <c r="BU73">
-        <v>0.1668148420067005</v>
+        <v>0.4245874130453108</v>
       </c>
     </row>
     <row r="74" spans="1:80">
       <c r="A74" s="1">
-        <v>41456</v>
+        <v>37530</v>
       </c>
       <c r="BM74">
-        <v>0.3311771790053162</v>
+        <v>0.5908097953542742</v>
       </c>
       <c r="BN74">
-        <v>0.3329830811889126</v>
+        <v>0.5808028290175929</v>
       </c>
       <c r="BO74">
-        <v>0.3135156339028616</v>
+        <v>0.5565110670311032</v>
       </c>
       <c r="BP74">
-        <v>0.280333426561937</v>
+        <v>0.5447054214689311</v>
       </c>
       <c r="BQ74">
-        <v>0.2805196674528365</v>
+        <v>0.5392144861046608</v>
       </c>
       <c r="BR74">
-        <v>0.2676156305162167</v>
+        <v>0.5137598494174396</v>
       </c>
       <c r="BS74">
-        <v>0.2909361803960807</v>
+        <v>0.470180360559788</v>
       </c>
       <c r="BT74">
-        <v>0.2114489426777554</v>
+        <v>0.4307344668701582</v>
       </c>
       <c r="BU74">
-        <v>0.1990910114627568</v>
+        <v>0.4382444616975363</v>
       </c>
       <c r="BV74">
-        <v>0.4835892644960723</v>
+        <v>0.4046536078879283</v>
       </c>
     </row>
     <row r="75" spans="1:80">
       <c r="A75" s="1">
-        <v>41548</v>
+        <v>37622</v>
       </c>
       <c r="BN75">
-        <v>0.3329951904513869</v>
+        <v>0.5808017500553143</v>
       </c>
       <c r="BO75">
-        <v>0.3135050401137331</v>
+        <v>0.5565136918722904</v>
       </c>
       <c r="BP75">
-        <v>0.2805279076335725</v>
+        <v>0.5447090742283451</v>
       </c>
       <c r="BQ75">
-        <v>0.2802649951984016</v>
+        <v>0.5394259756768716</v>
       </c>
       <c r="BR75">
-        <v>0.2677271114598496</v>
+        <v>0.5146059038084063</v>
       </c>
       <c r="BS75">
-        <v>0.2917061406327234</v>
+        <v>0.4744115785730748</v>
       </c>
       <c r="BT75">
-        <v>0.2466648434584587</v>
+        <v>0.4344709001337502</v>
       </c>
       <c r="BU75">
-        <v>0.2118333940613151</v>
+        <v>0.4409243710994529</v>
       </c>
       <c r="BV75">
-        <v>0.3654362428807465</v>
+        <v>0.410018554508535</v>
       </c>
       <c r="BW75">
-        <v>0.3071481657186778</v>
+        <v>0.3598922120924801</v>
       </c>
     </row>
     <row r="76" spans="1:80">
       <c r="A76" s="1">
-        <v>41640</v>
+        <v>37712</v>
       </c>
       <c r="BO76">
-        <v>0.3135025074225217</v>
+        <v>0.556514329738091</v>
       </c>
       <c r="BP76">
-        <v>0.2805885757735316</v>
+        <v>0.544709902396182</v>
       </c>
       <c r="BQ76">
-        <v>0.2801934120429552</v>
+        <v>0.5394876853395751</v>
       </c>
       <c r="BR76">
-        <v>0.2677578646751505</v>
+        <v>0.5148699529690937</v>
       </c>
       <c r="BS76">
-        <v>0.2919682121170042</v>
+        <v>0.4755436472717282</v>
       </c>
       <c r="BT76">
-        <v>0.2591973743149182</v>
+        <v>0.4356564948102635</v>
       </c>
       <c r="BU76">
-        <v>0.2170388845683362</v>
+        <v>0.4412963367646489</v>
       </c>
       <c r="BV76">
-        <v>0.3127820773446567</v>
+        <v>0.4012714102465568</v>
       </c>
       <c r="BW76">
-        <v>0.295306589255621</v>
+        <v>0.3918008950949331</v>
       </c>
       <c r="BX76">
-        <v>0.3280696062556266</v>
+        <v>0.432116081367058</v>
       </c>
     </row>
     <row r="77" spans="1:80">
       <c r="A77" s="1">
-        <v>41730</v>
+        <v>37803</v>
       </c>
       <c r="BP77">
-        <v>0.2806074779818091</v>
+        <v>0.544710090156205</v>
       </c>
       <c r="BQ77">
-        <v>0.2801734498338682</v>
+        <v>0.539506803561739</v>
       </c>
       <c r="BR77">
-        <v>0.2677660650344709</v>
+        <v>0.5149485550078881</v>
       </c>
       <c r="BS77">
-        <v>0.2920570706572605</v>
+        <v>0.4759535526625501</v>
       </c>
       <c r="BT77">
-        <v>0.2636271138618202</v>
+        <v>0.4359727857680928</v>
       </c>
       <c r="BU77">
-        <v>0.2191744333381033</v>
+        <v>0.4413554122745683</v>
       </c>
       <c r="BV77">
-        <v>0.2894402353552771</v>
+        <v>0.4000585688591006</v>
       </c>
       <c r="BW77">
-        <v>0.2897649239239772</v>
+        <v>0.3692375159139534</v>
       </c>
       <c r="BX77">
-        <v>0.3035456409481426</v>
+        <v>0.4180505155572309</v>
       </c>
       <c r="BY77">
-        <v>0.5498874657267171</v>
+        <v>0.4408791614499421</v>
       </c>
     </row>
     <row r="78" spans="1:80">
       <c r="A78" s="1">
-        <v>41821</v>
+        <v>37895</v>
       </c>
       <c r="BQ78">
-        <v>0.2801679101979176</v>
+        <v>0.5395125313730755</v>
       </c>
       <c r="BR78">
-        <v>0.2677681976573427</v>
+        <v>0.5149725281575412</v>
       </c>
       <c r="BS78">
-        <v>0.2920871550394841</v>
+        <v>0.4760756848267011</v>
       </c>
       <c r="BT78">
-        <v>0.2651894387330129</v>
+        <v>0.4360676563959109</v>
       </c>
       <c r="BU78">
-        <v>0.2200509895714168</v>
+        <v>0.4413642851505443</v>
       </c>
       <c r="BV78">
-        <v>0.279095485396099</v>
+        <v>0.4005338321518833</v>
       </c>
       <c r="BW78">
-        <v>0.2871123118665653</v>
+        <v>0.3666551790869302</v>
       </c>
       <c r="BX78">
-        <v>0.2916826585945739</v>
+        <v>0.2926795090484308</v>
       </c>
       <c r="BY78">
-        <v>0.42801824344899</v>
+        <v>0.3885244097753858</v>
       </c>
       <c r="BZ78">
-        <v>0.06165050875077527</v>
+        <v>0.3891497497483102</v>
       </c>
     </row>
     <row r="79" spans="1:80">
       <c r="A79" s="1">
-        <v>41913</v>
+        <v>37987</v>
       </c>
       <c r="BR79">
-        <v>0.2677687416237422</v>
+        <v>0.514979748778353</v>
       </c>
       <c r="BS79">
-        <v>0.2920973348356787</v>
+        <v>0.4761168460203365</v>
       </c>
       <c r="BT79">
-        <v>0.2657400692274273</v>
+        <v>0.4360939273589653</v>
       </c>
       <c r="BU79">
-        <v>0.2204108026459904</v>
+        <v>0.4413656482766732</v>
       </c>
       <c r="BV79">
-        <v>0.2745109132571007</v>
+        <v>0.400662191393185</v>
       </c>
       <c r="BW79">
-        <v>0.2858441738424585</v>
+        <v>0.3679317332186131</v>
       </c>
       <c r="BX79">
-        <v>0.2859751866436055</v>
+        <v>0.30516592574181</v>
       </c>
       <c r="BY79">
-        <v>0.3712887134776663</v>
+        <v>0.2959440651902467</v>
       </c>
       <c r="BZ79">
-        <v>0.1761410388877556</v>
+        <v>0.3365238224108569</v>
       </c>
       <c r="CA79">
-        <v>0.1736804633958236</v>
+        <v>0.3111216883095244</v>
       </c>
     </row>
     <row r="80" spans="1:80">
       <c r="A80" s="1">
-        <v>42005</v>
+        <v>38078</v>
       </c>
       <c r="BS80">
-        <v>0.2921007786806501</v>
+        <v>0.4761296657005377</v>
       </c>
       <c r="BT80">
-        <v>0.2659340913116399</v>
+        <v>0.4361016069815533</v>
       </c>
       <c r="BU80">
-        <v>0.220558501573788</v>
+        <v>0.4413658557659655</v>
       </c>
       <c r="BV80">
-        <v>0.272479130308843</v>
+        <v>0.4006424321096362</v>
       </c>
       <c r="BW80">
-        <v>0.2852378720806832</v>
+        <v>0.3681244317692473</v>
       </c>
       <c r="BX80">
-        <v>0.2832284063309656</v>
+        <v>0.3282467911798449</v>
       </c>
       <c r="BY80">
-        <v>0.3448896093780345</v>
+        <v>0.3092485674710722</v>
       </c>
       <c r="BZ80">
-        <v>0.2251854654960641</v>
+        <v>0.3190245189122564</v>
       </c>
       <c r="CA80">
-        <v>0.2209297857152165</v>
+        <v>0.3105017490744861</v>
       </c>
       <c r="CB80">
-        <v>0.4858860318682643</v>
+        <v>0.2559175718893015</v>
       </c>
     </row>
     <row r="81" spans="1:96">
       <c r="A81" s="1">
-        <v>42095</v>
+        <v>38169</v>
       </c>
       <c r="BT81">
-        <v>0.2660024526381063</v>
+        <v>0.4361037706776424</v>
       </c>
       <c r="BU81">
-        <v>0.2206191302571006</v>
+        <v>0.4413658874681254</v>
       </c>
       <c r="BV81">
-        <v>0.2715786882020466</v>
+        <v>0.4006318120354907</v>
       </c>
       <c r="BW81">
-        <v>0.2849479979074478</v>
+        <v>0.3680535902401393</v>
       </c>
       <c r="BX81">
-        <v>0.28190651169346</v>
+        <v>0.324049052194104</v>
       </c>
       <c r="BY81">
-        <v>0.3326047282185538</v>
+        <v>0.3261443447108516</v>
       </c>
       <c r="BZ81">
-        <v>0.2459032091363454</v>
+        <v>0.3260005363119898</v>
       </c>
       <c r="CA81">
-        <v>0.2412251075864097</v>
+        <v>0.3025766305114897</v>
       </c>
       <c r="CB81">
-        <v>0.3762908587986014</v>
+        <v>0.2688616352615983</v>
       </c>
       <c r="CC81">
-        <v>0.3086271608792364</v>
+        <v>0.3265058905256286</v>
       </c>
     </row>
     <row r="82" spans="1:96">
       <c r="A82" s="1">
-        <v>42186</v>
+        <v>38261</v>
       </c>
       <c r="BU82">
-        <v>0.220644017625583</v>
+        <v>0.4413658923044543</v>
       </c>
       <c r="BV82">
-        <v>0.2711796318034117</v>
+        <v>0.4006321206405437</v>
       </c>
       <c r="BW82">
-        <v>0.2848094084151322</v>
+        <v>0.3680399344947518</v>
       </c>
       <c r="BX82">
-        <v>0.2812703461300195</v>
+        <v>0.3199481047564459</v>
       </c>
       <c r="BY82">
-        <v>0.3268879320539327</v>
+        <v>0.32301176670558</v>
       </c>
       <c r="BZ82">
-        <v>0.2546446185365753</v>
+        <v>0.327734420102463</v>
       </c>
       <c r="CA82">
-        <v>0.2499297136152437</v>
+        <v>0.3025722781569847</v>
       </c>
       <c r="CB82">
-        <v>0.3298210409788371</v>
+        <v>0.2694803729675856</v>
       </c>
       <c r="CC82">
-        <v>0.3248074065376587</v>
+        <v>0.3166071184030521</v>
       </c>
       <c r="CD82">
-        <v>0.3828448375722439</v>
+        <v>0.3350407289565241</v>
       </c>
     </row>
     <row r="83" spans="1:96">
       <c r="A83" s="1">
-        <v>42278</v>
+        <v>38353</v>
       </c>
       <c r="BV83">
-        <v>0.2710027786686307</v>
+        <v>0.4006328705714784</v>
       </c>
       <c r="BW83">
-        <v>0.28474314846878</v>
+        <v>0.3680437779986308</v>
       </c>
       <c r="BX83">
-        <v>0.2809641896543761</v>
+        <v>0.3210737058024128</v>
       </c>
       <c r="BY83">
-        <v>0.3242276085240325</v>
+        <v>0.3199547032047489</v>
       </c>
       <c r="BZ83">
-        <v>0.2583324969956866</v>
+        <v>0.3268365092632566</v>
       </c>
       <c r="CA83">
-        <v>0.2536627374024515</v>
+        <v>0.3032254370785323</v>
       </c>
       <c r="CB83">
-        <v>0.3104585313861903</v>
+        <v>0.2693149501639345</v>
       </c>
       <c r="CC83">
-        <v>0.331828834122106</v>
+        <v>0.304905506102288</v>
       </c>
       <c r="CD83">
-        <v>0.3562807674577446</v>
+        <v>0.2805910775836477</v>
       </c>
       <c r="CE83">
-        <v>0.3194721332081325</v>
+        <v>0.2440301364330125</v>
       </c>
     </row>
     <row r="84" spans="1:96">
       <c r="A84" s="1">
-        <v>42370</v>
+        <v>38443</v>
       </c>
       <c r="BW84">
-        <v>0.2847114694401618</v>
+        <v>0.3680447108442119</v>
       </c>
       <c r="BX84">
-        <v>0.2808168509846473</v>
+        <v>0.3217727040823158</v>
       </c>
       <c r="BY84">
-        <v>0.3229896211828929</v>
+        <v>0.3206577730407406</v>
       </c>
       <c r="BZ84">
-        <v>0.2598883479500873</v>
+        <v>0.326674174583709</v>
       </c>
       <c r="CA84">
-        <v>0.2552636577575383</v>
+        <v>0.3032303656051888</v>
       </c>
       <c r="CB84">
-        <v>0.3024052923196403</v>
+        <v>0.2693225113769206</v>
       </c>
       <c r="CC84">
-        <v>0.334875446513568</v>
+        <v>0.3031454525714746</v>
       </c>
       <c r="CD84">
-        <v>0.3445210282629962</v>
+        <v>0.3212500926229151</v>
       </c>
       <c r="CE84">
-        <v>0.3206844565877573</v>
+        <v>0.2062181648172821</v>
       </c>
       <c r="CF84">
-        <v>0.2969069313126949</v>
+        <v>0.3879564616327092</v>
       </c>
     </row>
     <row r="85" spans="1:96">
       <c r="A85" s="1">
-        <v>42461</v>
+        <v>38534</v>
       </c>
       <c r="BX85">
-        <v>0.2807459438331706</v>
+        <v>0.3215021584306325</v>
       </c>
       <c r="BY85">
-        <v>0.322413521080933</v>
+        <v>0.3212058028751845</v>
       </c>
       <c r="BZ85">
-        <v>0.2605447335750996</v>
+        <v>0.3267869627500878</v>
       </c>
       <c r="CA85">
-        <v>0.2559502178004973</v>
+        <v>0.3031765666384352</v>
       </c>
       <c r="CB85">
-        <v>0.2990564233788048</v>
+        <v>0.2693233983846897</v>
       </c>
       <c r="CC85">
-        <v>0.33619737748089</v>
+        <v>0.3021387375097428</v>
       </c>
       <c r="CD85">
-        <v>0.3393316875096949</v>
+        <v>0.3118098725280817</v>
       </c>
       <c r="CE85">
-        <v>0.3212511232582483</v>
+        <v>0.2890469947151774</v>
       </c>
       <c r="CF85">
-        <v>0.3098458122060792</v>
+        <v>0.4069942587560427</v>
       </c>
       <c r="CG85">
-        <v>0.4935538258476527</v>
+        <v>0.386250725708883</v>
       </c>
     </row>
     <row r="86" spans="1:96">
       <c r="A86" s="1">
-        <v>42552</v>
+        <v>38626</v>
       </c>
       <c r="BY86">
-        <v>0.3221454316454039</v>
+        <v>0.3210531800476519</v>
       </c>
       <c r="BZ86">
-        <v>0.2608216508854363</v>
+        <v>0.3268008463473504</v>
       </c>
       <c r="CA86">
-        <v>0.2562446513612536</v>
+        <v>0.3031757840258756</v>
       </c>
       <c r="CB86">
-        <v>0.2976638527559928</v>
+        <v>0.2693232600617677</v>
       </c>
       <c r="CC86">
-        <v>0.336770965865017</v>
+        <v>0.3019213155155314</v>
       </c>
       <c r="CD86">
-        <v>0.3370420683726754</v>
+        <v>0.3188276801846191</v>
       </c>
       <c r="CE86">
-        <v>0.3215145075713155</v>
+        <v>0.2836003304412504</v>
       </c>
       <c r="CF86">
-        <v>0.3158292227508106</v>
+        <v>0.391655134650208</v>
       </c>
       <c r="CG86">
-        <v>0.4160066403303275</v>
+        <v>0.3662932776832672</v>
       </c>
       <c r="CH86">
-        <v>0.3808894683108899</v>
+        <v>0.3676850644710708</v>
       </c>
     </row>
     <row r="87" spans="1:96">
       <c r="A87" s="1">
-        <v>42644</v>
+        <v>38718</v>
       </c>
       <c r="BZ87">
-        <v>0.2609384773262192</v>
+        <v>0.3267869767660009</v>
       </c>
       <c r="CA87">
-        <v>0.25637092017408</v>
+        <v>0.3031802126686642</v>
       </c>
       <c r="CB87">
-        <v>0.2970847769468998</v>
+        <v>0.2693232630620472</v>
       </c>
       <c r="CC87">
-        <v>0.3370198469658729</v>
+        <v>0.3018288347473992</v>
       </c>
       <c r="CD87">
-        <v>0.3360318589853503</v>
+        <v>0.317191027283681</v>
       </c>
       <c r="CE87">
-        <v>0.3216369381519656</v>
+        <v>0.2980067789266703</v>
       </c>
       <c r="CF87">
-        <v>0.3185960058005663</v>
+        <v>0.3918966591630549</v>
       </c>
       <c r="CG87">
-        <v>0.3799623770391106</v>
+        <v>0.3779616035328685</v>
       </c>
       <c r="CH87">
-        <v>0.3637101753772201</v>
+        <v>0.3944407247675515</v>
       </c>
       <c r="CI87">
-        <v>0.2854538301566019</v>
+        <v>0.3827494615806734</v>
       </c>
     </row>
     <row r="88" spans="1:96">
       <c r="A88" s="1">
-        <v>42736</v>
+        <v>38808</v>
       </c>
       <c r="CA88">
-        <v>0.2564250709748581</v>
+        <v>0.3031803081565542</v>
       </c>
       <c r="CB88">
-        <v>0.2968439785873606</v>
+        <v>0.2693232640672851</v>
       </c>
       <c r="CC88">
-        <v>0.3371278369532529</v>
+        <v>0.3018048120935841</v>
       </c>
       <c r="CD88">
-        <v>0.335586141757785</v>
+        <v>0.3184023224393492</v>
       </c>
       <c r="CE88">
-        <v>0.3216938482493394</v>
+        <v>0.2972570225336142</v>
       </c>
       <c r="CF88">
-        <v>0.3198753917974467</v>
+        <v>0.3915352676660228</v>
       </c>
       <c r="CG88">
-        <v>0.3632155774163528</v>
+        <v>0.3774395801040224</v>
       </c>
       <c r="CH88">
-        <v>0.3556892702476738</v>
+        <v>0.3741796342972468</v>
       </c>
       <c r="CI88">
-        <v>0.3267011784016723</v>
+        <v>0.3451426684724579</v>
       </c>
       <c r="CJ88">
-        <v>0.3930983122388752</v>
+        <v>0.3406361788593404</v>
       </c>
     </row>
     <row r="89" spans="1:96">
       <c r="A89" s="1">
-        <v>42826</v>
+        <v>38899</v>
       </c>
       <c r="CB89">
-        <v>0.2967438468813496</v>
+        <v>0.2693232639605769</v>
       </c>
       <c r="CC89">
-        <v>0.3371746940160601</v>
+        <v>0.3017959562463457</v>
       </c>
       <c r="CD89">
-        <v>0.3353894856519733</v>
+        <v>0.3181185836841129</v>
       </c>
       <c r="CE89">
-        <v>0.3217203020914544</v>
+        <v>0.2997655202980603</v>
       </c>
       <c r="CF89">
-        <v>0.3204669916788612</v>
+        <v>0.3915360360108684</v>
       </c>
       <c r="CG89">
-        <v>0.3554346767339184</v>
+        <v>0.3778020282385461</v>
       </c>
       <c r="CH89">
-        <v>0.3519074418891524</v>
+        <v>0.3759054061492446</v>
       </c>
       <c r="CI89">
-        <v>0.3456323769169372</v>
+        <v>0.3732677414754128</v>
       </c>
       <c r="CJ89">
-        <v>0.3794185060174968</v>
+        <v>0.3562707467492328</v>
       </c>
       <c r="CK89">
-        <v>0.4880370991768954</v>
+        <v>0.4142549252660024</v>
       </c>
     </row>
     <row r="90" spans="1:96">
       <c r="A90" s="1">
-        <v>42917</v>
+        <v>38991</v>
       </c>
       <c r="CC90">
-        <v>0.3371950253855527</v>
+        <v>0.3017934231890732</v>
       </c>
       <c r="CD90">
-        <v>0.3353027184786705</v>
+        <v>0.3183276588240084</v>
       </c>
       <c r="CE90">
-        <v>0.3217325987803499</v>
+        <v>0.2996697025590871</v>
       </c>
       <c r="CF90">
-        <v>0.3207405529188235</v>
+        <v>0.3915274538378754</v>
       </c>
       <c r="CG90">
-        <v>0.3518195137012068</v>
+        <v>0.3777888938648145</v>
       </c>
       <c r="CH90">
-        <v>0.3501252963186119</v>
+        <v>0.3742712912503405</v>
       </c>
       <c r="CI90">
-        <v>0.3543116169853093</v>
+        <v>0.3710882770650646</v>
       </c>
       <c r="CJ90">
-        <v>0.3731356175618818</v>
+        <v>0.3558285479346207</v>
       </c>
       <c r="CK90">
-        <v>0.4348877705518358</v>
+        <v>0.4106729798314023</v>
       </c>
       <c r="CL90">
-        <v>0.4932150796093588</v>
+        <v>0.4280342507738066</v>
       </c>
     </row>
     <row r="91" spans="1:96">
       <c r="A91" s="1">
-        <v>43009</v>
+        <v>39083</v>
       </c>
       <c r="CD91">
-        <v>0.3352644356990351</v>
+        <v>0.3182784697664209</v>
       </c>
       <c r="CE91">
-        <v>0.321738314719726</v>
+        <v>0.3001069788623084</v>
       </c>
       <c r="CF91">
-        <v>0.3208670501585302</v>
+        <v>0.3915273539780284</v>
       </c>
       <c r="CG91">
-        <v>0.3501398362063016</v>
+        <v>0.3778001804278539</v>
       </c>
       <c r="CH91">
-        <v>0.3492854541602116</v>
+        <v>0.3743747410617435</v>
       </c>
       <c r="CI91">
-        <v>0.3582908186824177</v>
+        <v>0.3732259119875889</v>
       </c>
       <c r="CJ91">
-        <v>0.37025920227079</v>
+        <v>0.3565454845596082</v>
       </c>
       <c r="CK91">
-        <v>0.4113051556852885</v>
+        <v>0.37234350464534</v>
       </c>
       <c r="CL91">
-        <v>0.4374073112777921</v>
+        <v>0.3887718670371111</v>
       </c>
       <c r="CM91">
-        <v>0.5892375486112547</v>
+        <v>0.4502221155737945</v>
       </c>
     </row>
     <row r="92" spans="1:96">
       <c r="A92" s="1">
-        <v>43101</v>
+        <v>39173</v>
       </c>
       <c r="CE92">
-        <v>0.3217409716921215</v>
+        <v>0.3000963747578714</v>
       </c>
       <c r="CF92">
-        <v>0.3209255436485275</v>
+        <v>0.391527148546537</v>
       </c>
       <c r="CG92">
-        <v>0.3493594242411086</v>
+        <v>0.3777998696514566</v>
       </c>
       <c r="CH92">
-        <v>0.3488896763514082</v>
+        <v>0.3742420861463887</v>
       </c>
       <c r="CI92">
-        <v>0.3601151762710477</v>
+        <v>0.3731132728725094</v>
       </c>
       <c r="CJ92">
-        <v>0.3689422301003584</v>
+        <v>0.3565578002380479</v>
       </c>
       <c r="CK92">
-        <v>0.4008430601108652</v>
+        <v>0.3703882361148627</v>
       </c>
       <c r="CL92">
-        <v>0.4117402403485468</v>
+        <v>0.373906214886258</v>
       </c>
       <c r="CM92">
-        <v>0.487700655685696</v>
+        <v>0.4259033386921889</v>
       </c>
       <c r="CN92">
-        <v>0.498268675818354</v>
+        <v>0.4660678856561911</v>
       </c>
     </row>
     <row r="93" spans="1:96">
       <c r="A93" s="1">
-        <v>43191</v>
+        <v>39264</v>
       </c>
       <c r="CF93">
-        <v>0.3209525915776365</v>
+        <v>0.3915271433445391</v>
       </c>
       <c r="CG93">
-        <v>0.348996829137427</v>
+        <v>0.3778002220052701</v>
       </c>
       <c r="CH93">
-        <v>0.3487031650088625</v>
+        <v>0.3742474534506234</v>
       </c>
       <c r="CI93">
-        <v>0.3609515954588978</v>
+        <v>0.3732771703070837</v>
       </c>
       <c r="CJ93">
-        <v>0.36833925298271</v>
+        <v>0.3565921840282917</v>
       </c>
       <c r="CK93">
-        <v>0.3962017054427926</v>
+        <v>0.3672972856363869</v>
       </c>
       <c r="CL93">
-        <v>0.399939749300558</v>
+        <v>0.3706149839807887</v>
       </c>
       <c r="CM93">
-        <v>0.4391274312279916</v>
+        <v>0.3872405973939234</v>
       </c>
       <c r="CN93">
-        <v>0.4479022197997632</v>
+        <v>0.4118383699145721</v>
       </c>
       <c r="CO93">
-        <v>0.3409278159840826</v>
+        <v>0.3745726540563882</v>
       </c>
     </row>
     <row r="94" spans="1:96">
       <c r="A94" s="1">
-        <v>43282</v>
+        <v>39356</v>
       </c>
       <c r="CG94">
-        <v>0.3488283601555589</v>
+        <v>0.3778002154269247</v>
       </c>
       <c r="CH94">
-        <v>0.3486152710442557</v>
+        <v>0.3742366118986358</v>
       </c>
       <c r="CI94">
-        <v>0.3613350712982692</v>
+        <v>0.3732727872760978</v>
       </c>
       <c r="CJ94">
-        <v>0.3680631792524318</v>
+        <v>0.3565943557863229</v>
       </c>
       <c r="CK94">
-        <v>0.3941426368088483</v>
+        <v>0.3670089407697129</v>
       </c>
       <c r="CL94">
-        <v>0.3945144023372731</v>
+        <v>0.3695160525882843</v>
       </c>
       <c r="CM94">
-        <v>0.4160513114798439</v>
+        <v>0.3821973795583064</v>
       </c>
       <c r="CN94">
-        <v>0.4238537155235792</v>
+        <v>0.4020253317792588</v>
       </c>
       <c r="CO94">
-        <v>0.3585940925853104</v>
+        <v>0.3542646172004637</v>
       </c>
       <c r="CP94">
-        <v>0.3924672903298065</v>
+        <v>0.4047808753802802</v>
       </c>
     </row>
     <row r="95" spans="1:96">
       <c r="A95" s="1">
-        <v>43374</v>
+        <v>39448</v>
       </c>
       <c r="CH95">
-        <v>0.3485738507804204</v>
+        <v>0.3742367952283919</v>
       </c>
       <c r="CI95">
-        <v>0.3615108847199586</v>
+        <v>0.3732854681962493</v>
       </c>
       <c r="CJ95">
-        <v>0.3679367785943591</v>
+        <v>0.35659607796522</v>
       </c>
       <c r="CK95">
-        <v>0.3932291613384508</v>
+        <v>0.3667539733757659</v>
       </c>
       <c r="CL95">
-        <v>0.3920200668241583</v>
+        <v>0.3692494313041046</v>
       </c>
       <c r="CM95">
-        <v>0.4050833792330935</v>
+        <v>0.3784471070875064</v>
       </c>
       <c r="CN95">
-        <v>0.4123934400676019</v>
+        <v>0.3953760936300033</v>
       </c>
       <c r="CO95">
-        <v>0.3668028415346226</v>
+        <v>0.3656693702654248</v>
       </c>
       <c r="CP95">
-        <v>0.3695560017914198</v>
+        <v>0.4199859408521097</v>
       </c>
       <c r="CQ95">
-        <v>0.1122805722851697</v>
+        <v>0.4211726084300813</v>
       </c>
     </row>
     <row r="96" spans="1:96">
       <c r="A96" s="1">
-        <v>43466</v>
+        <v>39539</v>
       </c>
       <c r="CI96">
-        <v>0.3615914904741485</v>
+        <v>0.3732854673655416</v>
       </c>
       <c r="CJ96">
-        <v>0.3678789059153994</v>
+        <v>0.3565962600781811</v>
       </c>
       <c r="CK96">
-        <v>0.3928239114010465</v>
+        <v>0.3667202252631855</v>
       </c>
       <c r="CL96">
-        <v>0.3908732812411387</v>
+        <v>0.3691667249586743</v>
       </c>
       <c r="CM96">
-        <v>0.3998705451246097</v>
+        <v>0.3777240229818744</v>
       </c>
       <c r="CN96">
-        <v>0.4069313927782377</v>
+        <v>0.3937143003006734</v>
       </c>
       <c r="CO96">
-        <v>0.370600716261984</v>
+        <v>0.3645472832367278</v>
       </c>
       <c r="CP96">
-        <v>0.3590117854112294</v>
+        <v>0.3893550854202221</v>
       </c>
       <c r="CQ96">
-        <v>0.2277325139290328</v>
+        <v>0.3790830547008037</v>
       </c>
       <c r="CR96">
-        <v>0.1844683999603099</v>
+        <v>0.4784740695367412</v>
       </c>
     </row>
     <row r="97" spans="1:112">
       <c r="A97" s="1">
-        <v>43556</v>
+        <v>39630</v>
       </c>
       <c r="CJ97">
-        <v>0.3678524088463094</v>
+        <v>0.3565963497300319</v>
       </c>
       <c r="CK97">
-        <v>0.3926441282354464</v>
+        <v>0.366698758196712</v>
       </c>
       <c r="CL97">
-        <v>0.3903460397508229</v>
+        <v>0.3691455239753361</v>
       </c>
       <c r="CM97">
-        <v>0.3973929867906053</v>
+        <v>0.377342557462992</v>
       </c>
       <c r="CN97">
-        <v>0.404328163291647</v>
+        <v>0.3928558658149534</v>
       </c>
       <c r="CO97">
-        <v>0.3723580685577372</v>
+        <v>0.3657759509593207</v>
       </c>
       <c r="CP97">
-        <v>0.3542366545008231</v>
+        <v>0.3873625286719147</v>
       </c>
       <c r="CQ97">
-        <v>0.2808809732270754</v>
+        <v>0.3973645397301763</v>
       </c>
       <c r="CR97">
-        <v>0.2525395772002005</v>
+        <v>0.6218563394626684</v>
       </c>
       <c r="CS97">
-        <v>0.3627307324263691</v>
+        <v>0.5000851131933345</v>
       </c>
     </row>
     <row r="98" spans="1:112">
       <c r="A98" s="1">
-        <v>43647</v>
+        <v>39722</v>
       </c>
       <c r="CK98">
-        <v>0.3925643700821442</v>
+        <v>0.3666951741259316</v>
       </c>
       <c r="CL98">
-        <v>0.3901036373407933</v>
+        <v>0.3691392279607369</v>
       </c>
       <c r="CM98">
-        <v>0.3962154518077192</v>
+        <v>0.3772507005025179</v>
       </c>
       <c r="CN98">
-        <v>0.4030874550409006</v>
+        <v>0.3925996277032656</v>
       </c>
       <c r="CO98">
-        <v>0.3731712274873865</v>
+        <v>0.365781762555634</v>
       </c>
       <c r="CP98">
-        <v>0.3520711141246315</v>
+        <v>0.3835455452147749</v>
       </c>
       <c r="CQ98">
-        <v>0.3048298394574579</v>
+        <v>0.3931242762377601</v>
       </c>
       <c r="CR98">
-        <v>0.2801538139453355</v>
+        <v>0.4636469815305221</v>
       </c>
       <c r="CS98">
-        <v>0.3362764478896823</v>
+        <v>0.2249235671218112</v>
       </c>
       <c r="CT98">
-        <v>0.1794263626245832</v>
+        <v>0.1515254269567554</v>
       </c>
     </row>
     <row r="99" spans="1:112">
       <c r="A99" s="1">
-        <v>43739</v>
+        <v>39814</v>
       </c>
       <c r="CL99">
-        <v>0.3899921913915132</v>
+        <v>0.3691375597880225</v>
       </c>
       <c r="CM99">
-        <v>0.3956557924736283</v>
+        <v>0.3772105144182233</v>
       </c>
       <c r="CN99">
-        <v>0.4024961291810212</v>
+        <v>0.3924848779960414</v>
       </c>
       <c r="CO99">
-        <v>0.3735474909819056</v>
+        <v>0.3659284850898262</v>
       </c>
       <c r="CP99">
-        <v>0.3510891542954321</v>
+        <v>0.382843930320011</v>
       </c>
       <c r="CQ99">
-        <v>0.315642269916694</v>
+        <v>0.3953544595253914</v>
       </c>
       <c r="CR99">
-        <v>0.2913556369398622</v>
+        <v>0.4778567225039601</v>
       </c>
       <c r="CS99">
-        <v>0.3254374528737733</v>
+        <v>0.3995873534158361</v>
       </c>
       <c r="CT99">
-        <v>0.2302697221081335</v>
+        <v>0.2090845912122806</v>
       </c>
       <c r="CU99">
-        <v>0.1814061084957765</v>
+        <v>-0.4825659399700503</v>
       </c>
     </row>
     <row r="100" spans="1:112">
       <c r="A100" s="1">
-        <v>43831</v>
+        <v>39904</v>
       </c>
       <c r="CM100">
-        <v>0.3953897973442962</v>
+        <v>0.3771994711238108</v>
       </c>
       <c r="CN100">
-        <v>0.4022143012226289</v>
+        <v>0.3924470252652983</v>
       </c>
       <c r="CO100">
-        <v>0.3737215949752344</v>
+        <v>0.3659457993154826</v>
       </c>
       <c r="CP100">
-        <v>0.3506438818109137</v>
+        <v>0.3823125569720915</v>
       </c>
       <c r="CQ100">
-        <v>0.3205229952170769</v>
+        <v>0.3949680554142632</v>
       </c>
       <c r="CR100">
-        <v>0.2958996989616331</v>
+        <v>0.4536132983556092</v>
       </c>
       <c r="CS100">
-        <v>0.3209990828340856</v>
+        <v>0.3579888420376898</v>
       </c>
       <c r="CT100">
-        <v>0.2665719521681545</v>
+        <v>0.3138893366100468</v>
       </c>
       <c r="CU100">
-        <v>0.2388031018914837</v>
+        <v>-0.5466991058874535</v>
       </c>
       <c r="CV100">
-        <v>0.1900831754885381</v>
+        <v>-3.209643609385049</v>
       </c>
     </row>
     <row r="101" spans="1:112">
       <c r="A101" s="1">
-        <v>43922</v>
+        <v>39995</v>
       </c>
       <c r="CN101">
-        <v>0.4020799810389358</v>
+        <v>0.3924313474975846</v>
       </c>
       <c r="CO101">
-        <v>0.3738021560738725</v>
+        <v>0.365965203363162</v>
       </c>
       <c r="CP101">
-        <v>0.3504419719249682</v>
+        <v>0.3821654120223259</v>
       </c>
       <c r="CQ101">
-        <v>0.3227261879073491</v>
+        <v>0.3952538568255051</v>
       </c>
       <c r="CR101">
-        <v>0.2977430149666537</v>
+        <v>0.4545641519681511</v>
       </c>
       <c r="CS101">
-        <v>0.3191816656823959</v>
+        <v>0.3890735056567673</v>
       </c>
       <c r="CT101">
-        <v>0.2826276782706303</v>
+        <v>0.3335052003695131</v>
       </c>
       <c r="CU101">
-        <v>0.2654078332331393</v>
+        <v>-0.1205449073973593</v>
       </c>
       <c r="CV101">
-        <v>0.2309795650301406</v>
+        <v>-3.466827857782311</v>
       </c>
       <c r="CW101">
-        <v>-0.6845717329199352</v>
+        <v>-0.2737740256709182</v>
       </c>
     </row>
     <row r="102" spans="1:112">
       <c r="A102" s="1">
-        <v>44013</v>
+        <v>40087</v>
       </c>
       <c r="CO102">
-        <v>0.3738394331660842</v>
+        <v>0.3659694601155838</v>
       </c>
       <c r="CP102">
-        <v>0.3503504153908034</v>
+        <v>0.382085356114337</v>
       </c>
       <c r="CQ102">
-        <v>0.3237207226308424</v>
+        <v>0.3952273127371981</v>
       </c>
       <c r="CR102">
-        <v>0.2984907630999368</v>
+        <v>0.4507836700716622</v>
       </c>
       <c r="CS102">
-        <v>0.3184374724902624</v>
+        <v>0.3831007814190415</v>
       </c>
       <c r="CT102">
-        <v>0.2907722840070606</v>
+        <v>0.3508994068095047</v>
       </c>
       <c r="CU102">
-        <v>0.2786771680534658</v>
+        <v>-0.04351394233767707</v>
       </c>
       <c r="CV102">
-        <v>0.2570134399543461</v>
+        <v>-3.39129626163989</v>
       </c>
       <c r="CW102">
-        <v>-0.2984254746956241</v>
+        <v>0.05676407710631004</v>
       </c>
       <c r="CX102">
-        <v>-7.463655357282573</v>
+        <v>0.4395909147248004</v>
       </c>
     </row>
     <row r="103" spans="1:112">
       <c r="A103" s="1">
-        <v>44105</v>
+        <v>40179</v>
       </c>
       <c r="CP103">
-        <v>0.350308898855604</v>
+        <v>0.382058354862865</v>
       </c>
       <c r="CQ103">
-        <v>0.3241696617797978</v>
+        <v>0.3952663503572373</v>
       </c>
       <c r="CR103">
-        <v>0.2987940899680946</v>
+        <v>0.4507320341985567</v>
       </c>
       <c r="CS103">
-        <v>0.3181327414019882</v>
+        <v>0.3887295027816938</v>
       </c>
       <c r="CT103">
-        <v>0.2947256017300491</v>
+        <v>0.3556235665879031</v>
       </c>
       <c r="CU103">
-        <v>0.2851414742459503</v>
+        <v>0.08900847592536579</v>
       </c>
       <c r="CV103">
-        <v>0.2688011788446484</v>
+        <v>-3.445810778186758</v>
       </c>
       <c r="CW103">
-        <v>-0.05011853135311716</v>
+        <v>0.08768974614021571</v>
       </c>
       <c r="CX103">
-        <v>-5.824773328900056</v>
+        <v>0.3313095025176546</v>
       </c>
       <c r="CY103">
-        <v>-4.144592182330832</v>
+        <v>0.139783162521545</v>
       </c>
     </row>
     <row r="104" spans="1:112">
       <c r="A104" s="1">
-        <v>44197</v>
+        <v>40269</v>
       </c>
       <c r="CQ104">
-        <v>0.3243723156964315</v>
+        <v>0.3952665639016532</v>
       </c>
       <c r="CR104">
-        <v>0.2989171356633644</v>
+        <v>0.4501318352088922</v>
       </c>
       <c r="CS104">
-        <v>0.3180079605827859</v>
+        <v>0.3879506706443841</v>
       </c>
       <c r="CT104">
-        <v>0.2966710407067586</v>
+        <v>0.3586676031596497</v>
       </c>
       <c r="CU104">
-        <v>0.2883141098898073</v>
+        <v>0.1392362895241575</v>
       </c>
       <c r="CV104">
-        <v>0.2747159319351871</v>
+        <v>-3.449051755073842</v>
       </c>
       <c r="CW104">
-        <v>0.06551354746759229</v>
+        <v>0.1438327320323548</v>
       </c>
       <c r="CX104">
-        <v>-4.576544413464426</v>
+        <v>0.2862907290847205</v>
       </c>
       <c r="CY104">
-        <v>2.839500349044278</v>
+        <v>0.192817872118554</v>
       </c>
       <c r="CZ104">
-        <v>-0.8877061776737167</v>
+        <v>0.1920931682409845</v>
       </c>
     </row>
     <row r="105" spans="1:112">
       <c r="A105" s="1">
-        <v>44287</v>
+        <v>40360</v>
       </c>
       <c r="CR105">
-        <v>0.2989670496166398</v>
+        <v>0.450091620517234</v>
       </c>
       <c r="CS105">
-        <v>0.3179568655240934</v>
+        <v>0.38899034965936</v>
       </c>
       <c r="CT105">
-        <v>0.2976242677790596</v>
+        <v>0.3596827984400131</v>
       </c>
       <c r="CU105">
-        <v>0.2898675503809542</v>
+        <v>0.1862675266127139</v>
       </c>
       <c r="CV105">
-        <v>0.2775858138434474</v>
+        <v>-3.472069617300918</v>
       </c>
       <c r="CW105">
-        <v>0.1243683820346405</v>
+        <v>0.1672133807603342</v>
       </c>
       <c r="CX105">
-        <v>-3.626159446597504</v>
+        <v>0.2677024867117838</v>
       </c>
       <c r="CY105">
-        <v>-1.378103130372411</v>
+        <v>0.2127543416366048</v>
       </c>
       <c r="CZ105">
-        <v>0.484767524391212</v>
+        <v>0.2038123374423979</v>
       </c>
       <c r="DA105">
-        <v>0.892999978012982</v>
+        <v>1.098226212979322</v>
       </c>
     </row>
     <row r="106" spans="1:112">
       <c r="A106" s="1">
-        <v>44378</v>
+        <v>40452</v>
       </c>
       <c r="CS106">
-        <v>0.3179359431977336</v>
+        <v>0.3889094412579501</v>
       </c>
       <c r="CT106">
-        <v>0.2980919641657869</v>
+        <v>0.3602356812399136</v>
       </c>
       <c r="CU106">
-        <v>0.2906287410898873</v>
+        <v>0.210294604928041</v>
       </c>
       <c r="CV106">
-        <v>0.2789933017497698</v>
+        <v>-3.487028714824694</v>
       </c>
       <c r="CW106">
-        <v>0.1535384321437448</v>
+        <v>0.1829207349322445</v>
       </c>
       <c r="CX106">
-        <v>-2.902546736670638</v>
+        <v>0.2600239868695283</v>
       </c>
       <c r="CY106">
-        <v>1.078814278518536</v>
+        <v>0.2202328371589358</v>
       </c>
       <c r="CZ106">
-        <v>0.3179053543475561</v>
+        <v>0.2081776456234988</v>
       </c>
       <c r="DA106">
-        <v>0.5695283982339502</v>
+        <v>0.7032707759508258</v>
       </c>
       <c r="DB106">
-        <v>0.464029186385135</v>
+        <v>0.5278817260644753</v>
       </c>
     </row>
     <row r="107" spans="1:112">
       <c r="A107" s="1">
-        <v>44470</v>
+        <v>40544</v>
       </c>
       <c r="CT107">
-        <v>0.2983213395070359</v>
+        <v>0.3604430041540626</v>
       </c>
       <c r="CU107">
-        <v>0.2910016385917638</v>
+        <v>0.2283594946727404</v>
       </c>
       <c r="CV107">
-        <v>0.2796812068528354</v>
+        <v>-3.504839821015048</v>
       </c>
       <c r="CW107">
-        <v>0.1681088150593795</v>
+        <v>0.1914945900386928</v>
       </c>
       <c r="CX107">
-        <v>-2.351595956105766</v>
+        <v>0.2568522152508877</v>
       </c>
       <c r="CY107">
-        <v>-0.3734140541957911</v>
+        <v>0.2230379776145164</v>
       </c>
       <c r="CZ107">
-        <v>0.1768169414264609</v>
+        <v>0.2098029729206569</v>
       </c>
       <c r="DA107">
-        <v>0.09491088760332561</v>
+        <v>0.50866913672003</v>
       </c>
       <c r="DB107">
-        <v>-0.03119439636203225</v>
+        <v>0.4103097124520395</v>
       </c>
       <c r="DC107">
-        <v>-0.6356350162097709</v>
+        <v>0.3432667925405501</v>
       </c>
     </row>
     <row r="108" spans="1:112">
       <c r="A108" s="1">
-        <v>44562</v>
+        <v>40634</v>
       </c>
       <c r="CU108">
-        <v>0.2911843299800446</v>
+        <v>0.2388710728550849</v>
       </c>
       <c r="CV108">
-        <v>0.2800177902335594</v>
+        <v>-3.521231669954501</v>
       </c>
       <c r="CW108">
-        <v>0.1753700362996292</v>
+        <v>0.1965810469860438</v>
       </c>
       <c r="CX108">
-        <v>-1.93210807464721</v>
+        <v>0.2555420434475195</v>
       </c>
       <c r="CY108">
-        <v>0.4798981714231107</v>
+        <v>0.2240901678643472</v>
       </c>
       <c r="CZ108">
-        <v>0.2326449304998711</v>
+        <v>0.2104081229119797</v>
       </c>
       <c r="DA108">
-        <v>0.3077369798811567</v>
+        <v>0.4169069628967763</v>
       </c>
       <c r="DB108">
-        <v>0.4759850485143884</v>
+        <v>0.3580795182285995</v>
       </c>
       <c r="DC108">
-        <v>0.411781671159695</v>
+        <v>0.332021142675702</v>
       </c>
       <c r="DD108">
-        <v>0.3241408423207837</v>
+        <v>0.8158350159267664</v>
       </c>
     </row>
     <row r="109" spans="1:112">
       <c r="A109" s="1">
-        <v>44652</v>
+        <v>40725</v>
       </c>
       <c r="CV109">
-        <v>0.2801824178062259</v>
+        <v>-3.537881715852962</v>
       </c>
       <c r="CW109">
-        <v>0.1789911392419525</v>
+        <v>0.1994958465033025</v>
       </c>
       <c r="CX109">
-        <v>-1.612714602675451</v>
+        <v>0.255000847499894</v>
       </c>
       <c r="CY109">
-        <v>-0.02270422417448745</v>
+        <v>0.2244848376817364</v>
       </c>
       <c r="CZ109">
-        <v>0.2378799164465338</v>
+        <v>0.2106334353471853</v>
       </c>
       <c r="DA109">
-        <v>0.3437870769602576</v>
+        <v>0.3733896797314432</v>
       </c>
       <c r="DB109">
-        <v>0.4044511695641399</v>
+        <v>0.3335781136017746</v>
       </c>
       <c r="DC109">
-        <v>0.6959984776213567</v>
+        <v>0.3272233437768858</v>
       </c>
       <c r="DD109">
-        <v>0.6435792755916881</v>
+        <v>0.5427295426160457</v>
       </c>
       <c r="DE109">
-        <v>0.6660072552246967</v>
+        <v>0.1813941834545033</v>
       </c>
     </row>
     <row r="110" spans="1:112">
       <c r="A110" s="1">
-        <v>44743</v>
+        <v>40817</v>
       </c>
       <c r="CW110">
-        <v>0.180796591657356</v>
+        <v>0.2011900774154455</v>
       </c>
       <c r="CX110">
-        <v>-1.369531916244841</v>
+        <v>0.2547772943328466</v>
       </c>
       <c r="CY110">
-        <v>0.2730406300649579</v>
+        <v>0.2246328757999241</v>
       </c>
       <c r="CZ110">
-        <v>0.2292596098352697</v>
+        <v>0.210717324786206</v>
       </c>
       <c r="DA110">
-        <v>0.2876762559939251</v>
+        <v>0.352767626040856</v>
       </c>
       <c r="DB110">
-        <v>0.298809095368558</v>
+        <v>0.3221748105733957</v>
       </c>
       <c r="DC110">
-        <v>0.2611022192826244</v>
+        <v>0.3251618932148297</v>
       </c>
       <c r="DD110">
-        <v>0.31974861626763</v>
+        <v>0.4232001440849967</v>
       </c>
       <c r="DE110">
-        <v>0.3223521558300787</v>
+        <v>0.2727431408410882</v>
       </c>
       <c r="DF110">
-        <v>0.3437767272872988</v>
+        <v>0.4070688708672613</v>
       </c>
     </row>
     <row r="111" spans="1:112">
       <c r="A111" s="1">
-        <v>44835</v>
+        <v>40909</v>
       </c>
       <c r="CX111">
-        <v>-1.184375286040335</v>
+        <v>0.2546849506656574</v>
       </c>
       <c r="CY111">
-        <v>0.09894735366698722</v>
+        <v>0.2246884039489495</v>
       </c>
       <c r="CZ111">
-        <v>0.2306348511361884</v>
+        <v>0.2107485589165919</v>
       </c>
       <c r="DA111">
-        <v>0.2970735349662799</v>
+        <v>0.3429942342478867</v>
       </c>
       <c r="DB111">
-        <v>0.3599362862932105</v>
+        <v>0.3168615903221158</v>
       </c>
       <c r="DC111">
-        <v>0.3513522662197494</v>
+        <v>0.3242763986529787</v>
       </c>
       <c r="DD111">
-        <v>0.3562814115568507</v>
+        <v>0.3711231944667716</v>
       </c>
       <c r="DE111">
-        <v>0.3342137259028355</v>
+        <v>0.3124245642493126</v>
       </c>
       <c r="DF111">
-        <v>0.4543915747020479</v>
+        <v>0.3471822841278672</v>
       </c>
       <c r="DG111">
-        <v>0.4120709423816584</v>
+        <v>0.05146152368262816</v>
       </c>
     </row>
     <row r="112" spans="1:112">
       <c r="A112" s="1">
+        <v>41000</v>
+      </c>
+      <c r="CY112">
+        <v>0.224709232201645</v>
+      </c>
+      <c r="CZ112">
+        <v>0.2107601881623271</v>
+      </c>
+      <c r="DA112">
+        <v>0.3383624001294516</v>
+      </c>
+      <c r="DB112">
+        <v>0.3143863607467929</v>
+      </c>
+      <c r="DC112">
+        <v>0.3238960311710429</v>
+      </c>
+      <c r="DD112">
+        <v>0.3484291940412945</v>
+      </c>
+      <c r="DE112">
+        <v>0.3264042376806905</v>
+      </c>
+      <c r="DF112">
+        <v>0.3241036406112104</v>
+      </c>
+      <c r="DG112">
+        <v>0.1962023518980315</v>
+      </c>
+      <c r="DH112">
+        <v>0.4060566115363017</v>
+      </c>
+    </row>
+    <row r="113" spans="1:128">
+      <c r="A113" s="1">
+        <v>41091</v>
+      </c>
+      <c r="CZ113">
+        <v>0.2107645180205527</v>
+      </c>
+      <c r="DA113">
+        <v>0.3361672640955282</v>
+      </c>
+      <c r="DB113">
+        <v>0.3132332180494358</v>
+      </c>
+      <c r="DC113">
+        <v>0.3237326429695742</v>
+      </c>
+      <c r="DD113">
+        <v>0.3385397466524668</v>
+      </c>
+      <c r="DE113">
+        <v>0.3309495423832851</v>
+      </c>
+      <c r="DF113">
+        <v>0.3165851888571213</v>
+      </c>
+      <c r="DG113">
+        <v>0.2523328252666404</v>
+      </c>
+      <c r="DH113">
+        <v>0.3257825290890698</v>
+      </c>
+      <c r="DI113">
+        <v>0.2569629294986893</v>
+      </c>
+    </row>
+    <row r="114" spans="1:128">
+      <c r="A114" s="1">
+        <v>41183</v>
+      </c>
+      <c r="DA114">
+        <v>0.3351269373087902</v>
+      </c>
+      <c r="DB114">
+        <v>0.3126960017145067</v>
+      </c>
+      <c r="DC114">
+        <v>0.3236624589868408</v>
+      </c>
+      <c r="DD114">
+        <v>0.3342301838978883</v>
+      </c>
+      <c r="DE114">
+        <v>0.3323728182919696</v>
+      </c>
+      <c r="DF114">
+        <v>0.3143501320039255</v>
+      </c>
+      <c r="DG114">
+        <v>0.2715048070957226</v>
+      </c>
+      <c r="DH114">
+        <v>0.2946425695029543</v>
+      </c>
+      <c r="DI114">
+        <v>0.2626724473080196</v>
+      </c>
+      <c r="DJ114">
+        <v>0.2658412787400625</v>
+      </c>
+    </row>
+    <row r="115" spans="1:128">
+      <c r="A115" s="1">
+        <v>41275</v>
+      </c>
+      <c r="DB115">
+        <v>0.3124457278110455</v>
+      </c>
+      <c r="DC115">
+        <v>0.3236323112075936</v>
+      </c>
+      <c r="DD115">
+        <v>0.3323521891065759</v>
+      </c>
+      <c r="DE115">
+        <v>0.3328099924689074</v>
+      </c>
+      <c r="DF115">
+        <v>0.3137251889220329</v>
+      </c>
+      <c r="DG115">
+        <v>0.2777330556071276</v>
+      </c>
+      <c r="DH115">
+        <v>0.28448687342501</v>
+      </c>
+      <c r="DI115">
+        <v>0.2660065748956793</v>
+      </c>
+      <c r="DJ115">
+        <v>0.2823630897464367</v>
+      </c>
+      <c r="DK115">
+        <v>-0.1326969567037847</v>
+      </c>
+    </row>
+    <row r="116" spans="1:128">
+      <c r="A116" s="1">
+        <v>41365</v>
+      </c>
+      <c r="DC116">
+        <v>0.3236193611218596</v>
+      </c>
+      <c r="DD116">
+        <v>0.3315338080686009</v>
+      </c>
+      <c r="DE116">
+        <v>0.332942901109597</v>
+      </c>
+      <c r="DF116">
+        <v>0.313558423135754</v>
+      </c>
+      <c r="DG116">
+        <v>0.2797115386007235</v>
+      </c>
+      <c r="DH116">
+        <v>0.2814140383200912</v>
+      </c>
+      <c r="DI116">
+        <v>0.2672310309305355</v>
+      </c>
+      <c r="DJ116">
+        <v>0.2886970031025137</v>
+      </c>
+      <c r="DK116">
+        <v>0.1146210169670681</v>
+      </c>
+      <c r="DL116">
+        <v>0.1668148420067005</v>
+      </c>
+    </row>
+    <row r="117" spans="1:128">
+      <c r="A117" s="1">
+        <v>41456</v>
+      </c>
+      <c r="DD117">
+        <v>0.3311771790053162</v>
+      </c>
+      <c r="DE117">
+        <v>0.3329830811889126</v>
+      </c>
+      <c r="DF117">
+        <v>0.3135156339028616</v>
+      </c>
+      <c r="DG117">
+        <v>0.280333426561937</v>
+      </c>
+      <c r="DH117">
+        <v>0.2805196674528365</v>
+      </c>
+      <c r="DI117">
+        <v>0.2676156305162167</v>
+      </c>
+      <c r="DJ117">
+        <v>0.2909361803960807</v>
+      </c>
+      <c r="DK117">
+        <v>0.2114489426777554</v>
+      </c>
+      <c r="DL117">
+        <v>0.1990910114627568</v>
+      </c>
+      <c r="DM117">
+        <v>0.4835892644960723</v>
+      </c>
+    </row>
+    <row r="118" spans="1:128">
+      <c r="A118" s="1">
+        <v>41548</v>
+      </c>
+      <c r="DE118">
+        <v>0.3329951904513869</v>
+      </c>
+      <c r="DF118">
+        <v>0.3135050401137331</v>
+      </c>
+      <c r="DG118">
+        <v>0.2805279076335725</v>
+      </c>
+      <c r="DH118">
+        <v>0.2802649951984016</v>
+      </c>
+      <c r="DI118">
+        <v>0.2677271114598496</v>
+      </c>
+      <c r="DJ118">
+        <v>0.2917061406327234</v>
+      </c>
+      <c r="DK118">
+        <v>0.2466648434584587</v>
+      </c>
+      <c r="DL118">
+        <v>0.2118333940613151</v>
+      </c>
+      <c r="DM118">
+        <v>0.3654362428807465</v>
+      </c>
+      <c r="DN118">
+        <v>0.3071481657186778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:128">
+      <c r="A119" s="1">
+        <v>41640</v>
+      </c>
+      <c r="DF119">
+        <v>0.3135025074225217</v>
+      </c>
+      <c r="DG119">
+        <v>0.2805885757735316</v>
+      </c>
+      <c r="DH119">
+        <v>0.2801934120429552</v>
+      </c>
+      <c r="DI119">
+        <v>0.2677578646751505</v>
+      </c>
+      <c r="DJ119">
+        <v>0.2919682121170042</v>
+      </c>
+      <c r="DK119">
+        <v>0.2591973743149182</v>
+      </c>
+      <c r="DL119">
+        <v>0.2170388845683362</v>
+      </c>
+      <c r="DM119">
+        <v>0.3127820773446567</v>
+      </c>
+      <c r="DN119">
+        <v>0.295306589255621</v>
+      </c>
+      <c r="DO119">
+        <v>0.3280696062556266</v>
+      </c>
+    </row>
+    <row r="120" spans="1:128">
+      <c r="A120" s="1">
+        <v>41730</v>
+      </c>
+      <c r="DG120">
+        <v>0.2806074779818091</v>
+      </c>
+      <c r="DH120">
+        <v>0.2801734498338682</v>
+      </c>
+      <c r="DI120">
+        <v>0.2677660650344709</v>
+      </c>
+      <c r="DJ120">
+        <v>0.2920570706572605</v>
+      </c>
+      <c r="DK120">
+        <v>0.2636271138618202</v>
+      </c>
+      <c r="DL120">
+        <v>0.2191744333381033</v>
+      </c>
+      <c r="DM120">
+        <v>0.2894402353552771</v>
+      </c>
+      <c r="DN120">
+        <v>0.2897649239239772</v>
+      </c>
+      <c r="DO120">
+        <v>0.3035456409481426</v>
+      </c>
+      <c r="DP120">
+        <v>0.5498874657267171</v>
+      </c>
+    </row>
+    <row r="121" spans="1:128">
+      <c r="A121" s="1">
+        <v>41821</v>
+      </c>
+      <c r="DH121">
+        <v>0.2801679101979176</v>
+      </c>
+      <c r="DI121">
+        <v>0.2677681976573427</v>
+      </c>
+      <c r="DJ121">
+        <v>0.2920871550394841</v>
+      </c>
+      <c r="DK121">
+        <v>0.2651894387330129</v>
+      </c>
+      <c r="DL121">
+        <v>0.2200509895714168</v>
+      </c>
+      <c r="DM121">
+        <v>0.279095485396099</v>
+      </c>
+      <c r="DN121">
+        <v>0.2871123118665653</v>
+      </c>
+      <c r="DO121">
+        <v>0.2916826585945739</v>
+      </c>
+      <c r="DP121">
+        <v>0.42801824344899</v>
+      </c>
+      <c r="DQ121">
+        <v>0.06165050875077527</v>
+      </c>
+    </row>
+    <row r="122" spans="1:128">
+      <c r="A122" s="1">
+        <v>41913</v>
+      </c>
+      <c r="DI122">
+        <v>0.2677687416237422</v>
+      </c>
+      <c r="DJ122">
+        <v>0.2920973348356787</v>
+      </c>
+      <c r="DK122">
+        <v>0.2657400692274273</v>
+      </c>
+      <c r="DL122">
+        <v>0.2204108026459904</v>
+      </c>
+      <c r="DM122">
+        <v>0.2745109132571007</v>
+      </c>
+      <c r="DN122">
+        <v>0.2858441738424585</v>
+      </c>
+      <c r="DO122">
+        <v>0.2859751866436055</v>
+      </c>
+      <c r="DP122">
+        <v>0.3712887134776663</v>
+      </c>
+      <c r="DQ122">
+        <v>0.1761410388877556</v>
+      </c>
+      <c r="DR122">
+        <v>0.1736804633958236</v>
+      </c>
+    </row>
+    <row r="123" spans="1:128">
+      <c r="A123" s="1">
+        <v>42005</v>
+      </c>
+      <c r="DJ123">
+        <v>0.2921007786806501</v>
+      </c>
+      <c r="DK123">
+        <v>0.2659340913116399</v>
+      </c>
+      <c r="DL123">
+        <v>0.220558501573788</v>
+      </c>
+      <c r="DM123">
+        <v>0.272479130308843</v>
+      </c>
+      <c r="DN123">
+        <v>0.2852378720806832</v>
+      </c>
+      <c r="DO123">
+        <v>0.2832284063309656</v>
+      </c>
+      <c r="DP123">
+        <v>0.3448896093780345</v>
+      </c>
+      <c r="DQ123">
+        <v>0.2251854654960641</v>
+      </c>
+      <c r="DR123">
+        <v>0.2209297857152165</v>
+      </c>
+      <c r="DS123">
+        <v>0.4858860318682643</v>
+      </c>
+    </row>
+    <row r="124" spans="1:128">
+      <c r="A124" s="1">
+        <v>42095</v>
+      </c>
+      <c r="DK124">
+        <v>0.2660024526381063</v>
+      </c>
+      <c r="DL124">
+        <v>0.2206191302571006</v>
+      </c>
+      <c r="DM124">
+        <v>0.2715786882020466</v>
+      </c>
+      <c r="DN124">
+        <v>0.2849479979074478</v>
+      </c>
+      <c r="DO124">
+        <v>0.28190651169346</v>
+      </c>
+      <c r="DP124">
+        <v>0.3326047282185538</v>
+      </c>
+      <c r="DQ124">
+        <v>0.2459032091363454</v>
+      </c>
+      <c r="DR124">
+        <v>0.2412251075864097</v>
+      </c>
+      <c r="DS124">
+        <v>0.3762908587986014</v>
+      </c>
+      <c r="DT124">
+        <v>0.3086271608792364</v>
+      </c>
+    </row>
+    <row r="125" spans="1:128">
+      <c r="A125" s="1">
+        <v>42186</v>
+      </c>
+      <c r="DL125">
+        <v>0.220644017625583</v>
+      </c>
+      <c r="DM125">
+        <v>0.2711796318034117</v>
+      </c>
+      <c r="DN125">
+        <v>0.2848094084151322</v>
+      </c>
+      <c r="DO125">
+        <v>0.2812703461300195</v>
+      </c>
+      <c r="DP125">
+        <v>0.3268879320539327</v>
+      </c>
+      <c r="DQ125">
+        <v>0.2546446185365753</v>
+      </c>
+      <c r="DR125">
+        <v>0.2499297136152437</v>
+      </c>
+      <c r="DS125">
+        <v>0.3298210409788371</v>
+      </c>
+      <c r="DT125">
+        <v>0.3248074065376587</v>
+      </c>
+      <c r="DU125">
+        <v>0.3828448375722439</v>
+      </c>
+    </row>
+    <row r="126" spans="1:128">
+      <c r="A126" s="1">
+        <v>42278</v>
+      </c>
+      <c r="DM126">
+        <v>0.2710027786686307</v>
+      </c>
+      <c r="DN126">
+        <v>0.28474314846878</v>
+      </c>
+      <c r="DO126">
+        <v>0.2809641896543761</v>
+      </c>
+      <c r="DP126">
+        <v>0.3242276085240325</v>
+      </c>
+      <c r="DQ126">
+        <v>0.2583324969956866</v>
+      </c>
+      <c r="DR126">
+        <v>0.2536627374024515</v>
+      </c>
+      <c r="DS126">
+        <v>0.3104585313861903</v>
+      </c>
+      <c r="DT126">
+        <v>0.331828834122106</v>
+      </c>
+      <c r="DU126">
+        <v>0.3562807674577446</v>
+      </c>
+      <c r="DV126">
+        <v>0.3194721332081325</v>
+      </c>
+    </row>
+    <row r="127" spans="1:128">
+      <c r="A127" s="1">
+        <v>42370</v>
+      </c>
+      <c r="DN127">
+        <v>0.2847114694401618</v>
+      </c>
+      <c r="DO127">
+        <v>0.2808168509846473</v>
+      </c>
+      <c r="DP127">
+        <v>0.3229896211828929</v>
+      </c>
+      <c r="DQ127">
+        <v>0.2598883479500873</v>
+      </c>
+      <c r="DR127">
+        <v>0.2552636577575383</v>
+      </c>
+      <c r="DS127">
+        <v>0.3024052923196403</v>
+      </c>
+      <c r="DT127">
+        <v>0.334875446513568</v>
+      </c>
+      <c r="DU127">
+        <v>0.3445210282629962</v>
+      </c>
+      <c r="DV127">
+        <v>0.3206844565877573</v>
+      </c>
+      <c r="DW127">
+        <v>0.2969069313126949</v>
+      </c>
+    </row>
+    <row r="128" spans="1:128">
+      <c r="A128" s="1">
+        <v>42461</v>
+      </c>
+      <c r="DO128">
+        <v>0.2807459438331706</v>
+      </c>
+      <c r="DP128">
+        <v>0.322413521080933</v>
+      </c>
+      <c r="DQ128">
+        <v>0.2605447335750996</v>
+      </c>
+      <c r="DR128">
+        <v>0.2559502178004973</v>
+      </c>
+      <c r="DS128">
+        <v>0.2990564233788048</v>
+      </c>
+      <c r="DT128">
+        <v>0.33619737748089</v>
+      </c>
+      <c r="DU128">
+        <v>0.3393316875096949</v>
+      </c>
+      <c r="DV128">
+        <v>0.3212511232582483</v>
+      </c>
+      <c r="DW128">
+        <v>0.3098458122060792</v>
+      </c>
+      <c r="DX128">
+        <v>0.4935538258476527</v>
+      </c>
+    </row>
+    <row r="129" spans="1:144">
+      <c r="A129" s="1">
+        <v>42552</v>
+      </c>
+      <c r="DP129">
+        <v>0.3221454316454039</v>
+      </c>
+      <c r="DQ129">
+        <v>0.2608216508854363</v>
+      </c>
+      <c r="DR129">
+        <v>0.2562446513612536</v>
+      </c>
+      <c r="DS129">
+        <v>0.2976638527559928</v>
+      </c>
+      <c r="DT129">
+        <v>0.336770965865017</v>
+      </c>
+      <c r="DU129">
+        <v>0.3370420683726754</v>
+      </c>
+      <c r="DV129">
+        <v>0.3215145075713155</v>
+      </c>
+      <c r="DW129">
+        <v>0.3158292227508106</v>
+      </c>
+      <c r="DX129">
+        <v>0.4160066403303275</v>
+      </c>
+      <c r="DY129">
+        <v>0.3808894683108899</v>
+      </c>
+    </row>
+    <row r="130" spans="1:144">
+      <c r="A130" s="1">
+        <v>42644</v>
+      </c>
+      <c r="DQ130">
+        <v>0.2609384773262192</v>
+      </c>
+      <c r="DR130">
+        <v>0.25637092017408</v>
+      </c>
+      <c r="DS130">
+        <v>0.2970847769468998</v>
+      </c>
+      <c r="DT130">
+        <v>0.3370198469658729</v>
+      </c>
+      <c r="DU130">
+        <v>0.3360318589853503</v>
+      </c>
+      <c r="DV130">
+        <v>0.3216369381519656</v>
+      </c>
+      <c r="DW130">
+        <v>0.3185960058005663</v>
+      </c>
+      <c r="DX130">
+        <v>0.3799623770391106</v>
+      </c>
+      <c r="DY130">
+        <v>0.3637101753772201</v>
+      </c>
+      <c r="DZ130">
+        <v>0.2854538301566019</v>
+      </c>
+    </row>
+    <row r="131" spans="1:144">
+      <c r="A131" s="1">
+        <v>42736</v>
+      </c>
+      <c r="DR131">
+        <v>0.2564250709748581</v>
+      </c>
+      <c r="DS131">
+        <v>0.2968439785873606</v>
+      </c>
+      <c r="DT131">
+        <v>0.3371278369532529</v>
+      </c>
+      <c r="DU131">
+        <v>0.335586141757785</v>
+      </c>
+      <c r="DV131">
+        <v>0.3216938482493394</v>
+      </c>
+      <c r="DW131">
+        <v>0.3198753917974467</v>
+      </c>
+      <c r="DX131">
+        <v>0.3632155774163528</v>
+      </c>
+      <c r="DY131">
+        <v>0.3556892702476738</v>
+      </c>
+      <c r="DZ131">
+        <v>0.3267011784016723</v>
+      </c>
+      <c r="EA131">
+        <v>0.3930983122388752</v>
+      </c>
+    </row>
+    <row r="132" spans="1:144">
+      <c r="A132" s="1">
+        <v>42826</v>
+      </c>
+      <c r="DS132">
+        <v>0.2967438468813496</v>
+      </c>
+      <c r="DT132">
+        <v>0.3371746940160601</v>
+      </c>
+      <c r="DU132">
+        <v>0.3353894856519733</v>
+      </c>
+      <c r="DV132">
+        <v>0.3217203020914544</v>
+      </c>
+      <c r="DW132">
+        <v>0.3204669916788612</v>
+      </c>
+      <c r="DX132">
+        <v>0.3554346767339184</v>
+      </c>
+      <c r="DY132">
+        <v>0.3519074418891524</v>
+      </c>
+      <c r="DZ132">
+        <v>0.3456323769169372</v>
+      </c>
+      <c r="EA132">
+        <v>0.3794185060174968</v>
+      </c>
+      <c r="EB132">
+        <v>0.4880370991768954</v>
+      </c>
+    </row>
+    <row r="133" spans="1:144">
+      <c r="A133" s="1">
+        <v>42917</v>
+      </c>
+      <c r="DT133">
+        <v>0.3371950253855527</v>
+      </c>
+      <c r="DU133">
+        <v>0.3353027184786705</v>
+      </c>
+      <c r="DV133">
+        <v>0.3217325987803499</v>
+      </c>
+      <c r="DW133">
+        <v>0.3207405529188235</v>
+      </c>
+      <c r="DX133">
+        <v>0.3518195137012068</v>
+      </c>
+      <c r="DY133">
+        <v>0.3501252963186119</v>
+      </c>
+      <c r="DZ133">
+        <v>0.3543116169853093</v>
+      </c>
+      <c r="EA133">
+        <v>0.3731356175618818</v>
+      </c>
+      <c r="EB133">
+        <v>0.4348877705518358</v>
+      </c>
+      <c r="EC133">
+        <v>0.4932150796093588</v>
+      </c>
+    </row>
+    <row r="134" spans="1:144">
+      <c r="A134" s="1">
+        <v>43009</v>
+      </c>
+      <c r="DU134">
+        <v>0.3352644356990351</v>
+      </c>
+      <c r="DV134">
+        <v>0.321738314719726</v>
+      </c>
+      <c r="DW134">
+        <v>0.3208670501585302</v>
+      </c>
+      <c r="DX134">
+        <v>0.3501398362063016</v>
+      </c>
+      <c r="DY134">
+        <v>0.3492854541602116</v>
+      </c>
+      <c r="DZ134">
+        <v>0.3582908186824177</v>
+      </c>
+      <c r="EA134">
+        <v>0.37025920227079</v>
+      </c>
+      <c r="EB134">
+        <v>0.4113051556852885</v>
+      </c>
+      <c r="EC134">
+        <v>0.4374073112777921</v>
+      </c>
+      <c r="ED134">
+        <v>0.5892375486112547</v>
+      </c>
+    </row>
+    <row r="135" spans="1:144">
+      <c r="A135" s="1">
+        <v>43101</v>
+      </c>
+      <c r="DV135">
+        <v>0.3217409716921215</v>
+      </c>
+      <c r="DW135">
+        <v>0.3209255436485275</v>
+      </c>
+      <c r="DX135">
+        <v>0.3493594242411086</v>
+      </c>
+      <c r="DY135">
+        <v>0.3488896763514082</v>
+      </c>
+      <c r="DZ135">
+        <v>0.3601151762710477</v>
+      </c>
+      <c r="EA135">
+        <v>0.3689422301003584</v>
+      </c>
+      <c r="EB135">
+        <v>0.4008430601108652</v>
+      </c>
+      <c r="EC135">
+        <v>0.4117402403485468</v>
+      </c>
+      <c r="ED135">
+        <v>0.487700655685696</v>
+      </c>
+      <c r="EE135">
+        <v>0.498268675818354</v>
+      </c>
+    </row>
+    <row r="136" spans="1:144">
+      <c r="A136" s="1">
+        <v>43191</v>
+      </c>
+      <c r="DW136">
+        <v>0.3209525915776365</v>
+      </c>
+      <c r="DX136">
+        <v>0.348996829137427</v>
+      </c>
+      <c r="DY136">
+        <v>0.3487031650088625</v>
+      </c>
+      <c r="DZ136">
+        <v>0.3609515954588978</v>
+      </c>
+      <c r="EA136">
+        <v>0.36833925298271</v>
+      </c>
+      <c r="EB136">
+        <v>0.3962017054427926</v>
+      </c>
+      <c r="EC136">
+        <v>0.399939749300558</v>
+      </c>
+      <c r="ED136">
+        <v>0.4391274312279916</v>
+      </c>
+      <c r="EE136">
+        <v>0.4479022197997632</v>
+      </c>
+      <c r="EF136">
+        <v>0.3409278159840826</v>
+      </c>
+    </row>
+    <row r="137" spans="1:144">
+      <c r="A137" s="1">
+        <v>43282</v>
+      </c>
+      <c r="DX137">
+        <v>0.3488283601555589</v>
+      </c>
+      <c r="DY137">
+        <v>0.3486152710442557</v>
+      </c>
+      <c r="DZ137">
+        <v>0.3613350712982692</v>
+      </c>
+      <c r="EA137">
+        <v>0.3680631792524318</v>
+      </c>
+      <c r="EB137">
+        <v>0.3941426368088483</v>
+      </c>
+      <c r="EC137">
+        <v>0.3945144023372731</v>
+      </c>
+      <c r="ED137">
+        <v>0.4160513114798439</v>
+      </c>
+      <c r="EE137">
+        <v>0.4238537155235792</v>
+      </c>
+      <c r="EF137">
+        <v>0.3585940925853104</v>
+      </c>
+      <c r="EG137">
+        <v>0.3924672903298065</v>
+      </c>
+    </row>
+    <row r="138" spans="1:144">
+      <c r="A138" s="1">
+        <v>43374</v>
+      </c>
+      <c r="DY138">
+        <v>0.3485738507804204</v>
+      </c>
+      <c r="DZ138">
+        <v>0.3615108847199586</v>
+      </c>
+      <c r="EA138">
+        <v>0.3679367785943591</v>
+      </c>
+      <c r="EB138">
+        <v>0.3932291613384508</v>
+      </c>
+      <c r="EC138">
+        <v>0.3920200668241583</v>
+      </c>
+      <c r="ED138">
+        <v>0.4050833792330935</v>
+      </c>
+      <c r="EE138">
+        <v>0.4123934400676019</v>
+      </c>
+      <c r="EF138">
+        <v>0.3668028415346226</v>
+      </c>
+      <c r="EG138">
+        <v>0.3695560017914198</v>
+      </c>
+      <c r="EH138">
+        <v>0.1122805722851697</v>
+      </c>
+    </row>
+    <row r="139" spans="1:144">
+      <c r="A139" s="1">
+        <v>43466</v>
+      </c>
+      <c r="DZ139">
+        <v>0.3615914904741485</v>
+      </c>
+      <c r="EA139">
+        <v>0.3678789059153994</v>
+      </c>
+      <c r="EB139">
+        <v>0.3928239114010465</v>
+      </c>
+      <c r="EC139">
+        <v>0.3908732812411387</v>
+      </c>
+      <c r="ED139">
+        <v>0.3998705451246097</v>
+      </c>
+      <c r="EE139">
+        <v>0.4069313927782377</v>
+      </c>
+      <c r="EF139">
+        <v>0.370600716261984</v>
+      </c>
+      <c r="EG139">
+        <v>0.3590117854112294</v>
+      </c>
+      <c r="EH139">
+        <v>0.2277325139290328</v>
+      </c>
+      <c r="EI139">
+        <v>0.1844683999603099</v>
+      </c>
+    </row>
+    <row r="140" spans="1:144">
+      <c r="A140" s="1">
+        <v>43556</v>
+      </c>
+      <c r="EA140">
+        <v>0.3678524088463094</v>
+      </c>
+      <c r="EB140">
+        <v>0.3926441282354464</v>
+      </c>
+      <c r="EC140">
+        <v>0.3903460397508229</v>
+      </c>
+      <c r="ED140">
+        <v>0.3973929867906053</v>
+      </c>
+      <c r="EE140">
+        <v>0.404328163291647</v>
+      </c>
+      <c r="EF140">
+        <v>0.3723580685577372</v>
+      </c>
+      <c r="EG140">
+        <v>0.3542366545008231</v>
+      </c>
+      <c r="EH140">
+        <v>0.2808809732270754</v>
+      </c>
+      <c r="EI140">
+        <v>0.2525395772002005</v>
+      </c>
+      <c r="EJ140">
+        <v>0.3627307324263691</v>
+      </c>
+    </row>
+    <row r="141" spans="1:144">
+      <c r="A141" s="1">
+        <v>43647</v>
+      </c>
+      <c r="EB141">
+        <v>0.3925643700821442</v>
+      </c>
+      <c r="EC141">
+        <v>0.3901036373407933</v>
+      </c>
+      <c r="ED141">
+        <v>0.3962154518077192</v>
+      </c>
+      <c r="EE141">
+        <v>0.4030874550409006</v>
+      </c>
+      <c r="EF141">
+        <v>0.3731712274873865</v>
+      </c>
+      <c r="EG141">
+        <v>0.3520711141246315</v>
+      </c>
+      <c r="EH141">
+        <v>0.3048298394574579</v>
+      </c>
+      <c r="EI141">
+        <v>0.2801538139453355</v>
+      </c>
+      <c r="EJ141">
+        <v>0.3362764478896823</v>
+      </c>
+      <c r="EK141">
+        <v>0.1794263626245832</v>
+      </c>
+    </row>
+    <row r="142" spans="1:144">
+      <c r="A142" s="1">
+        <v>43739</v>
+      </c>
+      <c r="EC142">
+        <v>0.3899921913915132</v>
+      </c>
+      <c r="ED142">
+        <v>0.3956557924736283</v>
+      </c>
+      <c r="EE142">
+        <v>0.4024961291810212</v>
+      </c>
+      <c r="EF142">
+        <v>0.3735474909819056</v>
+      </c>
+      <c r="EG142">
+        <v>0.3510891542954321</v>
+      </c>
+      <c r="EH142">
+        <v>0.315642269916694</v>
+      </c>
+      <c r="EI142">
+        <v>0.2913556369398622</v>
+      </c>
+      <c r="EJ142">
+        <v>0.3254374528737733</v>
+      </c>
+      <c r="EK142">
+        <v>0.2302697221081335</v>
+      </c>
+      <c r="EL142">
+        <v>0.1814061084957765</v>
+      </c>
+    </row>
+    <row r="143" spans="1:144">
+      <c r="A143" s="1">
+        <v>43831</v>
+      </c>
+      <c r="ED143">
+        <v>0.3953897973442962</v>
+      </c>
+      <c r="EE143">
+        <v>0.4022143012226289</v>
+      </c>
+      <c r="EF143">
+        <v>0.3737215949752344</v>
+      </c>
+      <c r="EG143">
+        <v>0.3506438818109137</v>
+      </c>
+      <c r="EH143">
+        <v>0.3205229952170769</v>
+      </c>
+      <c r="EI143">
+        <v>0.2958996989616331</v>
+      </c>
+      <c r="EJ143">
+        <v>0.3209990828340856</v>
+      </c>
+      <c r="EK143">
+        <v>0.2665719521681545</v>
+      </c>
+      <c r="EL143">
+        <v>0.2388031018914837</v>
+      </c>
+      <c r="EM143">
+        <v>0.1900831754885381</v>
+      </c>
+    </row>
+    <row r="144" spans="1:144">
+      <c r="A144" s="1">
+        <v>43922</v>
+      </c>
+      <c r="EE144">
+        <v>0.4020799810389358</v>
+      </c>
+      <c r="EF144">
+        <v>0.3738021560738725</v>
+      </c>
+      <c r="EG144">
+        <v>0.3504419719249682</v>
+      </c>
+      <c r="EH144">
+        <v>0.3227261879073491</v>
+      </c>
+      <c r="EI144">
+        <v>0.2977430149666537</v>
+      </c>
+      <c r="EJ144">
+        <v>0.3191816656823959</v>
+      </c>
+      <c r="EK144">
+        <v>0.2826276782706303</v>
+      </c>
+      <c r="EL144">
+        <v>0.2654078332331393</v>
+      </c>
+      <c r="EM144">
+        <v>0.2309795650301406</v>
+      </c>
+      <c r="EN144">
+        <v>-0.6845717329199352</v>
+      </c>
+    </row>
+    <row r="145" spans="1:160">
+      <c r="A145" s="1">
+        <v>44013</v>
+      </c>
+      <c r="EF145">
+        <v>0.3738394331660842</v>
+      </c>
+      <c r="EG145">
+        <v>0.3503504153908034</v>
+      </c>
+      <c r="EH145">
+        <v>0.3237207226308424</v>
+      </c>
+      <c r="EI145">
+        <v>0.2984907630999368</v>
+      </c>
+      <c r="EJ145">
+        <v>0.3184374724902624</v>
+      </c>
+      <c r="EK145">
+        <v>0.2907722840070606</v>
+      </c>
+      <c r="EL145">
+        <v>0.2786771680534658</v>
+      </c>
+      <c r="EM145">
+        <v>0.2570134399543461</v>
+      </c>
+      <c r="EN145">
+        <v>-0.2984254746956241</v>
+      </c>
+      <c r="EO145">
+        <v>-7.463655357282573</v>
+      </c>
+    </row>
+    <row r="146" spans="1:160">
+      <c r="A146" s="1">
+        <v>44105</v>
+      </c>
+      <c r="EG146">
+        <v>0.350308898855604</v>
+      </c>
+      <c r="EH146">
+        <v>0.3241696617797978</v>
+      </c>
+      <c r="EI146">
+        <v>0.2987940899680946</v>
+      </c>
+      <c r="EJ146">
+        <v>0.3181327414019882</v>
+      </c>
+      <c r="EK146">
+        <v>0.2947256017300491</v>
+      </c>
+      <c r="EL146">
+        <v>0.2851414742459503</v>
+      </c>
+      <c r="EM146">
+        <v>0.2688011788446484</v>
+      </c>
+      <c r="EN146">
+        <v>-0.05011853135311716</v>
+      </c>
+      <c r="EO146">
+        <v>-5.824773328900056</v>
+      </c>
+      <c r="EP146">
+        <v>-4.144592182330832</v>
+      </c>
+    </row>
+    <row r="147" spans="1:160">
+      <c r="A147" s="1">
+        <v>44197</v>
+      </c>
+      <c r="EH147">
+        <v>0.3243723156964315</v>
+      </c>
+      <c r="EI147">
+        <v>0.2989171356633644</v>
+      </c>
+      <c r="EJ147">
+        <v>0.3180079605827859</v>
+      </c>
+      <c r="EK147">
+        <v>0.2966710407067586</v>
+      </c>
+      <c r="EL147">
+        <v>0.2883141098898073</v>
+      </c>
+      <c r="EM147">
+        <v>0.2747159319351871</v>
+      </c>
+      <c r="EN147">
+        <v>0.06551354746759229</v>
+      </c>
+      <c r="EO147">
+        <v>-4.576544413464426</v>
+      </c>
+      <c r="EP147">
+        <v>2.839500349044278</v>
+      </c>
+      <c r="EQ147">
+        <v>-0.8877061776737167</v>
+      </c>
+    </row>
+    <row r="148" spans="1:160">
+      <c r="A148" s="1">
+        <v>44287</v>
+      </c>
+      <c r="EI148">
+        <v>0.2989670496166398</v>
+      </c>
+      <c r="EJ148">
+        <v>0.3179568655240934</v>
+      </c>
+      <c r="EK148">
+        <v>0.2976242677790596</v>
+      </c>
+      <c r="EL148">
+        <v>0.2898675503809542</v>
+      </c>
+      <c r="EM148">
+        <v>0.2775858138434474</v>
+      </c>
+      <c r="EN148">
+        <v>0.1243683820346405</v>
+      </c>
+      <c r="EO148">
+        <v>-3.626159446597504</v>
+      </c>
+      <c r="EP148">
+        <v>-1.378103130372411</v>
+      </c>
+      <c r="EQ148">
+        <v>0.484767524391212</v>
+      </c>
+      <c r="ER148">
+        <v>0.892999978012982</v>
+      </c>
+    </row>
+    <row r="149" spans="1:160">
+      <c r="A149" s="1">
+        <v>44378</v>
+      </c>
+      <c r="EJ149">
+        <v>0.3179359431977336</v>
+      </c>
+      <c r="EK149">
+        <v>0.2980919641657869</v>
+      </c>
+      <c r="EL149">
+        <v>0.2906287410898873</v>
+      </c>
+      <c r="EM149">
+        <v>0.2789933017497698</v>
+      </c>
+      <c r="EN149">
+        <v>0.1535384321437448</v>
+      </c>
+      <c r="EO149">
+        <v>-2.902546736670638</v>
+      </c>
+      <c r="EP149">
+        <v>1.078814278518536</v>
+      </c>
+      <c r="EQ149">
+        <v>0.3179053543475561</v>
+      </c>
+      <c r="ER149">
+        <v>0.5695283982339502</v>
+      </c>
+      <c r="ES149">
+        <v>0.464029186385135</v>
+      </c>
+    </row>
+    <row r="150" spans="1:160">
+      <c r="A150" s="1">
+        <v>44470</v>
+      </c>
+      <c r="EK150">
+        <v>0.2983213395070359</v>
+      </c>
+      <c r="EL150">
+        <v>0.2910016385917638</v>
+      </c>
+      <c r="EM150">
+        <v>0.2796812068528354</v>
+      </c>
+      <c r="EN150">
+        <v>0.1681088150593795</v>
+      </c>
+      <c r="EO150">
+        <v>-2.351595956105766</v>
+      </c>
+      <c r="EP150">
+        <v>-0.3734140541957911</v>
+      </c>
+      <c r="EQ150">
+        <v>0.1768169414264609</v>
+      </c>
+      <c r="ER150">
+        <v>0.09491088760332561</v>
+      </c>
+      <c r="ES150">
+        <v>-0.03119439636203225</v>
+      </c>
+      <c r="ET150">
+        <v>-0.6356350162097709</v>
+      </c>
+    </row>
+    <row r="151" spans="1:160">
+      <c r="A151" s="1">
+        <v>44562</v>
+      </c>
+      <c r="EL151">
+        <v>0.2911843299800446</v>
+      </c>
+      <c r="EM151">
+        <v>0.2800177902335594</v>
+      </c>
+      <c r="EN151">
+        <v>0.1753700362996292</v>
+      </c>
+      <c r="EO151">
+        <v>-1.93210807464721</v>
+      </c>
+      <c r="EP151">
+        <v>0.4798981714231107</v>
+      </c>
+      <c r="EQ151">
+        <v>0.2326449304998711</v>
+      </c>
+      <c r="ER151">
+        <v>0.3077369798811567</v>
+      </c>
+      <c r="ES151">
+        <v>0.4759850485143884</v>
+      </c>
+      <c r="ET151">
+        <v>0.411781671159695</v>
+      </c>
+      <c r="EU151">
+        <v>0.3241408423207837</v>
+      </c>
+    </row>
+    <row r="152" spans="1:160">
+      <c r="A152" s="1">
+        <v>44652</v>
+      </c>
+      <c r="EM152">
+        <v>0.2801824178062259</v>
+      </c>
+      <c r="EN152">
+        <v>0.1789911392419525</v>
+      </c>
+      <c r="EO152">
+        <v>-1.612714602675451</v>
+      </c>
+      <c r="EP152">
+        <v>-0.02270422417448745</v>
+      </c>
+      <c r="EQ152">
+        <v>0.2378799164465338</v>
+      </c>
+      <c r="ER152">
+        <v>0.3437870769602576</v>
+      </c>
+      <c r="ES152">
+        <v>0.4044511695641399</v>
+      </c>
+      <c r="ET152">
+        <v>0.6959984776213567</v>
+      </c>
+      <c r="EU152">
+        <v>0.6435792755916881</v>
+      </c>
+      <c r="EV152">
+        <v>0.6660072552246967</v>
+      </c>
+    </row>
+    <row r="153" spans="1:160">
+      <c r="A153" s="1">
+        <v>44743</v>
+      </c>
+      <c r="EN153">
+        <v>0.180796591657356</v>
+      </c>
+      <c r="EO153">
+        <v>-1.369531916244841</v>
+      </c>
+      <c r="EP153">
+        <v>0.2730406300649579</v>
+      </c>
+      <c r="EQ153">
+        <v>0.2292596098352697</v>
+      </c>
+      <c r="ER153">
+        <v>0.2876762559939251</v>
+      </c>
+      <c r="ES153">
+        <v>0.298809095368558</v>
+      </c>
+      <c r="ET153">
+        <v>0.2611022192826244</v>
+      </c>
+      <c r="EU153">
+        <v>0.31974861626763</v>
+      </c>
+      <c r="EV153">
+        <v>0.3223521558300787</v>
+      </c>
+      <c r="EW153">
+        <v>0.3437767272872988</v>
+      </c>
+    </row>
+    <row r="154" spans="1:160">
+      <c r="A154" s="1">
+        <v>44835</v>
+      </c>
+      <c r="EO154">
+        <v>-1.184375286040335</v>
+      </c>
+      <c r="EP154">
+        <v>0.09894735366698722</v>
+      </c>
+      <c r="EQ154">
+        <v>0.2306348511361884</v>
+      </c>
+      <c r="ER154">
+        <v>0.2970735349662799</v>
+      </c>
+      <c r="ES154">
+        <v>0.3599362862932105</v>
+      </c>
+      <c r="ET154">
+        <v>0.3513522662197494</v>
+      </c>
+      <c r="EU154">
+        <v>0.3562814115568507</v>
+      </c>
+      <c r="EV154">
+        <v>0.3342137259028355</v>
+      </c>
+      <c r="EW154">
+        <v>0.4543915747020479</v>
+      </c>
+      <c r="EX154">
+        <v>0.4120709423816584</v>
+      </c>
+    </row>
+    <row r="155" spans="1:160">
+      <c r="A155" s="1">
         <v>44927</v>
       </c>
-      <c r="CY112">
+      <c r="EP155">
         <v>0.2014126679346297</v>
       </c>
-      <c r="CZ112">
+      <c r="EQ155">
         <v>0.2314425897783218</v>
       </c>
-      <c r="DA112">
+      <c r="ER155">
         <v>0.3061245483891583</v>
       </c>
-      <c r="DB112">
+      <c r="ES155">
         <v>0.3634760761829015</v>
       </c>
-      <c r="DC112">
+      <c r="ET155">
         <v>0.4472171537802698</v>
       </c>
-      <c r="DD112">
+      <c r="EU155">
         <v>0.4361238707313746</v>
       </c>
-      <c r="DE112">
+      <c r="EV155">
         <v>0.4301418904270196</v>
       </c>
-      <c r="DF112">
+      <c r="EW155">
         <v>0.3409475460132365</v>
       </c>
-      <c r="DG112">
+      <c r="EX155">
         <v>0.3117430721575033</v>
       </c>
-      <c r="DH112">
+      <c r="EY155">
         <v>0.6519408127754134</v>
       </c>
     </row>
-    <row r="113" spans="1:121">
-      <c r="A113" s="1">
+    <row r="156" spans="1:160">
+      <c r="A156" s="1">
         <v>45017</v>
       </c>
-      <c r="CZ113">
+      <c r="EQ156">
         <v>0.2310675656625323</v>
       </c>
-      <c r="DA113">
+      <c r="ER156">
         <v>0.3013808575635111</v>
       </c>
-      <c r="DB113">
+      <c r="ES156">
         <v>0.3458860345678901</v>
       </c>
-      <c r="DC113">
+      <c r="ET156">
         <v>0.3807131794959351</v>
       </c>
-      <c r="DD113">
+      <c r="EU156">
         <v>0.3934798787210216</v>
       </c>
-      <c r="DE113">
+      <c r="EV156">
         <v>0.3881366285386105</v>
       </c>
-      <c r="DF113">
+      <c r="EW156">
         <v>0.3584096246900327</v>
       </c>
-      <c r="DG113">
+      <c r="EX156">
         <v>0.3553890248851115</v>
       </c>
-      <c r="DH113">
+      <c r="EY156">
         <v>0.4307600866690486</v>
       </c>
-      <c r="DI113">
+      <c r="EZ156">
         <v>0.8814549586592991</v>
       </c>
     </row>
-    <row r="114" spans="1:121">
-      <c r="A114" s="1">
+    <row r="157" spans="1:160">
+      <c r="A157" s="1">
         <v>45108</v>
       </c>
-      <c r="DA114">
+      <c r="ER157">
         <v>0.3009015042266514</v>
       </c>
-      <c r="DB114">
+      <c r="ES157">
         <v>0.35197537525307</v>
       </c>
-      <c r="DC114">
+      <c r="ET157">
         <v>0.378539758305367</v>
       </c>
-      <c r="DD114">
+      <c r="EU157">
         <v>0.3872693173527261</v>
       </c>
-      <c r="DE114">
+      <c r="EV157">
         <v>0.3769007839823598</v>
       </c>
-      <c r="DF114">
+      <c r="EW157">
         <v>0.3855269040122699</v>
       </c>
-      <c r="DG114">
+      <c r="EX157">
         <v>0.3666656204007895</v>
       </c>
-      <c r="DH114">
+      <c r="EY157">
         <v>0.1755723340877904</v>
       </c>
-      <c r="DI114">
+      <c r="EZ157">
         <v>0.2226830363001488</v>
       </c>
-      <c r="DJ114">
+      <c r="FA157">
         <v>0.5350086232236873</v>
       </c>
     </row>
-    <row r="115" spans="1:121">
-      <c r="A115" s="1">
+    <row r="158" spans="1:160">
+      <c r="A158" s="1">
         <v>45200</v>
       </c>
-      <c r="DB115">
+      <c r="ES158">
         <v>0.3541979431822899</v>
       </c>
-      <c r="DC115">
+      <c r="ET158">
         <v>0.3996967839288888</v>
       </c>
-      <c r="DD115">
+      <c r="EU158">
         <v>0.4021987280777406</v>
       </c>
-      <c r="DE115">
+      <c r="EV158">
         <v>0.3937214059541168</v>
       </c>
-      <c r="DF115">
+      <c r="EW158">
         <v>0.3677812325286816</v>
       </c>
-      <c r="DG115">
+      <c r="EX158">
         <v>0.3474501014634773</v>
       </c>
-      <c r="DH115">
+      <c r="EY158">
         <v>0.3721440140502105</v>
       </c>
-      <c r="DI115">
+      <c r="EZ158">
         <v>0.1318607832594023</v>
       </c>
-      <c r="DJ115">
+      <c r="FA158">
         <v>0.2651495229949266</v>
       </c>
-      <c r="DK115">
+      <c r="FB158">
         <v>0.5007400141027678</v>
       </c>
     </row>
-    <row r="116" spans="1:121">
-      <c r="A116" s="1">
+    <row r="159" spans="1:160">
+      <c r="A159" s="1">
         <v>45292</v>
       </c>
-      <c r="DC116">
+      <c r="ET159">
         <v>0.3917538843816368</v>
       </c>
-      <c r="DD116">
+      <c r="EU159">
         <v>0.3980298218533179</v>
       </c>
-      <c r="DE116">
+      <c r="EV159">
         <v>0.3902575135465071</v>
       </c>
-      <c r="DF116">
+      <c r="EW159">
         <v>0.3674789505182796</v>
       </c>
-      <c r="DG116">
+      <c r="EX159">
         <v>0.3529487950840318</v>
       </c>
-      <c r="DH116">
+      <c r="EY159">
         <v>0.3623281986403278</v>
       </c>
-      <c r="DI116">
+      <c r="EZ159">
         <v>0.3982732797061906</v>
       </c>
-      <c r="DJ116">
+      <c r="FA159">
         <v>0.219194857889999</v>
       </c>
-      <c r="DK116">
+      <c r="FB159">
         <v>0.3038735987643086</v>
       </c>
-      <c r="DL116">
+      <c r="FC159">
         <v>0.6148977852456914</v>
       </c>
     </row>
-    <row r="117" spans="1:121">
-      <c r="A117" s="1">
+    <row r="160" spans="1:160">
+      <c r="A160" s="1">
         <v>45383</v>
       </c>
-      <c r="DD117">
+      <c r="EU160">
         <v>0.3953442544735015</v>
       </c>
-      <c r="DE117">
+      <c r="EV160">
         <v>0.3867202809405329</v>
       </c>
-      <c r="DF117">
+      <c r="EW160">
         <v>0.3731022457919151</v>
       </c>
-      <c r="DG117">
+      <c r="EX160">
         <v>0.3564612002996471</v>
       </c>
-      <c r="DH117">
+      <c r="EY160">
         <v>0.3016504016882561</v>
       </c>
-      <c r="DI117">
+      <c r="EZ160">
         <v>0.2995996442486632</v>
       </c>
-      <c r="DJ117">
+      <c r="FA160">
         <v>0.3277938830192304</v>
       </c>
-      <c r="DK117">
+      <c r="FB160">
         <v>0.1821935163855133</v>
       </c>
-      <c r="DL117">
+      <c r="FC160">
         <v>0.2992822907967085</v>
       </c>
-      <c r="DM117">
+      <c r="FD160">
         <v>0.5461074682008229</v>
       </c>
     </row>
-    <row r="118" spans="1:121">
-      <c r="A118" s="1">
+    <row r="161" spans="1:164">
+      <c r="A161" s="1">
         <v>45474</v>
       </c>
-      <c r="DE118">
+      <c r="EV161">
         <v>0.3891559537672726</v>
       </c>
-      <c r="DF118">
+      <c r="EW161">
         <v>0.3706351565820968</v>
       </c>
-      <c r="DG118">
+      <c r="EX161">
         <v>0.3530513111533466</v>
       </c>
-      <c r="DH118">
+      <c r="EY161">
         <v>0.3341572202646768</v>
       </c>
-      <c r="DI118">
+      <c r="EZ161">
         <v>0.2575889808286466</v>
       </c>
-      <c r="DJ118">
+      <c r="FA161">
         <v>0.2936142920210401</v>
       </c>
-      <c r="DK118">
+      <c r="FB161">
         <v>0.3035680348802827</v>
       </c>
-      <c r="DL118">
+      <c r="FC161">
         <v>0.1411038934307159</v>
       </c>
-      <c r="DM118">
+      <c r="FD161">
         <v>0.1587597609686054</v>
       </c>
-      <c r="DN118">
+      <c r="FE161">
         <v>0.3984361203848173</v>
       </c>
     </row>
-    <row r="119" spans="1:121">
-      <c r="A119" s="1">
+    <row r="162" spans="1:164">
+      <c r="A162" s="1">
         <v>45566</v>
       </c>
-      <c r="DF119">
+      <c r="EW162">
         <v>0.3700202220727796</v>
       </c>
-      <c r="DG119">
+      <c r="EX162">
         <v>0.3535463385427368</v>
       </c>
-      <c r="DH119">
+      <c r="EY162">
         <v>0.3386823377276911</v>
       </c>
-      <c r="DI119">
+      <c r="EZ162">
         <v>0.3112829433524077</v>
       </c>
-      <c r="DJ119">
+      <c r="FA162">
         <v>0.2737413731481941</v>
       </c>
-      <c r="DK119">
+      <c r="FB162">
         <v>0.289106542847739</v>
       </c>
-      <c r="DL119">
+      <c r="FC162">
         <v>0.3180654933129406</v>
       </c>
-      <c r="DM119">
+      <c r="FD162">
         <v>0.2234432542019461</v>
       </c>
-      <c r="DN119">
+      <c r="FE162">
         <v>0.3084674976711596</v>
       </c>
-      <c r="DO119">
+      <c r="FF162">
         <v>0.4733275747052469</v>
       </c>
     </row>
-    <row r="120" spans="1:121">
-      <c r="A120" s="1">
+    <row r="163" spans="1:164">
+      <c r="A163" s="1">
         <v>45658</v>
       </c>
-      <c r="DG120">
+      <c r="EX163">
         <v>0.3543969433309027</v>
       </c>
-      <c r="DH120">
+      <c r="EY163">
         <v>0.325685232701532</v>
       </c>
-      <c r="DI120">
+      <c r="EZ163">
         <v>0.2993961825038066</v>
       </c>
-      <c r="DJ120">
+      <c r="FA163">
         <v>0.2938538434164454</v>
       </c>
-      <c r="DK120">
+      <c r="FB163">
         <v>0.2550055084590223</v>
       </c>
-      <c r="DL120">
+      <c r="FC163">
         <v>0.2907483809139259</v>
       </c>
-      <c r="DM120">
+      <c r="FD163">
         <v>0.322965769162406</v>
       </c>
-      <c r="DN120">
+      <c r="FE163">
         <v>0.2064811908043919</v>
       </c>
-      <c r="DO120">
+      <c r="FF163">
         <v>0.2200184630523081</v>
       </c>
-      <c r="DP120">
+      <c r="FG163">
         <v>0.4738675049177161</v>
       </c>
     </row>
-    <row r="121" spans="1:121">
-      <c r="A121" s="1">
+    <row r="164" spans="1:164">
+      <c r="A164" s="1">
         <v>45748</v>
       </c>
-      <c r="DH121">
+      <c r="EY164">
         <v>0.3304428394308724</v>
       </c>
-      <c r="DI121">
+      <c r="EZ164">
         <v>0.2870455487175398</v>
       </c>
-      <c r="DJ121">
+      <c r="FA164">
         <v>0.2912208776562884</v>
       </c>
-      <c r="DK121">
+      <c r="FB164">
         <v>0.2753750686291025</v>
       </c>
-      <c r="DL121">
+      <c r="FC164">
         <v>0.2440474222454754</v>
       </c>
-      <c r="DM121">
+      <c r="FD164">
         <v>0.2564355480731927</v>
       </c>
-      <c r="DN121">
+      <c r="FE164">
         <v>0.2715408197250452</v>
       </c>
-      <c r="DO121">
+      <c r="FF164">
         <v>0.2085679007350822</v>
       </c>
-      <c r="DP121">
+      <c r="FG164">
         <v>0.3078859509171186</v>
       </c>
-      <c r="DQ121">
+      <c r="FH164">
         <v>0.3519456421565676</v>
       </c>
     </row>
-    <row r="122" spans="1:121">
-      <c r="A122" s="1">
+    <row r="165" spans="1:164">
+      <c r="A165" s="1">
         <v>45839</v>
       </c>
-      <c r="DI122">
+      <c r="EZ165">
         <v>0.2970525035592049</v>
       </c>
-      <c r="DJ122">
+      <c r="FA165">
         <v>0.2858677898194339</v>
       </c>
-      <c r="DK122">
+      <c r="FB165">
         <v>0.2775335613519331</v>
       </c>
-      <c r="DL122">
+      <c r="FC165">
         <v>0.2743085116504074</v>
       </c>
-      <c r="DM122">
+      <c r="FD165">
         <v>0.2534447081011285</v>
       </c>
-      <c r="DN122">
+      <c r="FE165">
         <v>0.2766837437271186</v>
       </c>
-      <c r="DO122">
+      <c r="FF165">
         <v>0.2867219094086165</v>
       </c>
-      <c r="DP122">
+      <c r="FG165">
         <v>0.1751453671933744</v>
       </c>
-      <c r="DQ122">
+      <c r="FH165">
         <v>0.1965658720679752</v>
       </c>
     </row>
-    <row r="123" spans="1:121">
-      <c r="A123" s="1">
+    <row r="166" spans="1:164">
+      <c r="A166" s="1">
         <v>45931</v>
       </c>
-      <c r="DJ123">
+      <c r="FA166">
         <v>0.2891463708128647</v>
       </c>
-      <c r="DK123">
+      <c r="FB166">
         <v>0.2697233585146028</v>
       </c>
-      <c r="DL123">
+      <c r="FC166">
         <v>0.2761968025120373</v>
       </c>
-      <c r="DM123">
+      <c r="FD166">
         <v>0.2769177604247239</v>
       </c>
-      <c r="DN123">
+      <c r="FE166">
         <v>0.2556895730526741</v>
       </c>
-      <c r="DO123">
+      <c r="FF166">
         <v>0.2604924732590314</v>
       </c>
-      <c r="DP123">
+      <c r="FG166">
         <v>0.2733247092227787</v>
       </c>
-      <c r="DQ123">
+      <c r="FH166">
         <v>0.2731592860501876</v>
       </c>
     </row>
-    <row r="124" spans="1:121">
-      <c r="A124" s="1">
+    <row r="167" spans="1:164">
+      <c r="A167" s="1">
         <v>46023</v>
       </c>
-      <c r="DK124">
+      <c r="FB167">
         <v>0.2725549194311268</v>
       </c>
-      <c r="DL124">
+      <c r="FC167">
         <v>0.2652410358040119</v>
       </c>
-      <c r="DM124">
+      <c r="FD167">
         <v>0.2672928886939341</v>
       </c>
-      <c r="DN124">
+      <c r="FE167">
         <v>0.2621566958884603</v>
       </c>
-      <c r="DO124">
+      <c r="FF167">
         <v>0.2476388407619544</v>
       </c>
-      <c r="DP124">
+      <c r="FG167">
         <v>0.2747200350336279</v>
       </c>
-      <c r="DQ124">
+      <c r="FH167">
         <v>0.289174170234355</v>
       </c>
     </row>
-    <row r="125" spans="1:121">
-      <c r="A125" s="1">
+    <row r="168" spans="1:164">
+      <c r="A168" s="1">
         <v>46113</v>
       </c>
-      <c r="DL125">
+      <c r="FC168">
         <v>0.269570734839869</v>
       </c>
-      <c r="DM125">
+      <c r="FD168">
         <v>0.2638428767196211</v>
       </c>
-      <c r="DN125">
+      <c r="FE168">
         <v>0.2658453008015401</v>
       </c>
-      <c r="DO125">
+      <c r="FF168">
         <v>0.2601455775653444</v>
       </c>
-      <c r="DP125">
+      <c r="FG168">
         <v>0.245753951069477</v>
       </c>
-      <c r="DQ125">
+      <c r="FH168">
         <v>0.2607876931669718</v>
       </c>
     </row>
-    <row r="126" spans="1:121">
-      <c r="A126" s="1">
+    <row r="169" spans="1:164">
+      <c r="A169" s="1">
         <v>46204</v>
       </c>
-      <c r="DM126">
+      <c r="FD169">
         <v>0.268603751091444</v>
       </c>
-      <c r="DN126">
+      <c r="FE169">
         <v>0.2625518390048225</v>
       </c>
-      <c r="DO126">
+      <c r="FF169">
         <v>0.2591600947672555</v>
       </c>
-      <c r="DP126">
+      <c r="FG169">
         <v>0.2562823192336992</v>
       </c>
-      <c r="DQ126">
+      <c r="FH169">
         <v>0.2669465253046724</v>
       </c>
     </row>
-    <row r="127" spans="1:121">
-      <c r="A127" s="1">
+    <row r="170" spans="1:164">
+      <c r="A170" s="1">
         <v>46296</v>
       </c>
-      <c r="DN127">
+      <c r="FE170">
         <v>0.2627229416938779</v>
       </c>
-      <c r="DO127">
+      <c r="FF170">
         <v>0.2558880618704608</v>
       </c>
-      <c r="DP127">
+      <c r="FG170">
         <v>0.2606991994267068</v>
       </c>
-      <c r="DQ127">
+      <c r="FH170">
         <v>0.2728578548208276</v>
       </c>
     </row>
-    <row r="128" spans="1:121">
-      <c r="A128" s="1">
+    <row r="171" spans="1:164">
+      <c r="A171" s="1">
         <v>46388</v>
       </c>
-      <c r="DO128">
+      <c r="FF171">
         <v>0.2574131067017447</v>
       </c>
-      <c r="DP128">
+      <c r="FG171">
         <v>0.2559824190507884</v>
       </c>
-      <c r="DQ128">
+      <c r="FH171">
         <v>0.2688132775184016</v>
       </c>
     </row>
-    <row r="129" spans="1:121">
-      <c r="A129" s="1">
+    <row r="172" spans="1:164">
+      <c r="A172" s="1">
         <v>46478</v>
       </c>
-      <c r="DP129">
+      <c r="FG172">
         <v>0.2564832234979763</v>
       </c>
-      <c r="DQ129">
+      <c r="FH172">
         <v>0.2686348804767293</v>
       </c>
     </row>
-    <row r="130" spans="1:121">
-      <c r="A130" s="1">
+    <row r="173" spans="1:164">
+      <c r="A173" s="1">
         <v>46569</v>
       </c>
-      <c r="DQ130">
+      <c r="FH173">
         <v>0.2698795517146473</v>
       </c>
     </row>

--- a/0_1_Output_Data/3_QoQ_Forecast_Tables/naive_qoq_forecasts_AR2_50_9.xlsx
+++ b/0_1_Output_Data/3_QoQ_Forecast_Tables/naive_qoq_forecasts_AR2_50_9.xlsx
@@ -369,6250 +369,5642 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FH173"/>
+  <dimension ref="A1:ER157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:164">
+    <row r="1" spans="1:148">
       <c r="B1" s="1">
-        <v>30956</v>
+        <v>32417</v>
       </c>
       <c r="C1" s="1">
-        <v>31048</v>
+        <v>32509</v>
       </c>
       <c r="D1" s="1">
-        <v>31138</v>
+        <v>32599</v>
       </c>
       <c r="E1" s="1">
-        <v>31229</v>
+        <v>32690</v>
       </c>
       <c r="F1" s="1">
-        <v>31321</v>
+        <v>32782</v>
       </c>
       <c r="G1" s="1">
-        <v>31413</v>
+        <v>32874</v>
       </c>
       <c r="H1" s="1">
-        <v>31503</v>
+        <v>32964</v>
       </c>
       <c r="I1" s="1">
-        <v>31594</v>
+        <v>33055</v>
       </c>
       <c r="J1" s="1">
-        <v>31686</v>
+        <v>33147</v>
       </c>
       <c r="K1" s="1">
-        <v>31778</v>
+        <v>33239</v>
       </c>
       <c r="L1" s="1">
-        <v>31868</v>
+        <v>33329</v>
       </c>
       <c r="M1" s="1">
-        <v>31959</v>
+        <v>33420</v>
       </c>
       <c r="N1" s="1">
-        <v>32051</v>
+        <v>33512</v>
       </c>
       <c r="O1" s="1">
-        <v>32143</v>
+        <v>33604</v>
       </c>
       <c r="P1" s="1">
-        <v>32234</v>
+        <v>33695</v>
       </c>
       <c r="Q1" s="1">
-        <v>32325</v>
+        <v>33786</v>
       </c>
       <c r="R1" s="1">
+        <v>33878</v>
+      </c>
+      <c r="S1" s="1">
+        <v>33970</v>
+      </c>
+      <c r="T1" s="1">
+        <v>34060</v>
+      </c>
+      <c r="U1" s="1">
+        <v>34151</v>
+      </c>
+      <c r="V1" s="1">
+        <v>34243</v>
+      </c>
+      <c r="W1" s="1">
+        <v>34335</v>
+      </c>
+      <c r="X1" s="1">
+        <v>34425</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>34516</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>34608</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>34700</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>34790</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>34881</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>34973</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>35065</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>35156</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>35247</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>35339</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>35431</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35521</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>35612</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>35704</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>35796</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>35886</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>35977</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>36069</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>36161</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>36251</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>36342</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>36434</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>36526</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>36617</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>36708</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>36800</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>36892</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>36982</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>37073</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>37165</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>37257</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>37347</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>37438</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>37530</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>37622</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>37712</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>37803</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>37895</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>37987</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>38078</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>38169</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>38261</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>38353</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>38443</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>38534</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>38626</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>38718</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>38808</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>38899</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>38991</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>39083</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>39173</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>39264</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>39356</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>39448</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>39539</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>39630</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>39722</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>39814</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>39904</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>39995</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>40087</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>40179</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>40269</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>40360</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>40452</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>40544</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>40634</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>40725</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>40817</v>
+      </c>
+      <c r="CQ1" s="1">
+        <v>40909</v>
+      </c>
+      <c r="CR1" s="1">
+        <v>41000</v>
+      </c>
+      <c r="CS1" s="1">
+        <v>41091</v>
+      </c>
+      <c r="CT1" s="1">
+        <v>41183</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>41275</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>41365</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>41456</v>
+      </c>
+      <c r="CX1" s="1">
+        <v>41548</v>
+      </c>
+      <c r="CY1" s="1">
+        <v>41640</v>
+      </c>
+      <c r="CZ1" s="1">
+        <v>41730</v>
+      </c>
+      <c r="DA1" s="1">
+        <v>41821</v>
+      </c>
+      <c r="DB1" s="1">
+        <v>41913</v>
+      </c>
+      <c r="DC1" s="1">
+        <v>42005</v>
+      </c>
+      <c r="DD1" s="1">
+        <v>42095</v>
+      </c>
+      <c r="DE1" s="1">
+        <v>42186</v>
+      </c>
+      <c r="DF1" s="1">
+        <v>42278</v>
+      </c>
+      <c r="DG1" s="1">
+        <v>42370</v>
+      </c>
+      <c r="DH1" s="1">
+        <v>42461</v>
+      </c>
+      <c r="DI1" s="1">
+        <v>42552</v>
+      </c>
+      <c r="DJ1" s="1">
+        <v>42644</v>
+      </c>
+      <c r="DK1" s="1">
+        <v>42736</v>
+      </c>
+      <c r="DL1" s="1">
+        <v>42826</v>
+      </c>
+      <c r="DM1" s="1">
+        <v>42917</v>
+      </c>
+      <c r="DN1" s="1">
+        <v>43009</v>
+      </c>
+      <c r="DO1" s="1">
+        <v>43101</v>
+      </c>
+      <c r="DP1" s="1">
+        <v>43191</v>
+      </c>
+      <c r="DQ1" s="1">
+        <v>43282</v>
+      </c>
+      <c r="DR1" s="1">
+        <v>43374</v>
+      </c>
+      <c r="DS1" s="1">
+        <v>43466</v>
+      </c>
+      <c r="DT1" s="1">
+        <v>43556</v>
+      </c>
+      <c r="DU1" s="1">
+        <v>43647</v>
+      </c>
+      <c r="DV1" s="1">
+        <v>43739</v>
+      </c>
+      <c r="DW1" s="1">
+        <v>43831</v>
+      </c>
+      <c r="DX1" s="1">
+        <v>43922</v>
+      </c>
+      <c r="DY1" s="1">
+        <v>44013</v>
+      </c>
+      <c r="DZ1" s="1">
+        <v>44105</v>
+      </c>
+      <c r="EA1" s="1">
+        <v>44197</v>
+      </c>
+      <c r="EB1" s="1">
+        <v>44287</v>
+      </c>
+      <c r="EC1" s="1">
+        <v>44378</v>
+      </c>
+      <c r="ED1" s="1">
+        <v>44470</v>
+      </c>
+      <c r="EE1" s="1">
+        <v>44562</v>
+      </c>
+      <c r="EF1" s="1">
+        <v>44652</v>
+      </c>
+      <c r="EG1" s="1">
+        <v>44743</v>
+      </c>
+      <c r="EH1" s="1">
+        <v>44835</v>
+      </c>
+      <c r="EI1" s="1">
+        <v>44927</v>
+      </c>
+      <c r="EJ1" s="1">
+        <v>45017</v>
+      </c>
+      <c r="EK1" s="1">
+        <v>45108</v>
+      </c>
+      <c r="EL1" s="1">
+        <v>45200</v>
+      </c>
+      <c r="EM1" s="1">
+        <v>45292</v>
+      </c>
+      <c r="EN1" s="1">
+        <v>45383</v>
+      </c>
+      <c r="EO1" s="1">
+        <v>45474</v>
+      </c>
+      <c r="EP1" s="1">
+        <v>45566</v>
+      </c>
+      <c r="EQ1" s="1">
+        <v>45658</v>
+      </c>
+      <c r="ER1" s="1">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="2" spans="1:148">
+      <c r="A2" s="1">
         <v>32417</v>
       </c>
-      <c r="S1" s="1">
+      <c r="B2">
+        <v>0.2524937681578153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:148">
+      <c r="A3" s="1">
         <v>32509</v>
       </c>
-      <c r="T1" s="1">
+      <c r="B3">
+        <v>0.602659667126749</v>
+      </c>
+      <c r="C3">
+        <v>0.3045639236932584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:148">
+      <c r="A4" s="1">
         <v>32599</v>
       </c>
-      <c r="U1" s="1">
+      <c r="B4">
+        <v>0.5707821414520771</v>
+      </c>
+      <c r="C4">
+        <v>0.5685153669012872</v>
+      </c>
+      <c r="D4">
+        <v>0.3557845572607688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:148">
+      <c r="A5" s="1">
         <v>32690</v>
       </c>
-      <c r="V1" s="1">
+      <c r="B5">
+        <v>0.5467040598369137</v>
+      </c>
+      <c r="C5">
+        <v>0.5693687747587051</v>
+      </c>
+      <c r="D5">
+        <v>0.5766315048237173</v>
+      </c>
+      <c r="E5">
+        <v>0.5538469878354574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:148">
+      <c r="A6" s="1">
         <v>32782</v>
       </c>
-      <c r="W1" s="1">
+      <c r="B6">
+        <v>0.5577910759412672</v>
+      </c>
+      <c r="C6">
+        <v>0.5451265626150998</v>
+      </c>
+      <c r="D6">
+        <v>0.5604001690688526</v>
+      </c>
+      <c r="E6">
+        <v>0.5606553502824662</v>
+      </c>
+      <c r="F6">
+        <v>0.4709857633177138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:148">
+      <c r="A7" s="1">
         <v>32874</v>
       </c>
-      <c r="X1" s="1">
+      <c r="B7">
+        <v>0.5565141210190768</v>
+      </c>
+      <c r="C7">
+        <v>0.5524438183518994</v>
+      </c>
+      <c r="D7">
+        <v>0.5482438303413919</v>
+      </c>
+      <c r="E7">
+        <v>0.5467992429677945</v>
+      </c>
+      <c r="F7">
+        <v>0.5672826743473959</v>
+      </c>
+      <c r="G7">
+        <v>0.3546306377802441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:148">
+      <c r="A8" s="1">
         <v>32964</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="B8">
+        <v>0.5558399956115471</v>
+      </c>
+      <c r="C8">
+        <v>0.5524143575138522</v>
+      </c>
+      <c r="D8">
+        <v>0.5532679463415247</v>
+      </c>
+      <c r="E8">
+        <v>0.5505529510316609</v>
+      </c>
+      <c r="F8">
+        <v>0.569996284056306</v>
+      </c>
+      <c r="G8">
+        <v>0.5752190927151382</v>
+      </c>
+      <c r="H8">
+        <v>0.1501744600279598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:148">
+      <c r="A9" s="1">
         <v>33055</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="B9">
+        <v>0.5561883796987726</v>
+      </c>
+      <c r="C9">
+        <v>0.5517585187821341</v>
+      </c>
+      <c r="D9">
+        <v>0.5526589241978979</v>
+      </c>
+      <c r="E9">
+        <v>0.5505327634260615</v>
+      </c>
+      <c r="F9">
+        <v>0.5618412144873894</v>
+      </c>
+      <c r="G9">
+        <v>0.5703409287960125</v>
+      </c>
+      <c r="H9">
+        <v>0.6217353399874255</v>
+      </c>
+      <c r="I9">
+        <v>0.5560359135707311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:148">
+      <c r="A10" s="1">
         <v>33147</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="B10">
+        <v>0.5561401079951028</v>
+      </c>
+      <c r="C10">
+        <v>0.5519612511946819</v>
+      </c>
+      <c r="D10">
+        <v>0.5524565681949865</v>
+      </c>
+      <c r="E10">
+        <v>0.5502275768987714</v>
+      </c>
+      <c r="F10">
+        <v>0.5641673171471294</v>
+      </c>
+      <c r="G10">
+        <v>0.5556594490611945</v>
+      </c>
+      <c r="H10">
+        <v>0.5979686443227332</v>
+      </c>
+      <c r="I10">
+        <v>0.6065947042085253</v>
+      </c>
+      <c r="J10">
+        <v>0.2341151964226572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:148">
+      <c r="A11" s="1">
         <v>33239</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="B11">
+        <v>0.5561216109076672</v>
+      </c>
+      <c r="C11">
+        <v>0.55195899779516</v>
+      </c>
+      <c r="D11">
+        <v>0.5525665567842981</v>
+      </c>
+      <c r="E11">
+        <v>0.5503243722944396</v>
+      </c>
+      <c r="F11">
+        <v>0.5640643281666541</v>
+      </c>
+      <c r="G11">
+        <v>0.560325274593424</v>
+      </c>
+      <c r="H11">
+        <v>0.5789636959046887</v>
+      </c>
+      <c r="I11">
+        <v>0.59043106717067</v>
+      </c>
+      <c r="J11">
+        <v>0.7087636054225143</v>
+      </c>
+      <c r="K11">
+        <v>0.3975221835473589</v>
+      </c>
+    </row>
+    <row r="12" spans="1:148">
+      <c r="A12" s="1">
         <v>33329</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="C12">
+        <v>0.5519412654670983</v>
+      </c>
+      <c r="D12">
+        <v>0.5525482634124105</v>
+      </c>
+      <c r="E12">
+        <v>0.550319527239965</v>
+      </c>
+      <c r="F12">
+        <v>0.5639196694469114</v>
+      </c>
+      <c r="G12">
+        <v>0.5600281455328086</v>
+      </c>
+      <c r="H12">
+        <v>0.5853838978447039</v>
+      </c>
+      <c r="I12">
+        <v>0.5924220963672946</v>
+      </c>
+      <c r="J12">
+        <v>0.5803931731091824</v>
+      </c>
+      <c r="K12">
+        <v>0.6850936408003788</v>
+      </c>
+      <c r="L12">
+        <v>0.4916044895472176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:148">
+      <c r="A13" s="1">
         <v>33420</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="D13">
+        <v>0.5525453683651145</v>
+      </c>
+      <c r="E13">
+        <v>0.5503130053661452</v>
+      </c>
+      <c r="F13">
+        <v>0.5639724069378822</v>
+      </c>
+      <c r="G13">
+        <v>0.5597745368270017</v>
+      </c>
+      <c r="H13">
+        <v>0.5846729502281957</v>
+      </c>
+      <c r="I13">
+        <v>0.5926078656225159</v>
+      </c>
+      <c r="J13">
+        <v>0.6149203900419581</v>
+      </c>
+      <c r="K13">
+        <v>0.6051048266287488</v>
+      </c>
+      <c r="L13">
+        <v>0.9101235512419634</v>
+      </c>
+      <c r="M13">
+        <v>0.7999760148859472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:148">
+      <c r="A14" s="1">
         <v>33512</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="E14">
+        <v>0.5503154401349643</v>
+      </c>
+      <c r="F14">
+        <v>0.5639670167729748</v>
+      </c>
+      <c r="G14">
+        <v>0.5598706836427856</v>
+      </c>
+      <c r="H14">
+        <v>0.5845189371917034</v>
+      </c>
+      <c r="I14">
+        <v>0.5924734029973422</v>
+      </c>
+      <c r="J14">
+        <v>0.6056297074723183</v>
+      </c>
+      <c r="K14">
+        <v>0.6260485333503172</v>
+      </c>
+      <c r="L14">
+        <v>0.6258064511004862</v>
+      </c>
+      <c r="M14">
+        <v>0.6721253295697609</v>
+      </c>
+      <c r="N14">
+        <v>0.7698152212755149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:148">
+      <c r="A15" s="1">
         <v>33604</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="F15">
+        <v>0.5639646857089815</v>
+      </c>
+      <c r="G15">
+        <v>0.559860986859862</v>
+      </c>
+      <c r="H15">
+        <v>0.5845989194584371</v>
+      </c>
+      <c r="I15">
+        <v>0.5925001527399437</v>
+      </c>
+      <c r="J15">
+        <v>0.6081295845465602</v>
+      </c>
+      <c r="K15">
+        <v>0.6205003159862913</v>
+      </c>
+      <c r="L15">
+        <v>0.707588307982663</v>
+      </c>
+      <c r="M15">
+        <v>0.6544912872517905</v>
+      </c>
+      <c r="N15">
+        <v>0.5544587201123098</v>
+      </c>
+      <c r="O15">
+        <v>0.5386938493769156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:148">
+      <c r="A16" s="1">
         <v>33695</v>
       </c>
-      <c r="AG1" s="1">
-        <v>33786</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>33878</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33970</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34060</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>34151</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>34243</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>34335</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>34425</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>34516</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>34608</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>34700</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>34790</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>34881</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>34973</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>35065</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>35156</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>35247</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>35339</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>35431</v>
-      </c>
-      <c r="AZ1" s="1">
-        <v>35521</v>
-      </c>
-      <c r="BA1" s="1">
-        <v>35612</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>35704</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>35796</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>35886</v>
-      </c>
-      <c r="BE1" s="1">
-        <v>35977</v>
-      </c>
-      <c r="BF1" s="1">
-        <v>36069</v>
-      </c>
-      <c r="BG1" s="1">
-        <v>36161</v>
-      </c>
-      <c r="BH1" s="1">
-        <v>36251</v>
-      </c>
-      <c r="BI1" s="1">
-        <v>36342</v>
-      </c>
-      <c r="BJ1" s="1">
-        <v>36434</v>
-      </c>
-      <c r="BK1" s="1">
-        <v>36526</v>
-      </c>
-      <c r="BL1" s="1">
-        <v>36617</v>
-      </c>
-      <c r="BM1" s="1">
-        <v>36708</v>
-      </c>
-      <c r="BN1" s="1">
-        <v>36800</v>
-      </c>
-      <c r="BO1" s="1">
-        <v>36892</v>
-      </c>
-      <c r="BP1" s="1">
-        <v>36982</v>
-      </c>
-      <c r="BQ1" s="1">
-        <v>37073</v>
-      </c>
-      <c r="BR1" s="1">
-        <v>37165</v>
-      </c>
-      <c r="BS1" s="1">
-        <v>37257</v>
-      </c>
-      <c r="BT1" s="1">
-        <v>37347</v>
-      </c>
-      <c r="BU1" s="1">
-        <v>37438</v>
-      </c>
-      <c r="BV1" s="1">
-        <v>37530</v>
-      </c>
-      <c r="BW1" s="1">
-        <v>37622</v>
-      </c>
-      <c r="BX1" s="1">
-        <v>37712</v>
-      </c>
-      <c r="BY1" s="1">
-        <v>37803</v>
-      </c>
-      <c r="BZ1" s="1">
-        <v>37895</v>
-      </c>
-      <c r="CA1" s="1">
-        <v>37987</v>
-      </c>
-      <c r="CB1" s="1">
-        <v>38078</v>
-      </c>
-      <c r="CC1" s="1">
-        <v>38169</v>
-      </c>
-      <c r="CD1" s="1">
-        <v>38261</v>
-      </c>
-      <c r="CE1" s="1">
-        <v>38353</v>
-      </c>
-      <c r="CF1" s="1">
-        <v>38443</v>
-      </c>
-      <c r="CG1" s="1">
-        <v>38534</v>
-      </c>
-      <c r="CH1" s="1">
-        <v>38626</v>
-      </c>
-      <c r="CI1" s="1">
-        <v>38718</v>
-      </c>
-      <c r="CJ1" s="1">
-        <v>38808</v>
-      </c>
-      <c r="CK1" s="1">
-        <v>38899</v>
-      </c>
-      <c r="CL1" s="1">
-        <v>38991</v>
-      </c>
-      <c r="CM1" s="1">
-        <v>39083</v>
-      </c>
-      <c r="CN1" s="1">
-        <v>39173</v>
-      </c>
-      <c r="CO1" s="1">
-        <v>39264</v>
-      </c>
-      <c r="CP1" s="1">
-        <v>39356</v>
-      </c>
-      <c r="CQ1" s="1">
-        <v>39448</v>
-      </c>
-      <c r="CR1" s="1">
-        <v>39539</v>
-      </c>
-      <c r="CS1" s="1">
-        <v>39630</v>
-      </c>
-      <c r="CT1" s="1">
-        <v>39722</v>
-      </c>
-      <c r="CU1" s="1">
-        <v>39814</v>
-      </c>
-      <c r="CV1" s="1">
-        <v>39904</v>
-      </c>
-      <c r="CW1" s="1">
-        <v>39995</v>
-      </c>
-      <c r="CX1" s="1">
-        <v>40087</v>
-      </c>
-      <c r="CY1" s="1">
-        <v>40179</v>
-      </c>
-      <c r="CZ1" s="1">
-        <v>40269</v>
-      </c>
-      <c r="DA1" s="1">
-        <v>40360</v>
-      </c>
-      <c r="DB1" s="1">
-        <v>40452</v>
-      </c>
-      <c r="DC1" s="1">
-        <v>40544</v>
-      </c>
-      <c r="DD1" s="1">
-        <v>40634</v>
-      </c>
-      <c r="DE1" s="1">
-        <v>40725</v>
-      </c>
-      <c r="DF1" s="1">
-        <v>40817</v>
-      </c>
-      <c r="DG1" s="1">
-        <v>40909</v>
-      </c>
-      <c r="DH1" s="1">
-        <v>41000</v>
-      </c>
-      <c r="DI1" s="1">
-        <v>41091</v>
-      </c>
-      <c r="DJ1" s="1">
-        <v>41183</v>
-      </c>
-      <c r="DK1" s="1">
-        <v>41275</v>
-      </c>
-      <c r="DL1" s="1">
-        <v>41365</v>
-      </c>
-      <c r="DM1" s="1">
-        <v>41456</v>
-      </c>
-      <c r="DN1" s="1">
-        <v>41548</v>
-      </c>
-      <c r="DO1" s="1">
-        <v>41640</v>
-      </c>
-      <c r="DP1" s="1">
-        <v>41730</v>
-      </c>
-      <c r="DQ1" s="1">
-        <v>41821</v>
-      </c>
-      <c r="DR1" s="1">
-        <v>41913</v>
-      </c>
-      <c r="DS1" s="1">
-        <v>42005</v>
-      </c>
-      <c r="DT1" s="1">
-        <v>42095</v>
-      </c>
-      <c r="DU1" s="1">
-        <v>42186</v>
-      </c>
-      <c r="DV1" s="1">
-        <v>42278</v>
-      </c>
-      <c r="DW1" s="1">
-        <v>42370</v>
-      </c>
-      <c r="DX1" s="1">
-        <v>42461</v>
-      </c>
-      <c r="DY1" s="1">
-        <v>42552</v>
-      </c>
-      <c r="DZ1" s="1">
-        <v>42644</v>
-      </c>
-      <c r="EA1" s="1">
-        <v>42736</v>
-      </c>
-      <c r="EB1" s="1">
-        <v>42826</v>
-      </c>
-      <c r="EC1" s="1">
-        <v>42917</v>
-      </c>
-      <c r="ED1" s="1">
-        <v>43009</v>
-      </c>
-      <c r="EE1" s="1">
-        <v>43101</v>
-      </c>
-      <c r="EF1" s="1">
-        <v>43191</v>
-      </c>
-      <c r="EG1" s="1">
-        <v>43282</v>
-      </c>
-      <c r="EH1" s="1">
-        <v>43374</v>
-      </c>
-      <c r="EI1" s="1">
-        <v>43466</v>
-      </c>
-      <c r="EJ1" s="1">
-        <v>43556</v>
-      </c>
-      <c r="EK1" s="1">
-        <v>43647</v>
-      </c>
-      <c r="EL1" s="1">
-        <v>43739</v>
-      </c>
-      <c r="EM1" s="1">
-        <v>43831</v>
-      </c>
-      <c r="EN1" s="1">
-        <v>43922</v>
-      </c>
-      <c r="EO1" s="1">
-        <v>44013</v>
-      </c>
-      <c r="EP1" s="1">
-        <v>44105</v>
-      </c>
-      <c r="EQ1" s="1">
-        <v>44197</v>
-      </c>
-      <c r="ER1" s="1">
-        <v>44287</v>
-      </c>
-      <c r="ES1" s="1">
-        <v>44378</v>
-      </c>
-      <c r="ET1" s="1">
-        <v>44470</v>
-      </c>
-      <c r="EU1" s="1">
-        <v>44562</v>
-      </c>
-      <c r="EV1" s="1">
-        <v>44652</v>
-      </c>
-      <c r="EW1" s="1">
-        <v>44743</v>
-      </c>
-      <c r="EX1" s="1">
-        <v>44835</v>
-      </c>
-      <c r="EY1" s="1">
-        <v>44927</v>
-      </c>
-      <c r="EZ1" s="1">
-        <v>45017</v>
-      </c>
-      <c r="FA1" s="1">
-        <v>45108</v>
-      </c>
-      <c r="FB1" s="1">
-        <v>45200</v>
-      </c>
-      <c r="FC1" s="1">
-        <v>45292</v>
-      </c>
-      <c r="FD1" s="1">
-        <v>45383</v>
-      </c>
-      <c r="FE1" s="1">
-        <v>45474</v>
-      </c>
-      <c r="FF1" s="1">
-        <v>45566</v>
-      </c>
-      <c r="FG1" s="1">
-        <v>45658</v>
-      </c>
-      <c r="FH1" s="1">
-        <v>45748</v>
-      </c>
-    </row>
-    <row r="2" spans="1:164">
-      <c r="A2" s="1">
-        <v>30956</v>
-      </c>
-      <c r="B2">
-        <v>-0.005499308418130622</v>
-      </c>
-    </row>
-    <row r="3" spans="1:164">
-      <c r="A3" s="1">
-        <v>31048</v>
-      </c>
-      <c r="B3">
-        <v>1.033256178651778</v>
-      </c>
-      <c r="C3">
-        <v>0.8789289879548039</v>
-      </c>
-    </row>
-    <row r="4" spans="1:164">
-      <c r="A4" s="1">
-        <v>31138</v>
-      </c>
-      <c r="B4">
-        <v>0.3866103764231442</v>
-      </c>
-      <c r="C4">
-        <v>0.5673069725225532</v>
-      </c>
-      <c r="D4">
-        <v>0.5361825865664056</v>
-      </c>
-    </row>
-    <row r="5" spans="1:164">
-      <c r="A5" s="1">
-        <v>31229</v>
-      </c>
-      <c r="B5">
-        <v>0.6374968735387114</v>
-      </c>
-      <c r="C5">
-        <v>0.5770784301509596</v>
-      </c>
-      <c r="D5">
-        <v>0.4066911383973881</v>
-      </c>
-      <c r="E5">
-        <v>0.3904848017880223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:164">
-      <c r="A6" s="1">
-        <v>31321</v>
-      </c>
-      <c r="B6">
-        <v>0.4844154540235284</v>
-      </c>
-      <c r="C6">
-        <v>0.5256782002395465</v>
-      </c>
-      <c r="D6">
-        <v>0.4822292521563885</v>
-      </c>
-      <c r="E6">
-        <v>0.5181312685518553</v>
-      </c>
-      <c r="F6">
-        <v>0.4946242816274943</v>
-      </c>
-    </row>
-    <row r="7" spans="1:164">
-      <c r="A7" s="1">
-        <v>31413</v>
-      </c>
-      <c r="B7">
-        <v>0.5449476960832986</v>
-      </c>
-      <c r="C7">
-        <v>0.5277774814778883</v>
-      </c>
-      <c r="D7">
-        <v>0.4708909640071359</v>
-      </c>
-      <c r="E7">
-        <v>0.4735677756270423</v>
-      </c>
-      <c r="F7">
-        <v>0.5427552010638689</v>
-      </c>
-      <c r="G7">
-        <v>0.5491850528583249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:164">
-      <c r="A8" s="1">
-        <v>31503</v>
-      </c>
-      <c r="B8">
-        <v>0.508685210231397</v>
-      </c>
-      <c r="C8">
-        <v>0.5192946619414095</v>
-      </c>
-      <c r="D8">
-        <v>0.4763200807767257</v>
-      </c>
-      <c r="E8">
-        <v>0.4841159312568587</v>
-      </c>
-      <c r="F8">
-        <v>0.5021330816462073</v>
-      </c>
-      <c r="G8">
-        <v>0.5162849003692342</v>
-      </c>
-      <c r="H8">
-        <v>0.5293121931353004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:164">
-      <c r="A9" s="1">
-        <v>31594</v>
-      </c>
-      <c r="B9">
-        <v>0.5232762938324718</v>
-      </c>
-      <c r="C9">
-        <v>0.5197212409095826</v>
-      </c>
-      <c r="D9">
-        <v>0.4753702074874501</v>
-      </c>
-      <c r="E9">
-        <v>0.4806880685155784</v>
-      </c>
-      <c r="F9">
-        <v>0.5060770404758631</v>
-      </c>
-      <c r="G9">
-        <v>0.5145928975453141</v>
-      </c>
-      <c r="H9">
-        <v>0.44833979104251</v>
-      </c>
-      <c r="I9">
-        <v>0.443008507684882</v>
-      </c>
-    </row>
-    <row r="10" spans="1:164">
-      <c r="A10" s="1">
-        <v>31686</v>
-      </c>
-      <c r="B10">
-        <v>0.5146811525123549</v>
-      </c>
-      <c r="C10">
-        <v>0.5183205171106894</v>
-      </c>
-      <c r="D10">
-        <v>0.4757652988486262</v>
-      </c>
-      <c r="E10">
-        <v>0.4815467762353939</v>
-      </c>
-      <c r="F10">
-        <v>0.5039721005076508</v>
-      </c>
-      <c r="G10">
-        <v>0.5129907913710839</v>
-      </c>
-      <c r="H10">
-        <v>0.4858358235395253</v>
-      </c>
-      <c r="I10">
-        <v>0.529074405860928</v>
-      </c>
-      <c r="J10">
-        <v>0.5284107584911317</v>
-      </c>
-    </row>
-    <row r="11" spans="1:164">
-      <c r="A11" s="1">
-        <v>31778</v>
-      </c>
-      <c r="B11">
-        <v>0.5181953012059108</v>
-      </c>
-      <c r="C11">
-        <v>0.518404116865154</v>
-      </c>
-      <c r="D11">
-        <v>0.4756878855710159</v>
-      </c>
-      <c r="E11">
-        <v>0.4812806957535599</v>
-      </c>
-      <c r="F11">
-        <v>0.5042459210856413</v>
-      </c>
-      <c r="G11">
-        <v>0.5129677221426748</v>
-      </c>
-      <c r="H11">
-        <v>0.4818027325601186</v>
-      </c>
-      <c r="I11">
-        <v>0.5042032662630508</v>
-      </c>
-      <c r="J11">
-        <v>0.5288940404073269</v>
-      </c>
-      <c r="K11">
-        <v>0.5377635978227503</v>
-      </c>
-    </row>
-    <row r="12" spans="1:164">
-      <c r="A12" s="1">
-        <v>31868</v>
-      </c>
-      <c r="C12">
-        <v>0.5181726970593468</v>
-      </c>
-      <c r="D12">
-        <v>0.4757169375483731</v>
-      </c>
-      <c r="E12">
-        <v>0.4813499420612743</v>
-      </c>
-      <c r="F12">
-        <v>0.504134046903847</v>
-      </c>
-      <c r="G12">
-        <v>0.5128873830616353</v>
-      </c>
-      <c r="H12">
-        <v>0.4831331628791353</v>
-      </c>
-      <c r="I12">
-        <v>0.5079201050176015</v>
-      </c>
-      <c r="J12">
-        <v>0.5235307957665859</v>
-      </c>
-      <c r="K12">
-        <v>0.5724416703865876</v>
-      </c>
-      <c r="L12">
-        <v>1.018271641401346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:164">
-      <c r="A13" s="1">
-        <v>31959</v>
-      </c>
-      <c r="D13">
-        <v>0.4757107424455198</v>
-      </c>
-      <c r="E13">
-        <v>0.4813291564211631</v>
-      </c>
-      <c r="F13">
-        <v>0.5041516755810403</v>
-      </c>
-      <c r="G13">
-        <v>0.5128893589698932</v>
-      </c>
-      <c r="H13">
-        <v>0.4829539289866239</v>
-      </c>
-      <c r="I13">
-        <v>0.5070233474830084</v>
-      </c>
-      <c r="J13">
-        <v>0.5238324289902599</v>
-      </c>
-      <c r="K13">
-        <v>0.5666281720906118</v>
-      </c>
-      <c r="L13">
-        <v>0.5433199261126862</v>
-      </c>
-      <c r="M13">
-        <v>0.3918663677408029</v>
-      </c>
-    </row>
-    <row r="14" spans="1:164">
-      <c r="A14" s="1">
-        <v>32051</v>
-      </c>
-      <c r="E14">
-        <v>0.4813347063355044</v>
-      </c>
-      <c r="F14">
-        <v>0.5041456056019958</v>
-      </c>
-      <c r="G14">
-        <v>0.5128852076282706</v>
-      </c>
-      <c r="H14">
-        <v>0.483002591223771</v>
-      </c>
-      <c r="I14">
-        <v>0.50717480183337</v>
-      </c>
-      <c r="J14">
-        <v>0.5236796282763446</v>
-      </c>
-      <c r="K14">
-        <v>0.5673049910254923</v>
-      </c>
-      <c r="L14">
-        <v>0.5198135105367586</v>
-      </c>
-      <c r="M14">
-        <v>0.4730558366084818</v>
-      </c>
-      <c r="N14">
-        <v>0.3652438424865064</v>
-      </c>
-    </row>
-    <row r="15" spans="1:164">
-      <c r="A15" s="1">
-        <v>32143</v>
-      </c>
-      <c r="F15">
-        <v>0.504146694865255</v>
-      </c>
-      <c r="G15">
-        <v>0.5128854703752386</v>
-      </c>
-      <c r="H15">
-        <v>0.4829950475649034</v>
-      </c>
-      <c r="I15">
-        <v>0.5071415771000155</v>
-      </c>
-      <c r="J15">
-        <v>0.5236955498821934</v>
-      </c>
-      <c r="K15">
-        <v>0.5672132443633399</v>
-      </c>
-      <c r="L15">
-        <v>0.5371947861633838</v>
-      </c>
-      <c r="M15">
-        <v>0.618841536345857</v>
-      </c>
-      <c r="N15">
-        <v>0.6191916973210994</v>
-      </c>
-      <c r="O15">
-        <v>0.3060940548046971</v>
-      </c>
-    </row>
-    <row r="16" spans="1:164">
-      <c r="A16" s="1">
-        <v>32234</v>
-      </c>
       <c r="G16">
-        <v>0.512885249573742</v>
+        <v>0.5598568099193707</v>
       </c>
       <c r="H16">
-        <v>0.4829968672621258</v>
+        <v>0.5845855999646223</v>
       </c>
       <c r="I16">
-        <v>0.5071475791228631</v>
+        <v>0.5924990610772088</v>
       </c>
       <c r="J16">
-        <v>0.5236908012149033</v>
+        <v>0.6074569318687871</v>
       </c>
       <c r="K16">
-        <v>0.5672248701567847</v>
+        <v>0.6219667176533576</v>
       </c>
       <c r="L16">
-        <v>0.5350366658070239</v>
+        <v>0.6677844309659576</v>
       </c>
       <c r="M16">
-        <v>0.5712914818940511</v>
+        <v>0.6438847680910356</v>
       </c>
       <c r="N16">
-        <v>0.5878453597089126</v>
+        <v>0.6368070714775661</v>
       </c>
       <c r="O16">
-        <v>0.6087741406063729</v>
+        <v>0.6507303282162642</v>
       </c>
       <c r="P16">
-        <v>0.9316344081172926</v>
+        <v>0.5756451065966868</v>
       </c>
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="1">
-        <v>32325</v>
+        <v>33786</v>
       </c>
       <c r="H17">
-        <v>0.4829965589666322</v>
+        <v>0.5845848878585743</v>
       </c>
       <c r="I17">
-        <v>0.5071463281896678</v>
+        <v>0.5924981832548391</v>
       </c>
       <c r="J17">
-        <v>0.5236914626966246</v>
+        <v>0.6076379253789663</v>
       </c>
       <c r="K17">
-        <v>0.5672233533608125</v>
+        <v>0.6215789702701798</v>
       </c>
       <c r="L17">
-        <v>0.5348918555225572</v>
+        <v>0.6815366943879603</v>
       </c>
       <c r="M17">
-        <v>0.5712085058609757</v>
+        <v>0.6432321801262155</v>
       </c>
       <c r="N17">
-        <v>0.5695002168804733</v>
+        <v>0.6189044063922859</v>
       </c>
       <c r="O17">
-        <v>0.5727327157934791</v>
+        <v>0.6215408811945253</v>
       </c>
       <c r="P17">
-        <v>0.5051277359697134</v>
+        <v>0.673382583478747</v>
       </c>
       <c r="Q17">
-        <v>0.2121616288321904</v>
+        <v>0.7519282567409463</v>
       </c>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="1">
-        <v>32417</v>
+        <v>33878</v>
       </c>
       <c r="I18">
-        <v>0.507146562686308</v>
+        <v>0.5924984578551534</v>
       </c>
       <c r="J18">
-        <v>0.5236913061280688</v>
+        <v>0.6075892246863607</v>
       </c>
       <c r="K18">
-        <v>0.5672235487447087</v>
+        <v>0.6216814897043544</v>
       </c>
       <c r="L18">
-        <v>0.5349770187932108</v>
+        <v>0.6756384484980523</v>
       </c>
       <c r="M18">
-        <v>0.5755352053829983</v>
+        <v>0.6422719309050932</v>
       </c>
       <c r="N18">
-        <v>0.5776858654265363</v>
+        <v>0.6243624900063733</v>
       </c>
       <c r="O18">
-        <v>0.5719468047763211</v>
+        <v>0.6305024343905516</v>
       </c>
       <c r="P18">
-        <v>0.5349820567624981</v>
+        <v>0.6347976029248676</v>
       </c>
       <c r="Q18">
-        <v>0.5513825130581549</v>
+        <v>0.619420459464611</v>
       </c>
       <c r="R18">
-        <v>0.2524937681578153</v>
+        <v>0.7460840957933011</v>
       </c>
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="1">
-        <v>32509</v>
+        <v>33970</v>
       </c>
       <c r="J19">
-        <v>0.5236913314133602</v>
+        <v>0.6076023287885723</v>
       </c>
       <c r="K19">
-        <v>0.5672235234363652</v>
+        <v>0.6216543833500439</v>
       </c>
       <c r="L19">
-        <v>0.5349672904345693</v>
+        <v>0.677838526592113</v>
       </c>
       <c r="M19">
-        <v>0.5743495961590284</v>
+        <v>0.6423040606860714</v>
       </c>
       <c r="N19">
-        <v>0.5774328353650615</v>
+        <v>0.6230159514805063</v>
       </c>
       <c r="O19">
-        <v>0.5733634309720353</v>
+        <v>0.6280245889034328</v>
       </c>
       <c r="P19">
-        <v>0.5496177023408251</v>
+        <v>0.6423933141341749</v>
       </c>
       <c r="Q19">
-        <v>0.5641780202917283</v>
+        <v>0.660322998358769</v>
       </c>
       <c r="R19">
-        <v>0.602659667126749</v>
+        <v>0.6293444022511933</v>
       </c>
       <c r="S19">
-        <v>0.3045639236932584</v>
+        <v>0.7558673537595511</v>
       </c>
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="1">
-        <v>32599</v>
+        <v>34060</v>
       </c>
       <c r="K20">
-        <v>0.5672235267066515</v>
+        <v>0.6216615503026166</v>
       </c>
       <c r="L20">
-        <v>0.5349664432398368</v>
+        <v>0.6769415594711657</v>
       </c>
       <c r="M20">
-        <v>0.5742849214075335</v>
+        <v>0.6422080836703008</v>
       </c>
       <c r="N20">
-        <v>0.5766396294519127</v>
+        <v>0.6233940510095123</v>
       </c>
       <c r="O20">
-        <v>0.5730207271663221</v>
+        <v>0.6287564864205326</v>
       </c>
       <c r="P20">
-        <v>0.5434157710768561</v>
+        <v>0.6401859334983359</v>
       </c>
       <c r="Q20">
-        <v>0.532062993545349</v>
+        <v>0.6514541643342117</v>
       </c>
       <c r="R20">
-        <v>0.5707821414520771</v>
+        <v>0.6648622283003661</v>
       </c>
       <c r="S20">
-        <v>0.5685153669012872</v>
+        <v>0.6368939474123748</v>
       </c>
       <c r="T20">
-        <v>0.3557845572607688</v>
+        <v>0.743202649209222</v>
       </c>
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="1">
-        <v>32690</v>
+        <v>34151</v>
       </c>
       <c r="L21">
-        <v>0.5349668587822964</v>
+        <v>0.6772869301907113</v>
       </c>
       <c r="M21">
-        <v>0.5744100670077313</v>
+        <v>0.642220702866322</v>
       </c>
       <c r="N21">
-        <v>0.5768776604021758</v>
+        <v>0.6232960837803423</v>
       </c>
       <c r="O21">
-        <v>0.5730623931159461</v>
+        <v>0.6285491863278684</v>
       </c>
       <c r="P21">
-        <v>0.5445162766980243</v>
+        <v>0.6406942537367795</v>
       </c>
       <c r="Q21">
-        <v>0.5422155138846404</v>
+        <v>0.6537843524991095</v>
       </c>
       <c r="R21">
-        <v>0.5467040598369137</v>
+        <v>0.6576522521074798</v>
       </c>
       <c r="S21">
-        <v>0.5693687747587051</v>
+        <v>0.6634140187621427</v>
       </c>
       <c r="T21">
-        <v>0.5766315048237173</v>
+        <v>0.4270435012061883</v>
       </c>
       <c r="U21">
-        <v>0.5538469878354574</v>
+        <v>0.4708993919713203</v>
       </c>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="1">
-        <v>32782</v>
+        <v>34243</v>
       </c>
       <c r="M22">
-        <v>0.574381410977206</v>
+        <v>0.642210177336901</v>
       </c>
       <c r="N22">
-        <v>0.576897612626731</v>
+        <v>0.6233227547925582</v>
       </c>
       <c r="O22">
-        <v>0.5730630591909818</v>
+        <v>0.6286094810701758</v>
       </c>
       <c r="P22">
-        <v>0.5445228113569079</v>
+        <v>0.6405603286072801</v>
       </c>
       <c r="Q22">
-        <v>0.5412943535734921</v>
+        <v>0.6532349433147298</v>
       </c>
       <c r="R22">
-        <v>0.5577910759412672</v>
+        <v>0.6593880077697215</v>
       </c>
       <c r="S22">
-        <v>0.5451265626150998</v>
+        <v>0.6584584159731622</v>
       </c>
       <c r="T22">
-        <v>0.5604001690688526</v>
+        <v>0.6212678678784166</v>
       </c>
       <c r="U22">
-        <v>0.5606553502824662</v>
+        <v>0.6224796067213825</v>
       </c>
       <c r="V22">
-        <v>0.4709857633177138</v>
+        <v>0.6180205985378453</v>
       </c>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="1">
-        <v>32874</v>
+        <v>34335</v>
       </c>
       <c r="N23">
-        <v>0.5768672675080213</v>
+        <v>0.6233157127435841</v>
       </c>
       <c r="O23">
-        <v>0.5730614846736173</v>
+        <v>0.6285922368280774</v>
       </c>
       <c r="P23">
-        <v>0.5444591784454597</v>
+        <v>0.640592916879553</v>
       </c>
       <c r="Q23">
-        <v>0.5407878142171499</v>
+        <v>0.6533724814260111</v>
       </c>
       <c r="R23">
-        <v>0.5565141210190768</v>
+        <v>0.6590010057055031</v>
       </c>
       <c r="S23">
-        <v>0.5524438183518994</v>
+        <v>0.6594355746567998</v>
       </c>
       <c r="T23">
-        <v>0.5482438303413919</v>
+        <v>0.5844176120307443</v>
       </c>
       <c r="U23">
-        <v>0.5467992429677945</v>
+        <v>0.6026346885337568</v>
       </c>
       <c r="V23">
-        <v>0.5672826743473959</v>
+        <v>0.630988822311052</v>
       </c>
       <c r="W23">
-        <v>0.3546306377802441</v>
+        <v>0.6952863805804482</v>
       </c>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="1">
-        <v>32964</v>
+        <v>34425</v>
       </c>
       <c r="O24">
-        <v>0.5730618725482923</v>
+        <v>0.628597221556245</v>
       </c>
       <c r="P24">
-        <v>0.5444785107050223</v>
+        <v>0.6405846103572497</v>
       </c>
       <c r="Q24">
-        <v>0.5410394953375606</v>
+        <v>0.6533391853440389</v>
       </c>
       <c r="R24">
-        <v>0.5558399956115471</v>
+        <v>0.659090243688198</v>
       </c>
       <c r="S24">
-        <v>0.5524143575138522</v>
+        <v>0.6592461599958146</v>
       </c>
       <c r="T24">
-        <v>0.5532679463415247</v>
+        <v>0.6003391441492397</v>
       </c>
       <c r="U24">
-        <v>0.5505529510316609</v>
+        <v>0.6128148184410263</v>
       </c>
       <c r="V24">
-        <v>0.569996284056306</v>
+        <v>0.6245047693522087</v>
       </c>
       <c r="W24">
-        <v>0.5752190927151382</v>
+        <v>0.58452074811323</v>
       </c>
       <c r="X24">
-        <v>0.1501744600279598</v>
+        <v>0.5555647942494515</v>
       </c>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="1">
-        <v>33055</v>
+        <v>34516</v>
       </c>
       <c r="P25">
-        <v>0.5444760886319622</v>
+        <v>0.640586670635641</v>
       </c>
       <c r="Q25">
-        <v>0.5409930512445726</v>
+        <v>0.6533473975382538</v>
       </c>
       <c r="R25">
-        <v>0.5561883796987726</v>
+        <v>0.6590699713927834</v>
       </c>
       <c r="S25">
-        <v>0.5517585187821341</v>
+        <v>0.6592830739775624</v>
       </c>
       <c r="T25">
-        <v>0.5526589241978979</v>
+        <v>0.596591049021054</v>
       </c>
       <c r="U25">
-        <v>0.5505327634260615</v>
+        <v>0.6109532102533478</v>
       </c>
       <c r="V25">
-        <v>0.5618412144873894</v>
+        <v>0.6256716693346865</v>
       </c>
       <c r="W25">
-        <v>0.5703409287960125</v>
+        <v>0.6294433186861611</v>
       </c>
       <c r="X25">
-        <v>0.6217353399874255</v>
+        <v>0.6665054124070242</v>
       </c>
       <c r="Y25">
-        <v>0.5560359135707311</v>
+        <v>0.6289560850923929</v>
       </c>
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="1">
-        <v>33147</v>
+        <v>34608</v>
       </c>
       <c r="Q26">
-        <v>0.540988724314881</v>
+        <v>0.6533453930303129</v>
       </c>
       <c r="R26">
-        <v>0.5561401079951028</v>
+        <v>0.6590746071190334</v>
       </c>
       <c r="S26">
-        <v>0.5519612511946819</v>
+        <v>0.6592758921601937</v>
       </c>
       <c r="T26">
-        <v>0.5524565681949865</v>
+        <v>0.597955450502844</v>
       </c>
       <c r="U26">
-        <v>0.5502275768987714</v>
+        <v>0.6116737917427765</v>
       </c>
       <c r="V26">
-        <v>0.5641673171471294</v>
+        <v>0.6252471054748385</v>
       </c>
       <c r="W26">
-        <v>0.5556594490611945</v>
+        <v>0.6212585228166</v>
       </c>
       <c r="X26">
-        <v>0.5979686443227332</v>
+        <v>0.6321520186965561</v>
       </c>
       <c r="Y26">
-        <v>0.6065947042085253</v>
+        <v>0.6866569575165964</v>
       </c>
       <c r="Z26">
-        <v>0.2341151964226572</v>
+        <v>0.7194433207271483</v>
       </c>
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="1">
-        <v>33239</v>
+        <v>34700</v>
       </c>
       <c r="R27">
-        <v>0.5561216109076672</v>
+        <v>0.6590735501395112</v>
       </c>
       <c r="S27">
-        <v>0.55195899779516</v>
+        <v>0.6592772901653469</v>
       </c>
       <c r="T27">
-        <v>0.5525665567842981</v>
+        <v>0.5975949946948481</v>
       </c>
       <c r="U27">
-        <v>0.5503243722944396</v>
+        <v>0.6115155066366762</v>
       </c>
       <c r="V27">
-        <v>0.5640643281666541</v>
+        <v>0.6253399400744468</v>
       </c>
       <c r="W27">
-        <v>0.560325274593424</v>
+        <v>0.6237438910938077</v>
       </c>
       <c r="X27">
-        <v>0.5789636959046887</v>
+        <v>0.6396377722852923</v>
       </c>
       <c r="Y27">
-        <v>0.59043106717067</v>
+        <v>0.673285184404702</v>
       </c>
       <c r="Z27">
-        <v>0.7087636054225143</v>
+        <v>0.704850055356701</v>
       </c>
       <c r="AA27">
-        <v>0.3975221835473589</v>
+        <v>0.7349032611459</v>
       </c>
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="1">
-        <v>33329</v>
+        <v>34790</v>
       </c>
       <c r="S28">
-        <v>0.5519412654670983</v>
+        <v>0.6592770180766665</v>
       </c>
       <c r="T28">
-        <v>0.5525482634124105</v>
+        <v>0.5977151152232026</v>
       </c>
       <c r="U28">
-        <v>0.550319527239965</v>
+        <v>0.6115683609669965</v>
       </c>
       <c r="V28">
-        <v>0.5639196694469114</v>
+        <v>0.6253108825856255</v>
       </c>
       <c r="W28">
-        <v>0.5600281455328086</v>
+        <v>0.6232084264708695</v>
       </c>
       <c r="X28">
-        <v>0.5853838978447039</v>
+        <v>0.6376137944645918</v>
       </c>
       <c r="Y28">
-        <v>0.5924220963672946</v>
+        <v>0.6753055367184417</v>
       </c>
       <c r="Z28">
-        <v>0.5803931731091824</v>
+        <v>0.7070534273762666</v>
       </c>
       <c r="AA28">
-        <v>0.6850936408003788</v>
+        <v>0.716293386790436</v>
       </c>
       <c r="AB28">
-        <v>0.4916044895472176</v>
+        <v>0.7854021562097397</v>
       </c>
     </row>
     <row r="29" spans="1:32">
       <c r="A29" s="1">
-        <v>33420</v>
+        <v>34881</v>
       </c>
       <c r="T29">
-        <v>0.5525453683651145</v>
+        <v>0.5976813536361421</v>
       </c>
       <c r="U29">
-        <v>0.5503130053661452</v>
+        <v>0.6115554894559065</v>
       </c>
       <c r="V29">
-        <v>0.5639724069378822</v>
+        <v>0.6253179068501953</v>
       </c>
       <c r="W29">
-        <v>0.5597745368270017</v>
+        <v>0.6233528000709363</v>
       </c>
       <c r="X29">
-        <v>0.5846729502281957</v>
+        <v>0.6380914699339583</v>
       </c>
       <c r="Y29">
-        <v>0.5926078656225159</v>
+        <v>0.6749391760733952</v>
       </c>
       <c r="Z29">
-        <v>0.6149203900419581</v>
+        <v>0.7067209533310829</v>
       </c>
       <c r="AA29">
-        <v>0.6051048266287488</v>
+        <v>0.7171206659256989</v>
       </c>
       <c r="AB29">
-        <v>0.9101235512419634</v>
+        <v>0.7010285511676723</v>
       </c>
       <c r="AC29">
-        <v>0.7999760148859472</v>
+        <v>0.6519042913709076</v>
       </c>
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="1">
-        <v>33512</v>
+        <v>34973</v>
       </c>
       <c r="U30">
-        <v>0.5503154401349643</v>
+        <v>0.6115594542740439</v>
       </c>
       <c r="V30">
-        <v>0.5639670167729748</v>
+        <v>0.6253158667884088</v>
       </c>
       <c r="W30">
-        <v>0.5598706836427856</v>
+        <v>0.6233192838311978</v>
       </c>
       <c r="X30">
-        <v>0.5845189371917034</v>
+        <v>0.6379688063700004</v>
       </c>
       <c r="Y30">
-        <v>0.5924734029973422</v>
+        <v>0.6750003000021739</v>
       </c>
       <c r="Z30">
-        <v>0.6056297074723183</v>
+        <v>0.7067711245586957</v>
       </c>
       <c r="AA30">
-        <v>0.6260485333503172</v>
+        <v>0.7173323095835756</v>
       </c>
       <c r="AB30">
-        <v>0.6258064511004862</v>
+        <v>0.7060972494988828</v>
       </c>
       <c r="AC30">
-        <v>0.6721253295697609</v>
+        <v>0.7087123454962511</v>
       </c>
       <c r="AD30">
-        <v>0.7698152212755149</v>
+        <v>0.8221434309807819</v>
       </c>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="1">
-        <v>33604</v>
+        <v>35065</v>
       </c>
       <c r="V31">
-        <v>0.5639646857089815</v>
+        <v>0.6253163861347778</v>
       </c>
       <c r="W31">
-        <v>0.559860986859862</v>
+        <v>0.6233278708582233</v>
       </c>
       <c r="X31">
-        <v>0.5845989194584371</v>
+        <v>0.637998682126599</v>
       </c>
       <c r="Y31">
-        <v>0.5925001527399437</v>
+        <v>0.6749897175375472</v>
       </c>
       <c r="Z31">
-        <v>0.6081295845465602</v>
+        <v>0.7067635536336259</v>
       </c>
       <c r="AA31">
-        <v>0.6205003159862913</v>
+        <v>0.7172830804728048</v>
       </c>
       <c r="AB31">
-        <v>0.707588307982663</v>
+        <v>0.7065144960771984</v>
       </c>
       <c r="AC31">
-        <v>0.6544912872517905</v>
+        <v>0.7044725648594855</v>
       </c>
       <c r="AD31">
-        <v>0.5544587201123098</v>
+        <v>0.6918039127851399</v>
       </c>
       <c r="AE31">
-        <v>0.5386938493769156</v>
+        <v>0.8352663417225831</v>
       </c>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="1">
-        <v>33695</v>
+        <v>35156</v>
       </c>
       <c r="W32">
-        <v>0.5598568099193707</v>
+        <v>0.6233258103655728</v>
       </c>
       <c r="X32">
-        <v>0.5845855999646223</v>
+        <v>0.6379911616834479</v>
       </c>
       <c r="Y32">
-        <v>0.5924990610772088</v>
+        <v>0.6749915194339747</v>
       </c>
       <c r="Z32">
-        <v>0.6074569318687871</v>
+        <v>0.706764696100061</v>
       </c>
       <c r="AA32">
-        <v>0.6219667176533576</v>
+        <v>0.717287056650081</v>
       </c>
       <c r="AB32">
-        <v>0.6677844309659576</v>
+        <v>0.7063755321527865</v>
       </c>
       <c r="AC32">
-        <v>0.6438847680910356</v>
+        <v>0.704481216157559</v>
       </c>
       <c r="AD32">
-        <v>0.6368070714775661</v>
+        <v>0.7108782865320243</v>
       </c>
       <c r="AE32">
-        <v>0.6507303282162642</v>
+        <v>0.6716719657684272</v>
       </c>
       <c r="AF32">
-        <v>0.5756451065966868</v>
+        <v>0.7498507945729943</v>
       </c>
     </row>
     <row r="33" spans="1:48">
       <c r="A33" s="1">
-        <v>33786</v>
+        <v>35247</v>
       </c>
       <c r="X33">
-        <v>0.5845848878585743</v>
+        <v>0.6379930161079231</v>
       </c>
       <c r="Y33">
-        <v>0.5924981832548391</v>
+        <v>0.6749912103267842</v>
       </c>
       <c r="Z33">
-        <v>0.6076379253789663</v>
+        <v>0.7067645236997986</v>
       </c>
       <c r="AA33">
-        <v>0.6215789702701798</v>
+        <v>0.7172873299444262</v>
       </c>
       <c r="AB33">
-        <v>0.6815366943879603</v>
+        <v>0.7063914429245759</v>
       </c>
       <c r="AC33">
-        <v>0.6432321801262155</v>
+        <v>0.7045302728300943</v>
       </c>
       <c r="AD33">
-        <v>0.6189044063922859</v>
+        <v>0.7081021982182329</v>
       </c>
       <c r="AE33">
-        <v>0.6215408811945253</v>
+        <v>0.6793177887288687</v>
       </c>
       <c r="AF33">
-        <v>0.673382583478747</v>
+        <v>0.5988614389727719</v>
       </c>
       <c r="AG33">
-        <v>0.7519282567409463</v>
+        <v>0.5526975035503667</v>
       </c>
     </row>
     <row r="34" spans="1:48">
       <c r="A34" s="1">
-        <v>33878</v>
+        <v>35339</v>
       </c>
       <c r="Y34">
-        <v>0.5924984578551534</v>
+        <v>0.6749912631757632</v>
       </c>
       <c r="Z34">
-        <v>0.6075892246863607</v>
+        <v>0.7067645497153118</v>
       </c>
       <c r="AA34">
-        <v>0.6216814897043544</v>
+        <v>0.7172872125832278</v>
       </c>
       <c r="AB34">
-        <v>0.6756384484980523</v>
+        <v>0.7063909366871779</v>
       </c>
       <c r="AC34">
-        <v>0.6422719309050932</v>
+        <v>0.7045222478349515</v>
       </c>
       <c r="AD34">
-        <v>0.6243624900063733</v>
+        <v>0.708506032350797</v>
       </c>
       <c r="AE34">
-        <v>0.6305024343905516</v>
+        <v>0.6802050398757901</v>
       </c>
       <c r="AF34">
-        <v>0.6347976029248676</v>
+        <v>0.6533607918236107</v>
       </c>
       <c r="AG34">
-        <v>0.619420459464611</v>
+        <v>0.7566974936444597</v>
       </c>
       <c r="AH34">
-        <v>0.7460840957933011</v>
+        <v>0.6908881373694733</v>
       </c>
     </row>
     <row r="35" spans="1:48">
       <c r="A35" s="1">
-        <v>33970</v>
+        <v>35431</v>
       </c>
       <c r="Z35">
-        <v>0.6076023287885723</v>
+        <v>0.7067645457895235</v>
       </c>
       <c r="AA35">
-        <v>0.6216543833500439</v>
+        <v>0.7172872263402992</v>
       </c>
       <c r="AB35">
-        <v>0.677838526592113</v>
+        <v>0.7063907870548581</v>
       </c>
       <c r="AC35">
-        <v>0.6423040606860714</v>
+        <v>0.7045229599935282</v>
       </c>
       <c r="AD35">
-        <v>0.6230159514805063</v>
+        <v>0.708447289679846</v>
       </c>
       <c r="AE35">
-        <v>0.6280245889034328</v>
+        <v>0.6799937728520026</v>
       </c>
       <c r="AF35">
-        <v>0.6423933141341749</v>
+        <v>0.6416102328327332</v>
       </c>
       <c r="AG35">
-        <v>0.660322998358769</v>
+        <v>0.6865265928399077</v>
       </c>
       <c r="AH35">
-        <v>0.6293444022511933</v>
+        <v>0.6725461099272431</v>
       </c>
       <c r="AI35">
-        <v>0.7558673537595511</v>
+        <v>0.668199494479958</v>
       </c>
     </row>
     <row r="36" spans="1:48">
       <c r="A36" s="1">
-        <v>34060</v>
+        <v>35521</v>
       </c>
       <c r="AA36">
-        <v>0.6216615503026166</v>
+        <v>0.7172872263060875</v>
       </c>
       <c r="AB36">
-        <v>0.6769415594711657</v>
+        <v>0.7063908179709381</v>
       </c>
       <c r="AC36">
-        <v>0.6422080836703008</v>
+        <v>0.704522940486878</v>
       </c>
       <c r="AD36">
-        <v>0.6233940510095123</v>
+        <v>0.7084558344945237</v>
       </c>
       <c r="AE36">
-        <v>0.6287564864205326</v>
+        <v>0.6800121267685972</v>
       </c>
       <c r="AF36">
-        <v>0.6401859334983359</v>
+        <v>0.6448303239764736</v>
       </c>
       <c r="AG36">
-        <v>0.6514541643342117</v>
+        <v>0.7047508021626102</v>
       </c>
       <c r="AH36">
-        <v>0.6648622283003661</v>
+        <v>0.6690793368236454</v>
       </c>
       <c r="AI36">
-        <v>0.6368939474123748</v>
+        <v>0.6331491000757054</v>
       </c>
       <c r="AJ36">
-        <v>0.743202649209222</v>
+        <v>0.6314323172727978</v>
       </c>
     </row>
     <row r="37" spans="1:48">
       <c r="A37" s="1">
-        <v>34151</v>
+        <v>35612</v>
       </c>
       <c r="AB37">
-        <v>0.6772869301907113</v>
+        <v>0.7063908152506236</v>
       </c>
       <c r="AC37">
-        <v>0.642220702866322</v>
+        <v>0.7045229351622124</v>
       </c>
       <c r="AD37">
-        <v>0.6232960837803423</v>
+        <v>0.7084545915508338</v>
       </c>
       <c r="AE37">
-        <v>0.6285491863278684</v>
+        <v>0.6800121156349084</v>
       </c>
       <c r="AF37">
-        <v>0.6406942537367795</v>
+        <v>0.6440475231688841</v>
       </c>
       <c r="AG37">
-        <v>0.6537843524991095</v>
+        <v>0.6991457600281159</v>
       </c>
       <c r="AH37">
-        <v>0.6576522521074798</v>
+        <v>0.6685631529703092</v>
       </c>
       <c r="AI37">
-        <v>0.6634140187621427</v>
+        <v>0.639123700870082</v>
       </c>
       <c r="AJ37">
-        <v>0.4270435012061883</v>
+        <v>0.6457242482557826</v>
       </c>
       <c r="AK37">
-        <v>0.4708993919713203</v>
+        <v>0.6097289993300754</v>
       </c>
     </row>
     <row r="38" spans="1:48">
       <c r="A38" s="1">
-        <v>34243</v>
+        <v>35704</v>
       </c>
       <c r="AC38">
-        <v>0.642210177336901</v>
+        <v>0.7045229362542107</v>
       </c>
       <c r="AD38">
-        <v>0.6233227547925582</v>
+        <v>0.7084547723515915</v>
       </c>
       <c r="AE38">
-        <v>0.6286094810701758</v>
+        <v>0.6800119005820338</v>
       </c>
       <c r="AF38">
-        <v>0.6405603286072801</v>
+        <v>0.6442491950589521</v>
       </c>
       <c r="AG38">
-        <v>0.6532349433147298</v>
+        <v>0.7006993250913176</v>
       </c>
       <c r="AH38">
-        <v>0.6593880077697215</v>
+        <v>0.6684613257642037</v>
       </c>
       <c r="AI38">
-        <v>0.6584584159731622</v>
+        <v>0.6385689427723894</v>
       </c>
       <c r="AJ38">
-        <v>0.6212678678784166</v>
+        <v>0.6567774807125504</v>
       </c>
       <c r="AK38">
-        <v>0.6224796067213825</v>
+        <v>0.6792800134461064</v>
       </c>
       <c r="AL38">
-        <v>0.6180205985378453</v>
+        <v>0.6643825380110275</v>
       </c>
     </row>
     <row r="39" spans="1:48">
       <c r="A39" s="1">
-        <v>34335</v>
+        <v>35796</v>
       </c>
       <c r="AD39">
-        <v>0.6233157127435841</v>
+        <v>0.7084547460519979</v>
       </c>
       <c r="AE39">
-        <v>0.6285922368280774</v>
+        <v>0.6800119300531833</v>
       </c>
       <c r="AF39">
-        <v>0.640592916879553</v>
+        <v>0.6441987023861115</v>
       </c>
       <c r="AG39">
-        <v>0.6533724814260111</v>
+        <v>0.7002406265845058</v>
       </c>
       <c r="AH39">
-        <v>0.6590010057055031</v>
+        <v>0.6684469300428972</v>
       </c>
       <c r="AI39">
-        <v>0.6594355746567998</v>
+        <v>0.6386396805872977</v>
       </c>
       <c r="AJ39">
-        <v>0.5844176120307443</v>
+        <v>0.6571977291394175</v>
       </c>
       <c r="AK39">
-        <v>0.6026346885337568</v>
+        <v>0.6463369397048778</v>
       </c>
       <c r="AL39">
-        <v>0.630988822311052</v>
+        <v>0.6486347667432999</v>
       </c>
       <c r="AM39">
-        <v>0.6952863805804482</v>
+        <v>0.6494056181566756</v>
       </c>
     </row>
     <row r="40" spans="1:48">
       <c r="A40" s="1">
-        <v>34425</v>
+        <v>35886</v>
       </c>
       <c r="AE40">
-        <v>0.628597221556245</v>
+        <v>0.6800119285699918</v>
       </c>
       <c r="AF40">
-        <v>0.6405846103572497</v>
+        <v>0.6442115220164177</v>
       </c>
       <c r="AG40">
-        <v>0.6533391853440389</v>
+        <v>0.7003709183118367</v>
       </c>
       <c r="AH40">
-        <v>0.659090243688198</v>
+        <v>0.6684439156544569</v>
       </c>
       <c r="AI40">
-        <v>0.6592461599958146</v>
+        <v>0.6386321244150749</v>
       </c>
       <c r="AJ40">
-        <v>0.6003391441492397</v>
+        <v>0.6578534721957741</v>
       </c>
       <c r="AK40">
-        <v>0.6128148184410263</v>
+        <v>0.6528862381647321</v>
       </c>
       <c r="AL40">
-        <v>0.6245047693522087</v>
+        <v>0.6384138465044882</v>
       </c>
       <c r="AM40">
-        <v>0.58452074811323</v>
+        <v>0.5913420395728533</v>
       </c>
       <c r="AN40">
-        <v>0.5555647942494515</v>
+        <v>0.6079450418608099</v>
       </c>
     </row>
     <row r="41" spans="1:48">
       <c r="A41" s="1">
-        <v>34516</v>
+        <v>35977</v>
       </c>
       <c r="AF41">
-        <v>0.640586670635641</v>
+        <v>0.6442082894415815</v>
       </c>
       <c r="AG41">
-        <v>0.6533473975382538</v>
+        <v>0.7003330260323886</v>
       </c>
       <c r="AH41">
-        <v>0.6590699713927834</v>
+        <v>0.66844351952918</v>
       </c>
       <c r="AI41">
-        <v>0.6592830739775624</v>
+        <v>0.6386330127000691</v>
       </c>
       <c r="AJ41">
-        <v>0.596591049021054</v>
+        <v>0.6578523725264895</v>
       </c>
       <c r="AK41">
-        <v>0.6109532102533478</v>
+        <v>0.6501451218481281</v>
       </c>
       <c r="AL41">
-        <v>0.6256716693346865</v>
+        <v>0.6374228409239431</v>
       </c>
       <c r="AM41">
-        <v>0.6294433186861611</v>
+        <v>0.6323008444501399</v>
       </c>
       <c r="AN41">
-        <v>0.6665054124070242</v>
+        <v>0.7035669213203807</v>
       </c>
       <c r="AO41">
-        <v>0.6289560850923929</v>
+        <v>0.7713486720401505</v>
       </c>
     </row>
     <row r="42" spans="1:48">
       <c r="A42" s="1">
-        <v>34608</v>
+        <v>36069</v>
       </c>
       <c r="AG42">
-        <v>0.6533453930303129</v>
+        <v>0.7003438883485834</v>
       </c>
       <c r="AH42">
-        <v>0.6590746071190334</v>
+        <v>0.6684434293733015</v>
       </c>
       <c r="AI42">
-        <v>0.6592758921601937</v>
+        <v>0.6386329136446841</v>
       </c>
       <c r="AJ42">
-        <v>0.597955450502844</v>
+        <v>0.6578923342616032</v>
       </c>
       <c r="AK42">
-        <v>0.6116737917427765</v>
+        <v>0.6507474473349412</v>
       </c>
       <c r="AL42">
-        <v>0.6252471054748385</v>
+        <v>0.6365192610847639</v>
       </c>
       <c r="AM42">
-        <v>0.6212585228166</v>
+        <v>0.6247130012537965</v>
       </c>
       <c r="AN42">
-        <v>0.6321520186965561</v>
+        <v>0.6562510330776472</v>
       </c>
       <c r="AO42">
-        <v>0.6866569575165964</v>
+        <v>0.5617264189641697</v>
       </c>
       <c r="AP42">
-        <v>0.7194433207271483</v>
+        <v>0.5344529819784065</v>
       </c>
     </row>
     <row r="43" spans="1:48">
       <c r="A43" s="1">
-        <v>34700</v>
+        <v>36161</v>
       </c>
       <c r="AH43">
-        <v>0.6590735501395112</v>
+        <v>0.6684434186942714</v>
       </c>
       <c r="AI43">
-        <v>0.6592772901653469</v>
+        <v>0.6386329250134963</v>
       </c>
       <c r="AJ43">
-        <v>0.5975949946948481</v>
+        <v>0.6578906413254042</v>
       </c>
       <c r="AK43">
-        <v>0.6115155066366762</v>
+        <v>0.650517078041326</v>
       </c>
       <c r="AL43">
-        <v>0.6253399400744468</v>
+        <v>0.6364689120332204</v>
       </c>
       <c r="AM43">
-        <v>0.6237438910938077</v>
+        <v>0.6292979838960776</v>
       </c>
       <c r="AN43">
-        <v>0.6396377722852923</v>
+        <v>0.6702439403263071</v>
       </c>
       <c r="AO43">
-        <v>0.673285184404702</v>
+        <v>0.6611292138420526</v>
       </c>
       <c r="AP43">
-        <v>0.704850055356701</v>
+        <v>0.6736197874637944</v>
       </c>
       <c r="AQ43">
-        <v>0.7349032611459</v>
+        <v>0.706556866727216</v>
       </c>
     </row>
     <row r="44" spans="1:48">
       <c r="A44" s="1">
-        <v>34790</v>
+        <v>36251</v>
       </c>
       <c r="AI44">
-        <v>0.6592770180766665</v>
+        <v>0.6386329237291362</v>
       </c>
       <c r="AJ44">
-        <v>0.5977151152232026</v>
+        <v>0.6578931427962682</v>
       </c>
       <c r="AK44">
-        <v>0.6115683609669965</v>
+        <v>0.6505716065119037</v>
       </c>
       <c r="AL44">
-        <v>0.6253108825856255</v>
+        <v>0.6363873117633522</v>
       </c>
       <c r="AM44">
-        <v>0.6232084264708695</v>
+        <v>0.6283340466802885</v>
       </c>
       <c r="AN44">
-        <v>0.6376137944645918</v>
+        <v>0.6637067656352468</v>
       </c>
       <c r="AO44">
-        <v>0.6753055367184417</v>
+        <v>0.6286461674823567</v>
       </c>
       <c r="AP44">
-        <v>0.7070534273762666</v>
+        <v>0.6173719687346187</v>
       </c>
       <c r="AQ44">
-        <v>0.716293386790436</v>
+        <v>0.4329565523398041</v>
       </c>
       <c r="AR44">
-        <v>0.7854021562097397</v>
+        <v>0.5822668803191475</v>
       </c>
     </row>
     <row r="45" spans="1:48">
       <c r="A45" s="1">
-        <v>34881</v>
+        <v>36342</v>
       </c>
       <c r="AJ45">
-        <v>0.5976813536361421</v>
+        <v>0.6578929379603931</v>
       </c>
       <c r="AK45">
-        <v>0.6115554894559065</v>
+        <v>0.6505520899866164</v>
       </c>
       <c r="AL45">
-        <v>0.6253179068501953</v>
+        <v>0.6363864007343586</v>
       </c>
       <c r="AM45">
-        <v>0.6233528000709363</v>
+        <v>0.6288514224943884</v>
       </c>
       <c r="AN45">
-        <v>0.6380914699339583</v>
+        <v>0.6657385439752845</v>
       </c>
       <c r="AO45">
-        <v>0.6749391760733952</v>
+        <v>0.6434406502045062</v>
       </c>
       <c r="AP45">
-        <v>0.7067209533310829</v>
+        <v>0.6406762614394624</v>
       </c>
       <c r="AQ45">
-        <v>0.7171206659256989</v>
+        <v>0.6316249271871002</v>
       </c>
       <c r="AR45">
-        <v>0.7010285511676723</v>
+        <v>0.6265613028771653</v>
       </c>
       <c r="AS45">
-        <v>0.6519042913709076</v>
+        <v>0.5327950344365733</v>
       </c>
     </row>
     <row r="46" spans="1:48">
       <c r="A46" s="1">
-        <v>34973</v>
+        <v>36434</v>
       </c>
       <c r="AK46">
-        <v>0.6115594542740439</v>
+        <v>0.6505569730686774</v>
       </c>
       <c r="AL46">
-        <v>0.6253158667884088</v>
+        <v>0.6363788638238724</v>
       </c>
       <c r="AM46">
-        <v>0.6233192838311978</v>
+        <v>0.6287313117128955</v>
       </c>
       <c r="AN46">
-        <v>0.6379688063700004</v>
+        <v>0.6648313208107254</v>
       </c>
       <c r="AO46">
-        <v>0.6750003000021739</v>
+        <v>0.6384323869663219</v>
       </c>
       <c r="AP46">
-        <v>0.7067711245586957</v>
+        <v>0.6312296709549692</v>
       </c>
       <c r="AQ46">
-        <v>0.7173323095835756</v>
+        <v>0.5741377167402226</v>
       </c>
       <c r="AR46">
-        <v>0.7060972494988828</v>
+        <v>0.6373805528543428</v>
       </c>
       <c r="AS46">
-        <v>0.7087123454962511</v>
+        <v>0.5396866464300986</v>
       </c>
       <c r="AT46">
-        <v>0.8221434309807819</v>
+        <v>0.5450131919859653</v>
       </c>
     </row>
     <row r="47" spans="1:48">
       <c r="A47" s="1">
-        <v>35065</v>
+        <v>36526</v>
       </c>
       <c r="AL47">
-        <v>0.6253163861347778</v>
+        <v>0.6363791269894246</v>
       </c>
       <c r="AM47">
-        <v>0.6233278708582233</v>
+        <v>0.6287901016336114</v>
       </c>
       <c r="AN47">
-        <v>0.637998682126599</v>
+        <v>0.6651246123738108</v>
       </c>
       <c r="AO47">
-        <v>0.6749897175375472</v>
+        <v>0.640641522260588</v>
       </c>
       <c r="AP47">
-        <v>0.7067635536336259</v>
+        <v>0.6351334429669926</v>
       </c>
       <c r="AQ47">
-        <v>0.7172830804728048</v>
+        <v>0.6110371101832792</v>
       </c>
       <c r="AR47">
-        <v>0.7065144960771984</v>
+        <v>0.6407820593296815</v>
       </c>
       <c r="AS47">
-        <v>0.7044725648594855</v>
+        <v>0.5745240053796804</v>
       </c>
       <c r="AT47">
-        <v>0.6918039127851399</v>
+        <v>0.5949619883098396</v>
       </c>
       <c r="AU47">
-        <v>0.8352663417225831</v>
+        <v>0.5953599605391648</v>
       </c>
     </row>
     <row r="48" spans="1:48">
       <c r="A48" s="1">
-        <v>35156</v>
+        <v>36617</v>
       </c>
       <c r="AM48">
-        <v>0.6233258103655728</v>
+        <v>0.6287753398511985</v>
       </c>
       <c r="AN48">
-        <v>0.6379911616834479</v>
+        <v>0.6649982437798114</v>
       </c>
       <c r="AO48">
-        <v>0.6749915194339747</v>
+        <v>0.6398723316039931</v>
       </c>
       <c r="AP48">
-        <v>0.706764696100061</v>
+        <v>0.633547414456047</v>
       </c>
       <c r="AQ48">
-        <v>0.717287056650081</v>
+        <v>0.5992286216707894</v>
       </c>
       <c r="AR48">
-        <v>0.7063755321527865</v>
+        <v>0.6415929270967536</v>
       </c>
       <c r="AS48">
-        <v>0.704481216157559</v>
+        <v>0.5775403884187899</v>
       </c>
       <c r="AT48">
-        <v>0.7108782865320243</v>
+        <v>0.5808704786402678</v>
       </c>
       <c r="AU48">
-        <v>0.6716719657684272</v>
+        <v>0.5795217284700636</v>
       </c>
       <c r="AV48">
-        <v>0.7498507945729943</v>
+        <v>0.6226192974295949</v>
       </c>
     </row>
     <row r="49" spans="1:64">
       <c r="A49" s="1">
-        <v>35247</v>
+        <v>36708</v>
       </c>
       <c r="AN49">
-        <v>0.6379930161079231</v>
+        <v>0.665040392516271</v>
       </c>
       <c r="AO49">
-        <v>0.6749912103267842</v>
+        <v>0.6402030903408551</v>
       </c>
       <c r="AP49">
-        <v>0.7067645236997986</v>
+        <v>0.6342015211138456</v>
       </c>
       <c r="AQ49">
-        <v>0.7172873299444262</v>
+        <v>0.6061452218096683</v>
       </c>
       <c r="AR49">
-        <v>0.7063914429245759</v>
+        <v>0.6418546652315493</v>
       </c>
       <c r="AS49">
-        <v>0.7045302728300943</v>
+        <v>0.5801989079948108</v>
       </c>
       <c r="AT49">
-        <v>0.7081021982182329</v>
+        <v>0.5849450364381467</v>
       </c>
       <c r="AU49">
-        <v>0.6793177887288687</v>
+        <v>0.5733238563883514</v>
       </c>
       <c r="AV49">
-        <v>0.5988614389727719</v>
+        <v>0.6152940983440472</v>
       </c>
       <c r="AW49">
-        <v>0.5526975035503667</v>
+        <v>0.6988412923093029</v>
       </c>
     </row>
     <row r="50" spans="1:64">
       <c r="A50" s="1">
-        <v>35339</v>
+        <v>36800</v>
       </c>
       <c r="AO50">
-        <v>0.6749912631757632</v>
+        <v>0.6400853091970573</v>
       </c>
       <c r="AP50">
-        <v>0.7067645497153118</v>
+        <v>0.6339352995266524</v>
       </c>
       <c r="AQ50">
-        <v>0.7172872125832278</v>
+        <v>0.6037566367385943</v>
       </c>
       <c r="AR50">
-        <v>0.7063909366871779</v>
+        <v>0.6419152579712075</v>
       </c>
       <c r="AS50">
-        <v>0.7045222478349515</v>
+        <v>0.5806034644093303</v>
       </c>
       <c r="AT50">
-        <v>0.708506032350797</v>
+        <v>0.5838001976060481</v>
       </c>
       <c r="AU50">
-        <v>0.6802050398757901</v>
+        <v>0.5720569175146333</v>
       </c>
       <c r="AV50">
-        <v>0.6533607918236107</v>
+        <v>0.6122132958789177</v>
       </c>
       <c r="AW50">
-        <v>0.7566974936444597</v>
+        <v>0.6287981404954279</v>
       </c>
       <c r="AX50">
-        <v>0.6908881373694733</v>
+        <v>0.6043994585460104</v>
       </c>
     </row>
     <row r="51" spans="1:64">
       <c r="A51" s="1">
-        <v>35431</v>
+        <v>36892</v>
       </c>
       <c r="AP51">
-        <v>0.7067645457895235</v>
+        <v>0.6340449228061379</v>
       </c>
       <c r="AQ51">
-        <v>0.7172872263402992</v>
+        <v>0.6050628942335293</v>
       </c>
       <c r="AR51">
-        <v>0.7063907870548581</v>
+        <v>0.6419354455507769</v>
       </c>
       <c r="AS51">
-        <v>0.7045229599935282</v>
+        <v>0.5808190248139028</v>
       </c>
       <c r="AT51">
-        <v>0.708447289679846</v>
+        <v>0.5841327987076865</v>
       </c>
       <c r="AU51">
-        <v>0.6799937728520026</v>
+        <v>0.5716393690920979</v>
       </c>
       <c r="AV51">
-        <v>0.6416102328327332</v>
+        <v>0.6114083883416332</v>
       </c>
       <c r="AW51">
-        <v>0.6865265928399077</v>
+        <v>0.6012937984109253</v>
       </c>
       <c r="AX51">
-        <v>0.6725461099272431</v>
+        <v>0.5841164940103007</v>
       </c>
       <c r="AY51">
-        <v>0.668199494479958</v>
+        <v>0.4918650461327669</v>
       </c>
     </row>
     <row r="52" spans="1:64">
       <c r="A52" s="1">
-        <v>35521</v>
+        <v>36982</v>
       </c>
       <c r="AQ52">
-        <v>0.7172872263060875</v>
+        <v>0.6045849192688668</v>
       </c>
       <c r="AR52">
-        <v>0.7063908179709381</v>
+        <v>0.6419399568332909</v>
       </c>
       <c r="AS52">
-        <v>0.704522940486878</v>
+        <v>0.5808630283114399</v>
       </c>
       <c r="AT52">
-        <v>0.7084558344945237</v>
+        <v>0.5840398624645232</v>
       </c>
       <c r="AU52">
-        <v>0.6800121267685972</v>
+        <v>0.5715433071014301</v>
       </c>
       <c r="AV52">
-        <v>0.6448303239764736</v>
+        <v>0.611128552558733</v>
       </c>
       <c r="AW52">
-        <v>0.7047508021626102</v>
+        <v>0.5939688895000458</v>
       </c>
       <c r="AX52">
-        <v>0.6690793368236454</v>
+        <v>0.5824831380691148</v>
       </c>
       <c r="AY52">
-        <v>0.6331491000757054</v>
+        <v>0.5393488126964473</v>
       </c>
       <c r="AZ52">
-        <v>0.6314323172727978</v>
+        <v>0.5111730560616267</v>
       </c>
     </row>
     <row r="53" spans="1:64">
       <c r="A53" s="1">
-        <v>35612</v>
+        <v>37073</v>
       </c>
       <c r="AR53">
-        <v>0.7063908152506236</v>
+        <v>0.6419415181486394</v>
       </c>
       <c r="AS53">
-        <v>0.7045229351622124</v>
+        <v>0.5808813212574904</v>
       </c>
       <c r="AT53">
-        <v>0.7084545915508338</v>
+        <v>0.5840670365896935</v>
       </c>
       <c r="AU53">
-        <v>0.6800121156349084</v>
+        <v>0.5715144537998775</v>
       </c>
       <c r="AV53">
-        <v>0.6440475231688841</v>
+        <v>0.6110471255698444</v>
       </c>
       <c r="AW53">
-        <v>0.6991457600281159</v>
+        <v>0.5917291580595784</v>
       </c>
       <c r="AX53">
-        <v>0.6685631529703092</v>
+        <v>0.581247058160593</v>
       </c>
       <c r="AY53">
-        <v>0.639123700870082</v>
+        <v>0.5524473747249024</v>
       </c>
       <c r="AZ53">
-        <v>0.6457242482557826</v>
+        <v>0.5367486645638527</v>
       </c>
       <c r="BA53">
-        <v>0.6097289993300754</v>
+        <v>0.455773509922641</v>
       </c>
     </row>
     <row r="54" spans="1:64">
       <c r="A54" s="1">
-        <v>35704</v>
+        <v>37165</v>
       </c>
       <c r="AS54">
-        <v>0.7045229362542107</v>
+        <v>0.5808857326703815</v>
       </c>
       <c r="AT54">
-        <v>0.7084547723515915</v>
+        <v>0.5840595003781993</v>
       </c>
       <c r="AU54">
-        <v>0.6800119005820338</v>
+        <v>0.5715073596856236</v>
       </c>
       <c r="AV54">
-        <v>0.6442491950589521</v>
+        <v>0.6110207131465466</v>
       </c>
       <c r="AW54">
-        <v>0.7006993250913176</v>
+        <v>0.5910797451728049</v>
       </c>
       <c r="AX54">
-        <v>0.6684613257642037</v>
+        <v>0.5809572163350931</v>
       </c>
       <c r="AY54">
-        <v>0.6385689427723894</v>
+        <v>0.5555186530387053</v>
       </c>
       <c r="AZ54">
-        <v>0.6567774807125504</v>
+        <v>0.5429268296097166</v>
       </c>
       <c r="BA54">
-        <v>0.6792800134461064</v>
+        <v>0.4990924970080751</v>
       </c>
       <c r="BB54">
-        <v>0.6643825380110275</v>
+        <v>0.3930773188618389</v>
       </c>
     </row>
     <row r="55" spans="1:64">
       <c r="A55" s="1">
-        <v>35796</v>
+        <v>37257</v>
       </c>
       <c r="AT55">
-        <v>0.7084547460519979</v>
+        <v>0.5840617232352838</v>
       </c>
       <c r="AU55">
-        <v>0.6800119300531833</v>
+        <v>0.5715053350732848</v>
       </c>
       <c r="AV55">
-        <v>0.6441987023861115</v>
+        <v>0.6110127025310913</v>
       </c>
       <c r="AW55">
-        <v>0.7002406265845058</v>
+        <v>0.5908876640701434</v>
       </c>
       <c r="AX55">
-        <v>0.6684469300428972</v>
+        <v>0.5808491003310676</v>
       </c>
       <c r="AY55">
-        <v>0.6386396805872977</v>
+        <v>0.5562730560563957</v>
       </c>
       <c r="AZ55">
-        <v>0.6571977291394175</v>
+        <v>0.5443045186424615</v>
       </c>
       <c r="BA55">
-        <v>0.6463369397048778</v>
+        <v>0.5297975912696237</v>
       </c>
       <c r="BB55">
-        <v>0.6486347667432999</v>
+        <v>0.4661792532129501</v>
       </c>
       <c r="BC55">
-        <v>0.6494056181566756</v>
+        <v>0.3488092416346601</v>
       </c>
     </row>
     <row r="56" spans="1:64">
       <c r="A56" s="1">
-        <v>35886</v>
+        <v>37347</v>
       </c>
       <c r="AU56">
-        <v>0.6800119285699918</v>
+        <v>0.5715048183488175</v>
       </c>
       <c r="AV56">
-        <v>0.6442115220164177</v>
+        <v>0.6110101707091586</v>
       </c>
       <c r="AW56">
-        <v>0.7003709183118367</v>
+        <v>0.5908312769785984</v>
       </c>
       <c r="AX56">
-        <v>0.6684439156544569</v>
+        <v>0.5808168309177457</v>
       </c>
       <c r="AY56">
-        <v>0.6386321244150749</v>
+        <v>0.5564558125528843</v>
       </c>
       <c r="AZ56">
-        <v>0.6578534721957741</v>
+        <v>0.5446182618086666</v>
       </c>
       <c r="BA56">
-        <v>0.6528862381647321</v>
+        <v>0.5361399284046757</v>
       </c>
       <c r="BB56">
-        <v>0.6384138465044882</v>
+        <v>0.502079921811539</v>
       </c>
       <c r="BC56">
-        <v>0.5913420395728533</v>
+        <v>0.4133078532474691</v>
       </c>
       <c r="BD56">
-        <v>0.6079450418608099</v>
+        <v>0.3733471478793139</v>
       </c>
     </row>
     <row r="57" spans="1:64">
       <c r="A57" s="1">
-        <v>35977</v>
+        <v>37438</v>
       </c>
       <c r="AV57">
-        <v>0.6442082894415815</v>
+        <v>0.6110093906027442</v>
       </c>
       <c r="AW57">
-        <v>0.7003330260323886</v>
+        <v>0.5908146770286595</v>
       </c>
       <c r="AX57">
-        <v>0.66844351952918</v>
+        <v>0.5808061824761467</v>
       </c>
       <c r="AY57">
-        <v>0.6386330127000691</v>
+        <v>0.5565002668485252</v>
       </c>
       <c r="AZ57">
-        <v>0.6578523725264895</v>
+        <v>0.5446893086840846</v>
       </c>
       <c r="BA57">
-        <v>0.6501451218481281</v>
+        <v>0.5385641127621728</v>
       </c>
       <c r="BB57">
-        <v>0.6374228409239431</v>
+        <v>0.5107902432803894</v>
       </c>
       <c r="BC57">
-        <v>0.6323008444501399</v>
+        <v>0.4604518569190361</v>
       </c>
       <c r="BD57">
-        <v>0.7035669213203807</v>
+        <v>0.4155614698512454</v>
       </c>
       <c r="BE57">
-        <v>0.7713486720401505</v>
+        <v>0.4245874130453108</v>
       </c>
     </row>
     <row r="58" spans="1:64">
       <c r="A58" s="1">
-        <v>36069</v>
+        <v>37530</v>
       </c>
       <c r="AW58">
-        <v>0.7003438883485834</v>
+        <v>0.5908097953542742</v>
       </c>
       <c r="AX58">
-        <v>0.6684434293733015</v>
+        <v>0.5808028290175929</v>
       </c>
       <c r="AY58">
-        <v>0.6386329136446841</v>
+        <v>0.5565110670311032</v>
       </c>
       <c r="AZ58">
-        <v>0.6578923342616032</v>
+        <v>0.5447054214689311</v>
       </c>
       <c r="BA58">
-        <v>0.6507474473349412</v>
+        <v>0.5392144861046608</v>
       </c>
       <c r="BB58">
-        <v>0.6365192610847639</v>
+        <v>0.5137598494174396</v>
       </c>
       <c r="BC58">
-        <v>0.6247130012537965</v>
+        <v>0.470180360559788</v>
       </c>
       <c r="BD58">
-        <v>0.6562510330776472</v>
+        <v>0.4307344668701582</v>
       </c>
       <c r="BE58">
-        <v>0.5617264189641697</v>
+        <v>0.4382444616975363</v>
       </c>
       <c r="BF58">
-        <v>0.5344529819784065</v>
+        <v>0.4046536078879283</v>
       </c>
     </row>
     <row r="59" spans="1:64">
       <c r="A59" s="1">
-        <v>36161</v>
+        <v>37622</v>
       </c>
       <c r="AX59">
-        <v>0.6684434186942714</v>
+        <v>0.5808017500553143</v>
       </c>
       <c r="AY59">
-        <v>0.6386329250134963</v>
+        <v>0.5565136918722904</v>
       </c>
       <c r="AZ59">
-        <v>0.6578906413254042</v>
+        <v>0.5447090742283451</v>
       </c>
       <c r="BA59">
-        <v>0.650517078041326</v>
+        <v>0.5394259756768716</v>
       </c>
       <c r="BB59">
-        <v>0.6364689120332204</v>
+        <v>0.5146059038084063</v>
       </c>
       <c r="BC59">
-        <v>0.6292979838960776</v>
+        <v>0.4744115785730748</v>
       </c>
       <c r="BD59">
-        <v>0.6702439403263071</v>
+        <v>0.4344709001337502</v>
       </c>
       <c r="BE59">
-        <v>0.6611292138420526</v>
+        <v>0.4409243710994529</v>
       </c>
       <c r="BF59">
-        <v>0.6736197874637944</v>
+        <v>0.410018554508535</v>
       </c>
       <c r="BG59">
-        <v>0.706556866727216</v>
+        <v>0.3598922120924801</v>
       </c>
     </row>
     <row r="60" spans="1:64">
       <c r="A60" s="1">
-        <v>36251</v>
+        <v>37712</v>
       </c>
       <c r="AY60">
-        <v>0.6386329237291362</v>
+        <v>0.556514329738091</v>
       </c>
       <c r="AZ60">
-        <v>0.6578931427962682</v>
+        <v>0.544709902396182</v>
       </c>
       <c r="BA60">
-        <v>0.6505716065119037</v>
+        <v>0.5394876853395751</v>
       </c>
       <c r="BB60">
-        <v>0.6363873117633522</v>
+        <v>0.5148699529690937</v>
       </c>
       <c r="BC60">
-        <v>0.6283340466802885</v>
+        <v>0.4755436472717282</v>
       </c>
       <c r="BD60">
-        <v>0.6637067656352468</v>
+        <v>0.4356564948102635</v>
       </c>
       <c r="BE60">
-        <v>0.6286461674823567</v>
+        <v>0.4412963367646489</v>
       </c>
       <c r="BF60">
-        <v>0.6173719687346187</v>
+        <v>0.4012714102465568</v>
       </c>
       <c r="BG60">
-        <v>0.4329565523398041</v>
+        <v>0.3918008950949331</v>
       </c>
       <c r="BH60">
-        <v>0.5822668803191475</v>
+        <v>0.432116081367058</v>
       </c>
     </row>
     <row r="61" spans="1:64">
       <c r="A61" s="1">
-        <v>36342</v>
+        <v>37803</v>
       </c>
       <c r="AZ61">
-        <v>0.6578929379603931</v>
+        <v>0.544710090156205</v>
       </c>
       <c r="BA61">
-        <v>0.6505520899866164</v>
+        <v>0.539506803561739</v>
       </c>
       <c r="BB61">
-        <v>0.6363864007343586</v>
+        <v>0.5149485550078881</v>
       </c>
       <c r="BC61">
-        <v>0.6288514224943884</v>
+        <v>0.4759535526625501</v>
       </c>
       <c r="BD61">
-        <v>0.6657385439752845</v>
+        <v>0.4359727857680928</v>
       </c>
       <c r="BE61">
-        <v>0.6434406502045062</v>
+        <v>0.4413554122745683</v>
       </c>
       <c r="BF61">
-        <v>0.6406762614394624</v>
+        <v>0.4000585688591006</v>
       </c>
       <c r="BG61">
-        <v>0.6316249271871002</v>
+        <v>0.3692375159139534</v>
       </c>
       <c r="BH61">
-        <v>0.6265613028771653</v>
+        <v>0.4180505155572309</v>
       </c>
       <c r="BI61">
-        <v>0.5327950344365733</v>
+        <v>0.4408791614499421</v>
       </c>
     </row>
     <row r="62" spans="1:64">
       <c r="A62" s="1">
-        <v>36434</v>
+        <v>37895</v>
       </c>
       <c r="BA62">
-        <v>0.6505569730686774</v>
+        <v>0.5395125313730755</v>
       </c>
       <c r="BB62">
-        <v>0.6363788638238724</v>
+        <v>0.5149725281575412</v>
       </c>
       <c r="BC62">
-        <v>0.6287313117128955</v>
+        <v>0.4760756848267011</v>
       </c>
       <c r="BD62">
-        <v>0.6648313208107254</v>
+        <v>0.4360676563959109</v>
       </c>
       <c r="BE62">
-        <v>0.6384323869663219</v>
+        <v>0.4413642851505443</v>
       </c>
       <c r="BF62">
-        <v>0.6312296709549692</v>
+        <v>0.4005338321518833</v>
       </c>
       <c r="BG62">
-        <v>0.5741377167402226</v>
+        <v>0.3666551790869302</v>
       </c>
       <c r="BH62">
-        <v>0.6373805528543428</v>
+        <v>0.2926795090484308</v>
       </c>
       <c r="BI62">
-        <v>0.5396866464300986</v>
+        <v>0.3885244097753858</v>
       </c>
       <c r="BJ62">
-        <v>0.5450131919859653</v>
+        <v>0.3891497497483102</v>
       </c>
     </row>
     <row r="63" spans="1:64">
       <c r="A63" s="1">
-        <v>36526</v>
+        <v>37987</v>
       </c>
       <c r="BB63">
-        <v>0.6363791269894246</v>
+        <v>0.514979748778353</v>
       </c>
       <c r="BC63">
-        <v>0.6287901016336114</v>
+        <v>0.4761168460203365</v>
       </c>
       <c r="BD63">
-        <v>0.6651246123738108</v>
+        <v>0.4360939273589653</v>
       </c>
       <c r="BE63">
-        <v>0.640641522260588</v>
+        <v>0.4413656482766732</v>
       </c>
       <c r="BF63">
-        <v>0.6351334429669926</v>
+        <v>0.400662191393185</v>
       </c>
       <c r="BG63">
-        <v>0.6110371101832792</v>
+        <v>0.3679317332186131</v>
       </c>
       <c r="BH63">
-        <v>0.6407820593296815</v>
+        <v>0.30516592574181</v>
       </c>
       <c r="BI63">
-        <v>0.5745240053796804</v>
+        <v>0.2959440651902467</v>
       </c>
       <c r="BJ63">
-        <v>0.5949619883098396</v>
+        <v>0.3365238224108569</v>
       </c>
       <c r="BK63">
-        <v>0.5953599605391648</v>
+        <v>0.3111216883095244</v>
       </c>
     </row>
     <row r="64" spans="1:64">
       <c r="A64" s="1">
-        <v>36617</v>
+        <v>38078</v>
       </c>
       <c r="BC64">
-        <v>0.6287753398511985</v>
+        <v>0.4761296657005377</v>
       </c>
       <c r="BD64">
-        <v>0.6649982437798114</v>
+        <v>0.4361016069815533</v>
       </c>
       <c r="BE64">
-        <v>0.6398723316039931</v>
+        <v>0.4413658557659655</v>
       </c>
       <c r="BF64">
-        <v>0.633547414456047</v>
+        <v>0.4006424321096362</v>
       </c>
       <c r="BG64">
-        <v>0.5992286216707894</v>
+        <v>0.3681244317692473</v>
       </c>
       <c r="BH64">
-        <v>0.6415929270967536</v>
+        <v>0.3282467911798449</v>
       </c>
       <c r="BI64">
-        <v>0.5775403884187899</v>
+        <v>0.3092485674710722</v>
       </c>
       <c r="BJ64">
-        <v>0.5808704786402678</v>
+        <v>0.3190245189122564</v>
       </c>
       <c r="BK64">
-        <v>0.5795217284700636</v>
+        <v>0.3105017490744861</v>
       </c>
       <c r="BL64">
-        <v>0.6226192974295949</v>
+        <v>0.2559175718893015</v>
       </c>
     </row>
     <row r="65" spans="1:80">
       <c r="A65" s="1">
-        <v>36708</v>
+        <v>38169</v>
       </c>
       <c r="BD65">
-        <v>0.665040392516271</v>
+        <v>0.4361037706776424</v>
       </c>
       <c r="BE65">
-        <v>0.6402030903408551</v>
+        <v>0.4413658874681254</v>
       </c>
       <c r="BF65">
-        <v>0.6342015211138456</v>
+        <v>0.4006318120354907</v>
       </c>
       <c r="BG65">
-        <v>0.6061452218096683</v>
+        <v>0.3680535902401393</v>
       </c>
       <c r="BH65">
-        <v>0.6418546652315493</v>
+        <v>0.324049052194104</v>
       </c>
       <c r="BI65">
-        <v>0.5801989079948108</v>
+        <v>0.3261443447108516</v>
       </c>
       <c r="BJ65">
-        <v>0.5849450364381467</v>
+        <v>0.3260005363119898</v>
       </c>
       <c r="BK65">
-        <v>0.5733238563883514</v>
+        <v>0.3025766305114897</v>
       </c>
       <c r="BL65">
-        <v>0.6152940983440472</v>
+        <v>0.2688616352615983</v>
       </c>
       <c r="BM65">
-        <v>0.6988412923093029</v>
+        <v>0.3265058905256286</v>
       </c>
     </row>
     <row r="66" spans="1:80">
       <c r="A66" s="1">
-        <v>36800</v>
+        <v>38261</v>
       </c>
       <c r="BE66">
-        <v>0.6400853091970573</v>
+        <v>0.4413658923044543</v>
       </c>
       <c r="BF66">
-        <v>0.6339352995266524</v>
+        <v>0.4006321206405437</v>
       </c>
       <c r="BG66">
-        <v>0.6037566367385943</v>
+        <v>0.3680399344947518</v>
       </c>
       <c r="BH66">
-        <v>0.6419152579712075</v>
+        <v>0.3199481047564459</v>
       </c>
       <c r="BI66">
-        <v>0.5806034644093303</v>
+        <v>0.32301176670558</v>
       </c>
       <c r="BJ66">
-        <v>0.5838001976060481</v>
+        <v>0.327734420102463</v>
       </c>
       <c r="BK66">
-        <v>0.5720569175146333</v>
+        <v>0.3025722781569847</v>
       </c>
       <c r="BL66">
-        <v>0.6122132958789177</v>
+        <v>0.2694803729675856</v>
       </c>
       <c r="BM66">
-        <v>0.6287981404954279</v>
+        <v>0.3166071184030521</v>
       </c>
       <c r="BN66">
-        <v>0.6043994585460104</v>
+        <v>0.3350407289565241</v>
       </c>
     </row>
     <row r="67" spans="1:80">
       <c r="A67" s="1">
-        <v>36892</v>
+        <v>38353</v>
       </c>
       <c r="BF67">
-        <v>0.6340449228061379</v>
+        <v>0.4006328705714784</v>
       </c>
       <c r="BG67">
-        <v>0.6050628942335293</v>
+        <v>0.3680437779986308</v>
       </c>
       <c r="BH67">
-        <v>0.6419354455507769</v>
+        <v>0.3210737058024128</v>
       </c>
       <c r="BI67">
-        <v>0.5808190248139028</v>
+        <v>0.3199547032047489</v>
       </c>
       <c r="BJ67">
-        <v>0.5841327987076865</v>
+        <v>0.3268365092632566</v>
       </c>
       <c r="BK67">
-        <v>0.5716393690920979</v>
+        <v>0.3032254370785323</v>
       </c>
       <c r="BL67">
-        <v>0.6114083883416332</v>
+        <v>0.2693149501639345</v>
       </c>
       <c r="BM67">
-        <v>0.6012937984109253</v>
+        <v>0.304905506102288</v>
       </c>
       <c r="BN67">
-        <v>0.5841164940103007</v>
+        <v>0.2805910775836477</v>
       </c>
       <c r="BO67">
-        <v>0.4918650461327669</v>
+        <v>0.2440301364330125</v>
       </c>
     </row>
     <row r="68" spans="1:80">
       <c r="A68" s="1">
-        <v>36982</v>
+        <v>38443</v>
       </c>
       <c r="BG68">
-        <v>0.6045849192688668</v>
+        <v>0.3680447108442119</v>
       </c>
       <c r="BH68">
-        <v>0.6419399568332909</v>
+        <v>0.3217727040823158</v>
       </c>
       <c r="BI68">
-        <v>0.5808630283114399</v>
+        <v>0.3206577730407406</v>
       </c>
       <c r="BJ68">
-        <v>0.5840398624645232</v>
+        <v>0.326674174583709</v>
       </c>
       <c r="BK68">
-        <v>0.5715433071014301</v>
+        <v>0.3032303656051888</v>
       </c>
       <c r="BL68">
-        <v>0.611128552558733</v>
+        <v>0.2693225113769206</v>
       </c>
       <c r="BM68">
-        <v>0.5939688895000458</v>
+        <v>0.3031454525714746</v>
       </c>
       <c r="BN68">
-        <v>0.5824831380691148</v>
+        <v>0.3212500926229151</v>
       </c>
       <c r="BO68">
-        <v>0.5393488126964473</v>
+        <v>0.2062181648172821</v>
       </c>
       <c r="BP68">
-        <v>0.5111730560616267</v>
+        <v>0.3879564616327092</v>
       </c>
     </row>
     <row r="69" spans="1:80">
       <c r="A69" s="1">
-        <v>37073</v>
+        <v>38534</v>
       </c>
       <c r="BH69">
-        <v>0.6419415181486394</v>
+        <v>0.3215021584306325</v>
       </c>
       <c r="BI69">
-        <v>0.5808813212574904</v>
+        <v>0.3212058028751845</v>
       </c>
       <c r="BJ69">
-        <v>0.5840670365896935</v>
+        <v>0.3267869627500878</v>
       </c>
       <c r="BK69">
-        <v>0.5715144537998775</v>
+        <v>0.3031765666384352</v>
       </c>
       <c r="BL69">
-        <v>0.6110471255698444</v>
+        <v>0.2693233983846897</v>
       </c>
       <c r="BM69">
-        <v>0.5917291580595784</v>
+        <v>0.3021387375097428</v>
       </c>
       <c r="BN69">
-        <v>0.581247058160593</v>
+        <v>0.3118098725280817</v>
       </c>
       <c r="BO69">
-        <v>0.5524473747249024</v>
+        <v>0.2890469947151774</v>
       </c>
       <c r="BP69">
-        <v>0.5367486645638527</v>
+        <v>0.4069942587560427</v>
       </c>
       <c r="BQ69">
-        <v>0.455773509922641</v>
+        <v>0.386250725708883</v>
       </c>
     </row>
     <row r="70" spans="1:80">
       <c r="A70" s="1">
-        <v>37165</v>
+        <v>38626</v>
       </c>
       <c r="BI70">
-        <v>0.5808857326703815</v>
+        <v>0.3210531800476519</v>
       </c>
       <c r="BJ70">
-        <v>0.5840595003781993</v>
+        <v>0.3268008463473504</v>
       </c>
       <c r="BK70">
-        <v>0.5715073596856236</v>
+        <v>0.3031757840258756</v>
       </c>
       <c r="BL70">
-        <v>0.6110207131465466</v>
+        <v>0.2693232600617677</v>
       </c>
       <c r="BM70">
-        <v>0.5910797451728049</v>
+        <v>0.3019213155155314</v>
       </c>
       <c r="BN70">
-        <v>0.5809572163350931</v>
+        <v>0.3188276801846191</v>
       </c>
       <c r="BO70">
-        <v>0.5555186530387053</v>
+        <v>0.2836003304412504</v>
       </c>
       <c r="BP70">
-        <v>0.5429268296097166</v>
+        <v>0.391655134650208</v>
       </c>
       <c r="BQ70">
-        <v>0.4990924970080751</v>
+        <v>0.3662932776832672</v>
       </c>
       <c r="BR70">
-        <v>0.3930773188618389</v>
+        <v>0.3676850644710708</v>
       </c>
     </row>
     <row r="71" spans="1:80">
       <c r="A71" s="1">
-        <v>37257</v>
+        <v>38718</v>
       </c>
       <c r="BJ71">
-        <v>0.5840617232352838</v>
+        <v>0.3267869767660009</v>
       </c>
       <c r="BK71">
-        <v>0.5715053350732848</v>
+        <v>0.3031802126686642</v>
       </c>
       <c r="BL71">
-        <v>0.6110127025310913</v>
+        <v>0.2693232630620472</v>
       </c>
       <c r="BM71">
-        <v>0.5908876640701434</v>
+        <v>0.3018288347473992</v>
       </c>
       <c r="BN71">
-        <v>0.5808491003310676</v>
+        <v>0.317191027283681</v>
       </c>
       <c r="BO71">
-        <v>0.5562730560563957</v>
+        <v>0.2980067789266703</v>
       </c>
       <c r="BP71">
-        <v>0.5443045186424615</v>
+        <v>0.3918966591630549</v>
       </c>
       <c r="BQ71">
-        <v>0.5297975912696237</v>
+        <v>0.3779616035328685</v>
       </c>
       <c r="BR71">
-        <v>0.4661792532129501</v>
+        <v>0.3944407247675515</v>
       </c>
       <c r="BS71">
-        <v>0.3488092416346601</v>
+        <v>0.3827494615806734</v>
       </c>
     </row>
     <row r="72" spans="1:80">
       <c r="A72" s="1">
-        <v>37347</v>
+        <v>38808</v>
       </c>
       <c r="BK72">
-        <v>0.5715048183488175</v>
+        <v>0.3031803081565542</v>
       </c>
       <c r="BL72">
-        <v>0.6110101707091586</v>
+        <v>0.2693232640672851</v>
       </c>
       <c r="BM72">
-        <v>0.5908312769785984</v>
+        <v>0.3018048120935841</v>
       </c>
       <c r="BN72">
-        <v>0.5808168309177457</v>
+        <v>0.3184023224393492</v>
       </c>
       <c r="BO72">
-        <v>0.5564558125528843</v>
+        <v>0.2972570225336142</v>
       </c>
       <c r="BP72">
-        <v>0.5446182618086666</v>
+        <v>0.3915352676660228</v>
       </c>
       <c r="BQ72">
-        <v>0.5361399284046757</v>
+        <v>0.3774395801040224</v>
       </c>
       <c r="BR72">
-        <v>0.502079921811539</v>
+        <v>0.3741796342972468</v>
       </c>
       <c r="BS72">
-        <v>0.4133078532474691</v>
+        <v>0.3451426684724579</v>
       </c>
       <c r="BT72">
-        <v>0.3733471478793139</v>
+        <v>0.3406361788593404</v>
       </c>
     </row>
     <row r="73" spans="1:80">
       <c r="A73" s="1">
-        <v>37438</v>
+        <v>38899</v>
       </c>
       <c r="BL73">
-        <v>0.6110093906027442</v>
+        <v>0.2693232639605769</v>
       </c>
       <c r="BM73">
-        <v>0.5908146770286595</v>
+        <v>0.3017959562463457</v>
       </c>
       <c r="BN73">
-        <v>0.5808061824761467</v>
+        <v>0.3181185836841129</v>
       </c>
       <c r="BO73">
-        <v>0.5565002668485252</v>
+        <v>0.2997655202980603</v>
       </c>
       <c r="BP73">
-        <v>0.5446893086840846</v>
+        <v>0.3915360360108684</v>
       </c>
       <c r="BQ73">
-        <v>0.5385641127621728</v>
+        <v>0.3778020282385461</v>
       </c>
       <c r="BR73">
-        <v>0.5107902432803894</v>
+        <v>0.3759054061492446</v>
       </c>
       <c r="BS73">
-        <v>0.4604518569190361</v>
+        <v>0.3732677414754128</v>
       </c>
       <c r="BT73">
-        <v>0.4155614698512454</v>
+        <v>0.3562707467492328</v>
       </c>
       <c r="BU73">
-        <v>0.4245874130453108</v>
+        <v>0.4142549252660024</v>
       </c>
     </row>
     <row r="74" spans="1:80">
       <c r="A74" s="1">
-        <v>37530</v>
+        <v>38991</v>
       </c>
       <c r="BM74">
-        <v>0.5908097953542742</v>
+        <v>0.3017934231890732</v>
       </c>
       <c r="BN74">
-        <v>0.5808028290175929</v>
+        <v>0.3183276588240084</v>
       </c>
       <c r="BO74">
-        <v>0.5565110670311032</v>
+        <v>0.2996697025590871</v>
       </c>
       <c r="BP74">
-        <v>0.5447054214689311</v>
+        <v>0.3915274538378754</v>
       </c>
       <c r="BQ74">
-        <v>0.5392144861046608</v>
+        <v>0.3777888938648145</v>
       </c>
       <c r="BR74">
-        <v>0.5137598494174396</v>
+        <v>0.3742712912503405</v>
       </c>
       <c r="BS74">
-        <v>0.470180360559788</v>
+        <v>0.3710882770650646</v>
       </c>
       <c r="BT74">
-        <v>0.4307344668701582</v>
+        <v>0.3558285479346207</v>
       </c>
       <c r="BU74">
-        <v>0.4382444616975363</v>
+        <v>0.4106729798314023</v>
       </c>
       <c r="BV74">
-        <v>0.4046536078879283</v>
+        <v>0.4280342507738066</v>
       </c>
     </row>
     <row r="75" spans="1:80">
       <c r="A75" s="1">
-        <v>37622</v>
+        <v>39083</v>
       </c>
       <c r="BN75">
-        <v>0.5808017500553143</v>
+        <v>0.3182784697664209</v>
       </c>
       <c r="BO75">
-        <v>0.5565136918722904</v>
+        <v>0.3001069788623084</v>
       </c>
       <c r="BP75">
-        <v>0.5447090742283451</v>
+        <v>0.3915273539780284</v>
       </c>
       <c r="BQ75">
-        <v>0.5394259756768716</v>
+        <v>0.3778001804278539</v>
       </c>
       <c r="BR75">
-        <v>0.5146059038084063</v>
+        <v>0.3743747410617435</v>
       </c>
       <c r="BS75">
-        <v>0.4744115785730748</v>
+        <v>0.3732259119875889</v>
       </c>
       <c r="BT75">
-        <v>0.4344709001337502</v>
+        <v>0.3565454845596082</v>
       </c>
       <c r="BU75">
-        <v>0.4409243710994529</v>
+        <v>0.37234350464534</v>
       </c>
       <c r="BV75">
-        <v>0.410018554508535</v>
+        <v>0.3887718670371111</v>
       </c>
       <c r="BW75">
-        <v>0.3598922120924801</v>
+        <v>0.4502221155737945</v>
       </c>
     </row>
     <row r="76" spans="1:80">
       <c r="A76" s="1">
-        <v>37712</v>
+        <v>39173</v>
       </c>
       <c r="BO76">
-        <v>0.556514329738091</v>
+        <v>0.3000963747578714</v>
       </c>
       <c r="BP76">
-        <v>0.544709902396182</v>
+        <v>0.391527148546537</v>
       </c>
       <c r="BQ76">
-        <v>0.5394876853395751</v>
+        <v>0.3777998696514566</v>
       </c>
       <c r="BR76">
-        <v>0.5148699529690937</v>
+        <v>0.3742420861463887</v>
       </c>
       <c r="BS76">
-        <v>0.4755436472717282</v>
+        <v>0.3731132728725094</v>
       </c>
       <c r="BT76">
-        <v>0.4356564948102635</v>
+        <v>0.3565578002380479</v>
       </c>
       <c r="BU76">
-        <v>0.4412963367646489</v>
+        <v>0.3703882361148627</v>
       </c>
       <c r="BV76">
-        <v>0.4012714102465568</v>
+        <v>0.373906214886258</v>
       </c>
       <c r="BW76">
-        <v>0.3918008950949331</v>
+        <v>0.4259033386921889</v>
       </c>
       <c r="BX76">
-        <v>0.432116081367058</v>
+        <v>0.4660678856561911</v>
       </c>
     </row>
     <row r="77" spans="1:80">
       <c r="A77" s="1">
-        <v>37803</v>
+        <v>39264</v>
       </c>
       <c r="BP77">
-        <v>0.544710090156205</v>
+        <v>0.3915271433445391</v>
       </c>
       <c r="BQ77">
-        <v>0.539506803561739</v>
+        <v>0.3778002220052701</v>
       </c>
       <c r="BR77">
-        <v>0.5149485550078881</v>
+        <v>0.3742474534506234</v>
       </c>
       <c r="BS77">
-        <v>0.4759535526625501</v>
+        <v>0.3732771703070837</v>
       </c>
       <c r="BT77">
-        <v>0.4359727857680928</v>
+        <v>0.3565921840282917</v>
       </c>
       <c r="BU77">
-        <v>0.4413554122745683</v>
+        <v>0.3672972856363869</v>
       </c>
       <c r="BV77">
-        <v>0.4000585688591006</v>
+        <v>0.3706149839807887</v>
       </c>
       <c r="BW77">
-        <v>0.3692375159139534</v>
+        <v>0.3872405973939234</v>
       </c>
       <c r="BX77">
-        <v>0.4180505155572309</v>
+        <v>0.4118383699145721</v>
       </c>
       <c r="BY77">
-        <v>0.4408791614499421</v>
+        <v>0.3745726540563882</v>
       </c>
     </row>
     <row r="78" spans="1:80">
       <c r="A78" s="1">
-        <v>37895</v>
+        <v>39356</v>
       </c>
       <c r="BQ78">
-        <v>0.5395125313730755</v>
+        <v>0.3778002154269247</v>
       </c>
       <c r="BR78">
-        <v>0.5149725281575412</v>
+        <v>0.3742366118986358</v>
       </c>
       <c r="BS78">
-        <v>0.4760756848267011</v>
+        <v>0.3732727872760978</v>
       </c>
       <c r="BT78">
-        <v>0.4360676563959109</v>
+        <v>0.3565943557863229</v>
       </c>
       <c r="BU78">
-        <v>0.4413642851505443</v>
+        <v>0.3670089407697129</v>
       </c>
       <c r="BV78">
-        <v>0.4005338321518833</v>
+        <v>0.3695160525882843</v>
       </c>
       <c r="BW78">
-        <v>0.3666551790869302</v>
+        <v>0.3821973795583064</v>
       </c>
       <c r="BX78">
-        <v>0.2926795090484308</v>
+        <v>0.4020253317792588</v>
       </c>
       <c r="BY78">
-        <v>0.3885244097753858</v>
+        <v>0.3542646172004637</v>
       </c>
       <c r="BZ78">
-        <v>0.3891497497483102</v>
+        <v>0.4047808753802802</v>
       </c>
     </row>
     <row r="79" spans="1:80">
       <c r="A79" s="1">
-        <v>37987</v>
+        <v>39448</v>
       </c>
       <c r="BR79">
-        <v>0.514979748778353</v>
+        <v>0.3742367952283919</v>
       </c>
       <c r="BS79">
-        <v>0.4761168460203365</v>
+        <v>0.3732854681962493</v>
       </c>
       <c r="BT79">
-        <v>0.4360939273589653</v>
+        <v>0.35659607796522</v>
       </c>
       <c r="BU79">
-        <v>0.4413656482766732</v>
+        <v>0.3667539733757659</v>
       </c>
       <c r="BV79">
-        <v>0.400662191393185</v>
+        <v>0.3692494313041046</v>
       </c>
       <c r="BW79">
-        <v>0.3679317332186131</v>
+        <v>0.3784471070875064</v>
       </c>
       <c r="BX79">
-        <v>0.30516592574181</v>
+        <v>0.3953760936300033</v>
       </c>
       <c r="BY79">
-        <v>0.2959440651902467</v>
+        <v>0.3656693702654248</v>
       </c>
       <c r="BZ79">
-        <v>0.3365238224108569</v>
+        <v>0.4199859408521097</v>
       </c>
       <c r="CA79">
-        <v>0.3111216883095244</v>
+        <v>0.4211726084300813</v>
       </c>
     </row>
     <row r="80" spans="1:80">
       <c r="A80" s="1">
-        <v>38078</v>
+        <v>39539</v>
       </c>
       <c r="BS80">
-        <v>0.4761296657005377</v>
+        <v>0.3732854673655416</v>
       </c>
       <c r="BT80">
-        <v>0.4361016069815533</v>
+        <v>0.3565962600781811</v>
       </c>
       <c r="BU80">
-        <v>0.4413658557659655</v>
+        <v>0.3667202252631855</v>
       </c>
       <c r="BV80">
-        <v>0.4006424321096362</v>
+        <v>0.3691667249586743</v>
       </c>
       <c r="BW80">
-        <v>0.3681244317692473</v>
+        <v>0.3777240229818744</v>
       </c>
       <c r="BX80">
-        <v>0.3282467911798449</v>
+        <v>0.3937143003006734</v>
       </c>
       <c r="BY80">
-        <v>0.3092485674710722</v>
+        <v>0.3645472832367278</v>
       </c>
       <c r="BZ80">
-        <v>0.3190245189122564</v>
+        <v>0.3893550854202221</v>
       </c>
       <c r="CA80">
-        <v>0.3105017490744861</v>
+        <v>0.3790830547008037</v>
       </c>
       <c r="CB80">
-        <v>0.2559175718893015</v>
+        <v>0.4784740695367412</v>
       </c>
     </row>
     <row r="81" spans="1:96">
       <c r="A81" s="1">
-        <v>38169</v>
+        <v>39630</v>
       </c>
       <c r="BT81">
-        <v>0.4361037706776424</v>
+        <v>0.3565963497300319</v>
       </c>
       <c r="BU81">
-        <v>0.4413658874681254</v>
+        <v>0.366698758196712</v>
       </c>
       <c r="BV81">
-        <v>0.4006318120354907</v>
+        <v>0.3691455239753361</v>
       </c>
       <c r="BW81">
-        <v>0.3680535902401393</v>
+        <v>0.377342557462992</v>
       </c>
       <c r="BX81">
-        <v>0.324049052194104</v>
+        <v>0.3928558658149534</v>
       </c>
       <c r="BY81">
-        <v>0.3261443447108516</v>
+        <v>0.3657759509593207</v>
       </c>
       <c r="BZ81">
-        <v>0.3260005363119898</v>
+        <v>0.3873625286719147</v>
       </c>
       <c r="CA81">
-        <v>0.3025766305114897</v>
+        <v>0.3973645397301763</v>
       </c>
       <c r="CB81">
-        <v>0.2688616352615983</v>
+        <v>0.6218563394626684</v>
       </c>
       <c r="CC81">
-        <v>0.3265058905256286</v>
+        <v>0.5000851131933345</v>
       </c>
     </row>
     <row r="82" spans="1:96">
       <c r="A82" s="1">
-        <v>38261</v>
+        <v>39722</v>
       </c>
       <c r="BU82">
-        <v>0.4413658923044543</v>
+        <v>0.3666951741259316</v>
       </c>
       <c r="BV82">
-        <v>0.4006321206405437</v>
+        <v>0.3691392279607369</v>
       </c>
       <c r="BW82">
-        <v>0.3680399344947518</v>
+        <v>0.3772507005025179</v>
       </c>
       <c r="BX82">
-        <v>0.3199481047564459</v>
+        <v>0.3925996277032656</v>
       </c>
       <c r="BY82">
-        <v>0.32301176670558</v>
+        <v>0.365781762555634</v>
       </c>
       <c r="BZ82">
-        <v>0.327734420102463</v>
+        <v>0.3835455452147749</v>
       </c>
       <c r="CA82">
-        <v>0.3025722781569847</v>
+        <v>0.3931242762377601</v>
       </c>
       <c r="CB82">
-        <v>0.2694803729675856</v>
+        <v>0.4636469815305221</v>
       </c>
       <c r="CC82">
-        <v>0.3166071184030521</v>
+        <v>0.2249235671218112</v>
       </c>
       <c r="CD82">
-        <v>0.3350407289565241</v>
+        <v>0.1515254269567554</v>
       </c>
     </row>
     <row r="83" spans="1:96">
       <c r="A83" s="1">
-        <v>38353</v>
+        <v>39814</v>
       </c>
       <c r="BV83">
-        <v>0.4006328705714784</v>
+        <v>0.3691375597880225</v>
       </c>
       <c r="BW83">
-        <v>0.3680437779986308</v>
+        <v>0.3772105144182233</v>
       </c>
       <c r="BX83">
-        <v>0.3210737058024128</v>
+        <v>0.3924848779960414</v>
       </c>
       <c r="BY83">
-        <v>0.3199547032047489</v>
+        <v>0.3659284850898262</v>
       </c>
       <c r="BZ83">
-        <v>0.3268365092632566</v>
+        <v>0.382843930320011</v>
       </c>
       <c r="CA83">
-        <v>0.3032254370785323</v>
+        <v>0.3953544595253914</v>
       </c>
       <c r="CB83">
-        <v>0.2693149501639345</v>
+        <v>0.4778567225039601</v>
       </c>
       <c r="CC83">
-        <v>0.304905506102288</v>
+        <v>0.3995873534158361</v>
       </c>
       <c r="CD83">
-        <v>0.2805910775836477</v>
+        <v>0.2090845912122806</v>
       </c>
       <c r="CE83">
-        <v>0.2440301364330125</v>
+        <v>-0.4825659399700503</v>
       </c>
     </row>
     <row r="84" spans="1:96">
       <c r="A84" s="1">
-        <v>38443</v>
+        <v>39904</v>
       </c>
       <c r="BW84">
-        <v>0.3680447108442119</v>
+        <v>0.3771994711238108</v>
       </c>
       <c r="BX84">
-        <v>0.3217727040823158</v>
+        <v>0.3924470252652983</v>
       </c>
       <c r="BY84">
-        <v>0.3206577730407406</v>
+        <v>0.3659457993154826</v>
       </c>
       <c r="BZ84">
-        <v>0.326674174583709</v>
+        <v>0.3823125569720915</v>
       </c>
       <c r="CA84">
-        <v>0.3032303656051888</v>
+        <v>0.3949680554142632</v>
       </c>
       <c r="CB84">
-        <v>0.2693225113769206</v>
+        <v>0.4536132983556092</v>
       </c>
       <c r="CC84">
-        <v>0.3031454525714746</v>
+        <v>0.3579888420376898</v>
       </c>
       <c r="CD84">
-        <v>0.3212500926229151</v>
+        <v>0.3138893366100468</v>
       </c>
       <c r="CE84">
-        <v>0.2062181648172821</v>
+        <v>-0.5466991058874535</v>
       </c>
       <c r="CF84">
-        <v>0.3879564616327092</v>
+        <v>-3.209643609385049</v>
       </c>
     </row>
     <row r="85" spans="1:96">
       <c r="A85" s="1">
-        <v>38534</v>
+        <v>39995</v>
       </c>
       <c r="BX85">
-        <v>0.3215021584306325</v>
+        <v>0.3924313474975846</v>
       </c>
       <c r="BY85">
-        <v>0.3212058028751845</v>
+        <v>0.365965203363162</v>
       </c>
       <c r="BZ85">
-        <v>0.3267869627500878</v>
+        <v>0.3821654120223259</v>
       </c>
       <c r="CA85">
-        <v>0.3031765666384352</v>
+        <v>0.3952538568255051</v>
       </c>
       <c r="CB85">
-        <v>0.2693233983846897</v>
+        <v>0.4545641519681511</v>
       </c>
       <c r="CC85">
-        <v>0.3021387375097428</v>
+        <v>0.3890735056567673</v>
       </c>
       <c r="CD85">
-        <v>0.3118098725280817</v>
+        <v>0.3335052003695131</v>
       </c>
       <c r="CE85">
-        <v>0.2890469947151774</v>
+        <v>-0.1205449073973593</v>
       </c>
       <c r="CF85">
-        <v>0.4069942587560427</v>
+        <v>-3.466827857782311</v>
       </c>
       <c r="CG85">
-        <v>0.386250725708883</v>
+        <v>-0.2737740256709182</v>
       </c>
     </row>
     <row r="86" spans="1:96">
       <c r="A86" s="1">
-        <v>38626</v>
+        <v>40087</v>
       </c>
       <c r="BY86">
-        <v>0.3210531800476519</v>
+        <v>0.3659694601155838</v>
       </c>
       <c r="BZ86">
-        <v>0.3268008463473504</v>
+        <v>0.382085356114337</v>
       </c>
       <c r="CA86">
-        <v>0.3031757840258756</v>
+        <v>0.3952273127371981</v>
       </c>
       <c r="CB86">
-        <v>0.2693232600617677</v>
+        <v>0.4507836700716622</v>
       </c>
       <c r="CC86">
-        <v>0.3019213155155314</v>
+        <v>0.3831007814190415</v>
       </c>
       <c r="CD86">
-        <v>0.3188276801846191</v>
+        <v>0.3508994068095047</v>
       </c>
       <c r="CE86">
-        <v>0.2836003304412504</v>
+        <v>-0.04351394233767707</v>
       </c>
       <c r="CF86">
-        <v>0.391655134650208</v>
+        <v>-3.39129626163989</v>
       </c>
       <c r="CG86">
-        <v>0.3662932776832672</v>
+        <v>0.05676407710631004</v>
       </c>
       <c r="CH86">
-        <v>0.3676850644710708</v>
+        <v>0.4395909147248004</v>
       </c>
     </row>
     <row r="87" spans="1:96">
       <c r="A87" s="1">
-        <v>38718</v>
+        <v>40179</v>
       </c>
       <c r="BZ87">
-        <v>0.3267869767660009</v>
+        <v>0.382058354862865</v>
       </c>
       <c r="CA87">
-        <v>0.3031802126686642</v>
+        <v>0.3952663503572373</v>
       </c>
       <c r="CB87">
-        <v>0.2693232630620472</v>
+        <v>0.4507320341985567</v>
       </c>
       <c r="CC87">
-        <v>0.3018288347473992</v>
+        <v>0.3887295027816938</v>
       </c>
       <c r="CD87">
-        <v>0.317191027283681</v>
+        <v>0.3556235665879031</v>
       </c>
       <c r="CE87">
-        <v>0.2980067789266703</v>
+        <v>0.08900847592536579</v>
       </c>
       <c r="CF87">
-        <v>0.3918966591630549</v>
+        <v>-3.445810778186758</v>
       </c>
       <c r="CG87">
-        <v>0.3779616035328685</v>
+        <v>0.08768974614021571</v>
       </c>
       <c r="CH87">
-        <v>0.3944407247675515</v>
+        <v>0.3313095025176546</v>
       </c>
       <c r="CI87">
-        <v>0.3827494615806734</v>
+        <v>0.139783162521545</v>
       </c>
     </row>
     <row r="88" spans="1:96">
       <c r="A88" s="1">
-        <v>38808</v>
+        <v>40269</v>
       </c>
       <c r="CA88">
-        <v>0.3031803081565542</v>
+        <v>0.3952665639016532</v>
       </c>
       <c r="CB88">
-        <v>0.2693232640672851</v>
+        <v>0.4501318352088922</v>
       </c>
       <c r="CC88">
-        <v>0.3018048120935841</v>
+        <v>0.3879506706443841</v>
       </c>
       <c r="CD88">
-        <v>0.3184023224393492</v>
+        <v>0.3586676031596497</v>
       </c>
       <c r="CE88">
-        <v>0.2972570225336142</v>
+        <v>0.1392362895241575</v>
       </c>
       <c r="CF88">
-        <v>0.3915352676660228</v>
+        <v>-3.449051755073842</v>
       </c>
       <c r="CG88">
-        <v>0.3774395801040224</v>
+        <v>0.1438327320323548</v>
       </c>
       <c r="CH88">
-        <v>0.3741796342972468</v>
+        <v>0.2862907290847205</v>
       </c>
       <c r="CI88">
-        <v>0.3451426684724579</v>
+        <v>0.192817872118554</v>
       </c>
       <c r="CJ88">
-        <v>0.3406361788593404</v>
+        <v>0.1920931682409845</v>
       </c>
     </row>
     <row r="89" spans="1:96">
       <c r="A89" s="1">
-        <v>38899</v>
+        <v>40360</v>
       </c>
       <c r="CB89">
-        <v>0.2693232639605769</v>
+        <v>0.450091620517234</v>
       </c>
       <c r="CC89">
-        <v>0.3017959562463457</v>
+        <v>0.38899034965936</v>
       </c>
       <c r="CD89">
-        <v>0.3181185836841129</v>
+        <v>0.3596827984400131</v>
       </c>
       <c r="CE89">
-        <v>0.2997655202980603</v>
+        <v>0.1862675266127139</v>
       </c>
       <c r="CF89">
-        <v>0.3915360360108684</v>
+        <v>-3.472069617300918</v>
       </c>
       <c r="CG89">
-        <v>0.3778020282385461</v>
+        <v>0.1672133807603342</v>
       </c>
       <c r="CH89">
-        <v>0.3759054061492446</v>
+        <v>0.2677024867117838</v>
       </c>
       <c r="CI89">
-        <v>0.3732677414754128</v>
+        <v>0.2127543416366048</v>
       </c>
       <c r="CJ89">
-        <v>0.3562707467492328</v>
+        <v>0.2038123374423979</v>
       </c>
       <c r="CK89">
-        <v>0.4142549252660024</v>
+        <v>1.098226212979322</v>
       </c>
     </row>
     <row r="90" spans="1:96">
       <c r="A90" s="1">
-        <v>38991</v>
+        <v>40452</v>
       </c>
       <c r="CC90">
-        <v>0.3017934231890732</v>
+        <v>0.3889094412579501</v>
       </c>
       <c r="CD90">
-        <v>0.3183276588240084</v>
+        <v>0.3602356812399136</v>
       </c>
       <c r="CE90">
-        <v>0.2996697025590871</v>
+        <v>0.210294604928041</v>
       </c>
       <c r="CF90">
-        <v>0.3915274538378754</v>
+        <v>-3.487028714824694</v>
       </c>
       <c r="CG90">
-        <v>0.3777888938648145</v>
+        <v>0.1829207349322445</v>
       </c>
       <c r="CH90">
-        <v>0.3742712912503405</v>
+        <v>0.2600239868695283</v>
       </c>
       <c r="CI90">
-        <v>0.3710882770650646</v>
+        <v>0.2202328371589358</v>
       </c>
       <c r="CJ90">
-        <v>0.3558285479346207</v>
+        <v>0.2081776456234988</v>
       </c>
       <c r="CK90">
-        <v>0.4106729798314023</v>
+        <v>0.7032707759508258</v>
       </c>
       <c r="CL90">
-        <v>0.4280342507738066</v>
+        <v>0.5278817260644753</v>
       </c>
     </row>
     <row r="91" spans="1:96">
       <c r="A91" s="1">
-        <v>39083</v>
+        <v>40544</v>
       </c>
       <c r="CD91">
-        <v>0.3182784697664209</v>
+        <v>0.3604430041540626</v>
       </c>
       <c r="CE91">
-        <v>0.3001069788623084</v>
+        <v>0.2283594946727404</v>
       </c>
       <c r="CF91">
-        <v>0.3915273539780284</v>
+        <v>-3.504839821015048</v>
       </c>
       <c r="CG91">
-        <v>0.3778001804278539</v>
+        <v>0.1914945900386928</v>
       </c>
       <c r="CH91">
-        <v>0.3743747410617435</v>
+        <v>0.2568522152508877</v>
       </c>
       <c r="CI91">
-        <v>0.3732259119875889</v>
+        <v>0.2230379776145164</v>
       </c>
       <c r="CJ91">
-        <v>0.3565454845596082</v>
+        <v>0.2098029729206569</v>
       </c>
       <c r="CK91">
-        <v>0.37234350464534</v>
+        <v>0.50866913672003</v>
       </c>
       <c r="CL91">
-        <v>0.3887718670371111</v>
+        <v>0.4103097124520395</v>
       </c>
       <c r="CM91">
-        <v>0.4502221155737945</v>
+        <v>0.3432667925405501</v>
       </c>
     </row>
     <row r="92" spans="1:96">
       <c r="A92" s="1">
-        <v>39173</v>
+        <v>40634</v>
       </c>
       <c r="CE92">
-        <v>0.3000963747578714</v>
+        <v>0.2388710728550849</v>
       </c>
       <c r="CF92">
-        <v>0.391527148546537</v>
+        <v>-3.521231669954501</v>
       </c>
       <c r="CG92">
-        <v>0.3777998696514566</v>
+        <v>0.1965810469860438</v>
       </c>
       <c r="CH92">
-        <v>0.3742420861463887</v>
+        <v>0.2555420434475195</v>
       </c>
       <c r="CI92">
-        <v>0.3731132728725094</v>
+        <v>0.2240901678643472</v>
       </c>
       <c r="CJ92">
-        <v>0.3565578002380479</v>
+        <v>0.2104081229119797</v>
       </c>
       <c r="CK92">
-        <v>0.3703882361148627</v>
+        <v>0.4169069628967763</v>
       </c>
       <c r="CL92">
-        <v>0.373906214886258</v>
+        <v>0.3580795182285995</v>
       </c>
       <c r="CM92">
-        <v>0.4259033386921889</v>
+        <v>0.332021142675702</v>
       </c>
       <c r="CN92">
-        <v>0.4660678856561911</v>
+        <v>0.8158350159267664</v>
       </c>
     </row>
     <row r="93" spans="1:96">
       <c r="A93" s="1">
-        <v>39264</v>
+        <v>40725</v>
       </c>
       <c r="CF93">
-        <v>0.3915271433445391</v>
+        <v>-3.537881715852962</v>
       </c>
       <c r="CG93">
-        <v>0.3778002220052701</v>
+        <v>0.1994958465033025</v>
       </c>
       <c r="CH93">
-        <v>0.3742474534506234</v>
+        <v>0.255000847499894</v>
       </c>
       <c r="CI93">
-        <v>0.3732771703070837</v>
+        <v>0.2244848376817364</v>
       </c>
       <c r="CJ93">
-        <v>0.3565921840282917</v>
+        <v>0.2106334353471853</v>
       </c>
       <c r="CK93">
-        <v>0.3672972856363869</v>
+        <v>0.3733896797314432</v>
       </c>
       <c r="CL93">
-        <v>0.3706149839807887</v>
+        <v>0.3335781136017746</v>
       </c>
       <c r="CM93">
-        <v>0.3872405973939234</v>
+        <v>0.3272233437768858</v>
       </c>
       <c r="CN93">
-        <v>0.4118383699145721</v>
+        <v>0.5427295426160457</v>
       </c>
       <c r="CO93">
-        <v>0.3745726540563882</v>
+        <v>0.1813941834545033</v>
       </c>
     </row>
     <row r="94" spans="1:96">
       <c r="A94" s="1">
-        <v>39356</v>
+        <v>40817</v>
       </c>
       <c r="CG94">
-        <v>0.3778002154269247</v>
+        <v>0.2011900774154455</v>
       </c>
       <c r="CH94">
-        <v>0.3742366118986358</v>
+        <v>0.2547772943328466</v>
       </c>
       <c r="CI94">
-        <v>0.3732727872760978</v>
+        <v>0.2246328757999241</v>
       </c>
       <c r="CJ94">
-        <v>0.3565943557863229</v>
+        <v>0.210717324786206</v>
       </c>
       <c r="CK94">
-        <v>0.3670089407697129</v>
+        <v>0.352767626040856</v>
       </c>
       <c r="CL94">
-        <v>0.3695160525882843</v>
+        <v>0.3221748105733957</v>
       </c>
       <c r="CM94">
-        <v>0.3821973795583064</v>
+        <v>0.3251618932148297</v>
       </c>
       <c r="CN94">
-        <v>0.4020253317792588</v>
+        <v>0.4232001440849967</v>
       </c>
       <c r="CO94">
-        <v>0.3542646172004637</v>
+        <v>0.2727431408410882</v>
       </c>
       <c r="CP94">
-        <v>0.4047808753802802</v>
+        <v>0.4070688708672613</v>
       </c>
     </row>
     <row r="95" spans="1:96">
       <c r="A95" s="1">
-        <v>39448</v>
+        <v>40909</v>
       </c>
       <c r="CH95">
-        <v>0.3742367952283919</v>
+        <v>0.2546849506656574</v>
       </c>
       <c r="CI95">
-        <v>0.3732854681962493</v>
+        <v>0.2246884039489495</v>
       </c>
       <c r="CJ95">
-        <v>0.35659607796522</v>
+        <v>0.2107485589165919</v>
       </c>
       <c r="CK95">
-        <v>0.3667539733757659</v>
+        <v>0.3429942342478867</v>
       </c>
       <c r="CL95">
-        <v>0.3692494313041046</v>
+        <v>0.3168615903221158</v>
       </c>
       <c r="CM95">
-        <v>0.3784471070875064</v>
+        <v>0.3242763986529787</v>
       </c>
       <c r="CN95">
-        <v>0.3953760936300033</v>
+        <v>0.3711231944667716</v>
       </c>
       <c r="CO95">
-        <v>0.3656693702654248</v>
+        <v>0.3124245642493126</v>
       </c>
       <c r="CP95">
-        <v>0.4199859408521097</v>
+        <v>0.3471822841278672</v>
       </c>
       <c r="CQ95">
-        <v>0.4211726084300813</v>
+        <v>0.05146152368262816</v>
       </c>
     </row>
     <row r="96" spans="1:96">
       <c r="A96" s="1">
-        <v>39539</v>
+        <v>41000</v>
       </c>
       <c r="CI96">
-        <v>0.3732854673655416</v>
+        <v>0.224709232201645</v>
       </c>
       <c r="CJ96">
-        <v>0.3565962600781811</v>
+        <v>0.2107601881623271</v>
       </c>
       <c r="CK96">
-        <v>0.3667202252631855</v>
+        <v>0.3383624001294516</v>
       </c>
       <c r="CL96">
-        <v>0.3691667249586743</v>
+        <v>0.3143863607467929</v>
       </c>
       <c r="CM96">
-        <v>0.3777240229818744</v>
+        <v>0.3238960311710429</v>
       </c>
       <c r="CN96">
-        <v>0.3937143003006734</v>
+        <v>0.3484291940412945</v>
       </c>
       <c r="CO96">
-        <v>0.3645472832367278</v>
+        <v>0.3264042376806905</v>
       </c>
       <c r="CP96">
-        <v>0.3893550854202221</v>
+        <v>0.3241036406112104</v>
       </c>
       <c r="CQ96">
-        <v>0.3790830547008037</v>
+        <v>0.1962023518980315</v>
       </c>
       <c r="CR96">
-        <v>0.4784740695367412</v>
+        <v>0.4060566115363017</v>
       </c>
     </row>
     <row r="97" spans="1:112">
       <c r="A97" s="1">
-        <v>39630</v>
+        <v>41091</v>
       </c>
       <c r="CJ97">
-        <v>0.3565963497300319</v>
+        <v>0.2107645180205527</v>
       </c>
       <c r="CK97">
-        <v>0.366698758196712</v>
+        <v>0.3361672640955282</v>
       </c>
       <c r="CL97">
-        <v>0.3691455239753361</v>
+        <v>0.3132332180494358</v>
       </c>
       <c r="CM97">
-        <v>0.377342557462992</v>
+        <v>0.3237326429695742</v>
       </c>
       <c r="CN97">
-        <v>0.3928558658149534</v>
+        <v>0.3385397466524668</v>
       </c>
       <c r="CO97">
-        <v>0.3657759509593207</v>
+        <v>0.3309495423832851</v>
       </c>
       <c r="CP97">
-        <v>0.3873625286719147</v>
+        <v>0.3165851888571213</v>
       </c>
       <c r="CQ97">
-        <v>0.3973645397301763</v>
+        <v>0.2523328252666404</v>
       </c>
       <c r="CR97">
-        <v>0.6218563394626684</v>
+        <v>0.3257825290890698</v>
       </c>
       <c r="CS97">
-        <v>0.5000851131933345</v>
+        <v>0.2569629294986893</v>
       </c>
     </row>
     <row r="98" spans="1:112">
       <c r="A98" s="1">
-        <v>39722</v>
+        <v>41183</v>
       </c>
       <c r="CK98">
-        <v>0.3666951741259316</v>
+        <v>0.3351269373087902</v>
       </c>
       <c r="CL98">
-        <v>0.3691392279607369</v>
+        <v>0.3126960017145067</v>
       </c>
       <c r="CM98">
-        <v>0.3772507005025179</v>
+        <v>0.3236624589868408</v>
       </c>
       <c r="CN98">
-        <v>0.3925996277032656</v>
+        <v>0.3342301838978883</v>
       </c>
       <c r="CO98">
-        <v>0.365781762555634</v>
+        <v>0.3323728182919696</v>
       </c>
       <c r="CP98">
-        <v>0.3835455452147749</v>
+        <v>0.3143501320039255</v>
       </c>
       <c r="CQ98">
-        <v>0.3931242762377601</v>
+        <v>0.2715048070957226</v>
       </c>
       <c r="CR98">
-        <v>0.4636469815305221</v>
+        <v>0.2946425695029543</v>
       </c>
       <c r="CS98">
-        <v>0.2249235671218112</v>
+        <v>0.2626724473080196</v>
       </c>
       <c r="CT98">
-        <v>0.1515254269567554</v>
+        <v>0.2658412787400625</v>
       </c>
     </row>
     <row r="99" spans="1:112">
       <c r="A99" s="1">
-        <v>39814</v>
+        <v>41275</v>
       </c>
       <c r="CL99">
-        <v>0.3691375597880225</v>
+        <v>0.3124457278110455</v>
       </c>
       <c r="CM99">
-        <v>0.3772105144182233</v>
+        <v>0.3236323112075936</v>
       </c>
       <c r="CN99">
-        <v>0.3924848779960414</v>
+        <v>0.3323521891065759</v>
       </c>
       <c r="CO99">
-        <v>0.3659284850898262</v>
+        <v>0.3328099924689074</v>
       </c>
       <c r="CP99">
-        <v>0.382843930320011</v>
+        <v>0.3137251889220329</v>
       </c>
       <c r="CQ99">
-        <v>0.3953544595253914</v>
+        <v>0.2777330556071276</v>
       </c>
       <c r="CR99">
-        <v>0.4778567225039601</v>
+        <v>0.28448687342501</v>
       </c>
       <c r="CS99">
-        <v>0.3995873534158361</v>
+        <v>0.2660065748956793</v>
       </c>
       <c r="CT99">
-        <v>0.2090845912122806</v>
+        <v>0.2823630897464367</v>
       </c>
       <c r="CU99">
-        <v>-0.4825659399700503</v>
+        <v>-0.1326969567037847</v>
       </c>
     </row>
     <row r="100" spans="1:112">
       <c r="A100" s="1">
-        <v>39904</v>
+        <v>41365</v>
       </c>
       <c r="CM100">
-        <v>0.3771994711238108</v>
+        <v>0.3236193611218596</v>
       </c>
       <c r="CN100">
-        <v>0.3924470252652983</v>
+        <v>0.3315338080686009</v>
       </c>
       <c r="CO100">
-        <v>0.3659457993154826</v>
+        <v>0.332942901109597</v>
       </c>
       <c r="CP100">
-        <v>0.3823125569720915</v>
+        <v>0.313558423135754</v>
       </c>
       <c r="CQ100">
-        <v>0.3949680554142632</v>
+        <v>0.2797115386007235</v>
       </c>
       <c r="CR100">
-        <v>0.4536132983556092</v>
+        <v>0.2814140383200912</v>
       </c>
       <c r="CS100">
-        <v>0.3579888420376898</v>
+        <v>0.2672310309305355</v>
       </c>
       <c r="CT100">
-        <v>0.3138893366100468</v>
+        <v>0.2886970031025137</v>
       </c>
       <c r="CU100">
-        <v>-0.5466991058874535</v>
+        <v>0.1146210169670681</v>
       </c>
       <c r="CV100">
-        <v>-3.209643609385049</v>
+        <v>0.1668148420067005</v>
       </c>
     </row>
     <row r="101" spans="1:112">
       <c r="A101" s="1">
-        <v>39995</v>
+        <v>41456</v>
       </c>
       <c r="CN101">
-        <v>0.3924313474975846</v>
+        <v>0.3311771790053162</v>
       </c>
       <c r="CO101">
-        <v>0.365965203363162</v>
+        <v>0.3329830811889126</v>
       </c>
       <c r="CP101">
-        <v>0.3821654120223259</v>
+        <v>0.3135156339028616</v>
       </c>
       <c r="CQ101">
-        <v>0.3952538568255051</v>
+        <v>0.280333426561937</v>
       </c>
       <c r="CR101">
-        <v>0.4545641519681511</v>
+        <v>0.2805196674528365</v>
       </c>
       <c r="CS101">
-        <v>0.3890735056567673</v>
+        <v>0.2676156305162167</v>
       </c>
       <c r="CT101">
-        <v>0.3335052003695131</v>
+        <v>0.2909361803960807</v>
       </c>
       <c r="CU101">
-        <v>-0.1205449073973593</v>
+        <v>0.2114489426777554</v>
       </c>
       <c r="CV101">
-        <v>-3.466827857782311</v>
+        <v>0.1990910114627568</v>
       </c>
       <c r="CW101">
-        <v>-0.2737740256709182</v>
+        <v>0.4835892644960723</v>
       </c>
     </row>
     <row r="102" spans="1:112">
       <c r="A102" s="1">
-        <v>40087</v>
+        <v>41548</v>
       </c>
       <c r="CO102">
-        <v>0.3659694601155838</v>
+        <v>0.3329951904513869</v>
       </c>
       <c r="CP102">
-        <v>0.382085356114337</v>
+        <v>0.3135050401137331</v>
       </c>
       <c r="CQ102">
-        <v>0.3952273127371981</v>
+        <v>0.2805279076335725</v>
       </c>
       <c r="CR102">
-        <v>0.4507836700716622</v>
+        <v>0.2802649951984016</v>
       </c>
       <c r="CS102">
-        <v>0.3831007814190415</v>
+        <v>0.2677271114598496</v>
       </c>
       <c r="CT102">
-        <v>0.3508994068095047</v>
+        <v>0.2917061406327234</v>
       </c>
       <c r="CU102">
-        <v>-0.04351394233767707</v>
+        <v>0.2466648434584587</v>
       </c>
       <c r="CV102">
-        <v>-3.39129626163989</v>
+        <v>0.2118333940613151</v>
       </c>
       <c r="CW102">
-        <v>0.05676407710631004</v>
+        <v>0.3654362428807465</v>
       </c>
       <c r="CX102">
-        <v>0.4395909147248004</v>
+        <v>0.3071481657186778</v>
       </c>
     </row>
     <row r="103" spans="1:112">
       <c r="A103" s="1">
-        <v>40179</v>
+        <v>41640</v>
       </c>
       <c r="CP103">
-        <v>0.382058354862865</v>
+        <v>0.3135025074225217</v>
       </c>
       <c r="CQ103">
-        <v>0.3952663503572373</v>
+        <v>0.2805885757735316</v>
       </c>
       <c r="CR103">
-        <v>0.4507320341985567</v>
+        <v>0.2801934120429552</v>
       </c>
       <c r="CS103">
-        <v>0.3887295027816938</v>
+        <v>0.2677578646751505</v>
       </c>
       <c r="CT103">
-        <v>0.3556235665879031</v>
+        <v>0.2919682121170042</v>
       </c>
       <c r="CU103">
-        <v>0.08900847592536579</v>
+        <v>0.2591973743149182</v>
       </c>
       <c r="CV103">
-        <v>-3.445810778186758</v>
+        <v>0.2170388845683362</v>
       </c>
       <c r="CW103">
-        <v>0.08768974614021571</v>
+        <v>0.3127820773446567</v>
       </c>
       <c r="CX103">
-        <v>0.3313095025176546</v>
+        <v>0.295306589255621</v>
       </c>
       <c r="CY103">
-        <v>0.139783162521545</v>
+        <v>0.3280696062556266</v>
       </c>
     </row>
     <row r="104" spans="1:112">
       <c r="A104" s="1">
-        <v>40269</v>
+        <v>41730</v>
       </c>
       <c r="CQ104">
-        <v>0.3952665639016532</v>
+        <v>0.2806074779818091</v>
       </c>
       <c r="CR104">
-        <v>0.4501318352088922</v>
+        <v>0.2801734498338682</v>
       </c>
       <c r="CS104">
-        <v>0.3879506706443841</v>
+        <v>0.2677660650344709</v>
       </c>
       <c r="CT104">
-        <v>0.3586676031596497</v>
+        <v>0.2920570706572605</v>
       </c>
       <c r="CU104">
-        <v>0.1392362895241575</v>
+        <v>0.2636271138618202</v>
       </c>
       <c r="CV104">
-        <v>-3.449051755073842</v>
+        <v>0.2191744333381033</v>
       </c>
       <c r="CW104">
-        <v>0.1438327320323548</v>
+        <v>0.2894402353552771</v>
       </c>
       <c r="CX104">
-        <v>0.2862907290847205</v>
+        <v>0.2897649239239772</v>
       </c>
       <c r="CY104">
-        <v>0.192817872118554</v>
+        <v>0.3035456409481426</v>
       </c>
       <c r="CZ104">
-        <v>0.1920931682409845</v>
+        <v>0.5498874657267171</v>
       </c>
     </row>
     <row r="105" spans="1:112">
       <c r="A105" s="1">
-        <v>40360</v>
+        <v>41821</v>
       </c>
       <c r="CR105">
-        <v>0.450091620517234</v>
+        <v>0.2801679101979176</v>
       </c>
       <c r="CS105">
-        <v>0.38899034965936</v>
+        <v>0.2677681976573427</v>
       </c>
       <c r="CT105">
-        <v>0.3596827984400131</v>
+        <v>0.2920871550394841</v>
       </c>
       <c r="CU105">
-        <v>0.1862675266127139</v>
+        <v>0.2651894387330129</v>
       </c>
       <c r="CV105">
-        <v>-3.472069617300918</v>
+        <v>0.2200509895714168</v>
       </c>
       <c r="CW105">
-        <v>0.1672133807603342</v>
+        <v>0.279095485396099</v>
       </c>
       <c r="CX105">
-        <v>0.2677024867117838</v>
+        <v>0.2871123118665653</v>
       </c>
       <c r="CY105">
-        <v>0.2127543416366048</v>
+        <v>0.2916826585945739</v>
       </c>
       <c r="CZ105">
-        <v>0.2038123374423979</v>
+        <v>0.42801824344899</v>
       </c>
       <c r="DA105">
-        <v>1.098226212979322</v>
+        <v>0.06165050875077527</v>
       </c>
     </row>
     <row r="106" spans="1:112">
       <c r="A106" s="1">
-        <v>40452</v>
+        <v>41913</v>
       </c>
       <c r="CS106">
-        <v>0.3889094412579501</v>
+        <v>0.2677687416237422</v>
       </c>
       <c r="CT106">
-        <v>0.3602356812399136</v>
+        <v>0.2920973348356787</v>
       </c>
       <c r="CU106">
-        <v>0.210294604928041</v>
+        <v>0.2657400692274273</v>
       </c>
       <c r="CV106">
-        <v>-3.487028714824694</v>
+        <v>0.2204108026459904</v>
       </c>
       <c r="CW106">
-        <v>0.1829207349322445</v>
+        <v>0.2745109132571007</v>
       </c>
       <c r="CX106">
-        <v>0.2600239868695283</v>
+        <v>0.2858441738424585</v>
       </c>
       <c r="CY106">
-        <v>0.2202328371589358</v>
+        <v>0.2859751866436055</v>
       </c>
       <c r="CZ106">
-        <v>0.2081776456234988</v>
+        <v>0.3712887134776663</v>
       </c>
       <c r="DA106">
-        <v>0.7032707759508258</v>
+        <v>0.1761410388877556</v>
       </c>
       <c r="DB106">
-        <v>0.5278817260644753</v>
+        <v>0.1736804633958236</v>
       </c>
     </row>
     <row r="107" spans="1:112">
       <c r="A107" s="1">
-        <v>40544</v>
+        <v>42005</v>
       </c>
       <c r="CT107">
-        <v>0.3604430041540626</v>
+        <v>0.2921007786806501</v>
       </c>
       <c r="CU107">
-        <v>0.2283594946727404</v>
+        <v>0.2659340913116399</v>
       </c>
       <c r="CV107">
-        <v>-3.504839821015048</v>
+        <v>0.220558501573788</v>
       </c>
       <c r="CW107">
-        <v>0.1914945900386928</v>
+        <v>0.272479130308843</v>
       </c>
       <c r="CX107">
-        <v>0.2568522152508877</v>
+        <v>0.2852378720806832</v>
       </c>
       <c r="CY107">
-        <v>0.2230379776145164</v>
+        <v>0.2832284063309656</v>
       </c>
       <c r="CZ107">
-        <v>0.2098029729206569</v>
+        <v>0.3448896093780345</v>
       </c>
       <c r="DA107">
-        <v>0.50866913672003</v>
+        <v>0.2251854654960641</v>
       </c>
       <c r="DB107">
-        <v>0.4103097124520395</v>
+        <v>0.2209297857152165</v>
       </c>
       <c r="DC107">
-        <v>0.3432667925405501</v>
+        <v>0.4858860318682643</v>
       </c>
     </row>
     <row r="108" spans="1:112">
       <c r="A108" s="1">
-        <v>40634</v>
+        <v>42095</v>
       </c>
       <c r="CU108">
-        <v>0.2388710728550849</v>
+        <v>0.2660024526381063</v>
       </c>
       <c r="CV108">
-        <v>-3.521231669954501</v>
+        <v>0.2206191302571006</v>
       </c>
       <c r="CW108">
-        <v>0.1965810469860438</v>
+        <v>0.2715786882020466</v>
       </c>
       <c r="CX108">
-        <v>0.2555420434475195</v>
+        <v>0.2849479979074478</v>
       </c>
       <c r="CY108">
-        <v>0.2240901678643472</v>
+        <v>0.28190651169346</v>
       </c>
       <c r="CZ108">
-        <v>0.2104081229119797</v>
+        <v>0.3326047282185538</v>
       </c>
       <c r="DA108">
-        <v>0.4169069628967763</v>
+        <v>0.2459032091363454</v>
       </c>
       <c r="DB108">
-        <v>0.3580795182285995</v>
+        <v>0.2412251075864097</v>
       </c>
       <c r="DC108">
-        <v>0.332021142675702</v>
+        <v>0.3762908587986014</v>
       </c>
       <c r="DD108">
-        <v>0.8158350159267664</v>
+        <v>0.3086271608792364</v>
       </c>
     </row>
     <row r="109" spans="1:112">
       <c r="A109" s="1">
-        <v>40725</v>
+        <v>42186</v>
       </c>
       <c r="CV109">
-        <v>-3.537881715852962</v>
+        <v>0.220644017625583</v>
       </c>
       <c r="CW109">
-        <v>0.1994958465033025</v>
+        <v>0.2711796318034117</v>
       </c>
       <c r="CX109">
-        <v>0.255000847499894</v>
+        <v>0.2848094084151322</v>
       </c>
       <c r="CY109">
-        <v>0.2244848376817364</v>
+        <v>0.2812703461300195</v>
       </c>
       <c r="CZ109">
-        <v>0.2106334353471853</v>
+        <v>0.3268879320539327</v>
       </c>
       <c r="DA109">
-        <v>0.3733896797314432</v>
+        <v>0.2546446185365753</v>
       </c>
       <c r="DB109">
-        <v>0.3335781136017746</v>
+        <v>0.2499297136152437</v>
       </c>
       <c r="DC109">
-        <v>0.3272233437768858</v>
+        <v>0.3298210409788371</v>
       </c>
       <c r="DD109">
-        <v>0.5427295426160457</v>
+        <v>0.3248074065376587</v>
       </c>
       <c r="DE109">
-        <v>0.1813941834545033</v>
+        <v>0.3828448375722439</v>
       </c>
     </row>
     <row r="110" spans="1:112">
       <c r="A110" s="1">
-        <v>40817</v>
+        <v>42278</v>
       </c>
       <c r="CW110">
-        <v>0.2011900774154455</v>
+        <v>0.2710027786686307</v>
       </c>
       <c r="CX110">
-        <v>0.2547772943328466</v>
+        <v>0.28474314846878</v>
       </c>
       <c r="CY110">
-        <v>0.2246328757999241</v>
+        <v>0.2809641896543761</v>
       </c>
       <c r="CZ110">
-        <v>0.210717324786206</v>
+        <v>0.3242276085240325</v>
       </c>
       <c r="DA110">
-        <v>0.352767626040856</v>
+        <v>0.2583324969956866</v>
       </c>
       <c r="DB110">
-        <v>0.3221748105733957</v>
+        <v>0.2536627374024515</v>
       </c>
       <c r="DC110">
-        <v>0.3251618932148297</v>
+        <v>0.3104585313861903</v>
       </c>
       <c r="DD110">
-        <v>0.4232001440849967</v>
+        <v>0.331828834122106</v>
       </c>
       <c r="DE110">
-        <v>0.2727431408410882</v>
+        <v>0.3562807674577446</v>
       </c>
       <c r="DF110">
-        <v>0.4070688708672613</v>
+        <v>0.3194721332081325</v>
       </c>
     </row>
     <row r="111" spans="1:112">
       <c r="A111" s="1">
-        <v>40909</v>
+        <v>42370</v>
       </c>
       <c r="CX111">
-        <v>0.2546849506656574</v>
+        <v>0.2847114694401618</v>
       </c>
       <c r="CY111">
-        <v>0.2246884039489495</v>
+        <v>0.2808168509846473</v>
       </c>
       <c r="CZ111">
-        <v>0.2107485589165919</v>
+        <v>0.3229896211828929</v>
       </c>
       <c r="DA111">
-        <v>0.3429942342478867</v>
+        <v>0.2598883479500873</v>
       </c>
       <c r="DB111">
-        <v>0.3168615903221158</v>
+        <v>0.2552636577575383</v>
       </c>
       <c r="DC111">
-        <v>0.3242763986529787</v>
+        <v>0.3024052923196403</v>
       </c>
       <c r="DD111">
-        <v>0.3711231944667716</v>
+        <v>0.334875446513568</v>
       </c>
       <c r="DE111">
-        <v>0.3124245642493126</v>
+        <v>0.3445210282629962</v>
       </c>
       <c r="DF111">
-        <v>0.3471822841278672</v>
+        <v>0.3206844565877573</v>
       </c>
       <c r="DG111">
-        <v>0.05146152368262816</v>
+        <v>0.2969069313126949</v>
       </c>
     </row>
     <row r="112" spans="1:112">
       <c r="A112" s="1">
-        <v>41000</v>
+        <v>42461</v>
       </c>
       <c r="CY112">
-        <v>0.224709232201645</v>
+        <v>0.2807459438331706</v>
       </c>
       <c r="CZ112">
-        <v>0.2107601881623271</v>
+        <v>0.322413521080933</v>
       </c>
       <c r="DA112">
-        <v>0.3383624001294516</v>
+        <v>0.2605447335750996</v>
       </c>
       <c r="DB112">
-        <v>0.3143863607467929</v>
+        <v>0.2559502178004973</v>
       </c>
       <c r="DC112">
-        <v>0.3238960311710429</v>
+        <v>0.2990564233788048</v>
       </c>
       <c r="DD112">
-        <v>0.3484291940412945</v>
+        <v>0.33619737748089</v>
       </c>
       <c r="DE112">
-        <v>0.3264042376806905</v>
+        <v>0.3393316875096949</v>
       </c>
       <c r="DF112">
-        <v>0.3241036406112104</v>
+        <v>0.3212511232582483</v>
       </c>
       <c r="DG112">
-        <v>0.1962023518980315</v>
+        <v>0.3098458122060792</v>
       </c>
       <c r="DH112">
-        <v>0.4060566115363017</v>
+        <v>0.4935538258476527</v>
       </c>
     </row>
     <row r="113" spans="1:128">
       <c r="A113" s="1">
-        <v>41091</v>
+        <v>42552</v>
       </c>
       <c r="CZ113">
-        <v>0.2107645180205527</v>
+        <v>0.3221454316454039</v>
       </c>
       <c r="DA113">
-        <v>0.3361672640955282</v>
+        <v>0.2608216508854363</v>
       </c>
       <c r="DB113">
-        <v>0.3132332180494358</v>
+        <v>0.2562446513612536</v>
       </c>
       <c r="DC113">
-        <v>0.3237326429695742</v>
+        <v>0.2976638527559928</v>
       </c>
       <c r="DD113">
-        <v>0.3385397466524668</v>
+        <v>0.336770965865017</v>
       </c>
       <c r="DE113">
-        <v>0.3309495423832851</v>
+        <v>0.3370420683726754</v>
       </c>
       <c r="DF113">
-        <v>0.3165851888571213</v>
+        <v>0.3215145075713155</v>
       </c>
       <c r="DG113">
-        <v>0.2523328252666404</v>
+        <v>0.3158292227508106</v>
       </c>
       <c r="DH113">
-        <v>0.3257825290890698</v>
+        <v>0.4160066403303275</v>
       </c>
       <c r="DI113">
-        <v>0.2569629294986893</v>
+        <v>0.3808894683108899</v>
       </c>
     </row>
     <row r="114" spans="1:128">
       <c r="A114" s="1">
-        <v>41183</v>
+        <v>42644</v>
       </c>
       <c r="DA114">
-        <v>0.3351269373087902</v>
+        <v>0.2609384773262192</v>
       </c>
       <c r="DB114">
-        <v>0.3126960017145067</v>
+        <v>0.25637092017408</v>
       </c>
       <c r="DC114">
-        <v>0.3236624589868408</v>
+        <v>0.2970847769468998</v>
       </c>
       <c r="DD114">
-        <v>0.3342301838978883</v>
+        <v>0.3370198469658729</v>
       </c>
       <c r="DE114">
-        <v>0.3323728182919696</v>
+        <v>0.3360318589853503</v>
       </c>
       <c r="DF114">
-        <v>0.3143501320039255</v>
+        <v>0.3216369381519656</v>
       </c>
       <c r="DG114">
-        <v>0.2715048070957226</v>
+        <v>0.3185960058005663</v>
       </c>
       <c r="DH114">
-        <v>0.2946425695029543</v>
+        <v>0.3799623770391106</v>
       </c>
       <c r="DI114">
-        <v>0.2626724473080196</v>
+        <v>0.3637101753772201</v>
       </c>
       <c r="DJ114">
-        <v>0.2658412787400625</v>
+        <v>0.2854538301566019</v>
       </c>
     </row>
     <row r="115" spans="1:128">
       <c r="A115" s="1">
-        <v>41275</v>
+        <v>42736</v>
       </c>
       <c r="DB115">
-        <v>0.3124457278110455</v>
+        <v>0.2564250709748581</v>
       </c>
       <c r="DC115">
-        <v>0.3236323112075936</v>
+        <v>0.2968439785873606</v>
       </c>
       <c r="DD115">
-        <v>0.3323521891065759</v>
+        <v>0.3371278369532529</v>
       </c>
       <c r="DE115">
-        <v>0.3328099924689074</v>
+        <v>0.335586141757785</v>
       </c>
       <c r="DF115">
-        <v>0.3137251889220329</v>
+        <v>0.3216938482493394</v>
       </c>
       <c r="DG115">
-        <v>0.2777330556071276</v>
+        <v>0.3198753917974467</v>
       </c>
       <c r="DH115">
-        <v>0.28448687342501</v>
+        <v>0.3632155774163528</v>
       </c>
       <c r="DI115">
-        <v>0.2660065748956793</v>
+        <v>0.3556892702476738</v>
       </c>
       <c r="DJ115">
-        <v>0.2823630897464367</v>
+        <v>0.3267011784016723</v>
       </c>
       <c r="DK115">
-        <v>-0.1326969567037847</v>
+        <v>0.3930983122388752</v>
       </c>
     </row>
     <row r="116" spans="1:128">
       <c r="A116" s="1">
-        <v>41365</v>
+        <v>42826</v>
       </c>
       <c r="DC116">
-        <v>0.3236193611218596</v>
+        <v>0.2967438468813496</v>
       </c>
       <c r="DD116">
-        <v>0.3315338080686009</v>
+        <v>0.3371746940160601</v>
       </c>
       <c r="DE116">
-        <v>0.332942901109597</v>
+        <v>0.3353894856519733</v>
       </c>
       <c r="DF116">
-        <v>0.313558423135754</v>
+        <v>0.3217203020914544</v>
       </c>
       <c r="DG116">
-        <v>0.2797115386007235</v>
+        <v>0.3204669916788612</v>
       </c>
       <c r="DH116">
-        <v>0.2814140383200912</v>
+        <v>0.3554346767339184</v>
       </c>
       <c r="DI116">
-        <v>0.2672310309305355</v>
+        <v>0.3519074418891524</v>
       </c>
       <c r="DJ116">
-        <v>0.2886970031025137</v>
+        <v>0.3456323769169372</v>
       </c>
       <c r="DK116">
-        <v>0.1146210169670681</v>
+        <v>0.3794185060174968</v>
       </c>
       <c r="DL116">
-        <v>0.1668148420067005</v>
+        <v>0.4880370991768954</v>
       </c>
     </row>
     <row r="117" spans="1:128">
       <c r="A117" s="1">
-        <v>41456</v>
+        <v>42917</v>
       </c>
       <c r="DD117">
-        <v>0.3311771790053162</v>
+        <v>0.3371950253855527</v>
       </c>
       <c r="DE117">
-        <v>0.3329830811889126</v>
+        <v>0.3353027184786705</v>
       </c>
       <c r="DF117">
-        <v>0.3135156339028616</v>
+        <v>0.3217325987803499</v>
       </c>
       <c r="DG117">
-        <v>0.280333426561937</v>
+        <v>0.3207405529188235</v>
       </c>
       <c r="DH117">
-        <v>0.2805196674528365</v>
+        <v>0.3518195137012068</v>
       </c>
       <c r="DI117">
-        <v>0.2676156305162167</v>
+        <v>0.3501252963186119</v>
       </c>
       <c r="DJ117">
-        <v>0.2909361803960807</v>
+        <v>0.3543116169853093</v>
       </c>
       <c r="DK117">
-        <v>0.2114489426777554</v>
+        <v>0.3731356175618818</v>
       </c>
       <c r="DL117">
-        <v>0.1990910114627568</v>
+        <v>0.4348877705518358</v>
       </c>
       <c r="DM117">
-        <v>0.4835892644960723</v>
+        <v>0.4932150796093588</v>
       </c>
     </row>
     <row r="118" spans="1:128">
       <c r="A118" s="1">
-        <v>41548</v>
+        <v>43009</v>
       </c>
       <c r="DE118">
-        <v>0.3329951904513869</v>
+        <v>0.3352644356990351</v>
       </c>
       <c r="DF118">
-        <v>0.3135050401137331</v>
+        <v>0.321738314719726</v>
       </c>
       <c r="DG118">
-        <v>0.2805279076335725</v>
+        <v>0.3208670501585302</v>
       </c>
       <c r="DH118">
-        <v>0.2802649951984016</v>
+        <v>0.3501398362063016</v>
       </c>
       <c r="DI118">
-        <v>0.2677271114598496</v>
+        <v>0.3492854541602116</v>
       </c>
       <c r="DJ118">
-        <v>0.2917061406327234</v>
+        <v>0.3582908186824177</v>
       </c>
       <c r="DK118">
-        <v>0.2466648434584587</v>
+        <v>0.37025920227079</v>
       </c>
       <c r="DL118">
-        <v>0.2118333940613151</v>
+        <v>0.4113051556852885</v>
       </c>
       <c r="DM118">
-        <v>0.3654362428807465</v>
+        <v>0.4374073112777921</v>
       </c>
       <c r="DN118">
-        <v>0.3071481657186778</v>
+        <v>0.5892375486112547</v>
       </c>
     </row>
     <row r="119" spans="1:128">
       <c r="A119" s="1">
-        <v>41640</v>
+        <v>43101</v>
       </c>
       <c r="DF119">
-        <v>0.3135025074225217</v>
+        <v>0.3217409716921215</v>
       </c>
       <c r="DG119">
-        <v>0.2805885757735316</v>
+        <v>0.3209255436485275</v>
       </c>
       <c r="DH119">
-        <v>0.2801934120429552</v>
+        <v>0.3493594242411086</v>
       </c>
       <c r="DI119">
-        <v>0.2677578646751505</v>
+        <v>0.3488896763514082</v>
       </c>
       <c r="DJ119">
-        <v>0.2919682121170042</v>
+        <v>0.3601151762710477</v>
       </c>
       <c r="DK119">
-        <v>0.2591973743149182</v>
+        <v>0.3689422301003584</v>
       </c>
       <c r="DL119">
-        <v>0.2170388845683362</v>
+        <v>0.4008430601108652</v>
       </c>
       <c r="DM119">
-        <v>0.3127820773446567</v>
+        <v>0.4117402403485468</v>
       </c>
       <c r="DN119">
-        <v>0.295306589255621</v>
+        <v>0.487700655685696</v>
       </c>
       <c r="DO119">
-        <v>0.3280696062556266</v>
+        <v>0.498268675818354</v>
       </c>
     </row>
     <row r="120" spans="1:128">
       <c r="A120" s="1">
-        <v>41730</v>
+        <v>43191</v>
       </c>
       <c r="DG120">
-        <v>0.2806074779818091</v>
+        <v>0.3209525915776365</v>
       </c>
       <c r="DH120">
-        <v>0.2801734498338682</v>
+        <v>0.348996829137427</v>
       </c>
       <c r="DI120">
-        <v>0.2677660650344709</v>
+        <v>0.3487031650088625</v>
       </c>
       <c r="DJ120">
-        <v>0.2920570706572605</v>
+        <v>0.3609515954588978</v>
       </c>
       <c r="DK120">
-        <v>0.2636271138618202</v>
+        <v>0.36833925298271</v>
       </c>
       <c r="DL120">
-        <v>0.2191744333381033</v>
+        <v>0.3962017054427926</v>
       </c>
       <c r="DM120">
-        <v>0.2894402353552771</v>
+        <v>0.399939749300558</v>
       </c>
       <c r="DN120">
-        <v>0.2897649239239772</v>
+        <v>0.4391274312279916</v>
       </c>
       <c r="DO120">
-        <v>0.3035456409481426</v>
+        <v>0.4479022197997632</v>
       </c>
       <c r="DP120">
-        <v>0.5498874657267171</v>
+        <v>0.3409278159840826</v>
       </c>
     </row>
     <row r="121" spans="1:128">
       <c r="A121" s="1">
-        <v>41821</v>
+        <v>43282</v>
       </c>
       <c r="DH121">
-        <v>0.2801679101979176</v>
+        <v>0.3488283601555589</v>
       </c>
       <c r="DI121">
-        <v>0.2677681976573427</v>
+        <v>0.3486152710442557</v>
       </c>
       <c r="DJ121">
-        <v>0.2920871550394841</v>
+        <v>0.3613350712982692</v>
       </c>
       <c r="DK121">
-        <v>0.2651894387330129</v>
+        <v>0.3680631792524318</v>
       </c>
       <c r="DL121">
-        <v>0.2200509895714168</v>
+        <v>0.3941426368088483</v>
       </c>
       <c r="DM121">
-        <v>0.279095485396099</v>
+        <v>0.3945144023372731</v>
       </c>
       <c r="DN121">
-        <v>0.2871123118665653</v>
+        <v>0.4160513114798439</v>
       </c>
       <c r="DO121">
-        <v>0.2916826585945739</v>
+        <v>0.4238537155235792</v>
       </c>
       <c r="DP121">
-        <v>0.42801824344899</v>
+        <v>0.3585940925853104</v>
       </c>
       <c r="DQ121">
-        <v>0.06165050875077527</v>
+        <v>0.3924672903298065</v>
       </c>
     </row>
     <row r="122" spans="1:128">
       <c r="A122" s="1">
-        <v>41913</v>
+        <v>43374</v>
       </c>
       <c r="DI122">
-        <v>0.2677687416237422</v>
+        <v>0.3485738507804204</v>
       </c>
       <c r="DJ122">
-        <v>0.2920973348356787</v>
+        <v>0.3615108847199586</v>
       </c>
       <c r="DK122">
-        <v>0.2657400692274273</v>
+        <v>0.3679367785943591</v>
       </c>
       <c r="DL122">
-        <v>0.2204108026459904</v>
+        <v>0.3932291613384508</v>
       </c>
       <c r="DM122">
-        <v>0.2745109132571007</v>
+        <v>0.3920200668241583</v>
       </c>
       <c r="DN122">
-        <v>0.2858441738424585</v>
+        <v>0.4050833792330935</v>
       </c>
       <c r="DO122">
-        <v>0.2859751866436055</v>
+        <v>0.4123934400676019</v>
       </c>
       <c r="DP122">
-        <v>0.3712887134776663</v>
+        <v>0.3668028415346226</v>
       </c>
       <c r="DQ122">
-        <v>0.1761410388877556</v>
+        <v>0.3695560017914198</v>
       </c>
       <c r="DR122">
-        <v>0.1736804633958236</v>
+        <v>0.1122805722851697</v>
       </c>
     </row>
     <row r="123" spans="1:128">
       <c r="A123" s="1">
-        <v>42005</v>
+        <v>43466</v>
       </c>
       <c r="DJ123">
-        <v>0.2921007786806501</v>
+        <v>0.3615914904741485</v>
       </c>
       <c r="DK123">
-        <v>0.2659340913116399</v>
+        <v>0.3678789059153994</v>
       </c>
       <c r="DL123">
-        <v>0.220558501573788</v>
+        <v>0.3928239114010465</v>
       </c>
       <c r="DM123">
-        <v>0.272479130308843</v>
+        <v>0.3908732812411387</v>
       </c>
       <c r="DN123">
-        <v>0.2852378720806832</v>
+        <v>0.3998705451246097</v>
       </c>
       <c r="DO123">
-        <v>0.2832284063309656</v>
+        <v>0.4069313927782377</v>
       </c>
       <c r="DP123">
-        <v>0.3448896093780345</v>
+        <v>0.370600716261984</v>
       </c>
       <c r="DQ123">
-        <v>0.2251854654960641</v>
+        <v>0.3590117854112294</v>
       </c>
       <c r="DR123">
-        <v>0.2209297857152165</v>
+        <v>0.2277325139290328</v>
       </c>
       <c r="DS123">
-        <v>0.4858860318682643</v>
+        <v>0.1844683999603099</v>
       </c>
     </row>
     <row r="124" spans="1:128">
       <c r="A124" s="1">
-        <v>42095</v>
+        <v>43556</v>
       </c>
       <c r="DK124">
-        <v>0.2660024526381063</v>
+        <v>0.3678524088463094</v>
       </c>
       <c r="DL124">
-        <v>0.2206191302571006</v>
+        <v>0.3926441282354464</v>
       </c>
       <c r="DM124">
-        <v>0.2715786882020466</v>
+        <v>0.3903460397508229</v>
       </c>
       <c r="DN124">
-        <v>0.2849479979074478</v>
+        <v>0.3973929867906053</v>
       </c>
       <c r="DO124">
-        <v>0.28190651169346</v>
+        <v>0.404328163291647</v>
       </c>
       <c r="DP124">
-        <v>0.3326047282185538</v>
+        <v>0.3723580685577372</v>
       </c>
       <c r="DQ124">
-        <v>0.2459032091363454</v>
+        <v>0.3542366545008231</v>
       </c>
       <c r="DR124">
-        <v>0.2412251075864097</v>
+        <v>0.2808809732270754</v>
       </c>
       <c r="DS124">
-        <v>0.3762908587986014</v>
+        <v>0.2525395772002005</v>
       </c>
       <c r="DT124">
-        <v>0.3086271608792364</v>
+        <v>0.3627307324263691</v>
       </c>
     </row>
     <row r="125" spans="1:128">
       <c r="A125" s="1">
-        <v>42186</v>
+        <v>43647</v>
       </c>
       <c r="DL125">
-        <v>0.220644017625583</v>
+        <v>0.3925643700821442</v>
       </c>
       <c r="DM125">
-        <v>0.2711796318034117</v>
+        <v>0.3901036373407933</v>
       </c>
       <c r="DN125">
-        <v>0.2848094084151322</v>
+        <v>0.3962154518077192</v>
       </c>
       <c r="DO125">
-        <v>0.2812703461300195</v>
+        <v>0.4030874550409006</v>
       </c>
       <c r="DP125">
-        <v>0.3268879320539327</v>
+        <v>0.3731712274873865</v>
       </c>
       <c r="DQ125">
-        <v>0.2546446185365753</v>
+        <v>0.3520711141246315</v>
       </c>
       <c r="DR125">
-        <v>0.2499297136152437</v>
+        <v>0.3048298394574579</v>
       </c>
       <c r="DS125">
-        <v>0.3298210409788371</v>
+        <v>0.2801538139453355</v>
       </c>
       <c r="DT125">
-        <v>0.3248074065376587</v>
+        <v>0.3362764478896823</v>
       </c>
       <c r="DU125">
-        <v>0.3828448375722439</v>
+        <v>0.1794263626245832</v>
       </c>
     </row>
     <row r="126" spans="1:128">
       <c r="A126" s="1">
-        <v>42278</v>
+        <v>43739</v>
       </c>
       <c r="DM126">
-        <v>0.2710027786686307</v>
+        <v>0.3899921913915132</v>
       </c>
       <c r="DN126">
-        <v>0.28474314846878</v>
+        <v>0.3956557924736283</v>
       </c>
       <c r="DO126">
-        <v>0.2809641896543761</v>
+        <v>0.4024961291810212</v>
       </c>
       <c r="DP126">
-        <v>0.3242276085240325</v>
+        <v>0.3735474909819056</v>
       </c>
       <c r="DQ126">
-        <v>0.2583324969956866</v>
+        <v>0.3510891542954321</v>
       </c>
       <c r="DR126">
-        <v>0.2536627374024515</v>
+        <v>0.315642269916694</v>
       </c>
       <c r="DS126">
-        <v>0.3104585313861903</v>
+        <v>0.2913556369398622</v>
       </c>
       <c r="DT126">
-        <v>0.331828834122106</v>
+        <v>0.3254374528737733</v>
       </c>
       <c r="DU126">
-        <v>0.3562807674577446</v>
+        <v>0.2302697221081335</v>
       </c>
       <c r="DV126">
-        <v>0.3194721332081325</v>
+        <v>0.1814061084957765</v>
       </c>
     </row>
     <row r="127" spans="1:128">
       <c r="A127" s="1">
-        <v>42370</v>
+        <v>43831</v>
       </c>
       <c r="DN127">
-        <v>0.2847114694401618</v>
+        <v>0.3953897973442962</v>
       </c>
       <c r="DO127">
-        <v>0.2808168509846473</v>
+        <v>0.4022143012226289</v>
       </c>
       <c r="DP127">
-        <v>0.3229896211828929</v>
+        <v>0.3737215949752344</v>
       </c>
       <c r="DQ127">
-        <v>0.2598883479500873</v>
+        <v>0.3506438818109137</v>
       </c>
       <c r="DR127">
-        <v>0.2552636577575383</v>
+        <v>0.3205229952170769</v>
       </c>
       <c r="DS127">
-        <v>0.3024052923196403</v>
+        <v>0.2958996989616331</v>
       </c>
       <c r="DT127">
-        <v>0.334875446513568</v>
+        <v>0.3209990828340856</v>
       </c>
       <c r="DU127">
-        <v>0.3445210282629962</v>
+        <v>0.2665719521681545</v>
       </c>
       <c r="DV127">
-        <v>0.3206844565877573</v>
+        <v>0.2388031018914837</v>
       </c>
       <c r="DW127">
-        <v>0.2969069313126949</v>
+        <v>0.1900831754885381</v>
       </c>
     </row>
     <row r="128" spans="1:128">
       <c r="A128" s="1">
-        <v>42461</v>
+        <v>43922</v>
       </c>
       <c r="DO128">
-        <v>0.2807459438331706</v>
+        <v>0.4020799810389358</v>
       </c>
       <c r="DP128">
-        <v>0.322413521080933</v>
+        <v>0.3738021560738725</v>
       </c>
       <c r="DQ128">
-        <v>0.2605447335750996</v>
+        <v>0.3504419719249682</v>
       </c>
       <c r="DR128">
-        <v>0.2559502178004973</v>
+        <v>0.3227261879073491</v>
       </c>
       <c r="DS128">
-        <v>0.2990564233788048</v>
+        <v>0.2977430149666537</v>
       </c>
       <c r="DT128">
-        <v>0.33619737748089</v>
+        <v>0.3191816656823959</v>
       </c>
       <c r="DU128">
-        <v>0.3393316875096949</v>
+        <v>0.2826276782706303</v>
       </c>
       <c r="DV128">
-        <v>0.3212511232582483</v>
+        <v>0.2654078332331393</v>
       </c>
       <c r="DW128">
-        <v>0.3098458122060792</v>
+        <v>0.2309795650301406</v>
       </c>
       <c r="DX128">
-        <v>0.4935538258476527</v>
+        <v>-0.6845717329199352</v>
       </c>
     </row>
     <row r="129" spans="1:144">
       <c r="A129" s="1">
-        <v>42552</v>
+        <v>44013</v>
       </c>
       <c r="DP129">
-        <v>0.3221454316454039</v>
+        <v>0.3738394331660842</v>
       </c>
       <c r="DQ129">
-        <v>0.2608216508854363</v>
+        <v>0.3503504153908034</v>
       </c>
       <c r="DR129">
-        <v>0.2562446513612536</v>
+        <v>0.3237207226308424</v>
       </c>
       <c r="DS129">
-        <v>0.2976638527559928</v>
+        <v>0.2984907630999368</v>
       </c>
       <c r="DT129">
-        <v>0.336770965865017</v>
+        <v>0.3184374724902624</v>
       </c>
       <c r="DU129">
-        <v>0.3370420683726754</v>
+        <v>0.2907722840070606</v>
       </c>
       <c r="DV129">
-        <v>0.3215145075713155</v>
+        <v>0.2786771680534658</v>
       </c>
       <c r="DW129">
-        <v>0.3158292227508106</v>
+        <v>0.2570134399543461</v>
       </c>
       <c r="DX129">
-        <v>0.4160066403303275</v>
+        <v>-0.2984254746956241</v>
       </c>
       <c r="DY129">
-        <v>0.3808894683108899</v>
+        <v>-7.463655357282573</v>
       </c>
     </row>
     <row r="130" spans="1:144">
       <c r="A130" s="1">
-        <v>42644</v>
+        <v>44105</v>
       </c>
       <c r="DQ130">
-        <v>0.2609384773262192</v>
+        <v>0.350308898855604</v>
       </c>
       <c r="DR130">
-        <v>0.25637092017408</v>
+        <v>0.3241696617797978</v>
       </c>
       <c r="DS130">
-        <v>0.2970847769468998</v>
+        <v>0.2987940899680946</v>
       </c>
       <c r="DT130">
-        <v>0.3370198469658729</v>
+        <v>0.3181327414019882</v>
       </c>
       <c r="DU130">
-        <v>0.3360318589853503</v>
+        <v>0.2947256017300491</v>
       </c>
       <c r="DV130">
-        <v>0.3216369381519656</v>
+        <v>0.2851414742459503</v>
       </c>
       <c r="DW130">
-        <v>0.3185960058005663</v>
+        <v>0.2688011788446484</v>
       </c>
       <c r="DX130">
-        <v>0.3799623770391106</v>
+        <v>-0.05011853135311716</v>
       </c>
       <c r="DY130">
-        <v>0.3637101753772201</v>
+        <v>-5.824773328900056</v>
       </c>
       <c r="DZ130">
-        <v>0.2854538301566019</v>
+        <v>-4.144592182330832</v>
       </c>
     </row>
     <row r="131" spans="1:144">
       <c r="A131" s="1">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="DR131">
-        <v>0.2564250709748581</v>
+        <v>0.3243723156964315</v>
       </c>
       <c r="DS131">
-        <v>0.2968439785873606</v>
+        <v>0.2989171356633644</v>
       </c>
       <c r="DT131">
-        <v>0.3371278369532529</v>
+        <v>0.3180079605827859</v>
       </c>
       <c r="DU131">
-        <v>0.335586141757785</v>
+        <v>0.2966710407067586</v>
       </c>
       <c r="DV131">
-        <v>0.3216938482493394</v>
+        <v>0.2883141098898073</v>
       </c>
       <c r="DW131">
-        <v>0.3198753917974467</v>
+        <v>0.2747159319351871</v>
       </c>
       <c r="DX131">
-        <v>0.3632155774163528</v>
+        <v>0.06551354746759229</v>
       </c>
       <c r="DY131">
-        <v>0.3556892702476738</v>
+        <v>-4.576544413464426</v>
       </c>
       <c r="DZ131">
-        <v>0.3267011784016723</v>
+        <v>2.839500349044278</v>
       </c>
       <c r="EA131">
-        <v>0.3930983122388752</v>
+        <v>-0.8877061776737167</v>
       </c>
     </row>
     <row r="132" spans="1:144">
       <c r="A132" s="1">
-        <v>42826</v>
+        <v>44287</v>
       </c>
       <c r="DS132">
-        <v>0.2967438468813496</v>
+        <v>0.2989670496166398</v>
       </c>
       <c r="DT132">
-        <v>0.3371746940160601</v>
+        <v>0.3179568655240934</v>
       </c>
       <c r="DU132">
-        <v>0.3353894856519733</v>
+        <v>0.2976242677790596</v>
       </c>
       <c r="DV132">
-        <v>0.3217203020914544</v>
+        <v>0.2898675503809542</v>
       </c>
       <c r="DW132">
-        <v>0.3204669916788612</v>
+        <v>0.2775858138434474</v>
       </c>
       <c r="DX132">
-        <v>0.3554346767339184</v>
+        <v>0.1243683820346405</v>
       </c>
       <c r="DY132">
-        <v>0.3519074418891524</v>
+        <v>-3.626159446597504</v>
       </c>
       <c r="DZ132">
-        <v>0.3456323769169372</v>
+        <v>-1.378103130372411</v>
       </c>
       <c r="EA132">
-        <v>0.3794185060174968</v>
+        <v>0.484767524391212</v>
       </c>
       <c r="EB132">
-        <v>0.4880370991768954</v>
+        <v>0.892999978012982</v>
       </c>
     </row>
     <row r="133" spans="1:144">
       <c r="A133" s="1">
-        <v>42917</v>
+        <v>44378</v>
       </c>
       <c r="DT133">
-        <v>0.3371950253855527</v>
+        <v>0.3179359431977336</v>
       </c>
       <c r="DU133">
-        <v>0.3353027184786705</v>
+        <v>0.2980919641657869</v>
       </c>
       <c r="DV133">
-        <v>0.3217325987803499</v>
+        <v>0.2906287410898873</v>
       </c>
       <c r="DW133">
-        <v>0.3207405529188235</v>
+        <v>0.2789933017497698</v>
       </c>
       <c r="DX133">
-        <v>0.3518195137012068</v>
+        <v>0.1535384321437448</v>
       </c>
       <c r="DY133">
-        <v>0.3501252963186119</v>
+        <v>-2.902546736670638</v>
       </c>
       <c r="DZ133">
-        <v>0.3543116169853093</v>
+        <v>1.078814278518536</v>
       </c>
       <c r="EA133">
-        <v>0.3731356175618818</v>
+        <v>0.3179053543475561</v>
       </c>
       <c r="EB133">
-        <v>0.4348877705518358</v>
+        <v>0.5695283982339502</v>
       </c>
       <c r="EC133">
-        <v>0.4932150796093588</v>
+        <v>0.464029186385135</v>
       </c>
     </row>
     <row r="134" spans="1:144">
       <c r="A134" s="1">
-        <v>43009</v>
+        <v>44470</v>
       </c>
       <c r="DU134">
-        <v>0.3352644356990351</v>
+        <v>0.2983213395070359</v>
       </c>
       <c r="DV134">
-        <v>0.321738314719726</v>
+        <v>0.2910016385917638</v>
       </c>
       <c r="DW134">
-        <v>0.3208670501585302</v>
+        <v>0.2796812068528354</v>
       </c>
       <c r="DX134">
-        <v>0.3501398362063016</v>
+        <v>0.1681088150593795</v>
       </c>
       <c r="DY134">
-        <v>0.3492854541602116</v>
+        <v>-2.351595956105766</v>
       </c>
       <c r="DZ134">
-        <v>0.3582908186824177</v>
+        <v>-0.3734140541957911</v>
       </c>
       <c r="EA134">
-        <v>0.37025920227079</v>
+        <v>0.1768169414264609</v>
       </c>
       <c r="EB134">
-        <v>0.4113051556852885</v>
+        <v>0.09491088760332561</v>
       </c>
       <c r="EC134">
-        <v>0.4374073112777921</v>
+        <v>-0.03119439636203225</v>
       </c>
       <c r="ED134">
-        <v>0.5892375486112547</v>
+        <v>-0.6356350162097709</v>
       </c>
     </row>
     <row r="135" spans="1:144">
       <c r="A135" s="1">
-        <v>43101</v>
+        <v>44562</v>
       </c>
       <c r="DV135">
-        <v>0.3217409716921215</v>
+        <v>0.2911843299800446</v>
       </c>
       <c r="DW135">
-        <v>0.3209255436485275</v>
+        <v>0.2800177902335594</v>
       </c>
       <c r="DX135">
-        <v>0.3493594242411086</v>
+        <v>0.1753700362996292</v>
       </c>
       <c r="DY135">
-        <v>0.3488896763514082</v>
+        <v>-1.93210807464721</v>
       </c>
       <c r="DZ135">
-        <v>0.3601151762710477</v>
+        <v>0.4798981714231107</v>
       </c>
       <c r="EA135">
-        <v>0.3689422301003584</v>
+        <v>0.2326449304998711</v>
       </c>
       <c r="EB135">
-        <v>0.4008430601108652</v>
+        <v>0.3077369798811567</v>
       </c>
       <c r="EC135">
-        <v>0.4117402403485468</v>
+        <v>0.4759850485143884</v>
       </c>
       <c r="ED135">
-        <v>0.487700655685696</v>
+        <v>0.411781671159695</v>
       </c>
       <c r="EE135">
-        <v>0.498268675818354</v>
+        <v>0.3241408423207837</v>
       </c>
     </row>
     <row r="136" spans="1:144">
       <c r="A136" s="1">
-        <v>43191</v>
+        <v>44652</v>
       </c>
       <c r="DW136">
-        <v>0.3209525915776365</v>
+        <v>0.2801824178062259</v>
       </c>
       <c r="DX136">
-        <v>0.348996829137427</v>
+        <v>0.1789911392419525</v>
       </c>
       <c r="DY136">
-        <v>0.3487031650088625</v>
+        <v>-1.612714602675451</v>
       </c>
       <c r="DZ136">
-        <v>0.3609515954588978</v>
+        <v>-0.02270422417448745</v>
       </c>
       <c r="EA136">
-        <v>0.36833925298271</v>
+        <v>0.2378799164465338</v>
       </c>
       <c r="EB136">
-        <v>0.3962017054427926</v>
+        <v>0.3437870769602576</v>
       </c>
       <c r="EC136">
-        <v>0.399939749300558</v>
+        <v>0.4044511695641399</v>
       </c>
       <c r="ED136">
-        <v>0.4391274312279916</v>
+        <v>0.6959984776213567</v>
       </c>
       <c r="EE136">
-        <v>0.4479022197997632</v>
+        <v>0.6435792755916881</v>
       </c>
       <c r="EF136">
-        <v>0.3409278159840826</v>
+        <v>0.6660072552246967</v>
       </c>
     </row>
     <row r="137" spans="1:144">
       <c r="A137" s="1">
-        <v>43282</v>
+        <v>44743</v>
       </c>
       <c r="DX137">
-        <v>0.3488283601555589</v>
+        <v>0.180796591657356</v>
       </c>
       <c r="DY137">
-        <v>0.3486152710442557</v>
+        <v>-1.369531916244841</v>
       </c>
       <c r="DZ137">
-        <v>0.3613350712982692</v>
+        <v>0.2730406300649579</v>
       </c>
       <c r="EA137">
-        <v>0.3680631792524318</v>
+        <v>0.2292596098352697</v>
       </c>
       <c r="EB137">
-        <v>0.3941426368088483</v>
+        <v>0.2876762559939251</v>
       </c>
       <c r="EC137">
-        <v>0.3945144023372731</v>
+        <v>0.298809095368558</v>
       </c>
       <c r="ED137">
-        <v>0.4160513114798439</v>
+        <v>0.2611022192826244</v>
       </c>
       <c r="EE137">
-        <v>0.4238537155235792</v>
+        <v>0.31974861626763</v>
       </c>
       <c r="EF137">
-        <v>0.3585940925853104</v>
+        <v>0.3223521558300787</v>
       </c>
       <c r="EG137">
-        <v>0.3924672903298065</v>
+        <v>0.3437767272872988</v>
       </c>
     </row>
     <row r="138" spans="1:144">
       <c r="A138" s="1">
-        <v>43374</v>
+        <v>44835</v>
       </c>
       <c r="DY138">
-        <v>0.3485738507804204</v>
+        <v>-1.184375286040335</v>
       </c>
       <c r="DZ138">
-        <v>0.3615108847199586</v>
+        <v>0.09894735366698722</v>
       </c>
       <c r="EA138">
-        <v>0.3679367785943591</v>
+        <v>0.2306348511361884</v>
       </c>
       <c r="EB138">
-        <v>0.3932291613384508</v>
+        <v>0.2970735349662799</v>
       </c>
       <c r="EC138">
-        <v>0.3920200668241583</v>
+        <v>0.3599362862932105</v>
       </c>
       <c r="ED138">
-        <v>0.4050833792330935</v>
+        <v>0.3513522662197494</v>
       </c>
       <c r="EE138">
-        <v>0.4123934400676019</v>
+        <v>0.3562814115568507</v>
       </c>
       <c r="EF138">
-        <v>0.3668028415346226</v>
+        <v>0.3342137259028355</v>
       </c>
       <c r="EG138">
-        <v>0.3695560017914198</v>
+        <v>0.4543915747020479</v>
       </c>
       <c r="EH138">
-        <v>0.1122805722851697</v>
+        <v>0.4120709423816584</v>
       </c>
     </row>
     <row r="139" spans="1:144">
       <c r="A139" s="1">
-        <v>43466</v>
+        <v>44927</v>
       </c>
       <c r="DZ139">
-        <v>0.3615914904741485</v>
+        <v>0.2014126679346297</v>
       </c>
       <c r="EA139">
-        <v>0.3678789059153994</v>
+        <v>0.2314425897783218</v>
       </c>
       <c r="EB139">
-        <v>0.3928239114010465</v>
+        <v>0.3061245483891583</v>
       </c>
       <c r="EC139">
-        <v>0.3908732812411387</v>
+        <v>0.3634760761829015</v>
       </c>
       <c r="ED139">
-        <v>0.3998705451246097</v>
+        <v>0.4472171537802698</v>
       </c>
       <c r="EE139">
-        <v>0.4069313927782377</v>
+        <v>0.4361238707313746</v>
       </c>
       <c r="EF139">
-        <v>0.370600716261984</v>
+        <v>0.4301418904270196</v>
       </c>
       <c r="EG139">
-        <v>0.3590117854112294</v>
+        <v>0.3409475460132365</v>
       </c>
       <c r="EH139">
-        <v>0.2277325139290328</v>
+        <v>0.3117430721575033</v>
       </c>
       <c r="EI139">
-        <v>0.1844683999603099</v>
+        <v>0.6519408127754134</v>
       </c>
     </row>
     <row r="140" spans="1:144">
       <c r="A140" s="1">
-        <v>43556</v>
+        <v>45017</v>
       </c>
       <c r="EA140">
-        <v>0.3678524088463094</v>
+        <v>0.2310675656625323</v>
       </c>
       <c r="EB140">
-        <v>0.3926441282354464</v>
+        <v>0.3013808575635111</v>
       </c>
       <c r="EC140">
-        <v>0.3903460397508229</v>
+        <v>0.3458860345678901</v>
       </c>
       <c r="ED140">
-        <v>0.3973929867906053</v>
+        <v>0.3807131794959351</v>
       </c>
       <c r="EE140">
-        <v>0.404328163291647</v>
+        <v>0.3934798787210216</v>
       </c>
       <c r="EF140">
-        <v>0.3723580685577372</v>
+        <v>0.3881366285386105</v>
       </c>
       <c r="EG140">
-        <v>0.3542366545008231</v>
+        <v>0.3584096246900327</v>
       </c>
       <c r="EH140">
-        <v>0.2808809732270754</v>
+        <v>0.3553890248851115</v>
       </c>
       <c r="EI140">
-        <v>0.2525395772002005</v>
+        <v>0.4307600866690486</v>
       </c>
       <c r="EJ140">
-        <v>0.3627307324263691</v>
+        <v>0.8814549586592991</v>
       </c>
     </row>
     <row r="141" spans="1:144">
       <c r="A141" s="1">
-        <v>43647</v>
+        <v>45108</v>
       </c>
       <c r="EB141">
-        <v>0.3925643700821442</v>
+        <v>0.3009015042266514</v>
       </c>
       <c r="EC141">
-        <v>0.3901036373407933</v>
+        <v>0.35197537525307</v>
       </c>
       <c r="ED141">
-        <v>0.3962154518077192</v>
+        <v>0.378539758305367</v>
       </c>
       <c r="EE141">
-        <v>0.4030874550409006</v>
+        <v>0.3872693173527261</v>
       </c>
       <c r="EF141">
-        <v>0.3731712274873865</v>
+        <v>0.3769007839823598</v>
       </c>
       <c r="EG141">
-        <v>0.3520711141246315</v>
+        <v>0.3855269040122699</v>
       </c>
       <c r="EH141">
-        <v>0.3048298394574579</v>
+        <v>0.3666656204007895</v>
       </c>
       <c r="EI141">
-        <v>0.2801538139453355</v>
+        <v>0.1755723340877904</v>
       </c>
       <c r="EJ141">
-        <v>0.3362764478896823</v>
+        <v>0.2226830363001488</v>
       </c>
       <c r="EK141">
-        <v>0.1794263626245832</v>
+        <v>0.5350086232236873</v>
       </c>
     </row>
     <row r="142" spans="1:144">
       <c r="A142" s="1">
-        <v>43739</v>
+        <v>45200</v>
       </c>
       <c r="EC142">
-        <v>0.3899921913915132</v>
+        <v>0.3541979431822899</v>
       </c>
       <c r="ED142">
-        <v>0.3956557924736283</v>
+        <v>0.3996967839288888</v>
       </c>
       <c r="EE142">
-        <v>0.4024961291810212</v>
+        <v>0.4021987280777406</v>
       </c>
       <c r="EF142">
-        <v>0.3735474909819056</v>
+        <v>0.3937214059541168</v>
       </c>
       <c r="EG142">
-        <v>0.3510891542954321</v>
+        <v>0.3677812325286816</v>
       </c>
       <c r="EH142">
-        <v>0.315642269916694</v>
+        <v>0.3474501014634773</v>
       </c>
       <c r="EI142">
-        <v>0.2913556369398622</v>
+        <v>0.3721440140502105</v>
       </c>
       <c r="EJ142">
-        <v>0.3254374528737733</v>
+        <v>0.1318607832594023</v>
       </c>
       <c r="EK142">
-        <v>0.2302697221081335</v>
+        <v>0.2651495229949266</v>
       </c>
       <c r="EL142">
-        <v>0.1814061084957765</v>
+        <v>0.5007400141027678</v>
       </c>
     </row>
     <row r="143" spans="1:144">
       <c r="A143" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="ED143">
-        <v>0.3953897973442962</v>
+        <v>0.3917538843816368</v>
       </c>
       <c r="EE143">
-        <v>0.4022143012226289</v>
+        <v>0.3980298218533179</v>
       </c>
       <c r="EF143">
-        <v>0.3737215949752344</v>
+        <v>0.3902575135465071</v>
       </c>
       <c r="EG143">
-        <v>0.3506438818109137</v>
+        <v>0.3674789505182796</v>
       </c>
       <c r="EH143">
-        <v>0.3205229952170769</v>
+        <v>0.3529487950840318</v>
       </c>
       <c r="EI143">
-        <v>0.2958996989616331</v>
+        <v>0.3623281986403278</v>
       </c>
       <c r="EJ143">
-        <v>0.3209990828340856</v>
+        <v>0.3982732797061906</v>
       </c>
       <c r="EK143">
-        <v>0.2665719521681545</v>
+        <v>0.219194857889999</v>
       </c>
       <c r="EL143">
-        <v>0.2388031018914837</v>
+        <v>0.3038735987643086</v>
       </c>
       <c r="EM143">
-        <v>0.1900831754885381</v>
+        <v>0.6148977852456914</v>
       </c>
     </row>
     <row r="144" spans="1:144">
       <c r="A144" s="1">
-        <v>43922</v>
+        <v>45383</v>
       </c>
       <c r="EE144">
-        <v>0.4020799810389358</v>
+        <v>0.3953442544735015</v>
       </c>
       <c r="EF144">
-        <v>0.3738021560738725</v>
+        <v>0.3867202809405329</v>
       </c>
       <c r="EG144">
-        <v>0.3504419719249682</v>
+        <v>0.3731022457919151</v>
       </c>
       <c r="EH144">
-        <v>0.3227261879073491</v>
+        <v>0.3564612002996471</v>
       </c>
       <c r="EI144">
-        <v>0.2977430149666537</v>
+        <v>0.3016504016882561</v>
       </c>
       <c r="EJ144">
-        <v>0.3191816656823959</v>
+        <v>0.2995996442486632</v>
       </c>
       <c r="EK144">
-        <v>0.2826276782706303</v>
+        <v>0.3277938830192304</v>
       </c>
       <c r="EL144">
-        <v>0.2654078332331393</v>
+        <v>0.1821935163855133</v>
       </c>
       <c r="EM144">
-        <v>0.2309795650301406</v>
+        <v>0.2992822907967085</v>
       </c>
       <c r="EN144">
-        <v>-0.6845717329199352</v>
-      </c>
-    </row>
-    <row r="145" spans="1:160">
+        <v>0.5461074682008229</v>
+      </c>
+    </row>
+    <row r="145" spans="1:148">
       <c r="A145" s="1">
-        <v>44013</v>
+        <v>45474</v>
       </c>
       <c r="EF145">
-        <v>0.3738394331660842</v>
+        <v>0.3891559537672726</v>
       </c>
       <c r="EG145">
-        <v>0.3503504153908034</v>
+        <v>0.3706351565820968</v>
       </c>
       <c r="EH145">
-        <v>0.3237207226308424</v>
+        <v>0.3530513111533466</v>
       </c>
       <c r="EI145">
-        <v>0.2984907630999368</v>
+        <v>0.3341572202646768</v>
       </c>
       <c r="EJ145">
-        <v>0.3184374724902624</v>
+        <v>0.2575889808286466</v>
       </c>
       <c r="EK145">
-        <v>0.2907722840070606</v>
+        <v>0.2936142920210401</v>
       </c>
       <c r="EL145">
-        <v>0.2786771680534658</v>
+        <v>0.3035680348802827</v>
       </c>
       <c r="EM145">
-        <v>0.2570134399543461</v>
+        <v>0.1411038934307159</v>
       </c>
       <c r="EN145">
-        <v>-0.2984254746956241</v>
+        <v>0.1587597609686054</v>
       </c>
       <c r="EO145">
-        <v>-7.463655357282573</v>
-      </c>
-    </row>
-    <row r="146" spans="1:160">
+        <v>0.3984361203848173</v>
+      </c>
+    </row>
+    <row r="146" spans="1:148">
       <c r="A146" s="1">
-        <v>44105</v>
+        <v>45566</v>
       </c>
       <c r="EG146">
-        <v>0.350308898855604</v>
+        <v>0.3700202220727796</v>
       </c>
       <c r="EH146">
-        <v>0.3241696617797978</v>
+        <v>0.3535463385427368</v>
       </c>
       <c r="EI146">
-        <v>0.2987940899680946</v>
+        <v>0.3386823377276911</v>
       </c>
       <c r="EJ146">
-        <v>0.3181327414019882</v>
+        <v>0.3112829433524077</v>
       </c>
       <c r="EK146">
-        <v>0.2947256017300491</v>
+        <v>0.2737413731481941</v>
       </c>
       <c r="EL146">
-        <v>0.2851414742459503</v>
+        <v>0.289106542847739</v>
       </c>
       <c r="EM146">
-        <v>0.2688011788446484</v>
+        <v>0.3180654933129406</v>
       </c>
       <c r="EN146">
-        <v>-0.05011853135311716</v>
+        <v>0.2234432542019461</v>
       </c>
       <c r="EO146">
-        <v>-5.824773328900056</v>
+        <v>0.3084674976711596</v>
       </c>
       <c r="EP146">
-        <v>-4.144592182330832</v>
-      </c>
-    </row>
-    <row r="147" spans="1:160">
+        <v>0.4733275747052469</v>
+      </c>
+    </row>
+    <row r="147" spans="1:148">
       <c r="A147" s="1">
-        <v>44197</v>
+        <v>45658</v>
       </c>
       <c r="EH147">
-        <v>0.3243723156964315</v>
+        <v>0.3543969433309027</v>
       </c>
       <c r="EI147">
-        <v>0.2989171356633644</v>
+        <v>0.325685232701532</v>
       </c>
       <c r="EJ147">
-        <v>0.3180079605827859</v>
+        <v>0.2993961825038066</v>
       </c>
       <c r="EK147">
-        <v>0.2966710407067586</v>
+        <v>0.2938538434164454</v>
       </c>
       <c r="EL147">
-        <v>0.2883141098898073</v>
+        <v>0.2550055084590223</v>
       </c>
       <c r="EM147">
-        <v>0.2747159319351871</v>
+        <v>0.2907483809139259</v>
       </c>
       <c r="EN147">
-        <v>0.06551354746759229</v>
+        <v>0.322965769162406</v>
       </c>
       <c r="EO147">
-        <v>-4.576544413464426</v>
+        <v>0.2064811908043919</v>
       </c>
       <c r="EP147">
-        <v>2.839500349044278</v>
+        <v>0.2200184630523081</v>
       </c>
       <c r="EQ147">
-        <v>-0.8877061776737167</v>
-      </c>
-    </row>
-    <row r="148" spans="1:160">
+        <v>0.4738675049177161</v>
+      </c>
+    </row>
+    <row r="148" spans="1:148">
       <c r="A148" s="1">
-        <v>44287</v>
+        <v>45748</v>
       </c>
       <c r="EI148">
-        <v>0.2989670496166398</v>
+        <v>0.3304428394308724</v>
       </c>
       <c r="EJ148">
-        <v>0.3179568655240934</v>
+        <v>0.2870455487175398</v>
       </c>
       <c r="EK148">
-        <v>0.2976242677790596</v>
+        <v>0.2912208776562884</v>
       </c>
       <c r="EL148">
-        <v>0.2898675503809542</v>
+        <v>0.2753750686291025</v>
       </c>
       <c r="EM148">
-        <v>0.2775858138434474</v>
+        <v>0.2440474222454754</v>
       </c>
       <c r="EN148">
-        <v>0.1243683820346405</v>
+        <v>0.2564355480731927</v>
       </c>
       <c r="EO148">
-        <v>-3.626159446597504</v>
+        <v>0.2715408197250452</v>
       </c>
       <c r="EP148">
-        <v>-1.378103130372411</v>
+        <v>0.2085679007350822</v>
       </c>
       <c r="EQ148">
-        <v>0.484767524391212</v>
+        <v>0.3078859509171186</v>
       </c>
       <c r="ER148">
-        <v>0.892999978012982</v>
-      </c>
-    </row>
-    <row r="149" spans="1:160">
+        <v>0.3519456421565676</v>
+      </c>
+    </row>
+    <row r="149" spans="1:148">
       <c r="A149" s="1">
-        <v>44378</v>
+        <v>45839</v>
       </c>
       <c r="EJ149">
-        <v>0.3179359431977336</v>
+        <v>0.2970525035592049</v>
       </c>
       <c r="EK149">
-        <v>0.2980919641657869</v>
+        <v>0.2858677898194339</v>
       </c>
       <c r="EL149">
-        <v>0.2906287410898873</v>
+        <v>0.2775335613519331</v>
       </c>
       <c r="EM149">
-        <v>0.2789933017497698</v>
+        <v>0.2743085116504074</v>
       </c>
       <c r="EN149">
-        <v>0.1535384321437448</v>
+        <v>0.2534447081011285</v>
       </c>
       <c r="EO149">
-        <v>-2.902546736670638</v>
+        <v>0.2766837437271186</v>
       </c>
       <c r="EP149">
-        <v>1.078814278518536</v>
+        <v>0.2867219094086165</v>
       </c>
       <c r="EQ149">
-        <v>0.3179053543475561</v>
+        <v>0.1751453671933744</v>
       </c>
       <c r="ER149">
-        <v>0.5695283982339502</v>
-      </c>
-      <c r="ES149">
-        <v>0.464029186385135</v>
-      </c>
-    </row>
-    <row r="150" spans="1:160">
+        <v>0.1965658720679752</v>
+      </c>
+    </row>
+    <row r="150" spans="1:148">
       <c r="A150" s="1">
-        <v>44470</v>
+        <v>45931</v>
       </c>
       <c r="EK150">
-        <v>0.2983213395070359</v>
+        <v>0.2891463708128647</v>
       </c>
       <c r="EL150">
-        <v>0.2910016385917638</v>
+        <v>0.2697233585146028</v>
       </c>
       <c r="EM150">
-        <v>0.2796812068528354</v>
+        <v>0.2761968025120373</v>
       </c>
       <c r="EN150">
-        <v>0.1681088150593795</v>
+        <v>0.2769177604247239</v>
       </c>
       <c r="EO150">
-        <v>-2.351595956105766</v>
+        <v>0.2556895730526741</v>
       </c>
       <c r="EP150">
-        <v>-0.3734140541957911</v>
+        <v>0.2604924732590314</v>
       </c>
       <c r="EQ150">
-        <v>0.1768169414264609</v>
+        <v>0.2733247092227787</v>
       </c>
       <c r="ER150">
-        <v>0.09491088760332561</v>
-      </c>
-      <c r="ES150">
-        <v>-0.03119439636203225</v>
-      </c>
-      <c r="ET150">
-        <v>-0.6356350162097709</v>
-      </c>
-    </row>
-    <row r="151" spans="1:160">
+        <v>0.2731592860501876</v>
+      </c>
+    </row>
+    <row r="151" spans="1:148">
       <c r="A151" s="1">
-        <v>44562</v>
+        <v>46023</v>
       </c>
       <c r="EL151">
-        <v>0.2911843299800446</v>
+        <v>0.2725549194311268</v>
       </c>
       <c r="EM151">
-        <v>0.2800177902335594</v>
+        <v>0.2652410358040119</v>
       </c>
       <c r="EN151">
-        <v>0.1753700362996292</v>
+        <v>0.2672928886939341</v>
       </c>
       <c r="EO151">
-        <v>-1.93210807464721</v>
+        <v>0.2621566958884603</v>
       </c>
       <c r="EP151">
-        <v>0.4798981714231107</v>
+        <v>0.2476388407619544</v>
       </c>
       <c r="EQ151">
-        <v>0.2326449304998711</v>
+        <v>0.2747200350336279</v>
       </c>
       <c r="ER151">
-        <v>0.3077369798811567</v>
-      </c>
-      <c r="ES151">
-        <v>0.4759850485143884</v>
-      </c>
-      <c r="ET151">
-        <v>0.411781671159695</v>
-      </c>
-      <c r="EU151">
-        <v>0.3241408423207837</v>
-      </c>
-    </row>
-    <row r="152" spans="1:160">
+        <v>0.289174170234355</v>
+      </c>
+    </row>
+    <row r="152" spans="1:148">
       <c r="A152" s="1">
-        <v>44652</v>
+        <v>46113</v>
       </c>
       <c r="EM152">
-        <v>0.2801824178062259</v>
+        <v>0.269570734839869</v>
       </c>
       <c r="EN152">
-        <v>0.1789911392419525</v>
+        <v>0.2638428767196211</v>
       </c>
       <c r="EO152">
-        <v>-1.612714602675451</v>
+        <v>0.2658453008015401</v>
       </c>
       <c r="EP152">
-        <v>-0.02270422417448745</v>
+        <v>0.2601455775653444</v>
       </c>
       <c r="EQ152">
-        <v>0.2378799164465338</v>
+        <v>0.245753951069477</v>
       </c>
       <c r="ER152">
-        <v>0.3437870769602576</v>
-      </c>
-      <c r="ES152">
-        <v>0.4044511695641399</v>
-      </c>
-      <c r="ET152">
-        <v>0.6959984776213567</v>
-      </c>
-      <c r="EU152">
-        <v>0.6435792755916881</v>
-      </c>
-      <c r="EV152">
-        <v>0.6660072552246967</v>
-      </c>
-    </row>
-    <row r="153" spans="1:160">
+        <v>0.2607876931669718</v>
+      </c>
+    </row>
+    <row r="153" spans="1:148">
       <c r="A153" s="1">
-        <v>44743</v>
+        <v>46204</v>
       </c>
       <c r="EN153">
-        <v>0.180796591657356</v>
+        <v>0.268603751091444</v>
       </c>
       <c r="EO153">
-        <v>-1.369531916244841</v>
+        <v>0.2625518390048225</v>
       </c>
       <c r="EP153">
-        <v>0.2730406300649579</v>
+        <v>0.2591600947672555</v>
       </c>
       <c r="EQ153">
-        <v>0.2292596098352697</v>
+        <v>0.2562823192336992</v>
       </c>
       <c r="ER153">
-        <v>0.2876762559939251</v>
-      </c>
-      <c r="ES153">
-        <v>0.298809095368558</v>
-      </c>
-      <c r="ET153">
-        <v>0.2611022192826244</v>
-      </c>
-      <c r="EU153">
-        <v>0.31974861626763</v>
-      </c>
-      <c r="EV153">
-        <v>0.3223521558300787</v>
-      </c>
-      <c r="EW153">
-        <v>0.3437767272872988</v>
-      </c>
-    </row>
-    <row r="154" spans="1:160">
+        <v>0.2669465253046724</v>
+      </c>
+    </row>
+    <row r="154" spans="1:148">
       <c r="A154" s="1">
-        <v>44835</v>
+        <v>46296</v>
       </c>
       <c r="EO154">
-        <v>-1.184375286040335</v>
+        <v>0.2627229416938779</v>
       </c>
       <c r="EP154">
-        <v>0.09894735366698722</v>
+        <v>0.2558880618704608</v>
       </c>
       <c r="EQ154">
-        <v>0.2306348511361884</v>
+        <v>0.2606991994267068</v>
       </c>
       <c r="ER154">
-        <v>0.2970735349662799</v>
-      </c>
-      <c r="ES154">
-        <v>0.3599362862932105</v>
-      </c>
-      <c r="ET154">
-        <v>0.3513522662197494</v>
-      </c>
-      <c r="EU154">
-        <v>0.3562814115568507</v>
-      </c>
-      <c r="EV154">
-        <v>0.3342137259028355</v>
-      </c>
-      <c r="EW154">
-        <v>0.4543915747020479</v>
-      </c>
-      <c r="EX154">
-        <v>0.4120709423816584</v>
-      </c>
-    </row>
-    <row r="155" spans="1:160">
+        <v>0.2728578548208276</v>
+      </c>
+    </row>
+    <row r="155" spans="1:148">
       <c r="A155" s="1">
-        <v>44927</v>
+        <v>46388</v>
       </c>
       <c r="EP155">
-        <v>0.2014126679346297</v>
+        <v>0.2574131067017447</v>
       </c>
       <c r="EQ155">
-        <v>0.2314425897783218</v>
+        <v>0.2559824190507884</v>
       </c>
       <c r="ER155">
-        <v>0.3061245483891583</v>
-      </c>
-      <c r="ES155">
-        <v>0.3634760761829015</v>
-      </c>
-      <c r="ET155">
-        <v>0.4472171537802698</v>
-      </c>
-      <c r="EU155">
-        <v>0.4361238707313746</v>
-      </c>
-      <c r="EV155">
-        <v>0.4301418904270196</v>
-      </c>
-      <c r="EW155">
-        <v>0.3409475460132365</v>
-      </c>
-      <c r="EX155">
-        <v>0.3117430721575033</v>
-      </c>
-      <c r="EY155">
-        <v>0.6519408127754134</v>
-      </c>
-    </row>
-    <row r="156" spans="1:160">
+        <v>0.2688132775184016</v>
+      </c>
+    </row>
+    <row r="156" spans="1:148">
       <c r="A156" s="1">
-        <v>45017</v>
+        <v>46478</v>
       </c>
       <c r="EQ156">
-        <v>0.2310675656625323</v>
+        <v>0.2564832234979763</v>
       </c>
       <c r="ER156">
-        <v>0.3013808575635111</v>
-      </c>
-      <c r="ES156">
-        <v>0.3458860345678901</v>
-      </c>
-      <c r="ET156">
-        <v>0.3807131794959351</v>
-      </c>
-      <c r="EU156">
-        <v>0.3934798787210216</v>
-      </c>
-      <c r="EV156">
-        <v>0.3881366285386105</v>
-      </c>
-      <c r="EW156">
-        <v>0.3584096246900327</v>
-      </c>
-      <c r="EX156">
-        <v>0.3553890248851115</v>
-      </c>
-      <c r="EY156">
-        <v>0.4307600866690486</v>
-      </c>
-      <c r="EZ156">
-        <v>0.8814549586592991</v>
-      </c>
-    </row>
-    <row r="157" spans="1:160">
+        <v>0.2686348804767293</v>
+      </c>
+    </row>
+    <row r="157" spans="1:148">
       <c r="A157" s="1">
-        <v>45108</v>
+        <v>46569</v>
       </c>
       <c r="ER157">
-        <v>0.3009015042266514</v>
-      </c>
-      <c r="ES157">
-        <v>0.35197537525307</v>
-      </c>
-      <c r="ET157">
-        <v>0.378539758305367</v>
-      </c>
-      <c r="EU157">
-        <v>0.3872693173527261</v>
-      </c>
-      <c r="EV157">
-        <v>0.3769007839823598</v>
-      </c>
-      <c r="EW157">
-        <v>0.3855269040122699</v>
-      </c>
-      <c r="EX157">
-        <v>0.3666656204007895</v>
-      </c>
-      <c r="EY157">
-        <v>0.1755723340877904</v>
-      </c>
-      <c r="EZ157">
-        <v>0.2226830363001488</v>
-      </c>
-      <c r="FA157">
-        <v>0.5350086232236873</v>
-      </c>
-    </row>
-    <row r="158" spans="1:160">
-      <c r="A158" s="1">
-        <v>45200</v>
-      </c>
-      <c r="ES158">
-        <v>0.3541979431822899</v>
-      </c>
-      <c r="ET158">
-        <v>0.3996967839288888</v>
-      </c>
-      <c r="EU158">
-        <v>0.4021987280777406</v>
-      </c>
-      <c r="EV158">
-        <v>0.3937214059541168</v>
-      </c>
-      <c r="EW158">
-        <v>0.3677812325286816</v>
-      </c>
-      <c r="EX158">
-        <v>0.3474501014634773</v>
-      </c>
-      <c r="EY158">
-        <v>0.3721440140502105</v>
-      </c>
-      <c r="EZ158">
-        <v>0.1318607832594023</v>
-      </c>
-      <c r="FA158">
-        <v>0.2651495229949266</v>
-      </c>
-      <c r="FB158">
-        <v>0.5007400141027678</v>
-      </c>
-    </row>
-    <row r="159" spans="1:160">
-      <c r="A159" s="1">
-        <v>45292</v>
-      </c>
-      <c r="ET159">
-        <v>0.3917538843816368</v>
-      </c>
-      <c r="EU159">
-        <v>0.3980298218533179</v>
-      </c>
-      <c r="EV159">
-        <v>0.3902575135465071</v>
-      </c>
-      <c r="EW159">
-        <v>0.3674789505182796</v>
-      </c>
-      <c r="EX159">
-        <v>0.3529487950840318</v>
-      </c>
-      <c r="EY159">
-        <v>0.3623281986403278</v>
-      </c>
-      <c r="EZ159">
-        <v>0.3982732797061906</v>
-      </c>
-      <c r="FA159">
-        <v>0.219194857889999</v>
-      </c>
-      <c r="FB159">
-        <v>0.3038735987643086</v>
-      </c>
-      <c r="FC159">
-        <v>0.6148977852456914</v>
-      </c>
-    </row>
-    <row r="160" spans="1:160">
-      <c r="A160" s="1">
-        <v>45383</v>
-      </c>
-      <c r="EU160">
-        <v>0.3953442544735015</v>
-      </c>
-      <c r="EV160">
-        <v>0.3867202809405329</v>
-      </c>
-      <c r="EW160">
-        <v>0.3731022457919151</v>
-      </c>
-      <c r="EX160">
-        <v>0.3564612002996471</v>
-      </c>
-      <c r="EY160">
-        <v>0.3016504016882561</v>
-      </c>
-      <c r="EZ160">
-        <v>0.2995996442486632</v>
-      </c>
-      <c r="FA160">
-        <v>0.3277938830192304</v>
-      </c>
-      <c r="FB160">
-        <v>0.1821935163855133</v>
-      </c>
-      <c r="FC160">
-        <v>0.2992822907967085</v>
-      </c>
-      <c r="FD160">
-        <v>0.5461074682008229</v>
-      </c>
-    </row>
-    <row r="161" spans="1:164">
-      <c r="A161" s="1">
-        <v>45474</v>
-      </c>
-      <c r="EV161">
-        <v>0.3891559537672726</v>
-      </c>
-      <c r="EW161">
-        <v>0.3706351565820968</v>
-      </c>
-      <c r="EX161">
-        <v>0.3530513111533466</v>
-      </c>
-      <c r="EY161">
-        <v>0.3341572202646768</v>
-      </c>
-      <c r="EZ161">
-        <v>0.2575889808286466</v>
-      </c>
-      <c r="FA161">
-        <v>0.2936142920210401</v>
-      </c>
-      <c r="FB161">
-        <v>0.3035680348802827</v>
-      </c>
-      <c r="FC161">
-        <v>0.1411038934307159</v>
-      </c>
-      <c r="FD161">
-        <v>0.1587597609686054</v>
-      </c>
-      <c r="FE161">
-        <v>0.3984361203848173</v>
-      </c>
-    </row>
-    <row r="162" spans="1:164">
-      <c r="A162" s="1">
-        <v>45566</v>
-      </c>
-      <c r="EW162">
-        <v>0.3700202220727796</v>
-      </c>
-      <c r="EX162">
-        <v>0.3535463385427368</v>
-      </c>
-      <c r="EY162">
-        <v>0.3386823377276911</v>
-      </c>
-      <c r="EZ162">
-        <v>0.3112829433524077</v>
-      </c>
-      <c r="FA162">
-        <v>0.2737413731481941</v>
-      </c>
-      <c r="FB162">
-        <v>0.289106542847739</v>
-      </c>
-      <c r="FC162">
-        <v>0.3180654933129406</v>
-      </c>
-      <c r="FD162">
-        <v>0.2234432542019461</v>
-      </c>
-      <c r="FE162">
-        <v>0.3084674976711596</v>
-      </c>
-      <c r="FF162">
-        <v>0.4733275747052469</v>
-      </c>
-    </row>
-    <row r="163" spans="1:164">
-      <c r="A163" s="1">
-        <v>45658</v>
-      </c>
-      <c r="EX163">
-        <v>0.3543969433309027</v>
-      </c>
-      <c r="EY163">
-        <v>0.325685232701532</v>
-      </c>
-      <c r="EZ163">
-        <v>0.2993961825038066</v>
-      </c>
-      <c r="FA163">
-        <v>0.2938538434164454</v>
-      </c>
-      <c r="FB163">
-        <v>0.2550055084590223</v>
-      </c>
-      <c r="FC163">
-        <v>0.2907483809139259</v>
-      </c>
-      <c r="FD163">
-        <v>0.322965769162406</v>
-      </c>
-      <c r="FE163">
-        <v>0.2064811908043919</v>
-      </c>
-      <c r="FF163">
-        <v>0.2200184630523081</v>
-      </c>
-      <c r="FG163">
-        <v>0.4738675049177161</v>
-      </c>
-    </row>
-    <row r="164" spans="1:164">
-      <c r="A164" s="1">
-        <v>45748</v>
-      </c>
-      <c r="EY164">
-        <v>0.3304428394308724</v>
-      </c>
-      <c r="EZ164">
-        <v>0.2870455487175398</v>
-      </c>
-      <c r="FA164">
-        <v>0.2912208776562884</v>
-      </c>
-      <c r="FB164">
-        <v>0.2753750686291025</v>
-      </c>
-      <c r="FC164">
-        <v>0.2440474222454754</v>
-      </c>
-      <c r="FD164">
-        <v>0.2564355480731927</v>
-      </c>
-      <c r="FE164">
-        <v>0.2715408197250452</v>
-      </c>
-      <c r="FF164">
-        <v>0.2085679007350822</v>
-      </c>
-      <c r="FG164">
-        <v>0.3078859509171186</v>
-      </c>
-      <c r="FH164">
-        <v>0.3519456421565676</v>
-      </c>
-    </row>
-    <row r="165" spans="1:164">
-      <c r="A165" s="1">
-        <v>45839</v>
-      </c>
-      <c r="EZ165">
-        <v>0.2970525035592049</v>
-      </c>
-      <c r="FA165">
-        <v>0.2858677898194339</v>
-      </c>
-      <c r="FB165">
-        <v>0.2775335613519331</v>
-      </c>
-      <c r="FC165">
-        <v>0.2743085116504074</v>
-      </c>
-      <c r="FD165">
-        <v>0.2534447081011285</v>
-      </c>
-      <c r="FE165">
-        <v>0.2766837437271186</v>
-      </c>
-      <c r="FF165">
-        <v>0.2867219094086165</v>
-      </c>
-      <c r="FG165">
-        <v>0.1751453671933744</v>
-      </c>
-      <c r="FH165">
-        <v>0.1965658720679752</v>
-      </c>
-    </row>
-    <row r="166" spans="1:164">
-      <c r="A166" s="1">
-        <v>45931</v>
-      </c>
-      <c r="FA166">
-        <v>0.2891463708128647</v>
-      </c>
-      <c r="FB166">
-        <v>0.2697233585146028</v>
-      </c>
-      <c r="FC166">
-        <v>0.2761968025120373</v>
-      </c>
-      <c r="FD166">
-        <v>0.2769177604247239</v>
-      </c>
-      <c r="FE166">
-        <v>0.2556895730526741</v>
-      </c>
-      <c r="FF166">
-        <v>0.2604924732590314</v>
-      </c>
-      <c r="FG166">
-        <v>0.2733247092227787</v>
-      </c>
-      <c r="FH166">
-        <v>0.2731592860501876</v>
-      </c>
-    </row>
-    <row r="167" spans="1:164">
-      <c r="A167" s="1">
-        <v>46023</v>
-      </c>
-      <c r="FB167">
-        <v>0.2725549194311268</v>
-      </c>
-      <c r="FC167">
-        <v>0.2652410358040119</v>
-      </c>
-      <c r="FD167">
-        <v>0.2672928886939341</v>
-      </c>
-      <c r="FE167">
-        <v>0.2621566958884603</v>
-      </c>
-      <c r="FF167">
-        <v>0.2476388407619544</v>
-      </c>
-      <c r="FG167">
-        <v>0.2747200350336279</v>
-      </c>
-      <c r="FH167">
-        <v>0.289174170234355</v>
-      </c>
-    </row>
-    <row r="168" spans="1:164">
-      <c r="A168" s="1">
-        <v>46113</v>
-      </c>
-      <c r="FC168">
-        <v>0.269570734839869</v>
-      </c>
-      <c r="FD168">
-        <v>0.2638428767196211</v>
-      </c>
-      <c r="FE168">
-        <v>0.2658453008015401</v>
-      </c>
-      <c r="FF168">
-        <v>0.2601455775653444</v>
-      </c>
-      <c r="FG168">
-        <v>0.245753951069477</v>
-      </c>
-      <c r="FH168">
-        <v>0.2607876931669718</v>
-      </c>
-    </row>
-    <row r="169" spans="1:164">
-      <c r="A169" s="1">
-        <v>46204</v>
-      </c>
-      <c r="FD169">
-        <v>0.268603751091444</v>
-      </c>
-      <c r="FE169">
-        <v>0.2625518390048225</v>
-      </c>
-      <c r="FF169">
-        <v>0.2591600947672555</v>
-      </c>
-      <c r="FG169">
-        <v>0.2562823192336992</v>
-      </c>
-      <c r="FH169">
-        <v>0.2669465253046724</v>
-      </c>
-    </row>
-    <row r="170" spans="1:164">
-      <c r="A170" s="1">
-        <v>46296</v>
-      </c>
-      <c r="FE170">
-        <v>0.2627229416938779</v>
-      </c>
-      <c r="FF170">
-        <v>0.2558880618704608</v>
-      </c>
-      <c r="FG170">
-        <v>0.2606991994267068</v>
-      </c>
-      <c r="FH170">
-        <v>0.2728578548208276</v>
-      </c>
-    </row>
-    <row r="171" spans="1:164">
-      <c r="A171" s="1">
-        <v>46388</v>
-      </c>
-      <c r="FF171">
-        <v>0.2574131067017447</v>
-      </c>
-      <c r="FG171">
-        <v>0.2559824190507884</v>
-      </c>
-      <c r="FH171">
-        <v>0.2688132775184016</v>
-      </c>
-    </row>
-    <row r="172" spans="1:164">
-      <c r="A172" s="1">
-        <v>46478</v>
-      </c>
-      <c r="FG172">
-        <v>0.2564832234979763</v>
-      </c>
-      <c r="FH172">
-        <v>0.2686348804767293</v>
-      </c>
-    </row>
-    <row r="173" spans="1:164">
-      <c r="A173" s="1">
-        <v>46569</v>
-      </c>
-      <c r="FH173">
         <v>0.2698795517146473</v>
       </c>
     </row>

--- a/0_1_Output_Data/3_QoQ_Forecast_Tables/naive_qoq_forecasts_AR2_50_9.xlsx
+++ b/0_1_Output_Data/3_QoQ_Forecast_Tables/naive_qoq_forecasts_AR2_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ES158"/>
+  <dimension ref="A1:ET159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:149">
+    <row r="1" spans="1:150">
       <c r="B1" s="1">
         <v>32417</v>
       </c>
@@ -820,8 +820,11 @@
       <c r="ES1" s="1">
         <v>45839</v>
       </c>
-    </row>
-    <row r="2" spans="1:149">
+      <c r="ET1" s="1">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:150">
       <c r="A2" s="1">
         <v>32417</v>
       </c>
@@ -829,7 +832,7 @@
         <v>0.2524937681578153</v>
       </c>
     </row>
-    <row r="3" spans="1:149">
+    <row r="3" spans="1:150">
       <c r="A3" s="1">
         <v>32509</v>
       </c>
@@ -840,7 +843,7 @@
         <v>0.3045639236932584</v>
       </c>
     </row>
-    <row r="4" spans="1:149">
+    <row r="4" spans="1:150">
       <c r="A4" s="1">
         <v>32599</v>
       </c>
@@ -854,7 +857,7 @@
         <v>0.3557845572607688</v>
       </c>
     </row>
-    <row r="5" spans="1:149">
+    <row r="5" spans="1:150">
       <c r="A5" s="1">
         <v>32690</v>
       </c>
@@ -871,7 +874,7 @@
         <v>0.5538469878354574</v>
       </c>
     </row>
-    <row r="6" spans="1:149">
+    <row r="6" spans="1:150">
       <c r="A6" s="1">
         <v>32782</v>
       </c>
@@ -891,7 +894,7 @@
         <v>0.4709857633177138</v>
       </c>
     </row>
-    <row r="7" spans="1:149">
+    <row r="7" spans="1:150">
       <c r="A7" s="1">
         <v>32874</v>
       </c>
@@ -914,7 +917,7 @@
         <v>0.3546306377802441</v>
       </c>
     </row>
-    <row r="8" spans="1:149">
+    <row r="8" spans="1:150">
       <c r="A8" s="1">
         <v>32964</v>
       </c>
@@ -940,7 +943,7 @@
         <v>0.1501744600279598</v>
       </c>
     </row>
-    <row r="9" spans="1:149">
+    <row r="9" spans="1:150">
       <c r="A9" s="1">
         <v>33055</v>
       </c>
@@ -969,7 +972,7 @@
         <v>0.5560359135707311</v>
       </c>
     </row>
-    <row r="10" spans="1:149">
+    <row r="10" spans="1:150">
       <c r="A10" s="1">
         <v>33147</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>0.2341151964226572</v>
       </c>
     </row>
-    <row r="11" spans="1:149">
+    <row r="11" spans="1:150">
       <c r="A11" s="1">
         <v>33239</v>
       </c>
@@ -1036,7 +1039,7 @@
         <v>0.3975221835473589</v>
       </c>
     </row>
-    <row r="12" spans="1:149">
+    <row r="12" spans="1:150">
       <c r="A12" s="1">
         <v>33329</v>
       </c>
@@ -1071,7 +1074,7 @@
         <v>0.4916044895472176</v>
       </c>
     </row>
-    <row r="13" spans="1:149">
+    <row r="13" spans="1:150">
       <c r="A13" s="1">
         <v>33420</v>
       </c>
@@ -1106,7 +1109,7 @@
         <v>0.7999760148859472</v>
       </c>
     </row>
-    <row r="14" spans="1:149">
+    <row r="14" spans="1:150">
       <c r="A14" s="1">
         <v>33512</v>
       </c>
@@ -1141,7 +1144,7 @@
         <v>0.7698152212755149</v>
       </c>
     </row>
-    <row r="15" spans="1:149">
+    <row r="15" spans="1:150">
       <c r="A15" s="1">
         <v>33604</v>
       </c>
@@ -1176,7 +1179,7 @@
         <v>0.5386938493769156</v>
       </c>
     </row>
-    <row r="16" spans="1:149">
+    <row r="16" spans="1:150">
       <c r="A16" s="1">
         <v>33695</v>
       </c>
@@ -5691,7 +5694,7 @@
         <v>0.5461074682008229</v>
       </c>
     </row>
-    <row r="145" spans="1:149">
+    <row r="145" spans="1:150">
       <c r="A145" s="1">
         <v>45474</v>
       </c>
@@ -5726,7 +5729,7 @@
         <v>0.3984361203848173</v>
       </c>
     </row>
-    <row r="146" spans="1:149">
+    <row r="146" spans="1:150">
       <c r="A146" s="1">
         <v>45566</v>
       </c>
@@ -5761,7 +5764,7 @@
         <v>0.4733275747052469</v>
       </c>
     </row>
-    <row r="147" spans="1:149">
+    <row r="147" spans="1:150">
       <c r="A147" s="1">
         <v>45658</v>
       </c>
@@ -5796,7 +5799,7 @@
         <v>0.4738675049177161</v>
       </c>
     </row>
-    <row r="148" spans="1:149">
+    <row r="148" spans="1:150">
       <c r="A148" s="1">
         <v>45748</v>
       </c>
@@ -5831,7 +5834,7 @@
         <v>0.3519456421565676</v>
       </c>
     </row>
-    <row r="149" spans="1:149">
+    <row r="149" spans="1:150">
       <c r="A149" s="1">
         <v>45839</v>
       </c>
@@ -5866,7 +5869,7 @@
         <v>0.4328090033804217</v>
       </c>
     </row>
-    <row r="150" spans="1:149">
+    <row r="150" spans="1:150">
       <c r="A150" s="1">
         <v>45931</v>
       </c>
@@ -5897,8 +5900,11 @@
       <c r="ES150">
         <v>0.3153727669299251</v>
       </c>
-    </row>
-    <row r="151" spans="1:149">
+      <c r="ET150">
+        <v>0.4391307670931823</v>
+      </c>
+    </row>
+    <row r="151" spans="1:150">
       <c r="A151" s="1">
         <v>46023</v>
       </c>
@@ -5926,8 +5932,11 @@
       <c r="ES151">
         <v>0.1902430848407654</v>
       </c>
-    </row>
-    <row r="152" spans="1:149">
+      <c r="ET151">
+        <v>0.2319737393760309</v>
+      </c>
+    </row>
+    <row r="152" spans="1:150">
       <c r="A152" s="1">
         <v>46113</v>
       </c>
@@ -5952,8 +5961,11 @@
       <c r="ES152">
         <v>0.2628953803299748</v>
       </c>
-    </row>
-    <row r="153" spans="1:149">
+      <c r="ET152">
+        <v>0.2036606072001897</v>
+      </c>
+    </row>
+    <row r="153" spans="1:150">
       <c r="A153" s="1">
         <v>46204</v>
       </c>
@@ -5975,8 +5987,11 @@
       <c r="ES153">
         <v>0.2663021164381166</v>
       </c>
-    </row>
-    <row r="154" spans="1:149">
+      <c r="ET153">
+        <v>0.2623648298065326</v>
+      </c>
+    </row>
+    <row r="154" spans="1:150">
       <c r="A154" s="1">
         <v>46296</v>
       </c>
@@ -5995,8 +6010,11 @@
       <c r="ES154">
         <v>0.2479444134442543</v>
       </c>
-    </row>
-    <row r="155" spans="1:149">
+      <c r="ET154">
+        <v>0.2478745240128125</v>
+      </c>
+    </row>
+    <row r="155" spans="1:150">
       <c r="A155" s="1">
         <v>46388</v>
       </c>
@@ -6012,8 +6030,11 @@
       <c r="ES155">
         <v>0.2537366275882542</v>
       </c>
-    </row>
-    <row r="156" spans="1:149">
+      <c r="ET155">
+        <v>0.239339183620772</v>
+      </c>
+    </row>
+    <row r="156" spans="1:150">
       <c r="A156" s="1">
         <v>46478</v>
       </c>
@@ -6026,8 +6047,11 @@
       <c r="ES156">
         <v>0.2559849061455983</v>
       </c>
-    </row>
-    <row r="157" spans="1:149">
+      <c r="ET156">
+        <v>0.2458038550872696</v>
+      </c>
+    </row>
+    <row r="157" spans="1:150">
       <c r="A157" s="1">
         <v>46569</v>
       </c>
@@ -6037,13 +6061,27 @@
       <c r="ES157">
         <v>0.2538111475160092</v>
       </c>
-    </row>
-    <row r="158" spans="1:149">
+      <c r="ET157">
+        <v>0.2454769327052417</v>
+      </c>
+    </row>
+    <row r="158" spans="1:150">
       <c r="A158" s="1">
         <v>46661</v>
       </c>
       <c r="ES158">
         <v>0.2540619289758381</v>
+      </c>
+      <c r="ET158">
+        <v>0.2440804948727732</v>
+      </c>
+    </row>
+    <row r="159" spans="1:150">
+      <c r="A159" s="1">
+        <v>46753</v>
+      </c>
+      <c r="ET159">
+        <v>0.244659491253809</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/3_QoQ_Forecast_Tables/naive_qoq_forecasts_AR2_50_9.xlsx
+++ b/0_1_Output_Data/3_QoQ_Forecast_Tables/naive_qoq_forecasts_AR2_50_9.xlsx
@@ -826,7 +826,7 @@
     </row>
     <row r="2" spans="1:150">
       <c r="A2" s="1">
-        <v>32417</v>
+        <v>32509</v>
       </c>
       <c r="B2">
         <v>0.2524937681578153</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="3" spans="1:150">
       <c r="A3" s="1">
-        <v>32509</v>
+        <v>32599</v>
       </c>
       <c r="B3">
         <v>0.602659667126749</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="4" spans="1:150">
       <c r="A4" s="1">
-        <v>32599</v>
+        <v>32690</v>
       </c>
       <c r="B4">
         <v>0.5707821414520771</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="5" spans="1:150">
       <c r="A5" s="1">
-        <v>32690</v>
+        <v>32782</v>
       </c>
       <c r="B5">
         <v>0.5467040598369137</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="6" spans="1:150">
       <c r="A6" s="1">
-        <v>32782</v>
+        <v>32874</v>
       </c>
       <c r="B6">
         <v>0.5577910759412672</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="7" spans="1:150">
       <c r="A7" s="1">
-        <v>32874</v>
+        <v>32964</v>
       </c>
       <c r="B7">
         <v>0.5565141210190768</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="8" spans="1:150">
       <c r="A8" s="1">
-        <v>32964</v>
+        <v>33055</v>
       </c>
       <c r="B8">
         <v>0.5558399956115471</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="9" spans="1:150">
       <c r="A9" s="1">
-        <v>33055</v>
+        <v>33147</v>
       </c>
       <c r="B9">
         <v>0.5561883796987726</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="10" spans="1:150">
       <c r="A10" s="1">
-        <v>33147</v>
+        <v>33239</v>
       </c>
       <c r="B10">
         <v>0.5561401079951028</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="11" spans="1:150">
       <c r="A11" s="1">
-        <v>33239</v>
+        <v>33329</v>
       </c>
       <c r="B11">
         <v>0.5561216109076672</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="12" spans="1:150">
       <c r="A12" s="1">
-        <v>33329</v>
+        <v>33420</v>
       </c>
       <c r="C12">
         <v>0.5519412654670983</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="13" spans="1:150">
       <c r="A13" s="1">
-        <v>33420</v>
+        <v>33512</v>
       </c>
       <c r="D13">
         <v>0.5525453683651145</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="14" spans="1:150">
       <c r="A14" s="1">
-        <v>33512</v>
+        <v>33604</v>
       </c>
       <c r="E14">
         <v>0.5503154401349643</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="15" spans="1:150">
       <c r="A15" s="1">
-        <v>33604</v>
+        <v>33695</v>
       </c>
       <c r="F15">
         <v>0.5639646857089815</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="16" spans="1:150">
       <c r="A16" s="1">
-        <v>33695</v>
+        <v>33786</v>
       </c>
       <c r="G16">
         <v>0.5598568099193707</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="1">
-        <v>33786</v>
+        <v>33878</v>
       </c>
       <c r="H17">
         <v>0.5845848878585743</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="1">
-        <v>33878</v>
+        <v>33970</v>
       </c>
       <c r="I18">
         <v>0.5924984578551534</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="1">
-        <v>33970</v>
+        <v>34060</v>
       </c>
       <c r="J19">
         <v>0.6076023287885723</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="1">
-        <v>34060</v>
+        <v>34151</v>
       </c>
       <c r="K20">
         <v>0.6216615503026166</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="1">
-        <v>34151</v>
+        <v>34243</v>
       </c>
       <c r="L21">
         <v>0.6772869301907113</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="1">
-        <v>34243</v>
+        <v>34335</v>
       </c>
       <c r="M22">
         <v>0.642210177336901</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="1">
-        <v>34335</v>
+        <v>34425</v>
       </c>
       <c r="N23">
         <v>0.6233157127435841</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="1">
-        <v>34425</v>
+        <v>34516</v>
       </c>
       <c r="O24">
         <v>0.628597221556245</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="1">
-        <v>34516</v>
+        <v>34608</v>
       </c>
       <c r="P25">
         <v>0.640586670635641</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="1">
-        <v>34608</v>
+        <v>34700</v>
       </c>
       <c r="Q26">
         <v>0.6533453930303129</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="1">
-        <v>34700</v>
+        <v>34790</v>
       </c>
       <c r="R27">
         <v>0.6590735501395112</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="1">
-        <v>34790</v>
+        <v>34881</v>
       </c>
       <c r="S28">
         <v>0.6592770180766665</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="29" spans="1:32">
       <c r="A29" s="1">
-        <v>34881</v>
+        <v>34973</v>
       </c>
       <c r="T29">
         <v>0.5976813536361421</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="1">
-        <v>34973</v>
+        <v>35065</v>
       </c>
       <c r="U30">
         <v>0.6115594542740439</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="1">
-        <v>35065</v>
+        <v>35156</v>
       </c>
       <c r="V31">
         <v>0.6253163861347778</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="1">
-        <v>35156</v>
+        <v>35247</v>
       </c>
       <c r="W32">
         <v>0.6233258103655728</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="33" spans="1:48">
       <c r="A33" s="1">
-        <v>35247</v>
+        <v>35339</v>
       </c>
       <c r="X33">
         <v>0.6379930161079231</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="34" spans="1:48">
       <c r="A34" s="1">
-        <v>35339</v>
+        <v>35431</v>
       </c>
       <c r="Y34">
         <v>0.6749912631757632</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="35" spans="1:48">
       <c r="A35" s="1">
-        <v>35431</v>
+        <v>35521</v>
       </c>
       <c r="Z35">
         <v>0.7067645457895235</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="36" spans="1:48">
       <c r="A36" s="1">
-        <v>35521</v>
+        <v>35612</v>
       </c>
       <c r="AA36">
         <v>0.7172872263060875</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="37" spans="1:48">
       <c r="A37" s="1">
-        <v>35612</v>
+        <v>35704</v>
       </c>
       <c r="AB37">
         <v>0.7063908152506236</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="38" spans="1:48">
       <c r="A38" s="1">
-        <v>35704</v>
+        <v>35796</v>
       </c>
       <c r="AC38">
         <v>0.7045229362542107</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="39" spans="1:48">
       <c r="A39" s="1">
-        <v>35796</v>
+        <v>35886</v>
       </c>
       <c r="AD39">
         <v>0.7084547460519979</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="40" spans="1:48">
       <c r="A40" s="1">
-        <v>35886</v>
+        <v>35977</v>
       </c>
       <c r="AE40">
         <v>0.6800119285699918</v>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="41" spans="1:48">
       <c r="A41" s="1">
-        <v>35977</v>
+        <v>36069</v>
       </c>
       <c r="AF41">
         <v>0.6442082894415815</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="42" spans="1:48">
       <c r="A42" s="1">
-        <v>36069</v>
+        <v>36161</v>
       </c>
       <c r="AG42">
         <v>0.7003438883485834</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="43" spans="1:48">
       <c r="A43" s="1">
-        <v>36161</v>
+        <v>36251</v>
       </c>
       <c r="AH43">
         <v>0.6684434186942714</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="44" spans="1:48">
       <c r="A44" s="1">
-        <v>36251</v>
+        <v>36342</v>
       </c>
       <c r="AI44">
         <v>0.6386329237291362</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="45" spans="1:48">
       <c r="A45" s="1">
-        <v>36342</v>
+        <v>36434</v>
       </c>
       <c r="AJ45">
         <v>0.6578929379603931</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="46" spans="1:48">
       <c r="A46" s="1">
-        <v>36434</v>
+        <v>36526</v>
       </c>
       <c r="AK46">
         <v>0.6505569730686774</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="47" spans="1:48">
       <c r="A47" s="1">
-        <v>36526</v>
+        <v>36617</v>
       </c>
       <c r="AL47">
         <v>0.6363791269894246</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="48" spans="1:48">
       <c r="A48" s="1">
-        <v>36617</v>
+        <v>36708</v>
       </c>
       <c r="AM48">
         <v>0.6287753398511985</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="49" spans="1:64">
       <c r="A49" s="1">
-        <v>36708</v>
+        <v>36800</v>
       </c>
       <c r="AN49">
         <v>0.665040392516271</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="50" spans="1:64">
       <c r="A50" s="1">
-        <v>36800</v>
+        <v>36892</v>
       </c>
       <c r="AO50">
         <v>0.6400853091970573</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="51" spans="1:64">
       <c r="A51" s="1">
-        <v>36892</v>
+        <v>36982</v>
       </c>
       <c r="AP51">
         <v>0.6340449228061379</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="52" spans="1:64">
       <c r="A52" s="1">
-        <v>36982</v>
+        <v>37073</v>
       </c>
       <c r="AQ52">
         <v>0.6045849192688668</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="53" spans="1:64">
       <c r="A53" s="1">
-        <v>37073</v>
+        <v>37165</v>
       </c>
       <c r="AR53">
         <v>0.6419415181486394</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="54" spans="1:64">
       <c r="A54" s="1">
-        <v>37165</v>
+        <v>37257</v>
       </c>
       <c r="AS54">
         <v>0.5808857326703815</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="55" spans="1:64">
       <c r="A55" s="1">
-        <v>37257</v>
+        <v>37347</v>
       </c>
       <c r="AT55">
         <v>0.5840617232352838</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="56" spans="1:64">
       <c r="A56" s="1">
-        <v>37347</v>
+        <v>37438</v>
       </c>
       <c r="AU56">
         <v>0.5715048183488175</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="57" spans="1:64">
       <c r="A57" s="1">
-        <v>37438</v>
+        <v>37530</v>
       </c>
       <c r="AV57">
         <v>0.6110093906027442</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="58" spans="1:64">
       <c r="A58" s="1">
-        <v>37530</v>
+        <v>37622</v>
       </c>
       <c r="AW58">
         <v>0.5908097953542742</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="59" spans="1:64">
       <c r="A59" s="1">
-        <v>37622</v>
+        <v>37712</v>
       </c>
       <c r="AX59">
         <v>0.5808017500553143</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="60" spans="1:64">
       <c r="A60" s="1">
-        <v>37712</v>
+        <v>37803</v>
       </c>
       <c r="AY60">
         <v>0.556514329738091</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="61" spans="1:64">
       <c r="A61" s="1">
-        <v>37803</v>
+        <v>37895</v>
       </c>
       <c r="AZ61">
         <v>0.544710090156205</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="62" spans="1:64">
       <c r="A62" s="1">
-        <v>37895</v>
+        <v>37987</v>
       </c>
       <c r="BA62">
         <v>0.5395125313730755</v>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="63" spans="1:64">
       <c r="A63" s="1">
-        <v>37987</v>
+        <v>38078</v>
       </c>
       <c r="BB63">
         <v>0.514979748778353</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="64" spans="1:64">
       <c r="A64" s="1">
-        <v>38078</v>
+        <v>38169</v>
       </c>
       <c r="BC64">
         <v>0.4761296657005377</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="65" spans="1:80">
       <c r="A65" s="1">
-        <v>38169</v>
+        <v>38261</v>
       </c>
       <c r="BD65">
         <v>0.4361037706776424</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="66" spans="1:80">
       <c r="A66" s="1">
-        <v>38261</v>
+        <v>38353</v>
       </c>
       <c r="BE66">
         <v>0.4413658923044543</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="67" spans="1:80">
       <c r="A67" s="1">
-        <v>38353</v>
+        <v>38443</v>
       </c>
       <c r="BF67">
         <v>0.4006328705714784</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="68" spans="1:80">
       <c r="A68" s="1">
-        <v>38443</v>
+        <v>38534</v>
       </c>
       <c r="BG68">
         <v>0.3680447108442119</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="69" spans="1:80">
       <c r="A69" s="1">
-        <v>38534</v>
+        <v>38626</v>
       </c>
       <c r="BH69">
         <v>0.3215021584306325</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="70" spans="1:80">
       <c r="A70" s="1">
-        <v>38626</v>
+        <v>38718</v>
       </c>
       <c r="BI70">
         <v>0.3210531800476519</v>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="71" spans="1:80">
       <c r="A71" s="1">
-        <v>38718</v>
+        <v>38808</v>
       </c>
       <c r="BJ71">
         <v>0.3267869767660009</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="72" spans="1:80">
       <c r="A72" s="1">
-        <v>38808</v>
+        <v>38899</v>
       </c>
       <c r="BK72">
         <v>0.3031803081565542</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="73" spans="1:80">
       <c r="A73" s="1">
-        <v>38899</v>
+        <v>38991</v>
       </c>
       <c r="BL73">
         <v>0.2693232639605769</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="74" spans="1:80">
       <c r="A74" s="1">
-        <v>38991</v>
+        <v>39083</v>
       </c>
       <c r="BM74">
         <v>0.3017934231890732</v>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="75" spans="1:80">
       <c r="A75" s="1">
-        <v>39083</v>
+        <v>39173</v>
       </c>
       <c r="BN75">
         <v>0.3182784697664209</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="76" spans="1:80">
       <c r="A76" s="1">
-        <v>39173</v>
+        <v>39264</v>
       </c>
       <c r="BO76">
         <v>0.3000963747578714</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="77" spans="1:80">
       <c r="A77" s="1">
-        <v>39264</v>
+        <v>39356</v>
       </c>
       <c r="BP77">
         <v>0.3915271433445391</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="78" spans="1:80">
       <c r="A78" s="1">
-        <v>39356</v>
+        <v>39448</v>
       </c>
       <c r="BQ78">
         <v>0.3778002154269247</v>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="79" spans="1:80">
       <c r="A79" s="1">
-        <v>39448</v>
+        <v>39539</v>
       </c>
       <c r="BR79">
         <v>0.3742367952283919</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="80" spans="1:80">
       <c r="A80" s="1">
-        <v>39539</v>
+        <v>39630</v>
       </c>
       <c r="BS80">
         <v>0.3732854673655416</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="81" spans="1:96">
       <c r="A81" s="1">
-        <v>39630</v>
+        <v>39722</v>
       </c>
       <c r="BT81">
         <v>0.3565963497300319</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="82" spans="1:96">
       <c r="A82" s="1">
-        <v>39722</v>
+        <v>39814</v>
       </c>
       <c r="BU82">
         <v>0.3666951741259316</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="83" spans="1:96">
       <c r="A83" s="1">
-        <v>39814</v>
+        <v>39904</v>
       </c>
       <c r="BV83">
         <v>0.3691375597880225</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="84" spans="1:96">
       <c r="A84" s="1">
-        <v>39904</v>
+        <v>39995</v>
       </c>
       <c r="BW84">
         <v>0.3771994711238108</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="85" spans="1:96">
       <c r="A85" s="1">
-        <v>39995</v>
+        <v>40087</v>
       </c>
       <c r="BX85">
         <v>0.3924313474975846</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="86" spans="1:96">
       <c r="A86" s="1">
-        <v>40087</v>
+        <v>40179</v>
       </c>
       <c r="BY86">
         <v>0.3659694601155838</v>
@@ -3666,7 +3666,7 @@
     </row>
     <row r="87" spans="1:96">
       <c r="A87" s="1">
-        <v>40179</v>
+        <v>40269</v>
       </c>
       <c r="BZ87">
         <v>0.382058354862865</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="88" spans="1:96">
       <c r="A88" s="1">
-        <v>40269</v>
+        <v>40360</v>
       </c>
       <c r="CA88">
         <v>0.3952665639016532</v>
@@ -3736,7 +3736,7 @@
     </row>
     <row r="89" spans="1:96">
       <c r="A89" s="1">
-        <v>40360</v>
+        <v>40452</v>
       </c>
       <c r="CB89">
         <v>0.450091620517234</v>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="90" spans="1:96">
       <c r="A90" s="1">
-        <v>40452</v>
+        <v>40544</v>
       </c>
       <c r="CC90">
         <v>0.3889094412579501</v>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="91" spans="1:96">
       <c r="A91" s="1">
-        <v>40544</v>
+        <v>40634</v>
       </c>
       <c r="CD91">
         <v>0.3604430041540626</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="92" spans="1:96">
       <c r="A92" s="1">
-        <v>40634</v>
+        <v>40725</v>
       </c>
       <c r="CE92">
         <v>0.2388710728550849</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="93" spans="1:96">
       <c r="A93" s="1">
-        <v>40725</v>
+        <v>40817</v>
       </c>
       <c r="CF93">
         <v>-3.537881715852962</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="94" spans="1:96">
       <c r="A94" s="1">
-        <v>40817</v>
+        <v>40909</v>
       </c>
       <c r="CG94">
         <v>0.2011900774154455</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="95" spans="1:96">
       <c r="A95" s="1">
-        <v>40909</v>
+        <v>41000</v>
       </c>
       <c r="CH95">
         <v>0.2546849506656574</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="96" spans="1:96">
       <c r="A96" s="1">
-        <v>41000</v>
+        <v>41091</v>
       </c>
       <c r="CI96">
         <v>0.224709232201645</v>
@@ -4016,7 +4016,7 @@
     </row>
     <row r="97" spans="1:112">
       <c r="A97" s="1">
-        <v>41091</v>
+        <v>41183</v>
       </c>
       <c r="CJ97">
         <v>0.2107645180205527</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="98" spans="1:112">
       <c r="A98" s="1">
-        <v>41183</v>
+        <v>41275</v>
       </c>
       <c r="CK98">
         <v>0.3351269373087902</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="99" spans="1:112">
       <c r="A99" s="1">
-        <v>41275</v>
+        <v>41365</v>
       </c>
       <c r="CL99">
         <v>0.3124457278110455</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="100" spans="1:112">
       <c r="A100" s="1">
-        <v>41365</v>
+        <v>41456</v>
       </c>
       <c r="CM100">
         <v>0.3236193611218596</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="101" spans="1:112">
       <c r="A101" s="1">
-        <v>41456</v>
+        <v>41548</v>
       </c>
       <c r="CN101">
         <v>0.3311771790053162</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="102" spans="1:112">
       <c r="A102" s="1">
-        <v>41548</v>
+        <v>41640</v>
       </c>
       <c r="CO102">
         <v>0.3329951904513869</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="103" spans="1:112">
       <c r="A103" s="1">
-        <v>41640</v>
+        <v>41730</v>
       </c>
       <c r="CP103">
         <v>0.3135025074225217</v>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="104" spans="1:112">
       <c r="A104" s="1">
-        <v>41730</v>
+        <v>41821</v>
       </c>
       <c r="CQ104">
         <v>0.2806074779818091</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="105" spans="1:112">
       <c r="A105" s="1">
-        <v>41821</v>
+        <v>41913</v>
       </c>
       <c r="CR105">
         <v>0.2801679101979176</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="106" spans="1:112">
       <c r="A106" s="1">
-        <v>41913</v>
+        <v>42005</v>
       </c>
       <c r="CS106">
         <v>0.2677687416237422</v>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="107" spans="1:112">
       <c r="A107" s="1">
-        <v>42005</v>
+        <v>42095</v>
       </c>
       <c r="CT107">
         <v>0.2921007786806501</v>
@@ -4401,7 +4401,7 @@
     </row>
     <row r="108" spans="1:112">
       <c r="A108" s="1">
-        <v>42095</v>
+        <v>42186</v>
       </c>
       <c r="CU108">
         <v>0.2660024526381063</v>
@@ -4436,7 +4436,7 @@
     </row>
     <row r="109" spans="1:112">
       <c r="A109" s="1">
-        <v>42186</v>
+        <v>42278</v>
       </c>
       <c r="CV109">
         <v>0.220644017625583</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="110" spans="1:112">
       <c r="A110" s="1">
-        <v>42278</v>
+        <v>42370</v>
       </c>
       <c r="CW110">
         <v>0.2710027786686307</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="111" spans="1:112">
       <c r="A111" s="1">
-        <v>42370</v>
+        <v>42461</v>
       </c>
       <c r="CX111">
         <v>0.2847114694401618</v>
@@ -4541,7 +4541,7 @@
     </row>
     <row r="112" spans="1:112">
       <c r="A112" s="1">
-        <v>42461</v>
+        <v>42552</v>
       </c>
       <c r="CY112">
         <v>0.2807459438331706</v>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="113" spans="1:128">
       <c r="A113" s="1">
-        <v>42552</v>
+        <v>42644</v>
       </c>
       <c r="CZ113">
         <v>0.3221454316454039</v>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="114" spans="1:128">
       <c r="A114" s="1">
-        <v>42644</v>
+        <v>42736</v>
       </c>
       <c r="DA114">
         <v>0.2609384773262192</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="115" spans="1:128">
       <c r="A115" s="1">
-        <v>42736</v>
+        <v>42826</v>
       </c>
       <c r="DB115">
         <v>0.2564250709748581</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="116" spans="1:128">
       <c r="A116" s="1">
-        <v>42826</v>
+        <v>42917</v>
       </c>
       <c r="DC116">
         <v>0.2967438468813496</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="117" spans="1:128">
       <c r="A117" s="1">
-        <v>42917</v>
+        <v>43009</v>
       </c>
       <c r="DD117">
         <v>0.3371950253855527</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="118" spans="1:128">
       <c r="A118" s="1">
-        <v>43009</v>
+        <v>43101</v>
       </c>
       <c r="DE118">
         <v>0.3352644356990351</v>
@@ -4786,7 +4786,7 @@
     </row>
     <row r="119" spans="1:128">
       <c r="A119" s="1">
-        <v>43101</v>
+        <v>43191</v>
       </c>
       <c r="DF119">
         <v>0.3217409716921215</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="120" spans="1:128">
       <c r="A120" s="1">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="DG120">
         <v>0.3209525915776365</v>
@@ -4856,7 +4856,7 @@
     </row>
     <row r="121" spans="1:128">
       <c r="A121" s="1">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="DH121">
         <v>0.3488283601555589</v>
@@ -4891,7 +4891,7 @@
     </row>
     <row r="122" spans="1:128">
       <c r="A122" s="1">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="DI122">
         <v>0.3485738507804204</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="123" spans="1:128">
       <c r="A123" s="1">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="DJ123">
         <v>0.3615914904741485</v>
@@ -4961,7 +4961,7 @@
     </row>
     <row r="124" spans="1:128">
       <c r="A124" s="1">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="DK124">
         <v>0.3678524088463094</v>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="125" spans="1:128">
       <c r="A125" s="1">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="DL125">
         <v>0.3925643700821442</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="126" spans="1:128">
       <c r="A126" s="1">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="DM126">
         <v>0.3899921913915132</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="127" spans="1:128">
       <c r="A127" s="1">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="DN127">
         <v>0.3953897973442962</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="128" spans="1:128">
       <c r="A128" s="1">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="DO128">
         <v>0.4020799810389358</v>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="129" spans="1:144">
       <c r="A129" s="1">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="DP129">
         <v>0.3738394331660842</v>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="130" spans="1:144">
       <c r="A130" s="1">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="DQ130">
         <v>0.350308898855604</v>
@@ -5206,7 +5206,7 @@
     </row>
     <row r="131" spans="1:144">
       <c r="A131" s="1">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="DR131">
         <v>0.3243723156964315</v>
@@ -5241,7 +5241,7 @@
     </row>
     <row r="132" spans="1:144">
       <c r="A132" s="1">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="DS132">
         <v>0.2989670496166398</v>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="133" spans="1:144">
       <c r="A133" s="1">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="DT133">
         <v>0.3179359431977336</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="134" spans="1:144">
       <c r="A134" s="1">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="DU134">
         <v>0.2983213395070359</v>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="135" spans="1:144">
       <c r="A135" s="1">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="DV135">
         <v>0.2911843299800446</v>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="136" spans="1:144">
       <c r="A136" s="1">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="DW136">
         <v>0.2801824178062259</v>
@@ -5416,7 +5416,7 @@
     </row>
     <row r="137" spans="1:144">
       <c r="A137" s="1">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="DX137">
         <v>0.180796591657356</v>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="138" spans="1:144">
       <c r="A138" s="1">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="DY138">
         <v>-1.184375286040335</v>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="139" spans="1:144">
       <c r="A139" s="1">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="DZ139">
         <v>0.2014126679346297</v>
@@ -5521,7 +5521,7 @@
     </row>
     <row r="140" spans="1:144">
       <c r="A140" s="1">
-        <v>45017</v>
+        <v>45108</v>
       </c>
       <c r="EA140">
         <v>0.2310675656625323</v>
@@ -5556,7 +5556,7 @@
     </row>
     <row r="141" spans="1:144">
       <c r="A141" s="1">
-        <v>45108</v>
+        <v>45200</v>
       </c>
       <c r="EB141">
         <v>0.3009015042266514</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="142" spans="1:144">
       <c r="A142" s="1">
-        <v>45200</v>
+        <v>45292</v>
       </c>
       <c r="EC142">
         <v>0.3541979431822899</v>
@@ -5626,7 +5626,7 @@
     </row>
     <row r="143" spans="1:144">
       <c r="A143" s="1">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="ED143">
         <v>0.3917538843816368</v>
@@ -5661,7 +5661,7 @@
     </row>
     <row r="144" spans="1:144">
       <c r="A144" s="1">
-        <v>45383</v>
+        <v>45474</v>
       </c>
       <c r="EE144">
         <v>0.3953442544735015</v>
@@ -5696,7 +5696,7 @@
     </row>
     <row r="145" spans="1:150">
       <c r="A145" s="1">
-        <v>45474</v>
+        <v>45566</v>
       </c>
       <c r="EF145">
         <v>0.3891559537672726</v>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="146" spans="1:150">
       <c r="A146" s="1">
-        <v>45566</v>
+        <v>45658</v>
       </c>
       <c r="EG146">
         <v>0.3700202220727796</v>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="147" spans="1:150">
       <c r="A147" s="1">
-        <v>45658</v>
+        <v>45748</v>
       </c>
       <c r="EH147">
         <v>0.3543969433309027</v>
@@ -5801,7 +5801,7 @@
     </row>
     <row r="148" spans="1:150">
       <c r="A148" s="1">
-        <v>45748</v>
+        <v>45839</v>
       </c>
       <c r="EI148">
         <v>0.3304428394308724</v>
@@ -5836,7 +5836,7 @@
     </row>
     <row r="149" spans="1:150">
       <c r="A149" s="1">
-        <v>45839</v>
+        <v>45931</v>
       </c>
       <c r="EJ149">
         <v>0.2970525035592049</v>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="150" spans="1:150">
       <c r="A150" s="1">
-        <v>45931</v>
+        <v>46023</v>
       </c>
       <c r="EK150">
         <v>0.2891463708128647</v>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="151" spans="1:150">
       <c r="A151" s="1">
-        <v>46023</v>
+        <v>46113</v>
       </c>
       <c r="EL151">
         <v>0.2725549194311268</v>
@@ -5938,7 +5938,7 @@
     </row>
     <row r="152" spans="1:150">
       <c r="A152" s="1">
-        <v>46113</v>
+        <v>46204</v>
       </c>
       <c r="EM152">
         <v>0.269570734839869</v>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="153" spans="1:150">
       <c r="A153" s="1">
-        <v>46204</v>
+        <v>46296</v>
       </c>
       <c r="EN153">
         <v>0.268603751091444</v>
@@ -5993,7 +5993,7 @@
     </row>
     <row r="154" spans="1:150">
       <c r="A154" s="1">
-        <v>46296</v>
+        <v>46388</v>
       </c>
       <c r="EO154">
         <v>0.2627229416938779</v>
@@ -6016,7 +6016,7 @@
     </row>
     <row r="155" spans="1:150">
       <c r="A155" s="1">
-        <v>46388</v>
+        <v>46478</v>
       </c>
       <c r="EP155">
         <v>0.2574131067017447</v>
@@ -6036,7 +6036,7 @@
     </row>
     <row r="156" spans="1:150">
       <c r="A156" s="1">
-        <v>46478</v>
+        <v>46569</v>
       </c>
       <c r="EQ156">
         <v>0.2564832234979763</v>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="157" spans="1:150">
       <c r="A157" s="1">
-        <v>46569</v>
+        <v>46661</v>
       </c>
       <c r="ER157">
         <v>0.2698795517146473</v>
@@ -6067,7 +6067,7 @@
     </row>
     <row r="158" spans="1:150">
       <c r="A158" s="1">
-        <v>46661</v>
+        <v>46753</v>
       </c>
       <c r="ES158">
         <v>0.2540619289758381</v>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="159" spans="1:150">
       <c r="A159" s="1">
-        <v>46753</v>
+        <v>46844</v>
       </c>
       <c r="ET159">
         <v>0.244659491253809</v>

--- a/0_1_Output_Data/3_QoQ_Forecast_Tables/naive_qoq_forecasts_AR2_50_9.xlsx
+++ b/0_1_Output_Data/3_QoQ_Forecast_Tables/naive_qoq_forecasts_AR2_50_9.xlsx
@@ -826,7 +826,7 @@
     </row>
     <row r="2" spans="1:150">
       <c r="A2" s="1">
-        <v>32509</v>
+        <v>32417</v>
       </c>
       <c r="B2">
         <v>0.2524937681578153</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="3" spans="1:150">
       <c r="A3" s="1">
-        <v>32599</v>
+        <v>32509</v>
       </c>
       <c r="B3">
         <v>0.602659667126749</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="4" spans="1:150">
       <c r="A4" s="1">
-        <v>32690</v>
+        <v>32599</v>
       </c>
       <c r="B4">
         <v>0.5707821414520771</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="5" spans="1:150">
       <c r="A5" s="1">
-        <v>32782</v>
+        <v>32690</v>
       </c>
       <c r="B5">
         <v>0.5467040598369137</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="6" spans="1:150">
       <c r="A6" s="1">
-        <v>32874</v>
+        <v>32782</v>
       </c>
       <c r="B6">
         <v>0.5577910759412672</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="7" spans="1:150">
       <c r="A7" s="1">
-        <v>32964</v>
+        <v>32874</v>
       </c>
       <c r="B7">
         <v>0.5565141210190768</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="8" spans="1:150">
       <c r="A8" s="1">
-        <v>33055</v>
+        <v>32964</v>
       </c>
       <c r="B8">
         <v>0.5558399956115471</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="9" spans="1:150">
       <c r="A9" s="1">
-        <v>33147</v>
+        <v>33055</v>
       </c>
       <c r="B9">
         <v>0.5561883796987726</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="10" spans="1:150">
       <c r="A10" s="1">
-        <v>33239</v>
+        <v>33147</v>
       </c>
       <c r="B10">
         <v>0.5561401079951028</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="11" spans="1:150">
       <c r="A11" s="1">
-        <v>33329</v>
+        <v>33239</v>
       </c>
       <c r="B11">
         <v>0.5561216109076672</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="12" spans="1:150">
       <c r="A12" s="1">
-        <v>33420</v>
+        <v>33329</v>
       </c>
       <c r="C12">
         <v>0.5519412654670983</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="13" spans="1:150">
       <c r="A13" s="1">
-        <v>33512</v>
+        <v>33420</v>
       </c>
       <c r="D13">
         <v>0.5525453683651145</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="14" spans="1:150">
       <c r="A14" s="1">
-        <v>33604</v>
+        <v>33512</v>
       </c>
       <c r="E14">
         <v>0.5503154401349643</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="15" spans="1:150">
       <c r="A15" s="1">
-        <v>33695</v>
+        <v>33604</v>
       </c>
       <c r="F15">
         <v>0.5639646857089815</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="16" spans="1:150">
       <c r="A16" s="1">
-        <v>33786</v>
+        <v>33695</v>
       </c>
       <c r="G16">
         <v>0.5598568099193707</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="1">
-        <v>33878</v>
+        <v>33786</v>
       </c>
       <c r="H17">
         <v>0.5845848878585743</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="1">
-        <v>33970</v>
+        <v>33878</v>
       </c>
       <c r="I18">
         <v>0.5924984578551534</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="1">
-        <v>34060</v>
+        <v>33970</v>
       </c>
       <c r="J19">
         <v>0.6076023287885723</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="1">
-        <v>34151</v>
+        <v>34060</v>
       </c>
       <c r="K20">
         <v>0.6216615503026166</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="1">
-        <v>34243</v>
+        <v>34151</v>
       </c>
       <c r="L21">
         <v>0.6772869301907113</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="1">
-        <v>34335</v>
+        <v>34243</v>
       </c>
       <c r="M22">
         <v>0.642210177336901</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="1">
-        <v>34425</v>
+        <v>34335</v>
       </c>
       <c r="N23">
         <v>0.6233157127435841</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="1">
-        <v>34516</v>
+        <v>34425</v>
       </c>
       <c r="O24">
         <v>0.628597221556245</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="1">
-        <v>34608</v>
+        <v>34516</v>
       </c>
       <c r="P25">
         <v>0.640586670635641</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="1">
-        <v>34700</v>
+        <v>34608</v>
       </c>
       <c r="Q26">
         <v>0.6533453930303129</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="1">
-        <v>34790</v>
+        <v>34700</v>
       </c>
       <c r="R27">
         <v>0.6590735501395112</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="1">
-        <v>34881</v>
+        <v>34790</v>
       </c>
       <c r="S28">
         <v>0.6592770180766665</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="29" spans="1:32">
       <c r="A29" s="1">
-        <v>34973</v>
+        <v>34881</v>
       </c>
       <c r="T29">
         <v>0.5976813536361421</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="1">
-        <v>35065</v>
+        <v>34973</v>
       </c>
       <c r="U30">
         <v>0.6115594542740439</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="1">
-        <v>35156</v>
+        <v>35065</v>
       </c>
       <c r="V31">
         <v>0.6253163861347778</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="1">
-        <v>35247</v>
+        <v>35156</v>
       </c>
       <c r="W32">
         <v>0.6233258103655728</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="33" spans="1:48">
       <c r="A33" s="1">
-        <v>35339</v>
+        <v>35247</v>
       </c>
       <c r="X33">
         <v>0.6379930161079231</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="34" spans="1:48">
       <c r="A34" s="1">
-        <v>35431</v>
+        <v>35339</v>
       </c>
       <c r="Y34">
         <v>0.6749912631757632</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="35" spans="1:48">
       <c r="A35" s="1">
-        <v>35521</v>
+        <v>35431</v>
       </c>
       <c r="Z35">
         <v>0.7067645457895235</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="36" spans="1:48">
       <c r="A36" s="1">
-        <v>35612</v>
+        <v>35521</v>
       </c>
       <c r="AA36">
         <v>0.7172872263060875</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="37" spans="1:48">
       <c r="A37" s="1">
-        <v>35704</v>
+        <v>35612</v>
       </c>
       <c r="AB37">
         <v>0.7063908152506236</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="38" spans="1:48">
       <c r="A38" s="1">
-        <v>35796</v>
+        <v>35704</v>
       </c>
       <c r="AC38">
         <v>0.7045229362542107</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="39" spans="1:48">
       <c r="A39" s="1">
-        <v>35886</v>
+        <v>35796</v>
       </c>
       <c r="AD39">
         <v>0.7084547460519979</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="40" spans="1:48">
       <c r="A40" s="1">
-        <v>35977</v>
+        <v>35886</v>
       </c>
       <c r="AE40">
         <v>0.6800119285699918</v>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="41" spans="1:48">
       <c r="A41" s="1">
-        <v>36069</v>
+        <v>35977</v>
       </c>
       <c r="AF41">
         <v>0.6442082894415815</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="42" spans="1:48">
       <c r="A42" s="1">
-        <v>36161</v>
+        <v>36069</v>
       </c>
       <c r="AG42">
         <v>0.7003438883485834</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="43" spans="1:48">
       <c r="A43" s="1">
-        <v>36251</v>
+        <v>36161</v>
       </c>
       <c r="AH43">
         <v>0.6684434186942714</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="44" spans="1:48">
       <c r="A44" s="1">
-        <v>36342</v>
+        <v>36251</v>
       </c>
       <c r="AI44">
         <v>0.6386329237291362</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="45" spans="1:48">
       <c r="A45" s="1">
-        <v>36434</v>
+        <v>36342</v>
       </c>
       <c r="AJ45">
         <v>0.6578929379603931</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="46" spans="1:48">
       <c r="A46" s="1">
-        <v>36526</v>
+        <v>36434</v>
       </c>
       <c r="AK46">
         <v>0.6505569730686774</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="47" spans="1:48">
       <c r="A47" s="1">
-        <v>36617</v>
+        <v>36526</v>
       </c>
       <c r="AL47">
         <v>0.6363791269894246</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="48" spans="1:48">
       <c r="A48" s="1">
-        <v>36708</v>
+        <v>36617</v>
       </c>
       <c r="AM48">
         <v>0.6287753398511985</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="49" spans="1:64">
       <c r="A49" s="1">
-        <v>36800</v>
+        <v>36708</v>
       </c>
       <c r="AN49">
         <v>0.665040392516271</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="50" spans="1:64">
       <c r="A50" s="1">
-        <v>36892</v>
+        <v>36800</v>
       </c>
       <c r="AO50">
         <v>0.6400853091970573</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="51" spans="1:64">
       <c r="A51" s="1">
-        <v>36982</v>
+        <v>36892</v>
       </c>
       <c r="AP51">
         <v>0.6340449228061379</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="52" spans="1:64">
       <c r="A52" s="1">
-        <v>37073</v>
+        <v>36982</v>
       </c>
       <c r="AQ52">
         <v>0.6045849192688668</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="53" spans="1:64">
       <c r="A53" s="1">
-        <v>37165</v>
+        <v>37073</v>
       </c>
       <c r="AR53">
         <v>0.6419415181486394</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="54" spans="1:64">
       <c r="A54" s="1">
-        <v>37257</v>
+        <v>37165</v>
       </c>
       <c r="AS54">
         <v>0.5808857326703815</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="55" spans="1:64">
       <c r="A55" s="1">
-        <v>37347</v>
+        <v>37257</v>
       </c>
       <c r="AT55">
         <v>0.5840617232352838</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="56" spans="1:64">
       <c r="A56" s="1">
-        <v>37438</v>
+        <v>37347</v>
       </c>
       <c r="AU56">
         <v>0.5715048183488175</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="57" spans="1:64">
       <c r="A57" s="1">
-        <v>37530</v>
+        <v>37438</v>
       </c>
       <c r="AV57">
         <v>0.6110093906027442</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="58" spans="1:64">
       <c r="A58" s="1">
-        <v>37622</v>
+        <v>37530</v>
       </c>
       <c r="AW58">
         <v>0.5908097953542742</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="59" spans="1:64">
       <c r="A59" s="1">
-        <v>37712</v>
+        <v>37622</v>
       </c>
       <c r="AX59">
         <v>0.5808017500553143</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="60" spans="1:64">
       <c r="A60" s="1">
-        <v>37803</v>
+        <v>37712</v>
       </c>
       <c r="AY60">
         <v>0.556514329738091</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="61" spans="1:64">
       <c r="A61" s="1">
-        <v>37895</v>
+        <v>37803</v>
       </c>
       <c r="AZ61">
         <v>0.544710090156205</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="62" spans="1:64">
       <c r="A62" s="1">
-        <v>37987</v>
+        <v>37895</v>
       </c>
       <c r="BA62">
         <v>0.5395125313730755</v>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="63" spans="1:64">
       <c r="A63" s="1">
-        <v>38078</v>
+        <v>37987</v>
       </c>
       <c r="BB63">
         <v>0.514979748778353</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="64" spans="1:64">
       <c r="A64" s="1">
-        <v>38169</v>
+        <v>38078</v>
       </c>
       <c r="BC64">
         <v>0.4761296657005377</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="65" spans="1:80">
       <c r="A65" s="1">
-        <v>38261</v>
+        <v>38169</v>
       </c>
       <c r="BD65">
         <v>0.4361037706776424</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="66" spans="1:80">
       <c r="A66" s="1">
-        <v>38353</v>
+        <v>38261</v>
       </c>
       <c r="BE66">
         <v>0.4413658923044543</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="67" spans="1:80">
       <c r="A67" s="1">
-        <v>38443</v>
+        <v>38353</v>
       </c>
       <c r="BF67">
         <v>0.4006328705714784</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="68" spans="1:80">
       <c r="A68" s="1">
-        <v>38534</v>
+        <v>38443</v>
       </c>
       <c r="BG68">
         <v>0.3680447108442119</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="69" spans="1:80">
       <c r="A69" s="1">
-        <v>38626</v>
+        <v>38534</v>
       </c>
       <c r="BH69">
         <v>0.3215021584306325</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="70" spans="1:80">
       <c r="A70" s="1">
-        <v>38718</v>
+        <v>38626</v>
       </c>
       <c r="BI70">
         <v>0.3210531800476519</v>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="71" spans="1:80">
       <c r="A71" s="1">
-        <v>38808</v>
+        <v>38718</v>
       </c>
       <c r="BJ71">
         <v>0.3267869767660009</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="72" spans="1:80">
       <c r="A72" s="1">
-        <v>38899</v>
+        <v>38808</v>
       </c>
       <c r="BK72">
         <v>0.3031803081565542</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="73" spans="1:80">
       <c r="A73" s="1">
-        <v>38991</v>
+        <v>38899</v>
       </c>
       <c r="BL73">
         <v>0.2693232639605769</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="74" spans="1:80">
       <c r="A74" s="1">
-        <v>39083</v>
+        <v>38991</v>
       </c>
       <c r="BM74">
         <v>0.3017934231890732</v>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="75" spans="1:80">
       <c r="A75" s="1">
-        <v>39173</v>
+        <v>39083</v>
       </c>
       <c r="BN75">
         <v>0.3182784697664209</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="76" spans="1:80">
       <c r="A76" s="1">
-        <v>39264</v>
+        <v>39173</v>
       </c>
       <c r="BO76">
         <v>0.3000963747578714</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="77" spans="1:80">
       <c r="A77" s="1">
-        <v>39356</v>
+        <v>39264</v>
       </c>
       <c r="BP77">
         <v>0.3915271433445391</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="78" spans="1:80">
       <c r="A78" s="1">
-        <v>39448</v>
+        <v>39356</v>
       </c>
       <c r="BQ78">
         <v>0.3778002154269247</v>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="79" spans="1:80">
       <c r="A79" s="1">
-        <v>39539</v>
+        <v>39448</v>
       </c>
       <c r="BR79">
         <v>0.3742367952283919</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="80" spans="1:80">
       <c r="A80" s="1">
-        <v>39630</v>
+        <v>39539</v>
       </c>
       <c r="BS80">
         <v>0.3732854673655416</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="81" spans="1:96">
       <c r="A81" s="1">
-        <v>39722</v>
+        <v>39630</v>
       </c>
       <c r="BT81">
         <v>0.3565963497300319</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="82" spans="1:96">
       <c r="A82" s="1">
-        <v>39814</v>
+        <v>39722</v>
       </c>
       <c r="BU82">
         <v>0.3666951741259316</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="83" spans="1:96">
       <c r="A83" s="1">
-        <v>39904</v>
+        <v>39814</v>
       </c>
       <c r="BV83">
         <v>0.3691375597880225</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="84" spans="1:96">
       <c r="A84" s="1">
-        <v>39995</v>
+        <v>39904</v>
       </c>
       <c r="BW84">
         <v>0.3771994711238108</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="85" spans="1:96">
       <c r="A85" s="1">
-        <v>40087</v>
+        <v>39995</v>
       </c>
       <c r="BX85">
         <v>0.3924313474975846</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="86" spans="1:96">
       <c r="A86" s="1">
-        <v>40179</v>
+        <v>40087</v>
       </c>
       <c r="BY86">
         <v>0.3659694601155838</v>
@@ -3666,7 +3666,7 @@
     </row>
     <row r="87" spans="1:96">
       <c r="A87" s="1">
-        <v>40269</v>
+        <v>40179</v>
       </c>
       <c r="BZ87">
         <v>0.382058354862865</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="88" spans="1:96">
       <c r="A88" s="1">
-        <v>40360</v>
+        <v>40269</v>
       </c>
       <c r="CA88">
         <v>0.3952665639016532</v>
@@ -3736,7 +3736,7 @@
     </row>
     <row r="89" spans="1:96">
       <c r="A89" s="1">
-        <v>40452</v>
+        <v>40360</v>
       </c>
       <c r="CB89">
         <v>0.450091620517234</v>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="90" spans="1:96">
       <c r="A90" s="1">
-        <v>40544</v>
+        <v>40452</v>
       </c>
       <c r="CC90">
         <v>0.3889094412579501</v>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="91" spans="1:96">
       <c r="A91" s="1">
-        <v>40634</v>
+        <v>40544</v>
       </c>
       <c r="CD91">
         <v>0.3604430041540626</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="92" spans="1:96">
       <c r="A92" s="1">
-        <v>40725</v>
+        <v>40634</v>
       </c>
       <c r="CE92">
         <v>0.2388710728550849</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="93" spans="1:96">
       <c r="A93" s="1">
-        <v>40817</v>
+        <v>40725</v>
       </c>
       <c r="CF93">
         <v>-3.537881715852962</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="94" spans="1:96">
       <c r="A94" s="1">
-        <v>40909</v>
+        <v>40817</v>
       </c>
       <c r="CG94">
         <v>0.2011900774154455</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="95" spans="1:96">
       <c r="A95" s="1">
-        <v>41000</v>
+        <v>40909</v>
       </c>
       <c r="CH95">
         <v>0.2546849506656574</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="96" spans="1:96">
       <c r="A96" s="1">
-        <v>41091</v>
+        <v>41000</v>
       </c>
       <c r="CI96">
         <v>0.224709232201645</v>
@@ -4016,7 +4016,7 @@
     </row>
     <row r="97" spans="1:112">
       <c r="A97" s="1">
-        <v>41183</v>
+        <v>41091</v>
       </c>
       <c r="CJ97">
         <v>0.2107645180205527</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="98" spans="1:112">
       <c r="A98" s="1">
-        <v>41275</v>
+        <v>41183</v>
       </c>
       <c r="CK98">
         <v>0.3351269373087902</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="99" spans="1:112">
       <c r="A99" s="1">
-        <v>41365</v>
+        <v>41275</v>
       </c>
       <c r="CL99">
         <v>0.3124457278110455</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="100" spans="1:112">
       <c r="A100" s="1">
-        <v>41456</v>
+        <v>41365</v>
       </c>
       <c r="CM100">
         <v>0.3236193611218596</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="101" spans="1:112">
       <c r="A101" s="1">
-        <v>41548</v>
+        <v>41456</v>
       </c>
       <c r="CN101">
         <v>0.3311771790053162</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="102" spans="1:112">
       <c r="A102" s="1">
-        <v>41640</v>
+        <v>41548</v>
       </c>
       <c r="CO102">
         <v>0.3329951904513869</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="103" spans="1:112">
       <c r="A103" s="1">
-        <v>41730</v>
+        <v>41640</v>
       </c>
       <c r="CP103">
         <v>0.3135025074225217</v>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="104" spans="1:112">
       <c r="A104" s="1">
-        <v>41821</v>
+        <v>41730</v>
       </c>
       <c r="CQ104">
         <v>0.2806074779818091</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="105" spans="1:112">
       <c r="A105" s="1">
-        <v>41913</v>
+        <v>41821</v>
       </c>
       <c r="CR105">
         <v>0.2801679101979176</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="106" spans="1:112">
       <c r="A106" s="1">
-        <v>42005</v>
+        <v>41913</v>
       </c>
       <c r="CS106">
         <v>0.2677687416237422</v>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="107" spans="1:112">
       <c r="A107" s="1">
-        <v>42095</v>
+        <v>42005</v>
       </c>
       <c r="CT107">
         <v>0.2921007786806501</v>
@@ -4401,7 +4401,7 @@
     </row>
     <row r="108" spans="1:112">
       <c r="A108" s="1">
-        <v>42186</v>
+        <v>42095</v>
       </c>
       <c r="CU108">
         <v>0.2660024526381063</v>
@@ -4436,7 +4436,7 @@
     </row>
     <row r="109" spans="1:112">
       <c r="A109" s="1">
-        <v>42278</v>
+        <v>42186</v>
       </c>
       <c r="CV109">
         <v>0.220644017625583</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="110" spans="1:112">
       <c r="A110" s="1">
-        <v>42370</v>
+        <v>42278</v>
       </c>
       <c r="CW110">
         <v>0.2710027786686307</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="111" spans="1:112">
       <c r="A111" s="1">
-        <v>42461</v>
+        <v>42370</v>
       </c>
       <c r="CX111">
         <v>0.2847114694401618</v>
@@ -4541,7 +4541,7 @@
     </row>
     <row r="112" spans="1:112">
       <c r="A112" s="1">
-        <v>42552</v>
+        <v>42461</v>
       </c>
       <c r="CY112">
         <v>0.2807459438331706</v>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="113" spans="1:128">
       <c r="A113" s="1">
-        <v>42644</v>
+        <v>42552</v>
       </c>
       <c r="CZ113">
         <v>0.3221454316454039</v>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="114" spans="1:128">
       <c r="A114" s="1">
-        <v>42736</v>
+        <v>42644</v>
       </c>
       <c r="DA114">
         <v>0.2609384773262192</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="115" spans="1:128">
       <c r="A115" s="1">
-        <v>42826</v>
+        <v>42736</v>
       </c>
       <c r="DB115">
         <v>0.2564250709748581</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="116" spans="1:128">
       <c r="A116" s="1">
-        <v>42917</v>
+        <v>42826</v>
       </c>
       <c r="DC116">
         <v>0.2967438468813496</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="117" spans="1:128">
       <c r="A117" s="1">
-        <v>43009</v>
+        <v>42917</v>
       </c>
       <c r="DD117">
         <v>0.3371950253855527</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="118" spans="1:128">
       <c r="A118" s="1">
-        <v>43101</v>
+        <v>43009</v>
       </c>
       <c r="DE118">
         <v>0.3352644356990351</v>
@@ -4786,7 +4786,7 @@
     </row>
     <row r="119" spans="1:128">
       <c r="A119" s="1">
-        <v>43191</v>
+        <v>43101</v>
       </c>
       <c r="DF119">
         <v>0.3217409716921215</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="120" spans="1:128">
       <c r="A120" s="1">
-        <v>43282</v>
+        <v>43191</v>
       </c>
       <c r="DG120">
         <v>0.3209525915776365</v>
@@ -4856,7 +4856,7 @@
     </row>
     <row r="121" spans="1:128">
       <c r="A121" s="1">
-        <v>43374</v>
+        <v>43282</v>
       </c>
       <c r="DH121">
         <v>0.3488283601555589</v>
@@ -4891,7 +4891,7 @@
     </row>
     <row r="122" spans="1:128">
       <c r="A122" s="1">
-        <v>43466</v>
+        <v>43374</v>
       </c>
       <c r="DI122">
         <v>0.3485738507804204</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="123" spans="1:128">
       <c r="A123" s="1">
-        <v>43556</v>
+        <v>43466</v>
       </c>
       <c r="DJ123">
         <v>0.3615914904741485</v>
@@ -4961,7 +4961,7 @@
     </row>
     <row r="124" spans="1:128">
       <c r="A124" s="1">
-        <v>43647</v>
+        <v>43556</v>
       </c>
       <c r="DK124">
         <v>0.3678524088463094</v>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="125" spans="1:128">
       <c r="A125" s="1">
-        <v>43739</v>
+        <v>43647</v>
       </c>
       <c r="DL125">
         <v>0.3925643700821442</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="126" spans="1:128">
       <c r="A126" s="1">
-        <v>43831</v>
+        <v>43739</v>
       </c>
       <c r="DM126">
         <v>0.3899921913915132</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="127" spans="1:128">
       <c r="A127" s="1">
-        <v>43922</v>
+        <v>43831</v>
       </c>
       <c r="DN127">
         <v>0.3953897973442962</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="128" spans="1:128">
       <c r="A128" s="1">
-        <v>44013</v>
+        <v>43922</v>
       </c>
       <c r="DO128">
         <v>0.4020799810389358</v>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="129" spans="1:144">
       <c r="A129" s="1">
-        <v>44105</v>
+        <v>44013</v>
       </c>
       <c r="DP129">
         <v>0.3738394331660842</v>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="130" spans="1:144">
       <c r="A130" s="1">
-        <v>44197</v>
+        <v>44105</v>
       </c>
       <c r="DQ130">
         <v>0.350308898855604</v>
@@ -5206,7 +5206,7 @@
     </row>
     <row r="131" spans="1:144">
       <c r="A131" s="1">
-        <v>44287</v>
+        <v>44197</v>
       </c>
       <c r="DR131">
         <v>0.3243723156964315</v>
@@ -5241,7 +5241,7 @@
     </row>
     <row r="132" spans="1:144">
       <c r="A132" s="1">
-        <v>44378</v>
+        <v>44287</v>
       </c>
       <c r="DS132">
         <v>0.2989670496166398</v>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="133" spans="1:144">
       <c r="A133" s="1">
-        <v>44470</v>
+        <v>44378</v>
       </c>
       <c r="DT133">
         <v>0.3179359431977336</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="134" spans="1:144">
       <c r="A134" s="1">
-        <v>44562</v>
+        <v>44470</v>
       </c>
       <c r="DU134">
         <v>0.2983213395070359</v>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="135" spans="1:144">
       <c r="A135" s="1">
-        <v>44652</v>
+        <v>44562</v>
       </c>
       <c r="DV135">
         <v>0.2911843299800446</v>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="136" spans="1:144">
       <c r="A136" s="1">
-        <v>44743</v>
+        <v>44652</v>
       </c>
       <c r="DW136">
         <v>0.2801824178062259</v>
@@ -5416,7 +5416,7 @@
     </row>
     <row r="137" spans="1:144">
       <c r="A137" s="1">
-        <v>44835</v>
+        <v>44743</v>
       </c>
       <c r="DX137">
         <v>0.180796591657356</v>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="138" spans="1:144">
       <c r="A138" s="1">
-        <v>44927</v>
+        <v>44835</v>
       </c>
       <c r="DY138">
         <v>-1.184375286040335</v>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="139" spans="1:144">
       <c r="A139" s="1">
-        <v>45017</v>
+        <v>44927</v>
       </c>
       <c r="DZ139">
         <v>0.2014126679346297</v>
@@ -5521,7 +5521,7 @@
     </row>
     <row r="140" spans="1:144">
       <c r="A140" s="1">
-        <v>45108</v>
+        <v>45017</v>
       </c>
       <c r="EA140">
         <v>0.2310675656625323</v>
@@ -5556,7 +5556,7 @@
     </row>
     <row r="141" spans="1:144">
       <c r="A141" s="1">
-        <v>45200</v>
+        <v>45108</v>
       </c>
       <c r="EB141">
         <v>0.3009015042266514</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="142" spans="1:144">
       <c r="A142" s="1">
-        <v>45292</v>
+        <v>45200</v>
       </c>
       <c r="EC142">
         <v>0.3541979431822899</v>
@@ -5626,7 +5626,7 @@
     </row>
     <row r="143" spans="1:144">
       <c r="A143" s="1">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="ED143">
         <v>0.3917538843816368</v>
@@ -5661,7 +5661,7 @@
     </row>
     <row r="144" spans="1:144">
       <c r="A144" s="1">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="EE144">
         <v>0.3953442544735015</v>
@@ -5696,7 +5696,7 @@
     </row>
     <row r="145" spans="1:150">
       <c r="A145" s="1">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="EF145">
         <v>0.3891559537672726</v>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="146" spans="1:150">
       <c r="A146" s="1">
-        <v>45658</v>
+        <v>45566</v>
       </c>
       <c r="EG146">
         <v>0.3700202220727796</v>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="147" spans="1:150">
       <c r="A147" s="1">
-        <v>45748</v>
+        <v>45658</v>
       </c>
       <c r="EH147">
         <v>0.3543969433309027</v>
@@ -5801,7 +5801,7 @@
     </row>
     <row r="148" spans="1:150">
       <c r="A148" s="1">
-        <v>45839</v>
+        <v>45748</v>
       </c>
       <c r="EI148">
         <v>0.3304428394308724</v>
@@ -5836,7 +5836,7 @@
     </row>
     <row r="149" spans="1:150">
       <c r="A149" s="1">
-        <v>45931</v>
+        <v>45839</v>
       </c>
       <c r="EJ149">
         <v>0.2970525035592049</v>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="150" spans="1:150">
       <c r="A150" s="1">
-        <v>46023</v>
+        <v>45931</v>
       </c>
       <c r="EK150">
         <v>0.2891463708128647</v>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="151" spans="1:150">
       <c r="A151" s="1">
-        <v>46113</v>
+        <v>46023</v>
       </c>
       <c r="EL151">
         <v>0.2725549194311268</v>
@@ -5938,7 +5938,7 @@
     </row>
     <row r="152" spans="1:150">
       <c r="A152" s="1">
-        <v>46204</v>
+        <v>46113</v>
       </c>
       <c r="EM152">
         <v>0.269570734839869</v>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="153" spans="1:150">
       <c r="A153" s="1">
-        <v>46296</v>
+        <v>46204</v>
       </c>
       <c r="EN153">
         <v>0.268603751091444</v>
@@ -5993,7 +5993,7 @@
     </row>
     <row r="154" spans="1:150">
       <c r="A154" s="1">
-        <v>46388</v>
+        <v>46296</v>
       </c>
       <c r="EO154">
         <v>0.2627229416938779</v>
@@ -6016,7 +6016,7 @@
     </row>
     <row r="155" spans="1:150">
       <c r="A155" s="1">
-        <v>46478</v>
+        <v>46388</v>
       </c>
       <c r="EP155">
         <v>0.2574131067017447</v>
@@ -6036,7 +6036,7 @@
     </row>
     <row r="156" spans="1:150">
       <c r="A156" s="1">
-        <v>46569</v>
+        <v>46478</v>
       </c>
       <c r="EQ156">
         <v>0.2564832234979763</v>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="157" spans="1:150">
       <c r="A157" s="1">
-        <v>46661</v>
+        <v>46569</v>
       </c>
       <c r="ER157">
         <v>0.2698795517146473</v>
@@ -6067,7 +6067,7 @@
     </row>
     <row r="158" spans="1:150">
       <c r="A158" s="1">
-        <v>46753</v>
+        <v>46661</v>
       </c>
       <c r="ES158">
         <v>0.2540619289758381</v>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="159" spans="1:150">
       <c r="A159" s="1">
-        <v>46844</v>
+        <v>46753</v>
       </c>
       <c r="ET159">
         <v>0.244659491253809</v>

--- a/0_1_Output_Data/3_QoQ_Forecast_Tables/naive_qoq_forecasts_AR2_50_9.xlsx
+++ b/0_1_Output_Data/3_QoQ_Forecast_Tables/naive_qoq_forecasts_AR2_50_9.xlsx
@@ -826,7 +826,7 @@
     </row>
     <row r="2" spans="1:150">
       <c r="A2" s="1">
-        <v>32417</v>
+        <v>32462</v>
       </c>
       <c r="B2">
         <v>0.2524937681578153</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="3" spans="1:150">
       <c r="A3" s="1">
-        <v>32509</v>
+        <v>32554</v>
       </c>
       <c r="B3">
         <v>0.602659667126749</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="4" spans="1:150">
       <c r="A4" s="1">
-        <v>32599</v>
+        <v>32643</v>
       </c>
       <c r="B4">
         <v>0.5707821414520771</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="5" spans="1:150">
       <c r="A5" s="1">
-        <v>32690</v>
+        <v>32735</v>
       </c>
       <c r="B5">
         <v>0.5467040598369137</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="6" spans="1:150">
       <c r="A6" s="1">
-        <v>32782</v>
+        <v>32827</v>
       </c>
       <c r="B6">
         <v>0.5577910759412672</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="7" spans="1:150">
       <c r="A7" s="1">
-        <v>32874</v>
+        <v>32919</v>
       </c>
       <c r="B7">
         <v>0.5565141210190768</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="8" spans="1:150">
       <c r="A8" s="1">
-        <v>32964</v>
+        <v>33008</v>
       </c>
       <c r="B8">
         <v>0.5558399956115471</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="9" spans="1:150">
       <c r="A9" s="1">
-        <v>33055</v>
+        <v>33100</v>
       </c>
       <c r="B9">
         <v>0.5561883796987726</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="10" spans="1:150">
       <c r="A10" s="1">
-        <v>33147</v>
+        <v>33192</v>
       </c>
       <c r="B10">
         <v>0.5561401079951028</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="11" spans="1:150">
       <c r="A11" s="1">
-        <v>33239</v>
+        <v>33284</v>
       </c>
       <c r="B11">
         <v>0.5561216109076672</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="12" spans="1:150">
       <c r="A12" s="1">
-        <v>33329</v>
+        <v>33373</v>
       </c>
       <c r="C12">
         <v>0.5519412654670983</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="13" spans="1:150">
       <c r="A13" s="1">
-        <v>33420</v>
+        <v>33465</v>
       </c>
       <c r="D13">
         <v>0.5525453683651145</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="14" spans="1:150">
       <c r="A14" s="1">
-        <v>33512</v>
+        <v>33557</v>
       </c>
       <c r="E14">
         <v>0.5503154401349643</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="15" spans="1:150">
       <c r="A15" s="1">
-        <v>33604</v>
+        <v>33649</v>
       </c>
       <c r="F15">
         <v>0.5639646857089815</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="16" spans="1:150">
       <c r="A16" s="1">
-        <v>33695</v>
+        <v>33739</v>
       </c>
       <c r="G16">
         <v>0.5598568099193707</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="1">
-        <v>33786</v>
+        <v>33831</v>
       </c>
       <c r="H17">
         <v>0.5845848878585743</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="1">
-        <v>33878</v>
+        <v>33923</v>
       </c>
       <c r="I18">
         <v>0.5924984578551534</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="1">
-        <v>33970</v>
+        <v>34015</v>
       </c>
       <c r="J19">
         <v>0.6076023287885723</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="1">
-        <v>34060</v>
+        <v>34104</v>
       </c>
       <c r="K20">
         <v>0.6216615503026166</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="1">
-        <v>34151</v>
+        <v>34196</v>
       </c>
       <c r="L21">
         <v>0.6772869301907113</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="1">
-        <v>34243</v>
+        <v>34288</v>
       </c>
       <c r="M22">
         <v>0.642210177336901</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="1">
-        <v>34335</v>
+        <v>34380</v>
       </c>
       <c r="N23">
         <v>0.6233157127435841</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="1">
-        <v>34425</v>
+        <v>34469</v>
       </c>
       <c r="O24">
         <v>0.628597221556245</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="1">
-        <v>34516</v>
+        <v>34561</v>
       </c>
       <c r="P25">
         <v>0.640586670635641</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="1">
-        <v>34608</v>
+        <v>34653</v>
       </c>
       <c r="Q26">
         <v>0.6533453930303129</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="1">
-        <v>34700</v>
+        <v>34745</v>
       </c>
       <c r="R27">
         <v>0.6590735501395112</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="1">
-        <v>34790</v>
+        <v>34834</v>
       </c>
       <c r="S28">
         <v>0.6592770180766665</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="29" spans="1:32">
       <c r="A29" s="1">
-        <v>34881</v>
+        <v>34926</v>
       </c>
       <c r="T29">
         <v>0.5976813536361421</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="1">
-        <v>34973</v>
+        <v>35018</v>
       </c>
       <c r="U30">
         <v>0.6115594542740439</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="1">
-        <v>35065</v>
+        <v>35110</v>
       </c>
       <c r="V31">
         <v>0.6253163861347778</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="1">
-        <v>35156</v>
+        <v>35200</v>
       </c>
       <c r="W32">
         <v>0.6233258103655728</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="33" spans="1:48">
       <c r="A33" s="1">
-        <v>35247</v>
+        <v>35292</v>
       </c>
       <c r="X33">
         <v>0.6379930161079231</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="34" spans="1:48">
       <c r="A34" s="1">
-        <v>35339</v>
+        <v>35384</v>
       </c>
       <c r="Y34">
         <v>0.6749912631757632</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="35" spans="1:48">
       <c r="A35" s="1">
-        <v>35431</v>
+        <v>35476</v>
       </c>
       <c r="Z35">
         <v>0.7067645457895235</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="36" spans="1:48">
       <c r="A36" s="1">
-        <v>35521</v>
+        <v>35565</v>
       </c>
       <c r="AA36">
         <v>0.7172872263060875</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="37" spans="1:48">
       <c r="A37" s="1">
-        <v>35612</v>
+        <v>35657</v>
       </c>
       <c r="AB37">
         <v>0.7063908152506236</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="38" spans="1:48">
       <c r="A38" s="1">
-        <v>35704</v>
+        <v>35749</v>
       </c>
       <c r="AC38">
         <v>0.7045229362542107</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="39" spans="1:48">
       <c r="A39" s="1">
-        <v>35796</v>
+        <v>35841</v>
       </c>
       <c r="AD39">
         <v>0.7084547460519979</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="40" spans="1:48">
       <c r="A40" s="1">
-        <v>35886</v>
+        <v>35930</v>
       </c>
       <c r="AE40">
         <v>0.6800119285699918</v>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="41" spans="1:48">
       <c r="A41" s="1">
-        <v>35977</v>
+        <v>36022</v>
       </c>
       <c r="AF41">
         <v>0.6442082894415815</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="42" spans="1:48">
       <c r="A42" s="1">
-        <v>36069</v>
+        <v>36114</v>
       </c>
       <c r="AG42">
         <v>0.7003438883485834</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="43" spans="1:48">
       <c r="A43" s="1">
-        <v>36161</v>
+        <v>36206</v>
       </c>
       <c r="AH43">
         <v>0.6684434186942714</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="44" spans="1:48">
       <c r="A44" s="1">
-        <v>36251</v>
+        <v>36295</v>
       </c>
       <c r="AI44">
         <v>0.6386329237291362</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="45" spans="1:48">
       <c r="A45" s="1">
-        <v>36342</v>
+        <v>36387</v>
       </c>
       <c r="AJ45">
         <v>0.6578929379603931</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="46" spans="1:48">
       <c r="A46" s="1">
-        <v>36434</v>
+        <v>36479</v>
       </c>
       <c r="AK46">
         <v>0.6505569730686774</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="47" spans="1:48">
       <c r="A47" s="1">
-        <v>36526</v>
+        <v>36571</v>
       </c>
       <c r="AL47">
         <v>0.6363791269894246</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="48" spans="1:48">
       <c r="A48" s="1">
-        <v>36617</v>
+        <v>36661</v>
       </c>
       <c r="AM48">
         <v>0.6287753398511985</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="49" spans="1:64">
       <c r="A49" s="1">
-        <v>36708</v>
+        <v>36753</v>
       </c>
       <c r="AN49">
         <v>0.665040392516271</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="50" spans="1:64">
       <c r="A50" s="1">
-        <v>36800</v>
+        <v>36845</v>
       </c>
       <c r="AO50">
         <v>0.6400853091970573</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="51" spans="1:64">
       <c r="A51" s="1">
-        <v>36892</v>
+        <v>36937</v>
       </c>
       <c r="AP51">
         <v>0.6340449228061379</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="52" spans="1:64">
       <c r="A52" s="1">
-        <v>36982</v>
+        <v>37026</v>
       </c>
       <c r="AQ52">
         <v>0.6045849192688668</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="53" spans="1:64">
       <c r="A53" s="1">
-        <v>37073</v>
+        <v>37118</v>
       </c>
       <c r="AR53">
         <v>0.6419415181486394</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="54" spans="1:64">
       <c r="A54" s="1">
-        <v>37165</v>
+        <v>37210</v>
       </c>
       <c r="AS54">
         <v>0.5808857326703815</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="55" spans="1:64">
       <c r="A55" s="1">
-        <v>37257</v>
+        <v>37302</v>
       </c>
       <c r="AT55">
         <v>0.5840617232352838</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="56" spans="1:64">
       <c r="A56" s="1">
-        <v>37347</v>
+        <v>37391</v>
       </c>
       <c r="AU56">
         <v>0.5715048183488175</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="57" spans="1:64">
       <c r="A57" s="1">
-        <v>37438</v>
+        <v>37483</v>
       </c>
       <c r="AV57">
         <v>0.6110093906027442</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="58" spans="1:64">
       <c r="A58" s="1">
-        <v>37530</v>
+        <v>37575</v>
       </c>
       <c r="AW58">
         <v>0.5908097953542742</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="59" spans="1:64">
       <c r="A59" s="1">
-        <v>37622</v>
+        <v>37667</v>
       </c>
       <c r="AX59">
         <v>0.5808017500553143</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="60" spans="1:64">
       <c r="A60" s="1">
-        <v>37712</v>
+        <v>37756</v>
       </c>
       <c r="AY60">
         <v>0.556514329738091</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="61" spans="1:64">
       <c r="A61" s="1">
-        <v>37803</v>
+        <v>37848</v>
       </c>
       <c r="AZ61">
         <v>0.544710090156205</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="62" spans="1:64">
       <c r="A62" s="1">
-        <v>37895</v>
+        <v>37940</v>
       </c>
       <c r="BA62">
         <v>0.5395125313730755</v>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="63" spans="1:64">
       <c r="A63" s="1">
-        <v>37987</v>
+        <v>38032</v>
       </c>
       <c r="BB63">
         <v>0.514979748778353</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="64" spans="1:64">
       <c r="A64" s="1">
-        <v>38078</v>
+        <v>38122</v>
       </c>
       <c r="BC64">
         <v>0.4761296657005377</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="65" spans="1:80">
       <c r="A65" s="1">
-        <v>38169</v>
+        <v>38214</v>
       </c>
       <c r="BD65">
         <v>0.4361037706776424</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="66" spans="1:80">
       <c r="A66" s="1">
-        <v>38261</v>
+        <v>38306</v>
       </c>
       <c r="BE66">
         <v>0.4413658923044543</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="67" spans="1:80">
       <c r="A67" s="1">
-        <v>38353</v>
+        <v>38398</v>
       </c>
       <c r="BF67">
         <v>0.4006328705714784</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="68" spans="1:80">
       <c r="A68" s="1">
-        <v>38443</v>
+        <v>38487</v>
       </c>
       <c r="BG68">
         <v>0.3680447108442119</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="69" spans="1:80">
       <c r="A69" s="1">
-        <v>38534</v>
+        <v>38579</v>
       </c>
       <c r="BH69">
         <v>0.3215021584306325</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="70" spans="1:80">
       <c r="A70" s="1">
-        <v>38626</v>
+        <v>38671</v>
       </c>
       <c r="BI70">
         <v>0.3210531800476519</v>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="71" spans="1:80">
       <c r="A71" s="1">
-        <v>38718</v>
+        <v>38763</v>
       </c>
       <c r="BJ71">
         <v>0.3267869767660009</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="72" spans="1:80">
       <c r="A72" s="1">
-        <v>38808</v>
+        <v>38852</v>
       </c>
       <c r="BK72">
         <v>0.3031803081565542</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="73" spans="1:80">
       <c r="A73" s="1">
-        <v>38899</v>
+        <v>38944</v>
       </c>
       <c r="BL73">
         <v>0.2693232639605769</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="74" spans="1:80">
       <c r="A74" s="1">
-        <v>38991</v>
+        <v>39036</v>
       </c>
       <c r="BM74">
         <v>0.3017934231890732</v>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="75" spans="1:80">
       <c r="A75" s="1">
-        <v>39083</v>
+        <v>39128</v>
       </c>
       <c r="BN75">
         <v>0.3182784697664209</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="76" spans="1:80">
       <c r="A76" s="1">
-        <v>39173</v>
+        <v>39217</v>
       </c>
       <c r="BO76">
         <v>0.3000963747578714</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="77" spans="1:80">
       <c r="A77" s="1">
-        <v>39264</v>
+        <v>39309</v>
       </c>
       <c r="BP77">
         <v>0.3915271433445391</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="78" spans="1:80">
       <c r="A78" s="1">
-        <v>39356</v>
+        <v>39401</v>
       </c>
       <c r="BQ78">
         <v>0.3778002154269247</v>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="79" spans="1:80">
       <c r="A79" s="1">
-        <v>39448</v>
+        <v>39493</v>
       </c>
       <c r="BR79">
         <v>0.3742367952283919</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="80" spans="1:80">
       <c r="A80" s="1">
-        <v>39539</v>
+        <v>39583</v>
       </c>
       <c r="BS80">
         <v>0.3732854673655416</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="81" spans="1:96">
       <c r="A81" s="1">
-        <v>39630</v>
+        <v>39675</v>
       </c>
       <c r="BT81">
         <v>0.3565963497300319</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="82" spans="1:96">
       <c r="A82" s="1">
-        <v>39722</v>
+        <v>39767</v>
       </c>
       <c r="BU82">
         <v>0.3666951741259316</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="83" spans="1:96">
       <c r="A83" s="1">
-        <v>39814</v>
+        <v>39859</v>
       </c>
       <c r="BV83">
         <v>0.3691375597880225</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="84" spans="1:96">
       <c r="A84" s="1">
-        <v>39904</v>
+        <v>39948</v>
       </c>
       <c r="BW84">
         <v>0.3771994711238108</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="85" spans="1:96">
       <c r="A85" s="1">
-        <v>39995</v>
+        <v>40040</v>
       </c>
       <c r="BX85">
         <v>0.3924313474975846</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="86" spans="1:96">
       <c r="A86" s="1">
-        <v>40087</v>
+        <v>40132</v>
       </c>
       <c r="BY86">
         <v>0.3659694601155838</v>
@@ -3666,7 +3666,7 @@
     </row>
     <row r="87" spans="1:96">
       <c r="A87" s="1">
-        <v>40179</v>
+        <v>40224</v>
       </c>
       <c r="BZ87">
         <v>0.382058354862865</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="88" spans="1:96">
       <c r="A88" s="1">
-        <v>40269</v>
+        <v>40313</v>
       </c>
       <c r="CA88">
         <v>0.3952665639016532</v>
@@ -3736,7 +3736,7 @@
     </row>
     <row r="89" spans="1:96">
       <c r="A89" s="1">
-        <v>40360</v>
+        <v>40405</v>
       </c>
       <c r="CB89">
         <v>0.450091620517234</v>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="90" spans="1:96">
       <c r="A90" s="1">
-        <v>40452</v>
+        <v>40497</v>
       </c>
       <c r="CC90">
         <v>0.3889094412579501</v>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="91" spans="1:96">
       <c r="A91" s="1">
-        <v>40544</v>
+        <v>40589</v>
       </c>
       <c r="CD91">
         <v>0.3604430041540626</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="92" spans="1:96">
       <c r="A92" s="1">
-        <v>40634</v>
+        <v>40678</v>
       </c>
       <c r="CE92">
         <v>0.2388710728550849</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="93" spans="1:96">
       <c r="A93" s="1">
-        <v>40725</v>
+        <v>40770</v>
       </c>
       <c r="CF93">
         <v>-3.537881715852962</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="94" spans="1:96">
       <c r="A94" s="1">
-        <v>40817</v>
+        <v>40862</v>
       </c>
       <c r="CG94">
         <v>0.2011900774154455</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="95" spans="1:96">
       <c r="A95" s="1">
-        <v>40909</v>
+        <v>40954</v>
       </c>
       <c r="CH95">
         <v>0.2546849506656574</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="96" spans="1:96">
       <c r="A96" s="1">
-        <v>41000</v>
+        <v>41044</v>
       </c>
       <c r="CI96">
         <v>0.224709232201645</v>
@@ -4016,7 +4016,7 @@
     </row>
     <row r="97" spans="1:112">
       <c r="A97" s="1">
-        <v>41091</v>
+        <v>41136</v>
       </c>
       <c r="CJ97">
         <v>0.2107645180205527</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="98" spans="1:112">
       <c r="A98" s="1">
-        <v>41183</v>
+        <v>41228</v>
       </c>
       <c r="CK98">
         <v>0.3351269373087902</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="99" spans="1:112">
       <c r="A99" s="1">
-        <v>41275</v>
+        <v>41320</v>
       </c>
       <c r="CL99">
         <v>0.3124457278110455</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="100" spans="1:112">
       <c r="A100" s="1">
-        <v>41365</v>
+        <v>41409</v>
       </c>
       <c r="CM100">
         <v>0.3236193611218596</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="101" spans="1:112">
       <c r="A101" s="1">
-        <v>41456</v>
+        <v>41501</v>
       </c>
       <c r="CN101">
         <v>0.3311771790053162</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="102" spans="1:112">
       <c r="A102" s="1">
-        <v>41548</v>
+        <v>41593</v>
       </c>
       <c r="CO102">
         <v>0.3329951904513869</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="103" spans="1:112">
       <c r="A103" s="1">
-        <v>41640</v>
+        <v>41685</v>
       </c>
       <c r="CP103">
         <v>0.3135025074225217</v>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="104" spans="1:112">
       <c r="A104" s="1">
-        <v>41730</v>
+        <v>41774</v>
       </c>
       <c r="CQ104">
         <v>0.2806074779818091</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="105" spans="1:112">
       <c r="A105" s="1">
-        <v>41821</v>
+        <v>41866</v>
       </c>
       <c r="CR105">
         <v>0.2801679101979176</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="106" spans="1:112">
       <c r="A106" s="1">
-        <v>41913</v>
+        <v>41958</v>
       </c>
       <c r="CS106">
         <v>0.2677687416237422</v>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="107" spans="1:112">
       <c r="A107" s="1">
-        <v>42005</v>
+        <v>42050</v>
       </c>
       <c r="CT107">
         <v>0.2921007786806501</v>
@@ -4401,7 +4401,7 @@
     </row>
     <row r="108" spans="1:112">
       <c r="A108" s="1">
-        <v>42095</v>
+        <v>42139</v>
       </c>
       <c r="CU108">
         <v>0.2660024526381063</v>
@@ -4436,7 +4436,7 @@
     </row>
     <row r="109" spans="1:112">
       <c r="A109" s="1">
-        <v>42186</v>
+        <v>42231</v>
       </c>
       <c r="CV109">
         <v>0.220644017625583</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="110" spans="1:112">
       <c r="A110" s="1">
-        <v>42278</v>
+        <v>42323</v>
       </c>
       <c r="CW110">
         <v>0.2710027786686307</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="111" spans="1:112">
       <c r="A111" s="1">
-        <v>42370</v>
+        <v>42415</v>
       </c>
       <c r="CX111">
         <v>0.2847114694401618</v>
@@ -4541,7 +4541,7 @@
     </row>
     <row r="112" spans="1:112">
       <c r="A112" s="1">
-        <v>42461</v>
+        <v>42505</v>
       </c>
       <c r="CY112">
         <v>0.2807459438331706</v>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="113" spans="1:128">
       <c r="A113" s="1">
-        <v>42552</v>
+        <v>42597</v>
       </c>
       <c r="CZ113">
         <v>0.3221454316454039</v>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="114" spans="1:128">
       <c r="A114" s="1">
-        <v>42644</v>
+        <v>42689</v>
       </c>
       <c r="DA114">
         <v>0.2609384773262192</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="115" spans="1:128">
       <c r="A115" s="1">
-        <v>42736</v>
+        <v>42781</v>
       </c>
       <c r="DB115">
         <v>0.2564250709748581</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="116" spans="1:128">
       <c r="A116" s="1">
-        <v>42826</v>
+        <v>42870</v>
       </c>
       <c r="DC116">
         <v>0.2967438468813496</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="117" spans="1:128">
       <c r="A117" s="1">
-        <v>42917</v>
+        <v>42962</v>
       </c>
       <c r="DD117">
         <v>0.3371950253855527</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="118" spans="1:128">
       <c r="A118" s="1">
-        <v>43009</v>
+        <v>43054</v>
       </c>
       <c r="DE118">
         <v>0.3352644356990351</v>
@@ -4786,7 +4786,7 @@
     </row>
     <row r="119" spans="1:128">
       <c r="A119" s="1">
-        <v>43101</v>
+        <v>43146</v>
       </c>
       <c r="DF119">
         <v>0.3217409716921215</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="120" spans="1:128">
       <c r="A120" s="1">
-        <v>43191</v>
+        <v>43235</v>
       </c>
       <c r="DG120">
         <v>0.3209525915776365</v>
@@ -4856,7 +4856,7 @@
     </row>
     <row r="121" spans="1:128">
       <c r="A121" s="1">
-        <v>43282</v>
+        <v>43327</v>
       </c>
       <c r="DH121">
         <v>0.3488283601555589</v>
@@ -4891,7 +4891,7 @@
     </row>
     <row r="122" spans="1:128">
       <c r="A122" s="1">
-        <v>43374</v>
+        <v>43419</v>
       </c>
       <c r="DI122">
         <v>0.3485738507804204</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="123" spans="1:128">
       <c r="A123" s="1">
-        <v>43466</v>
+        <v>43511</v>
       </c>
       <c r="DJ123">
         <v>0.3615914904741485</v>
@@ -4961,7 +4961,7 @@
     </row>
     <row r="124" spans="1:128">
       <c r="A124" s="1">
-        <v>43556</v>
+        <v>43600</v>
       </c>
       <c r="DK124">
         <v>0.3678524088463094</v>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="125" spans="1:128">
       <c r="A125" s="1">
-        <v>43647</v>
+        <v>43692</v>
       </c>
       <c r="DL125">
         <v>0.3925643700821442</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="126" spans="1:128">
       <c r="A126" s="1">
-        <v>43739</v>
+        <v>43784</v>
       </c>
       <c r="DM126">
         <v>0.3899921913915132</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="127" spans="1:128">
       <c r="A127" s="1">
-        <v>43831</v>
+        <v>43876</v>
       </c>
       <c r="DN127">
         <v>0.3953897973442962</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="128" spans="1:128">
       <c r="A128" s="1">
-        <v>43922</v>
+        <v>43966</v>
       </c>
       <c r="DO128">
         <v>0.4020799810389358</v>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="129" spans="1:144">
       <c r="A129" s="1">
-        <v>44013</v>
+        <v>44058</v>
       </c>
       <c r="DP129">
         <v>0.3738394331660842</v>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="130" spans="1:144">
       <c r="A130" s="1">
-        <v>44105</v>
+        <v>44150</v>
       </c>
       <c r="DQ130">
         <v>0.350308898855604</v>
@@ -5206,7 +5206,7 @@
     </row>
     <row r="131" spans="1:144">
       <c r="A131" s="1">
-        <v>44197</v>
+        <v>44242</v>
       </c>
       <c r="DR131">
         <v>0.3243723156964315</v>
@@ -5241,7 +5241,7 @@
     </row>
     <row r="132" spans="1:144">
       <c r="A132" s="1">
-        <v>44287</v>
+        <v>44331</v>
       </c>
       <c r="DS132">
         <v>0.2989670496166398</v>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="133" spans="1:144">
       <c r="A133" s="1">
-        <v>44378</v>
+        <v>44423</v>
       </c>
       <c r="DT133">
         <v>0.3179359431977336</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="134" spans="1:144">
       <c r="A134" s="1">
-        <v>44470</v>
+        <v>44515</v>
       </c>
       <c r="DU134">
         <v>0.2983213395070359</v>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="135" spans="1:144">
       <c r="A135" s="1">
-        <v>44562</v>
+        <v>44607</v>
       </c>
       <c r="DV135">
         <v>0.2911843299800446</v>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="136" spans="1:144">
       <c r="A136" s="1">
-        <v>44652</v>
+        <v>44696</v>
       </c>
       <c r="DW136">
         <v>0.2801824178062259</v>
@@ -5416,7 +5416,7 @@
     </row>
     <row r="137" spans="1:144">
       <c r="A137" s="1">
-        <v>44743</v>
+        <v>44788</v>
       </c>
       <c r="DX137">
         <v>0.180796591657356</v>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="138" spans="1:144">
       <c r="A138" s="1">
-        <v>44835</v>
+        <v>44880</v>
       </c>
       <c r="DY138">
         <v>-1.184375286040335</v>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="139" spans="1:144">
       <c r="A139" s="1">
-        <v>44927</v>
+        <v>44972</v>
       </c>
       <c r="DZ139">
         <v>0.2014126679346297</v>
@@ -5521,7 +5521,7 @@
     </row>
     <row r="140" spans="1:144">
       <c r="A140" s="1">
-        <v>45017</v>
+        <v>45061</v>
       </c>
       <c r="EA140">
         <v>0.2310675656625323</v>
@@ -5556,7 +5556,7 @@
     </row>
     <row r="141" spans="1:144">
       <c r="A141" s="1">
-        <v>45108</v>
+        <v>45153</v>
       </c>
       <c r="EB141">
         <v>0.3009015042266514</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="142" spans="1:144">
       <c r="A142" s="1">
-        <v>45200</v>
+        <v>45245</v>
       </c>
       <c r="EC142">
         <v>0.3541979431822899</v>
@@ -5626,7 +5626,7 @@
     </row>
     <row r="143" spans="1:144">
       <c r="A143" s="1">
-        <v>45292</v>
+        <v>45337</v>
       </c>
       <c r="ED143">
         <v>0.3917538843816368</v>
@@ -5661,7 +5661,7 @@
     </row>
     <row r="144" spans="1:144">
       <c r="A144" s="1">
-        <v>45383</v>
+        <v>45427</v>
       </c>
       <c r="EE144">
         <v>0.3953442544735015</v>
@@ -5696,7 +5696,7 @@
     </row>
     <row r="145" spans="1:150">
       <c r="A145" s="1">
-        <v>45474</v>
+        <v>45519</v>
       </c>
       <c r="EF145">
         <v>0.3891559537672726</v>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="146" spans="1:150">
       <c r="A146" s="1">
-        <v>45566</v>
+        <v>45611</v>
       </c>
       <c r="EG146">
         <v>0.3700202220727796</v>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="147" spans="1:150">
       <c r="A147" s="1">
-        <v>45658</v>
+        <v>45703</v>
       </c>
       <c r="EH147">
         <v>0.3543969433309027</v>
@@ -5801,7 +5801,7 @@
     </row>
     <row r="148" spans="1:150">
       <c r="A148" s="1">
-        <v>45748</v>
+        <v>45792</v>
       </c>
       <c r="EI148">
         <v>0.3304428394308724</v>
@@ -5836,7 +5836,7 @@
     </row>
     <row r="149" spans="1:150">
       <c r="A149" s="1">
-        <v>45839</v>
+        <v>45884</v>
       </c>
       <c r="EJ149">
         <v>0.2970525035592049</v>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="150" spans="1:150">
       <c r="A150" s="1">
-        <v>45931</v>
+        <v>45976</v>
       </c>
       <c r="EK150">
         <v>0.2891463708128647</v>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="151" spans="1:150">
       <c r="A151" s="1">
-        <v>46023</v>
+        <v>46068</v>
       </c>
       <c r="EL151">
         <v>0.2725549194311268</v>
@@ -5938,7 +5938,7 @@
     </row>
     <row r="152" spans="1:150">
       <c r="A152" s="1">
-        <v>46113</v>
+        <v>46157</v>
       </c>
       <c r="EM152">
         <v>0.269570734839869</v>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="153" spans="1:150">
       <c r="A153" s="1">
-        <v>46204</v>
+        <v>46249</v>
       </c>
       <c r="EN153">
         <v>0.268603751091444</v>
@@ -5993,7 +5993,7 @@
     </row>
     <row r="154" spans="1:150">
       <c r="A154" s="1">
-        <v>46296</v>
+        <v>46341</v>
       </c>
       <c r="EO154">
         <v>0.2627229416938779</v>
@@ -6016,7 +6016,7 @@
     </row>
     <row r="155" spans="1:150">
       <c r="A155" s="1">
-        <v>46388</v>
+        <v>46433</v>
       </c>
       <c r="EP155">
         <v>0.2574131067017447</v>
@@ -6036,7 +6036,7 @@
     </row>
     <row r="156" spans="1:150">
       <c r="A156" s="1">
-        <v>46478</v>
+        <v>46522</v>
       </c>
       <c r="EQ156">
         <v>0.2564832234979763</v>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="157" spans="1:150">
       <c r="A157" s="1">
-        <v>46569</v>
+        <v>46614</v>
       </c>
       <c r="ER157">
         <v>0.2698795517146473</v>
@@ -6067,7 +6067,7 @@
     </row>
     <row r="158" spans="1:150">
       <c r="A158" s="1">
-        <v>46661</v>
+        <v>46706</v>
       </c>
       <c r="ES158">
         <v>0.2540619289758381</v>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="159" spans="1:150">
       <c r="A159" s="1">
-        <v>46753</v>
+        <v>46798</v>
       </c>
       <c r="ET159">
         <v>0.244659491253809</v>
